--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7140DE3-A53A-D34C-8C0D-EA331AAFC245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFC2B80-52E9-1D43-B739-CCB565A3B9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="159">
   <si>
     <t>Birde</t>
   </si>
@@ -225,18 +225,6 @@
     <t>达到此场要求的球的价值加和</t>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -261,15 +249,6 @@
     <t>价值</t>
   </si>
   <si>
-    <t>橙卡场 -1个弹球</t>
-  </si>
-  <si>
-    <t>传奇场 -2个弹球</t>
-  </si>
-  <si>
-    <t>紫卡场-2个弹球</t>
-  </si>
-  <si>
     <t>1.难度指数波动向上</t>
   </si>
   <si>
@@ -465,12 +444,6 @@
     <t>紫10</t>
   </si>
   <si>
-    <t>紫11</t>
-  </si>
-  <si>
-    <t>紫12</t>
-  </si>
-  <si>
     <t>橙3</t>
   </si>
   <si>
@@ -495,15 +468,6 @@
     <t>橙10</t>
   </si>
   <si>
-    <t>橙11</t>
-  </si>
-  <si>
-    <t>橙12</t>
-  </si>
-  <si>
-    <t>橙13</t>
-  </si>
-  <si>
     <t>卡&amp;等级</t>
   </si>
   <si>
@@ -514,6 +478,45 @@
   </si>
   <si>
     <t>卡片库</t>
+  </si>
+  <si>
+    <t>Lv1</t>
+  </si>
+  <si>
+    <t>Lv2</t>
+  </si>
+  <si>
+    <t>Lv3</t>
+  </si>
+  <si>
+    <t>Lv4</t>
+  </si>
+  <si>
+    <t>Lv5</t>
+  </si>
+  <si>
+    <t>Lv6</t>
+  </si>
+  <si>
+    <t>Lv7</t>
+  </si>
+  <si>
+    <t>Lv8</t>
+  </si>
+  <si>
+    <t>Lv9</t>
+  </si>
+  <si>
+    <t>Lv10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传奇场 </t>
+  </si>
+  <si>
+    <t>传奇9</t>
+  </si>
+  <si>
+    <t>传奇10</t>
   </si>
 </sst>
 </file>
@@ -615,17 +618,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -635,6 +632,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dungeon!$G$1:$G$2</c:f>
+              <c:f>Dungeon!$G$2:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
               </c:strCache>
@@ -727,7 +731,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dungeon!$G$3:$G$63</c:f>
+              <c:f>Dungeon!$G$4:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -735,43 +739,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>353.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>353.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>314.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>314.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>463.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>463.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -3924,13 +3928,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>207432</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4373,22 +4377,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -4482,10 +4486,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -4561,8 +4565,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -4636,8 +4640,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4711,8 +4715,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -4788,8 +4792,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -4854,8 +4858,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -4911,8 +4915,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -4956,8 +4960,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -4996,8 +5000,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -5036,8 +5040,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -5078,8 +5082,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -5118,8 +5122,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -5158,10 +5162,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -5202,8 +5206,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -5245,8 +5249,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5285,8 +5289,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -5327,8 +5331,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -5367,8 +5371,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5407,8 +5411,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -5449,8 +5453,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -5489,8 +5493,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5529,10 +5533,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -5573,8 +5577,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -5613,8 +5617,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5653,8 +5657,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -5695,8 +5699,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -5735,8 +5739,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -5775,8 +5779,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -5817,8 +5821,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -5857,8 +5861,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -5897,10 +5901,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -5941,8 +5945,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -5981,8 +5985,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6022,6 +6026,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -6034,12 +6044,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6052,7 +6056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189F3F05-2483-004A-8615-441A100C4EE4}">
   <dimension ref="X11:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -6103,10 +6107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6117,965 +6121,1265 @@
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="M2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <f>C4&amp;" - " &amp;D4</f>
-        <v>橙1 - 1</v>
-      </c>
-      <c r="F4" t="str">
-        <f>TEXT(SUBSTITUTE(C4,RIGHT(C4,1),"")&amp;D4,0)</f>
-        <v>橙1</v>
-      </c>
-      <c r="G4">
-        <f>VLOOKUP(F4,Sheet2!C:D,2,FALSE)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E36" si="0">C5&amp;" - " &amp;D5</f>
-        <v>橙2 - 1</v>
+        <f>C5&amp;" - " &amp;"Lv"&amp;D5</f>
+        <v>橙1 - Lv1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F16" si="1">TEXT(SUBSTITUTE(C5,RIGHT(C5,1),"")&amp;D5,0)</f>
+        <f>TEXT(SUBSTITUTE(C5,RIGHT(C5,1),"")&amp;D5,0)</f>
         <v>橙1</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(F5,Sheet2!C:D,2,FALSE)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+        <f>VLOOKUP(F5,Sheet2!C:E,3,FALSE)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E17" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
+        <v>橙2 - Lv1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F17" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
+        <v>橙1</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(F6,Sheet2!C:E,3,FALSE)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>橙1 - 2</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>橙2</v>
-      </c>
-      <c r="G6">
-        <f>VLOOKUP(F6,Sheet2!C:D,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>橙2 - 2</v>
+        <v>橙1 - Lv2</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>橙2</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(F7,Sheet2!C:D,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>5</v>
+        <f>VLOOKUP(F7,Sheet2!C:E,3,FALSE)</f>
+        <v>353.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>紫1 - 1</v>
+        <v>橙2 - Lv2</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>紫1</v>
+        <v>橙2</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(F8,Sheet2!C:D,2,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
+        <f>VLOOKUP(F8,Sheet2!C:E,3,FALSE)</f>
+        <v>353.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>橙1 - 3</v>
+        <v>紫1 - Lv1</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>橙3</v>
+        <v>紫1</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(F9,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F9,Sheet2!C:E,3,FALSE)</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>紫2 - 1</v>
+        <v>橙1 - Lv3</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>紫1</v>
+        <v>橙3</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(F10,Sheet2!C:D,2,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(F10,Sheet2!C:E,3,FALSE)</f>
+        <v>314.40000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>橙2 - 3</v>
+        <v>紫2 - Lv1</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>橙3</v>
+        <v>紫1</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(F11,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F11,Sheet2!C:E,3,FALSE)</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12">
         <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>紫3 - 1</v>
+        <v>橙2 - Lv3</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>紫1</v>
+        <v>橙3</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(F12,Sheet2!C:D,2,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(F12,Sheet2!C:E,3,FALSE)</f>
+        <v>314.40000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>紫4 - 1</v>
+        <v>紫3 - Lv1</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(F13,Sheet2!C:D,2,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(F13,Sheet2!C:E,3,FALSE)</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>橙1 - 4</v>
+        <v>紫4 - Lv1</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>橙4</v>
+        <v>紫1</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(F14,Sheet2!C:D,2,FALSE)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(F14,Sheet2!C:E,3,FALSE)</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>紫1 - 3</v>
+        <v>橙1 - Lv4</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>紫3</v>
+        <v>橙4</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(F15,Sheet2!C:D,2,FALSE)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(F15,Sheet2!C:E,3,FALSE)</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>紫2 - 3</v>
+        <v>紫1 - Lv3</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(F16,Sheet2!C:D,2,FALSE)</f>
-        <v>9</v>
+        <f>VLOOKUP(F16,Sheet2!C:E,3,FALSE)</f>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G17" t="e">
-        <f>VLOOKUP(F17,Sheet2!C:D,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>紫2 - Lv3</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>紫3</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(F17,Sheet2!C:E,3,FALSE)</f>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E6:E37" si="2">C18&amp;" - " &amp;D18</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G18" t="e">
-        <f>VLOOKUP(F18,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F18,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G19" t="e">
-        <f>VLOOKUP(F19,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F19,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G20" t="e">
-        <f>VLOOKUP(F20,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F20,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G21" t="e">
-        <f>VLOOKUP(F21,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F21,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G22" t="e">
-        <f>VLOOKUP(F22,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F22,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G23" t="e">
-        <f>VLOOKUP(F23,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F23,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G24" t="e">
-        <f>VLOOKUP(F24,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F24,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="str">
-        <f>C25&amp;" - " &amp;D25</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G25" t="e">
-        <f>VLOOKUP(F25,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F25,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f>C26&amp;" - " &amp;D26</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G26" t="e">
-        <f>VLOOKUP(F26,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F26,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G27" t="e">
-        <f>VLOOKUP(F27,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F27,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G28" t="e">
-        <f>VLOOKUP(F28,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F28,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
-      </c>
-      <c r="M28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G29" t="e">
-        <f>VLOOKUP(F29,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F29,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>133</v>
-      </c>
-      <c r="R29" t="s">
-        <v>134</v>
-      </c>
-      <c r="S29" t="s">
-        <v>155</v>
-      </c>
-      <c r="T29" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G30" t="e">
-        <f>VLOOKUP(F30,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F30,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>126</v>
+      </c>
+      <c r="R30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30" t="s">
+        <v>143</v>
+      </c>
+      <c r="T30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G31" t="e">
-        <f>VLOOKUP(F31,Sheet2!C:D,2,FALSE)</f>
+        <f>VLOOKUP(F31,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
+      </c>
+      <c r="M31" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" t="s">
+        <v>146</v>
+      </c>
+      <c r="O31" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>146</v>
+      </c>
+      <c r="R31" t="s">
+        <v>146</v>
+      </c>
+      <c r="S31" t="s">
+        <v>146</v>
+      </c>
+      <c r="T31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G32" t="e">
+        <f>VLOOKUP(F32,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="s">
+        <v>147</v>
+      </c>
+      <c r="N32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O32" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>147</v>
+      </c>
+      <c r="R32" t="s">
+        <v>147</v>
+      </c>
+      <c r="S32" t="s">
+        <v>147</v>
+      </c>
+      <c r="T32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>29</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G32" t="e">
-        <f>VLOOKUP(F32,Sheet2!C:D,2,FALSE)</f>
+      <c r="G33" t="e">
+        <f>VLOOKUP(F33,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="M33" t="s">
+        <v>148</v>
+      </c>
+      <c r="N33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>148</v>
+      </c>
+      <c r="R33" t="s">
+        <v>148</v>
+      </c>
+      <c r="S33" t="s">
+        <v>148</v>
+      </c>
+      <c r="T33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G33" t="e">
-        <f>VLOOKUP(F33,Sheet2!C:D,2,FALSE)</f>
+      <c r="G34" t="e">
+        <f>VLOOKUP(F34,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="M34" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" t="s">
+        <v>149</v>
+      </c>
+      <c r="O34" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>149</v>
+      </c>
+      <c r="R34" t="s">
+        <v>149</v>
+      </c>
+      <c r="S34" t="s">
+        <v>149</v>
+      </c>
+      <c r="T34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>31</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G34" t="e">
-        <f>VLOOKUP(F34,Sheet2!C:D,2,FALSE)</f>
+      <c r="G35" t="e">
+        <f>VLOOKUP(F35,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="M35" t="s">
+        <v>150</v>
+      </c>
+      <c r="N35" t="s">
+        <v>150</v>
+      </c>
+      <c r="O35" t="s">
+        <v>150</v>
+      </c>
+      <c r="P35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>150</v>
+      </c>
+      <c r="R35" t="s">
+        <v>150</v>
+      </c>
+      <c r="S35" t="s">
+        <v>150</v>
+      </c>
+      <c r="T35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>32</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G35" t="e">
-        <f>VLOOKUP(F35,Sheet2!C:D,2,FALSE)</f>
+      <c r="G36" t="e">
+        <f>VLOOKUP(F36,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="M36" t="s">
+        <v>151</v>
+      </c>
+      <c r="N36" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" t="s">
+        <v>151</v>
+      </c>
+      <c r="P36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>151</v>
+      </c>
+      <c r="R36" t="s">
+        <v>151</v>
+      </c>
+      <c r="S36" t="s">
+        <v>151</v>
+      </c>
+      <c r="T36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>33</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G36" t="e">
-        <f>VLOOKUP(F36,Sheet2!C:D,2,FALSE)</f>
+      <c r="G37" t="e">
+        <f>VLOOKUP(F37,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="M37" t="s">
+        <v>152</v>
+      </c>
+      <c r="N37" t="s">
+        <v>152</v>
+      </c>
+      <c r="O37" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>152</v>
+      </c>
+      <c r="R37" t="s">
+        <v>152</v>
+      </c>
+      <c r="S37" t="s">
+        <v>152</v>
+      </c>
+      <c r="T37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>34</v>
       </c>
-      <c r="G37" t="e">
-        <f>VLOOKUP(F37,Sheet2!C:D,2,FALSE)</f>
+      <c r="G38" t="e">
+        <f>VLOOKUP(F38,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="M38" t="s">
+        <v>153</v>
+      </c>
+      <c r="N38" t="s">
+        <v>153</v>
+      </c>
+      <c r="O38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P38" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>153</v>
+      </c>
+      <c r="R38" t="s">
+        <v>153</v>
+      </c>
+      <c r="S38" t="s">
+        <v>153</v>
+      </c>
+      <c r="T38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>35</v>
       </c>
-      <c r="G38" t="e">
-        <f>VLOOKUP(F38,Sheet2!C:D,2,FALSE)</f>
+      <c r="G39" t="e">
+        <f>VLOOKUP(F39,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="M39" t="s">
+        <v>154</v>
+      </c>
+      <c r="N39" t="s">
+        <v>154</v>
+      </c>
+      <c r="O39" t="s">
+        <v>154</v>
+      </c>
+      <c r="P39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>154</v>
+      </c>
+      <c r="R39" t="s">
+        <v>154</v>
+      </c>
+      <c r="S39" t="s">
+        <v>154</v>
+      </c>
+      <c r="T39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="M40" t="s">
+        <v>155</v>
+      </c>
+      <c r="N40" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>155</v>
+      </c>
+      <c r="R40" t="s">
+        <v>155</v>
+      </c>
+      <c r="S40" t="s">
+        <v>155</v>
+      </c>
+      <c r="T40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="G4" evalError="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7084,8 +7388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView topLeftCell="A11" zoomScale="98" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7106,511 +7410,613 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="13">
-        <v>40</v>
+      <c r="C3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="11">
+        <f>VLOOKUP(B3,$F$43:$I$53,2,FALSE)</f>
+        <v>1440</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="11">
+        <f>VLOOKUP(B4,$F$43:$I$53,2,FALSE)</f>
+        <v>1440</v>
+      </c>
+      <c r="E4">
+        <f>E3*0.9</f>
+        <v>1296</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="11">
+        <f>VLOOKUP(B5,$F$43:$I$53,2,FALSE)</f>
+        <v>1440</v>
+      </c>
+      <c r="E5">
+        <f>E3*0.8</f>
+        <v>1152</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="11">
+        <f>VLOOKUP(B6,$F$43:$I$53,2,FALSE)</f>
+        <v>3440</v>
+      </c>
+      <c r="E6">
+        <f>D6</f>
+        <v>3440</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="11">
+        <f>VLOOKUP(B7,$F$43:$I$53,2,FALSE)</f>
+        <v>3440</v>
+      </c>
+      <c r="E7">
+        <f>E6*0.9</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="11">
+        <f>VLOOKUP(B8,$F$43:$I$53,2,FALSE)</f>
+        <v>3440</v>
+      </c>
+      <c r="E8">
+        <f>E6*0.8</f>
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="11">
+        <f>VLOOKUP(B9,$F$43:$I$53,2,FALSE)</f>
+        <v>7440</v>
+      </c>
+      <c r="E9">
+        <f>D9</f>
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="11">
+        <f>VLOOKUP(B10,$F$43:$I$53,2,FALSE)</f>
+        <v>7440</v>
+      </c>
+      <c r="E10">
+        <f>E9*0.9</f>
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="11">
+        <f>VLOOKUP(B11,$F$43:$I$53,2,FALSE)</f>
+        <v>7440</v>
+      </c>
+      <c r="E11">
+        <f>E9*0.8</f>
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="11">
+        <f>VLOOKUP(B12,$F$43:$I$53,2,FALSE)</f>
+        <v>15440</v>
+      </c>
+      <c r="E12">
+        <f>D12</f>
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="10">
+        <f>VLOOKUP(B14,$F$43:$I$53,3,FALSE)</f>
+        <v>579</v>
+      </c>
+      <c r="E14">
+        <f>D14</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="10">
+        <f>VLOOKUP(B15,$F$43:$I$53,3,FALSE)</f>
+        <v>579</v>
+      </c>
+      <c r="E15">
+        <f>E14*0.9</f>
+        <v>521.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="8">
-        <f>P84</f>
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="D16" s="10">
+        <f>VLOOKUP(B16,$F$43:$I$53,3,FALSE)</f>
+        <v>579</v>
+      </c>
+      <c r="E16">
+        <f>E14*0.8</f>
+        <v>463.20000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="10">
+        <f>VLOOKUP(B17,$F$43:$I$53,3,FALSE)</f>
+        <v>1179</v>
+      </c>
+      <c r="E17">
+        <f>D17</f>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="10">
+        <f>VLOOKUP(B18,$F$43:$I$53,3,FALSE)</f>
+        <v>1179</v>
+      </c>
+      <c r="E18">
+        <f>E17*0.9</f>
+        <v>1061.1000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="10">
+        <f>VLOOKUP(B19,$F$43:$I$53,3,FALSE)</f>
+        <v>1179</v>
+      </c>
+      <c r="E19">
+        <f>E17*0.8</f>
+        <v>943.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="10">
+        <f>VLOOKUP(B20,$F$43:$I$53,3,FALSE)</f>
+        <v>2379</v>
+      </c>
+      <c r="E20">
+        <f>D20</f>
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="10">
+        <f>VLOOKUP(B21,$F$43:$I$53,3,FALSE)</f>
+        <v>2379</v>
+      </c>
+      <c r="E21">
+        <f>E20*0.9</f>
+        <v>2141.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="10">
+        <f>VLOOKUP(B22,$F$43:$I$53,3,FALSE)</f>
+        <v>2379</v>
+      </c>
+      <c r="E22">
+        <f>E20*0.8</f>
+        <v>1903.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="10">
+        <f>VLOOKUP(B23,$F$43:$I$53,3,FALSE)</f>
+        <v>3879</v>
+      </c>
+      <c r="E23">
+        <f>D23</f>
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="9">
+        <f>VLOOKUP(B25,$F$43:$I$53,4,FALSE)</f>
+        <v>393</v>
+      </c>
+      <c r="E25">
+        <f>D25</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:D34" si="0">VLOOKUP(B26,$F$43:$I$53,4,FALSE)</f>
+        <v>393</v>
+      </c>
+      <c r="E26">
+        <f>E25*0.9</f>
+        <v>353.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" ref="D5:D10" si="0">P85</f>
-        <v>240</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="C27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="E27">
+        <f>E25*0.8</f>
+        <v>314.40000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="8">
+        <v>793</v>
+      </c>
+      <c r="E28">
+        <f>D28</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="8">
+        <v>793</v>
+      </c>
+      <c r="E29">
+        <f>E28*0.9</f>
+        <v>713.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="8">
+        <v>793</v>
+      </c>
+      <c r="E30">
+        <f>E28*0.8</f>
+        <v>634.40000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>7440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="8">
+        <v>1293</v>
+      </c>
+      <c r="E31">
+        <f>D31</f>
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
-        <v>15440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="7">
-        <f>O84</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ref="D14:D23" si="1">O85</f>
+        <v>1293</v>
+      </c>
+      <c r="E32">
+        <f>E31*0.9</f>
+        <v>1163.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="7">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="1"/>
-        <v>579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="7">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="C33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>1293</v>
+      </c>
+      <c r="E33">
+        <f>E31*0.8</f>
+        <v>1034.4000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="1"/>
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="1"/>
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="7">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="1"/>
-        <v>6879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="9">
-        <v>2</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="9">
-        <f>N84</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="9">
-        <f>N85</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="9">
-        <v>4</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="9">
-        <f>N86</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="9">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="9">
-        <f>N87</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="9">
-        <v>6</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="9">
-        <f>N88</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="9">
-        <v>7</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="9">
-        <f>N89</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="9">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="9">
-        <f>N90</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="9">
-        <v>9</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="9">
-        <f>N91</f>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="9">
-        <v>10</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="D34" s="9">
-        <f>N92</f>
-        <v>793</v>
+        <f t="shared" si="0"/>
+        <v>2293</v>
+      </c>
+      <c r="E34">
+        <f>D34</f>
+        <v>2293</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="9">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="9">
-        <f>N93</f>
-        <v>1293</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="9">
-        <v>12</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="9">
-        <f>N94</f>
-        <v>2293</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="9">
-        <v>13</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="9">
-        <f>N95</f>
-        <v>4793</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -7618,11 +8024,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -7631,20 +8037,23 @@
       <c r="B43" t="s">
         <v>55</v>
       </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
       <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" t="s">
         <v>57</v>
-      </c>
-      <c r="G43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" t="s">
-        <v>73</v>
       </c>
       <c r="M43" t="s">
         <v>58</v>
@@ -7654,14 +8063,29 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
         <v>9</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>VLOOKUP(B44,$N$83:$Q$95,4,FALSE)</f>
+        <v>1440</v>
+      </c>
+      <c r="H44">
+        <f>VLOOKUP(C44,$N$83:$Q$95,3,FALSE)</f>
+        <v>579</v>
+      </c>
+      <c r="I44">
+        <f>VLOOKUP(D44,$N$83:$Q$95,2,FALSE)</f>
+        <v>393</v>
       </c>
       <c r="M44" t="s">
         <v>59</v>
@@ -7671,14 +8095,29 @@
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
         <v>9</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G53" si="1">VLOOKUP(B45,$N$83:$Q$95,4,FALSE)</f>
+        <v>1440</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H53" si="2">VLOOKUP(C45,$N$83:$Q$95,3,FALSE)</f>
+        <v>579</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I53" si="3">VLOOKUP(D45,$N$83:$Q$95,2,FALSE)</f>
+        <v>393</v>
       </c>
       <c r="M45" t="s">
         <v>60</v>
@@ -7688,159 +8127,279 @@
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
         <v>9</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>579</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
         <v>10</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>3440</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1179</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>793</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
         <v>10</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>3440</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1179</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
         <v>10</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>3440</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>1179</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>793</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50">
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
         <v>11</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>7440</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>2379</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>1293</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51">
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
         <v>11</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>7440</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>2379</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>1293</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9</v>
       </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52">
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
         <v>11</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>7440</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>2379</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>1293</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53">
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
         <v>12</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>15440</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>3879</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>2293</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s">
+      <c r="J62" t="s">
         <v>80</v>
       </c>
-      <c r="D62" t="s">
+      <c r="K62" t="s">
         <v>81</v>
       </c>
-      <c r="E62" t="s">
+      <c r="L62" t="s">
         <v>82</v>
       </c>
-      <c r="F62" t="s">
+      <c r="M62" t="s">
         <v>83</v>
       </c>
-      <c r="G62" t="s">
+      <c r="N62" t="s">
         <v>84</v>
       </c>
-      <c r="H62" t="s">
+      <c r="O62" t="s">
         <v>85</v>
       </c>
-      <c r="I62" t="s">
+      <c r="P62" t="s">
         <v>86</v>
-      </c>
-      <c r="J62" t="s">
-        <v>87</v>
-      </c>
-      <c r="K62" t="s">
-        <v>88</v>
-      </c>
-      <c r="L62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" t="s">
-        <v>90</v>
-      </c>
-      <c r="N62" t="s">
-        <v>91</v>
-      </c>
-      <c r="O62" t="s">
-        <v>92</v>
-      </c>
-      <c r="P62" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -7892,49 +8451,49 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
         <v>94</v>
       </c>
-      <c r="B65" t="s">
+      <c r="J65" t="s">
         <v>95</v>
       </c>
-      <c r="D65" t="s">
+      <c r="K65" t="s">
         <v>96</v>
       </c>
-      <c r="E65" t="s">
+      <c r="L65" t="s">
         <v>97</v>
       </c>
-      <c r="F65" t="s">
+      <c r="M65" t="s">
         <v>98</v>
       </c>
-      <c r="G65" t="s">
+      <c r="N65" t="s">
         <v>99</v>
       </c>
-      <c r="H65" t="s">
+      <c r="O65" t="s">
         <v>100</v>
       </c>
-      <c r="I65" t="s">
+      <c r="P65" t="s">
         <v>101</v>
-      </c>
-      <c r="J65" t="s">
-        <v>102</v>
-      </c>
-      <c r="K65" t="s">
-        <v>103</v>
-      </c>
-      <c r="L65" t="s">
-        <v>104</v>
-      </c>
-      <c r="M65" t="s">
-        <v>105</v>
-      </c>
-      <c r="N65" t="s">
-        <v>106</v>
-      </c>
-      <c r="O65" t="s">
-        <v>107</v>
-      </c>
-      <c r="P65" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -7986,13 +8545,13 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -8040,77 +8599,77 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>5</v>
       </c>
-      <c r="B73" s="6">
-        <v>0</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6">
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
+      <c r="J75" t="s">
         <v>80</v>
       </c>
-      <c r="D75" t="s">
+      <c r="K75" t="s">
         <v>81</v>
       </c>
-      <c r="E75" t="s">
+      <c r="L75" t="s">
         <v>82</v>
       </c>
-      <c r="F75" t="s">
+      <c r="M75" t="s">
         <v>83</v>
       </c>
-      <c r="G75" t="s">
+      <c r="N75" t="s">
         <v>84</v>
       </c>
-      <c r="H75" t="s">
+      <c r="O75" t="s">
         <v>85</v>
       </c>
-      <c r="I75" t="s">
+      <c r="P75" t="s">
         <v>86</v>
       </c>
-      <c r="J75" t="s">
-        <v>87</v>
-      </c>
-      <c r="K75" t="s">
-        <v>88</v>
-      </c>
-      <c r="L75" t="s">
-        <v>89</v>
-      </c>
-      <c r="M75" t="s">
-        <v>90</v>
-      </c>
-      <c r="N75" t="s">
-        <v>91</v>
-      </c>
-      <c r="O75" t="s">
-        <v>92</v>
-      </c>
-      <c r="P75" t="s">
-        <v>93</v>
-      </c>
       <c r="Q75" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R75" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S75" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="T75" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="U75" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -8176,128 +8735,128 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="J78" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6" t="s">
+      <c r="K78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="L78" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="M78" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="N78" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="O78" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="P78" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P78" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="T78" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="U78" s="6" t="s">
-        <v>121</v>
+      <c r="Q78" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>2</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4">
         <v>4</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4">
         <v>10</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="4">
         <v>20</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="4">
         <v>50</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="4">
         <v>100</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="4">
         <v>200</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="4">
         <v>400</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="4">
         <v>800</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="4">
         <v>1000</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="4">
         <v>1800</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79" s="4">
         <v>2600</v>
       </c>
-      <c r="N79" s="6">
+      <c r="N79" s="4">
         <v>3400</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="4">
         <v>4200</v>
       </c>
-      <c r="P79" s="6">
+      <c r="P79" s="4">
         <v>10000</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="Q79" s="4">
         <v>50000</v>
       </c>
-      <c r="R79" s="6">
+      <c r="R79" s="4">
         <v>100000</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="4">
         <v>200000</v>
       </c>
-      <c r="T79" s="6">
+      <c r="T79" s="4">
         <v>400000</v>
       </c>
-      <c r="U79" s="6">
+      <c r="U79" s="4">
         <v>1000000</v>
       </c>
     </row>
@@ -8321,21 +8880,24 @@
         <v>51</v>
       </c>
       <c r="N83" t="s">
+        <v>28</v>
+      </c>
+      <c r="O83" t="s">
         <v>53</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>52</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>51</v>
       </c>
       <c r="S83" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8354,31 +8916,34 @@
         <v>2</v>
       </c>
       <c r="J84">
-        <f>D84*$T$84</f>
+        <f t="shared" ref="J84:J95" si="4">D84*$T$84</f>
         <v>12</v>
       </c>
       <c r="K84">
-        <f>D84*$T$85</f>
+        <f t="shared" ref="K84:K94" si="5">D84*$T$85</f>
         <v>120</v>
       </c>
       <c r="L84">
-        <f>D84*$T$86</f>
+        <f t="shared" ref="L84:L90" si="6">D84*$T$86</f>
         <v>3200</v>
       </c>
       <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <f>J84/12</f>
         <v>1</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <f>K84/40</f>
         <v>3</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <f>L84/40</f>
         <v>80</v>
       </c>
       <c r="S84" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="T84">
         <v>6</v>
@@ -8386,7 +8951,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -8405,31 +8970,34 @@
         <v>3</v>
       </c>
       <c r="J85">
-        <f>D85*$T$84</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="K85">
-        <f>D85*$T$85</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="L85">
-        <f>D85*$T$86</f>
+        <f t="shared" si="6"/>
         <v>9600</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85:N95" si="2">J85/12</f>
         <v>3</v>
       </c>
       <c r="O85">
-        <f t="shared" ref="O85:O94" si="3">K85/40</f>
+        <f>J85/12</f>
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <f>K85/40</f>
         <v>9</v>
       </c>
-      <c r="P85">
-        <f t="shared" ref="P85:P90" si="4">L85/40</f>
+      <c r="Q85">
+        <f>L85/40</f>
         <v>240</v>
       </c>
       <c r="S85" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="T85">
         <v>60</v>
@@ -8437,7 +9005,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -8456,27 +9024,30 @@
         <v>4</v>
       </c>
       <c r="J86">
-        <f>D86*$T$84</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="K86">
-        <f>D86*$T$85</f>
+        <f t="shared" si="5"/>
         <v>960</v>
       </c>
       <c r="L86">
-        <f>D86*$T$86</f>
+        <f t="shared" si="6"/>
         <v>25600</v>
       </c>
       <c r="N86">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <f>J86/12</f>
         <v>8</v>
       </c>
-      <c r="O86">
-        <f t="shared" si="3"/>
+      <c r="P86">
+        <f>K86/40</f>
         <v>24</v>
       </c>
-      <c r="P86">
-        <f t="shared" si="4"/>
+      <c r="Q86">
+        <f>L86/40</f>
         <v>640</v>
       </c>
       <c r="S86" t="s">
@@ -8488,7 +9059,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>20</v>
@@ -8507,33 +9078,36 @@
         <v>5</v>
       </c>
       <c r="J87">
-        <f>D87*$T$84</f>
+        <f t="shared" si="4"/>
         <v>216</v>
       </c>
       <c r="K87">
-        <f>D87*$T$85</f>
+        <f t="shared" si="5"/>
         <v>2160</v>
       </c>
       <c r="L87">
-        <f>D87*$T$86</f>
+        <f t="shared" si="6"/>
         <v>57600</v>
       </c>
       <c r="N87">
-        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O87">
+        <f>J87/12</f>
         <v>18</v>
       </c>
-      <c r="O87">
-        <f t="shared" si="3"/>
+      <c r="P87">
+        <f>K87/40</f>
         <v>54</v>
       </c>
-      <c r="P87">
-        <f t="shared" si="4"/>
+      <c r="Q87">
+        <f>L87/40</f>
         <v>1440</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>50</v>
@@ -8552,33 +9126,36 @@
         <v>6</v>
       </c>
       <c r="J88">
-        <f>D88*$T$84</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="K88">
-        <f>D88*$T$85</f>
+        <f t="shared" si="5"/>
         <v>5160</v>
       </c>
       <c r="L88">
-        <f>D88*$T$86</f>
+        <f t="shared" si="6"/>
         <v>137600</v>
       </c>
       <c r="N88">
-        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <f>J88/12</f>
         <v>43</v>
       </c>
-      <c r="O88">
-        <f t="shared" si="3"/>
+      <c r="P88">
+        <f>K88/40</f>
         <v>129</v>
       </c>
-      <c r="P88">
-        <f t="shared" si="4"/>
+      <c r="Q88">
+        <f>L88/40</f>
         <v>3440</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>100</v>
@@ -8597,33 +9174,36 @@
         <v>7</v>
       </c>
       <c r="J89">
-        <f>D89*$T$84</f>
+        <f t="shared" si="4"/>
         <v>1116</v>
       </c>
       <c r="K89">
-        <f>D89*$T$85</f>
+        <f t="shared" si="5"/>
         <v>11160</v>
       </c>
       <c r="L89">
-        <f>D89*$T$86</f>
+        <f t="shared" si="6"/>
         <v>297600</v>
       </c>
       <c r="N89">
-        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O89">
+        <f>J89/12</f>
         <v>93</v>
       </c>
-      <c r="O89">
-        <f t="shared" si="3"/>
+      <c r="P89">
+        <f>K89/40</f>
         <v>279</v>
       </c>
-      <c r="P89">
-        <f t="shared" si="4"/>
+      <c r="Q89">
+        <f>L89/40</f>
         <v>7440</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>200</v>
@@ -8642,33 +9222,36 @@
         <v>8</v>
       </c>
       <c r="J90">
-        <f>D90*$T$84</f>
+        <f t="shared" si="4"/>
         <v>2316</v>
       </c>
       <c r="K90">
-        <f>D90*$T$85</f>
+        <f t="shared" si="5"/>
         <v>23160</v>
       </c>
       <c r="L90">
-        <f>D90*$T$86</f>
+        <f t="shared" si="6"/>
         <v>617600</v>
       </c>
       <c r="N90">
-        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <f>J90/12</f>
         <v>193</v>
       </c>
-      <c r="O90">
-        <f t="shared" si="3"/>
+      <c r="P90">
+        <f>K90/40</f>
         <v>579</v>
       </c>
-      <c r="P90">
-        <f t="shared" si="4"/>
+      <c r="Q90">
+        <f>L90/40</f>
         <v>15440</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>400</v>
@@ -8684,25 +9267,28 @@
         <v>9</v>
       </c>
       <c r="J91">
-        <f>D91*$T$84</f>
+        <f t="shared" si="4"/>
         <v>4716</v>
       </c>
       <c r="K91">
-        <f>D91*$T$85</f>
+        <f t="shared" si="5"/>
         <v>47160</v>
       </c>
       <c r="N91">
-        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O91">
+        <f>J91/12</f>
         <v>393</v>
       </c>
-      <c r="O91">
-        <f t="shared" si="3"/>
+      <c r="P91">
+        <f>K91/40</f>
         <v>1179</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>800</v>
@@ -8718,25 +9304,28 @@
         <v>10</v>
       </c>
       <c r="J92">
-        <f>D92*$T$84</f>
+        <f t="shared" si="4"/>
         <v>9516</v>
       </c>
       <c r="K92">
-        <f>D92*$T$85</f>
+        <f t="shared" si="5"/>
         <v>95160</v>
       </c>
       <c r="N92">
-        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <f>J92/12</f>
         <v>793</v>
       </c>
-      <c r="O92">
-        <f t="shared" si="3"/>
+      <c r="P92">
+        <f>K92/40</f>
         <v>2379</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -8752,25 +9341,28 @@
         <v>11</v>
       </c>
       <c r="J93">
-        <f>D93*$T$84</f>
+        <f t="shared" si="4"/>
         <v>15516</v>
       </c>
       <c r="K93">
-        <f>D93*$T$85</f>
+        <f t="shared" si="5"/>
         <v>155160</v>
       </c>
       <c r="N93">
-        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O93">
+        <f>J93/12</f>
         <v>1293</v>
       </c>
-      <c r="O93">
-        <f t="shared" si="3"/>
+      <c r="P93">
+        <f>K93/40</f>
         <v>3879</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>2000</v>
@@ -8786,25 +9378,28 @@
         <v>12</v>
       </c>
       <c r="J94">
-        <f>D94*$T$84</f>
+        <f t="shared" si="4"/>
         <v>27516</v>
       </c>
       <c r="K94">
-        <f>D94*$T$85</f>
+        <f t="shared" si="5"/>
         <v>275160</v>
       </c>
       <c r="N94">
-        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O94">
+        <f>J94/12</f>
         <v>2293</v>
       </c>
-      <c r="O94">
-        <f t="shared" si="3"/>
+      <c r="P94">
+        <f>K94/40</f>
         <v>6879</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>5000</v>
@@ -8817,17 +9412,20 @@
         <v>13</v>
       </c>
       <c r="J95">
-        <f>D95*$T$84</f>
+        <f t="shared" si="4"/>
         <v>57516</v>
       </c>
       <c r="N95">
-        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O95">
+        <f>J95/12</f>
         <v>4793</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>10000</v>
@@ -8839,7 +9437,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>20000</v>
@@ -8851,7 +9449,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>40000</v>
@@ -8888,20 +9486,20 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -8946,7 +9544,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1">
@@ -8990,7 +9588,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9032,7 +9630,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -9074,7 +9672,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -9116,7 +9714,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -9138,7 +9736,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -9158,7 +9756,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -9178,7 +9776,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1">
@@ -9200,7 +9798,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -9220,7 +9818,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFC2B80-52E9-1D43-B739-CCB565A3B9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD7F84-5CC2-9F45-B59D-AA9FEBDF4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="162">
   <si>
     <t>Birde</t>
   </si>
@@ -517,13 +517,22 @@
   </si>
   <si>
     <t>传奇10</t>
+  </si>
+  <si>
+    <t>模型？</t>
+  </si>
+  <si>
+    <t>升级之后难度降低？</t>
+  </si>
+  <si>
+    <t>那是否应该在PVE时把低等级的卡放在后面呢？？？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,8 +555,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +606,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA54F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8470FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -618,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -632,13 +666,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,14 +747,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dungeon!$G$2:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -731,117 +761,75 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dungeon!$G$4:$G$64</c:f>
+              <c:f>Dungeon!$G$5:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393</c:v>
+                  <c:v>353.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>353.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353.7</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>314.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>579</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>314.40000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>314.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>579</c:v>
+                  <c:v>521.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>793</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>463.20000000000005</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
+                  <c:v>713.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>463.20000000000005</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>463.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>713.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>463.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFC6-384F-900E-A57C98EA7035}"/>
+              <c16:uniqueId val="{00000000-FC21-214B-A033-049206C19AA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -862,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="981631023"/>
-        <c:axId val="982215631"/>
+        <c:axId val="311377248"/>
+        <c:axId val="310908944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="981631023"/>
+        <c:axId val="311377248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +896,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="982215631"/>
+        <c:crossAx val="310908944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,7 +904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="982215631"/>
+        <c:axId val="310908944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +955,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="981631023"/>
+        <c:crossAx val="311377248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3926,23 +3914,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>207432</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260D2A24-E051-8D4F-810C-39FFA055E3C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CDFA1D-4024-4B4C-9727-5EF9E859A249}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4377,22 +4365,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -4486,10 +4474,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -4565,8 +4553,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -4640,8 +4628,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4715,8 +4703,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -4792,8 +4780,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -4858,8 +4846,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -4915,8 +4903,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -4960,8 +4948,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -5000,8 +4988,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -5040,8 +5028,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -5082,8 +5070,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -5122,8 +5110,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -5162,10 +5150,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -5206,8 +5194,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -5249,8 +5237,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5289,8 +5277,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -5331,8 +5319,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -5371,8 +5359,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5411,8 +5399,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -5453,8 +5441,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -5493,8 +5481,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5533,10 +5521,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -5577,8 +5565,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -5617,8 +5605,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5657,8 +5645,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -5699,8 +5687,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -5739,8 +5727,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -5779,8 +5767,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -5821,8 +5809,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -5861,8 +5849,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -5901,10 +5889,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -5945,8 +5933,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -5985,8 +5973,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6026,12 +6014,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -6044,6 +6026,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6107,10 +6095,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6234,7 +6223,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D5">
@@ -6260,18 +6249,18 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ref="E6:E17" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
+        <f t="shared" ref="E6:E30" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
         <v>橙2 - Lv1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F17" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
+        <f t="shared" ref="F6:F30" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
         <v>橙1</v>
       </c>
       <c r="G6">
@@ -6286,7 +6275,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D7">
@@ -6312,7 +6301,7 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D8">
@@ -6338,7 +6327,7 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D9">
@@ -6358,13 +6347,13 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D10">
@@ -6384,13 +6373,13 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D11">
@@ -6410,13 +6399,13 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D12">
@@ -6436,13 +6425,13 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D13">
@@ -6462,13 +6451,13 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>127</v>
       </c>
       <c r="D14">
@@ -6488,237 +6477,331 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>63</v>
+      <c r="C15" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>橙1 - Lv4</v>
+        <v>紫1 - Lv2</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>橙4</v>
+        <v>紫2</v>
       </c>
       <c r="G15">
         <f>VLOOKUP(F15,Sheet2!C:E,3,FALSE)</f>
-        <v>793</v>
+        <v>521.1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>65</v>
+      <c r="C16" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>紫1 - Lv3</v>
+        <v>紫2 - Lv2</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>紫3</v>
+        <v>紫2</v>
       </c>
       <c r="G16">
         <f>VLOOKUP(F16,Sheet2!C:E,3,FALSE)</f>
-        <v>463.20000000000005</v>
+        <v>521.1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>118</v>
+      <c r="C17" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>紫2 - Lv3</v>
+        <v>橙1 - Lv4</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>紫3</v>
+        <v>橙4</v>
       </c>
       <c r="G17">
         <f>VLOOKUP(F17,Sheet2!C:E,3,FALSE)</f>
-        <v>463.20000000000005</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
+      <c r="C18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
       <c r="E18" t="str">
-        <f t="shared" ref="E6:E37" si="2">C18&amp;" - " &amp;D18</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>橙2 - Lv4</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>橙4</v>
+      </c>
+      <c r="G18">
         <f>VLOOKUP(F18,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
+      <c r="C19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>紫3 - Lv2</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>紫2</v>
+      </c>
+      <c r="G19">
         <f>VLOOKUP(F19,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>521.1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
+      <c r="C20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G20" t="e">
+        <f t="shared" si="0"/>
+        <v>紫4 - Lv2</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>紫2</v>
+      </c>
+      <c r="G20">
         <f>VLOOKUP(F20,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>521.1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
+      <c r="C21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G21" t="e">
+        <f t="shared" si="0"/>
+        <v>紫1 - Lv3</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>紫3</v>
+      </c>
+      <c r="G21">
         <f>VLOOKUP(F21,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
+      <c r="C22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G22" t="e">
+        <f t="shared" si="0"/>
+        <v>橙1 - Lv5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>橙5</v>
+      </c>
+      <c r="G22">
         <f>VLOOKUP(F22,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>713.7</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
+      <c r="C23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G23" t="e">
+        <f t="shared" si="0"/>
+        <v>紫3 - Lv3</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>紫3</v>
+      </c>
+      <c r="G23">
         <f>VLOOKUP(F23,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
+      <c r="C24" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G24" t="e">
+        <f t="shared" si="0"/>
+        <v>紫2 - Lv3</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>紫3</v>
+      </c>
+      <c r="G24">
         <f>VLOOKUP(F24,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="12">
         <v>21</v>
       </c>
       <c r="B25">
         <v>21</v>
       </c>
+      <c r="C25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G25" t="e">
+        <f t="shared" si="0"/>
+        <v>橙2 - Lv5</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>橙5</v>
+      </c>
+      <c r="G25">
         <f>VLOOKUP(F25,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>713.7</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>22</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
+      <c r="C26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
       <c r="E26" t="str">
-        <f>C26&amp;" - " &amp;D26</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G26" t="e">
+        <f t="shared" si="0"/>
+        <v>紫4 - Lv3</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>紫3</v>
+      </c>
+      <c r="G26">
         <f>VLOOKUP(F26,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="G27" t="e">
         <f>VLOOKUP(F27,Sheet2!C:E,3,FALSE)</f>
@@ -6726,15 +6809,19 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="12">
         <v>24</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="G28" t="e">
         <f>VLOOKUP(F28,Sheet2!C:E,3,FALSE)</f>
@@ -6742,15 +6829,19 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="12">
         <v>25</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="G29" t="e">
         <f>VLOOKUP(F29,Sheet2!C:E,3,FALSE)</f>
@@ -6761,15 +6852,19 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="G30" t="e">
         <f>VLOOKUP(F30,Sheet2!C:E,3,FALSE)</f>
@@ -6801,39 +6896,43 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E31" t="e">
+        <f>#REF!&amp;" - " &amp;"Lv"&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F31" t="e">
+        <f>TEXT(SUBSTITUTE(#REF!,RIGHT(#REF!,1),"")&amp;#REF!,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="G31" t="e">
         <f>VLOOKUP(F31,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="M31" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="8" t="s">
         <v>146</v>
       </c>
       <c r="T31" t="s">
@@ -6841,39 +6940,43 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E32" t="e">
+        <f>#REF!&amp;" - " &amp;"Lv"&amp;D32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" t="e">
+        <f>TEXT(SUBSTITUTE(#REF!,RIGHT(#REF!,1),"")&amp;D32,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="G32" t="e">
         <f>VLOOKUP(F32,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M32" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="M32" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="8" t="s">
         <v>147</v>
       </c>
       <c r="T32" t="s">
@@ -6881,39 +6984,43 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E33" t="e">
+        <f>#REF!&amp;" - " &amp;"Lv"&amp;D33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F33" t="e">
+        <f>TEXT(SUBSTITUTE(#REF!,RIGHT(#REF!,1),"")&amp;D33,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="G33" t="e">
         <f>VLOOKUP(F33,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="M33" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="8" t="s">
         <v>148</v>
       </c>
       <c r="T33" t="s">
@@ -6921,39 +7028,43 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <f t="shared" ref="E6:E48" si="2">C34&amp;" - " &amp;"Lv"&amp;D34</f>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ref="F16:F46" si="3">TEXT(SUBSTITUTE(C34,RIGHT(C34,1),"")&amp;D34,0)</f>
+        <v/>
       </c>
       <c r="G34" t="e">
         <f>VLOOKUP(F34,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="8" t="s">
         <v>149</v>
       </c>
       <c r="T34" t="s">
@@ -6961,7 +7072,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="12">
         <v>31</v>
       </c>
       <c r="B35">
@@ -6969,31 +7080,35 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G35" t="e">
         <f>VLOOKUP(F35,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="8" t="s">
         <v>150</v>
       </c>
       <c r="T35" t="s">
@@ -7001,7 +7116,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="12">
         <v>32</v>
       </c>
       <c r="B36">
@@ -7009,31 +7124,35 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G36" t="e">
         <f>VLOOKUP(F36,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="8" t="s">
         <v>151</v>
       </c>
       <c r="T36" t="s">
@@ -7041,7 +7160,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="12">
         <v>33</v>
       </c>
       <c r="B37">
@@ -7049,31 +7168,35 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G37" t="e">
         <f>VLOOKUP(F37,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="8" t="s">
         <v>152</v>
       </c>
       <c r="T37" t="s">
@@ -7081,35 +7204,43 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="12">
         <v>34</v>
       </c>
       <c r="B38">
         <v>34</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G38" t="e">
         <f>VLOOKUP(F38,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="8" t="s">
         <v>153</v>
       </c>
       <c r="T38" t="s">
@@ -7117,35 +7248,43 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="12">
         <v>35</v>
       </c>
       <c r="B39">
         <v>35</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G39" t="e">
         <f>VLOOKUP(F39,Sheet2!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="8" t="s">
         <v>154</v>
       </c>
       <c r="T39" t="s">
@@ -7153,31 +7292,43 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40">
         <v>36</v>
       </c>
-      <c r="M40" t="s">
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" t="e">
+        <f>VLOOKUP(F40,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="8" t="s">
         <v>155</v>
       </c>
       <c r="T40" t="s">
@@ -7185,71 +7336,167 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41">
         <v>37</v>
       </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G41" t="e">
+        <f>VLOOKUP(F41,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42">
         <v>38</v>
       </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G42" t="e">
+        <f>VLOOKUP(F42,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43">
         <v>39</v>
       </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" t="e">
+        <f>VLOOKUP(F43,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G44" t="e">
+        <f>VLOOKUP(F44,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="12">
         <v>41</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" t="e">
+        <f>VLOOKUP(F45,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="12">
         <v>42</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G46" t="e">
+        <f>VLOOKUP(F46,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="12">
         <v>43</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ref="F47:F48" si="4">TEXT(SUBSTITUTE(C47,RIGHT(C47,1),"")&amp;D47,0)</f>
+        <v/>
+      </c>
+      <c r="G47" t="e">
+        <f>VLOOKUP(F47,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="12">
         <v>44</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - Lv</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G48" t="e">
+        <f>VLOOKUP(F48,Sheet2!C:E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="12">
         <v>45</v>
       </c>
       <c r="B49">
@@ -7257,7 +7504,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50">
@@ -7265,7 +7512,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51">
@@ -7273,7 +7520,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52">
@@ -7281,7 +7528,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53">
@@ -7289,7 +7536,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54">
@@ -7297,7 +7544,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="12">
         <v>51</v>
       </c>
       <c r="B55">
@@ -7305,7 +7552,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="12">
         <v>52</v>
       </c>
       <c r="B56">
@@ -7313,7 +7560,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="12">
         <v>53</v>
       </c>
       <c r="B57">
@@ -7321,7 +7568,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="12">
         <v>54</v>
       </c>
       <c r="B58">
@@ -7329,7 +7576,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="12">
         <v>55</v>
       </c>
       <c r="B59">
@@ -7337,7 +7584,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60">
@@ -7345,7 +7592,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61">
@@ -7353,7 +7600,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62">
@@ -7361,7 +7608,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63">
@@ -7369,12 +7616,102 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="12"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7388,8 +7725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="98" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7398,7 +7735,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -7409,7 +7746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>51</v>
       </c>
@@ -7420,7 +7757,7 @@
         <v>143</v>
       </c>
       <c r="D3" s="11">
-        <f>VLOOKUP(B3,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" ref="D3:D12" si="0">VLOOKUP(B3,$F$43:$I$53,2,FALSE)</f>
         <v>1440</v>
       </c>
       <c r="E3">
@@ -7428,7 +7765,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -7439,7 +7776,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="11">
-        <f>VLOOKUP(B4,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="E4">
@@ -7450,7 +7787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -7461,7 +7798,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="11">
-        <f>VLOOKUP(B5,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="E5">
@@ -7472,7 +7809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -7483,7 +7820,7 @@
         <v>121</v>
       </c>
       <c r="D6" s="11">
-        <f>VLOOKUP(B6,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3440</v>
       </c>
       <c r="E6">
@@ -7494,7 +7831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>51</v>
       </c>
@@ -7505,7 +7842,7 @@
         <v>122</v>
       </c>
       <c r="D7" s="11">
-        <f>VLOOKUP(B7,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3440</v>
       </c>
       <c r="E7">
@@ -7513,7 +7850,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -7524,7 +7861,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="11">
-        <f>VLOOKUP(B8,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3440</v>
       </c>
       <c r="E8">
@@ -7532,7 +7869,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
@@ -7543,15 +7880,18 @@
         <v>124</v>
       </c>
       <c r="D9" s="11">
-        <f>VLOOKUP(B9,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7440</v>
       </c>
       <c r="E9">
         <f>D9</f>
         <v>7440</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -7562,15 +7902,18 @@
         <v>125</v>
       </c>
       <c r="D10" s="11">
-        <f>VLOOKUP(B10,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7440</v>
       </c>
       <c r="E10">
         <f>E9*0.9</f>
         <v>6696</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
@@ -7581,15 +7924,23 @@
         <v>157</v>
       </c>
       <c r="D11" s="11">
-        <f>VLOOKUP(B11,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7440</v>
       </c>
       <c r="E11">
         <f>E9*0.8</f>
         <v>5952</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -7600,7 +7951,7 @@
         <v>158</v>
       </c>
       <c r="D12" s="11">
-        <f>VLOOKUP(B12,$F$43:$I$53,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15440</v>
       </c>
       <c r="E12">
@@ -7608,7 +7959,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
@@ -7619,7 +7970,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="10">
-        <f>VLOOKUP(B14,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" ref="D14:D23" si="1">VLOOKUP(B14,$F$43:$I$53,3,FALSE)</f>
         <v>579</v>
       </c>
       <c r="E14">
@@ -7627,7 +7978,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -7638,7 +7989,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="10">
-        <f>VLOOKUP(B15,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="E15">
@@ -7646,7 +7997,7 @@
         <v>521.1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -7657,7 +8008,7 @@
         <v>126</v>
       </c>
       <c r="D16" s="10">
-        <f>VLOOKUP(B16,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="E16">
@@ -7676,7 +8027,7 @@
         <v>127</v>
       </c>
       <c r="D17" s="10">
-        <f>VLOOKUP(B17,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1179</v>
       </c>
       <c r="E17">
@@ -7695,7 +8046,7 @@
         <v>128</v>
       </c>
       <c r="D18" s="10">
-        <f>VLOOKUP(B18,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1179</v>
       </c>
       <c r="E18">
@@ -7714,7 +8065,7 @@
         <v>129</v>
       </c>
       <c r="D19" s="10">
-        <f>VLOOKUP(B19,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1179</v>
       </c>
       <c r="E19">
@@ -7733,7 +8084,7 @@
         <v>130</v>
       </c>
       <c r="D20" s="10">
-        <f>VLOOKUP(B20,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2379</v>
       </c>
       <c r="E20">
@@ -7752,7 +8103,7 @@
         <v>131</v>
       </c>
       <c r="D21" s="10">
-        <f>VLOOKUP(B21,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2379</v>
       </c>
       <c r="E21">
@@ -7771,7 +8122,7 @@
         <v>132</v>
       </c>
       <c r="D22" s="10">
-        <f>VLOOKUP(B22,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2379</v>
       </c>
       <c r="E22">
@@ -7790,7 +8141,7 @@
         <v>133</v>
       </c>
       <c r="D23" s="10">
-        <f>VLOOKUP(B23,$F$43:$I$53,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3879</v>
       </c>
       <c r="E23">
@@ -7802,7 +8153,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -7834,7 +8185,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ref="D26:D34" si="0">VLOOKUP(B26,$F$43:$I$53,4,FALSE)</f>
+        <f t="shared" ref="D26:D34" si="2">VLOOKUP(B26,$F$43:$I$53,4,FALSE)</f>
         <v>393</v>
       </c>
       <c r="E26">
@@ -7853,7 +8204,7 @@
         <v>134</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>393</v>
       </c>
       <c r="E27">
@@ -7872,7 +8223,7 @@
         <v>135</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>793</v>
       </c>
       <c r="E28">
@@ -7891,7 +8242,7 @@
         <v>136</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>793</v>
       </c>
       <c r="E29">
@@ -7910,7 +8261,7 @@
         <v>137</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>793</v>
       </c>
       <c r="E30">
@@ -7929,7 +8280,7 @@
         <v>138</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1293</v>
       </c>
       <c r="E31">
@@ -7948,7 +8299,7 @@
         <v>139</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1293</v>
       </c>
       <c r="E32">
@@ -7967,7 +8318,7 @@
         <v>140</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1293</v>
       </c>
       <c r="E33">
@@ -7986,7 +8337,7 @@
         <v>141</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2293</v>
       </c>
       <c r="E34">
@@ -8024,11 +8375,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -8108,15 +8459,15 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:G53" si="1">VLOOKUP(B45,$N$83:$Q$95,4,FALSE)</f>
+        <f t="shared" ref="G45:G53" si="3">VLOOKUP(B45,$N$83:$Q$95,4,FALSE)</f>
         <v>1440</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H53" si="2">VLOOKUP(C45,$N$83:$Q$95,3,FALSE)</f>
+        <f t="shared" ref="H45:H53" si="4">VLOOKUP(C45,$N$83:$Q$95,3,FALSE)</f>
         <v>579</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:I53" si="3">VLOOKUP(D45,$N$83:$Q$95,2,FALSE)</f>
+        <f t="shared" ref="I45:I53" si="5">VLOOKUP(D45,$N$83:$Q$95,2,FALSE)</f>
         <v>393</v>
       </c>
       <c r="M45" t="s">
@@ -8140,15 +8491,15 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>579</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>393</v>
       </c>
     </row>
@@ -8169,15 +8520,15 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3440</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1179</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>793</v>
       </c>
     </row>
@@ -8198,15 +8549,15 @@
         <v>5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3440</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1179</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>793</v>
       </c>
     </row>
@@ -8227,15 +8578,15 @@
         <v>6</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3440</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1179</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>793</v>
       </c>
     </row>
@@ -8256,15 +8607,15 @@
         <v>7</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7440</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2379</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1293</v>
       </c>
     </row>
@@ -8285,15 +8636,15 @@
         <v>8</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7440</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2379</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1293</v>
       </c>
     </row>
@@ -8314,15 +8665,15 @@
         <v>9</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7440</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2379</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1293</v>
       </c>
     </row>
@@ -8343,15 +8694,15 @@
         <v>10</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15440</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3879</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2293</v>
       </c>
     </row>
@@ -8916,30 +9267,30 @@
         <v>2</v>
       </c>
       <c r="J84">
-        <f t="shared" ref="J84:J95" si="4">D84*$T$84</f>
+        <f t="shared" ref="J84:J95" si="6">D84*$T$84</f>
         <v>12</v>
       </c>
       <c r="K84">
-        <f t="shared" ref="K84:K94" si="5">D84*$T$85</f>
+        <f t="shared" ref="K84:K94" si="7">D84*$T$85</f>
         <v>120</v>
       </c>
       <c r="L84">
-        <f t="shared" ref="L84:L90" si="6">D84*$T$86</f>
+        <f t="shared" ref="L84:L90" si="8">D84*$T$86</f>
         <v>3200</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84">
-        <f>J84/12</f>
+        <f t="shared" ref="O84:O95" si="9">J84/12</f>
         <v>1</v>
       </c>
       <c r="P84">
-        <f>K84/40</f>
+        <f t="shared" ref="P84:Q90" si="10">K84/40</f>
         <v>3</v>
       </c>
       <c r="Q84">
-        <f>L84/40</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="S84" t="s">
@@ -8970,30 +9321,30 @@
         <v>3</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9600</v>
       </c>
       <c r="N85">
         <v>3</v>
       </c>
       <c r="O85">
-        <f>J85/12</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="P85">
-        <f>K85/40</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="Q85">
-        <f>L85/40</f>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="S85" t="s">
@@ -9024,30 +9375,30 @@
         <v>4</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>960</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25600</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <f>J86/12</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="P86">
-        <f>K86/40</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="Q86">
-        <f>L86/40</f>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="S86" t="s">
@@ -9078,30 +9429,30 @@
         <v>5</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2160</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57600</v>
       </c>
       <c r="N87">
         <v>5</v>
       </c>
       <c r="O87">
-        <f>J87/12</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="P87">
-        <f>K87/40</f>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="Q87">
-        <f>L87/40</f>
+        <f t="shared" si="10"/>
         <v>1440</v>
       </c>
     </row>
@@ -9126,30 +9477,30 @@
         <v>6</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>516</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5160</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>137600</v>
       </c>
       <c r="N88">
         <v>6</v>
       </c>
       <c r="O88">
-        <f>J88/12</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="P88">
-        <f>K88/40</f>
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
       <c r="Q88">
-        <f>L88/40</f>
+        <f t="shared" si="10"/>
         <v>3440</v>
       </c>
     </row>
@@ -9174,30 +9525,30 @@
         <v>7</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1116</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11160</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>297600</v>
       </c>
       <c r="N89">
         <v>7</v>
       </c>
       <c r="O89">
-        <f>J89/12</f>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="P89">
-        <f>K89/40</f>
+        <f t="shared" si="10"/>
         <v>279</v>
       </c>
       <c r="Q89">
-        <f>L89/40</f>
+        <f t="shared" si="10"/>
         <v>7440</v>
       </c>
     </row>
@@ -9222,30 +9573,30 @@
         <v>8</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2316</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23160</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>617600</v>
       </c>
       <c r="N90">
         <v>8</v>
       </c>
       <c r="O90">
-        <f>J90/12</f>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
       <c r="P90">
-        <f>K90/40</f>
+        <f t="shared" si="10"/>
         <v>579</v>
       </c>
       <c r="Q90">
-        <f>L90/40</f>
+        <f t="shared" si="10"/>
         <v>15440</v>
       </c>
     </row>
@@ -9267,18 +9618,18 @@
         <v>9</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4716</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47160</v>
       </c>
       <c r="N91">
         <v>9</v>
       </c>
       <c r="O91">
-        <f>J91/12</f>
+        <f t="shared" si="9"/>
         <v>393</v>
       </c>
       <c r="P91">
@@ -9304,18 +9655,18 @@
         <v>10</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9516</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95160</v>
       </c>
       <c r="N92">
         <v>10</v>
       </c>
       <c r="O92">
-        <f>J92/12</f>
+        <f t="shared" si="9"/>
         <v>793</v>
       </c>
       <c r="P92">
@@ -9341,18 +9692,18 @@
         <v>11</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15516</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>155160</v>
       </c>
       <c r="N93">
         <v>11</v>
       </c>
       <c r="O93">
-        <f>J93/12</f>
+        <f t="shared" si="9"/>
         <v>1293</v>
       </c>
       <c r="P93">
@@ -9378,18 +9729,18 @@
         <v>12</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27516</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>275160</v>
       </c>
       <c r="N94">
         <v>12</v>
       </c>
       <c r="O94">
-        <f>J94/12</f>
+        <f t="shared" si="9"/>
         <v>2293</v>
       </c>
       <c r="P94">
@@ -9412,14 +9763,14 @@
         <v>13</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>57516</v>
       </c>
       <c r="N95">
         <v>13</v>
       </c>
       <c r="O95">
-        <f>J95/12</f>
+        <f t="shared" si="9"/>
         <v>4793</v>
       </c>
     </row>
@@ -9486,20 +9837,20 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -9544,7 +9895,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1">
@@ -9588,7 +9939,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9630,7 +9981,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -9672,7 +10023,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -9714,7 +10065,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -9736,7 +10087,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -9756,7 +10107,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -9776,7 +10127,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1">
@@ -9798,7 +10149,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -9818,7 +10169,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD7F84-5CC2-9F45-B59D-AA9FEBDF4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01987F-7C4F-2E4B-AF94-50543F43D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="188">
   <si>
     <t>Birde</t>
   </si>
@@ -526,6 +526,84 @@
   </si>
   <si>
     <t>那是否应该在PVE时把低等级的卡放在后面呢？？？</t>
+  </si>
+  <si>
+    <t>1. ⭐️与pvp进度</t>
+  </si>
+  <si>
+    <t>2.大区概念</t>
+  </si>
+  <si>
+    <t>3.宝箱 - 伪随机？ 纯随机</t>
+  </si>
+  <si>
+    <t>4.不同玩家在不同状态下缺什么？ 卡还是金币？</t>
+  </si>
+  <si>
+    <t>5.所有状态下都有希望,免费玩家可肝，付费玩家可爽，皆为高频体验</t>
+  </si>
+  <si>
+    <t>6.所有奖励的投放与控制才是大头</t>
+  </si>
+  <si>
+    <t>7.玩家会卡到什么进度？什么大区？</t>
+  </si>
+  <si>
+    <t>8.考虑，玩家通过肝与挂机获体力？</t>
+  </si>
+  <si>
+    <t>9.考虑AFK版的高频体力</t>
+  </si>
+  <si>
+    <t>大区1</t>
+  </si>
+  <si>
+    <t>大区2</t>
+  </si>
+  <si>
+    <t>大区3</t>
+  </si>
+  <si>
+    <t>大区4</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv1</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv2</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv2</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv3</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv1</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大区1（保证量的足够） </t>
+  </si>
+  <si>
+    <t>传奇1 - Lv4</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv5</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv6</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv4</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv5</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv6</t>
   </si>
 </sst>
 </file>
@@ -563,7 +641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +702,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -652,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -666,6 +762,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,12 +776,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA6A7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -692,879 +808,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Dungeon!$G$5:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>353.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>314.40000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>314.40000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>521.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>521.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>521.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>521.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>713.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>463.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>463.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>713.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>463.20000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC21-214B-A033-049206C19AA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="311377248"/>
-        <c:axId val="310908944"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="311377248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="310908944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="310908944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="311377248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3910,47 +3153,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CDFA1D-4024-4B4C-9727-5EF9E859A249}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4365,22 +3567,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -4474,10 +3676,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -4553,8 +3755,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -4628,8 +3830,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4703,8 +3905,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -4780,8 +3982,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -4846,8 +4048,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -4903,8 +4105,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -4948,8 +4150,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -4988,8 +4190,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -5028,8 +4230,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -5070,8 +4272,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -5110,8 +4312,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -5150,10 +4352,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -5194,8 +4396,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -5237,8 +4439,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5277,8 +4479,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -5319,8 +4521,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -5359,8 +4561,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5399,8 +4601,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -5441,8 +4643,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -5481,8 +4683,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5521,10 +4723,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -5565,8 +4767,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -5605,8 +4807,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5645,8 +4847,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -5687,8 +4889,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -5727,8 +4929,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -5767,8 +4969,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -5809,8 +5011,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -5849,8 +5051,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -5889,10 +5091,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -5933,8 +5135,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -5973,8 +5175,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6044,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189F3F05-2483-004A-8615-441A100C4EE4}">
   <dimension ref="X11:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="I11" zoomScale="111" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6098,8 +5300,8 @@
   <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6223,7 +5425,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D5">
@@ -6241,6 +5443,9 @@
         <f>VLOOKUP(F5,Sheet2!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
+      <c r="H5" s="21" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
@@ -6249,24 +5454,25 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ref="E6:E30" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
+        <f t="shared" ref="E6:E22" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
         <v>橙2 - Lv1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F30" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
+        <f t="shared" ref="F6:F22" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
         <v>橙1</v>
       </c>
       <c r="G6">
         <f>VLOOKUP(F6,Sheet2!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
@@ -6275,7 +5481,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D7">
@@ -6293,6 +5499,7 @@
         <f>VLOOKUP(F7,Sheet2!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -6301,7 +5508,7 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D8">
@@ -6319,6 +5526,7 @@
         <f>VLOOKUP(F8,Sheet2!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -6327,7 +5535,7 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D9">
@@ -6345,6 +5553,7 @@
         <f>VLOOKUP(F9,Sheet2!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -6353,24 +5562,25 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>63</v>
+      <c r="C10" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>橙1 - Lv3</v>
+        <v>紫1 - Lv2</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>橙3</v>
+        <v>紫2</v>
       </c>
       <c r="G10">
         <f>VLOOKUP(F10,Sheet2!C:E,3,FALSE)</f>
-        <v>314.40000000000003</v>
-      </c>
+        <v>521.1</v>
+      </c>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -6379,7 +5589,7 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D11">
@@ -6397,6 +5607,7 @@
         <f>VLOOKUP(F11,Sheet2!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -6405,23 +5616,27 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>64</v>
+      <c r="C12" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>橙2 - Lv3</v>
+        <v>紫2 - Lv2</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>橙3</v>
+        <v>紫2</v>
       </c>
       <c r="G12">
         <f>VLOOKUP(F12,Sheet2!C:E,3,FALSE)</f>
-        <v>314.40000000000003</v>
+        <v>521.1</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -6432,22 +5647,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>紫3 - Lv1</v>
+        <v>橙1 - Lv3</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>紫1</v>
+        <v>橙3</v>
       </c>
       <c r="G13">
         <f>VLOOKUP(F13,Sheet2!C:E,3,FALSE)</f>
-        <v>579</v>
+        <v>314.40000000000003</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="J13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -6457,15 +5676,15 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>紫4 - Lv1</v>
+        <v>紫3 - Lv1</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -6475,6 +5694,10 @@
         <f>VLOOKUP(F14,Sheet2!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
+      <c r="H14" s="21"/>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
@@ -6483,15 +5706,15 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="8">
         <v>2</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>紫1 - Lv2</v>
+        <v>紫3 - Lv2</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -6501,6 +5724,7 @@
         <f>VLOOKUP(F15,Sheet2!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
@@ -6509,24 +5733,25 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+      <c r="C16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>紫2 - Lv2</v>
+        <v>紫3 - Lv3</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>紫2</v>
+        <v>紫3</v>
       </c>
       <c r="G16">
         <f>VLOOKUP(F16,Sheet2!C:E,3,FALSE)</f>
-        <v>521.1</v>
-      </c>
+        <v>463.20000000000005</v>
+      </c>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
@@ -6535,24 +5760,25 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
+      <c r="C17" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>橙1 - Lv4</v>
+        <v>紫4 - Lv1</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>橙4</v>
+        <v>紫1</v>
       </c>
       <c r="G17">
         <f>VLOOKUP(F17,Sheet2!C:E,3,FALSE)</f>
-        <v>793</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
@@ -6561,23 +5787,27 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
+      <c r="C18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>橙2 - Lv4</v>
+        <v>紫4 - Lv2</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>橙4</v>
+        <v>紫2</v>
       </c>
       <c r="G18">
         <f>VLOOKUP(F18,Sheet2!C:E,3,FALSE)</f>
-        <v>793</v>
+        <v>521.1</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="J18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -6587,23 +5817,27 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
+      <c r="C19" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>紫3 - Lv2</v>
+        <v>紫4 - Lv3</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>紫2</v>
+        <v>紫3</v>
       </c>
       <c r="G19">
         <f>VLOOKUP(F19,Sheet2!C:E,3,FALSE)</f>
-        <v>521.1</v>
+        <v>463.20000000000005</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="J19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -6614,22 +5848,26 @@
         <v>16</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>紫4 - Lv2</v>
+        <v>橙2 - Lv3</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>紫2</v>
+        <v>橙3</v>
       </c>
       <c r="G20">
         <f>VLOOKUP(F20,Sheet2!C:E,3,FALSE)</f>
-        <v>521.1</v>
+        <v>314.40000000000003</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="J20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -6639,10 +5877,10 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" t="str">
@@ -6657,6 +5895,7 @@
         <f>VLOOKUP(F21,Sheet2!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -6665,24 +5904,25 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
+      <c r="C22" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>橙1 - Lv5</v>
+        <v>紫2 - Lv3</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>橙5</v>
+        <v>紫3</v>
       </c>
       <c r="G22">
         <f>VLOOKUP(F22,Sheet2!C:E,3,FALSE)</f>
-        <v>713.7</v>
-      </c>
+        <v>463.20000000000005</v>
+      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -6692,22 +5932,25 @@
         <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>紫3 - Lv3</v>
+        <f t="shared" ref="E6:E34" si="2">C23&amp;" - " &amp;"Lv"&amp;D23</f>
+        <v>橙1 - Lv4</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>紫3</v>
+        <f t="shared" ref="F6:F39" si="3">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
+        <v>橙4</v>
       </c>
       <c r="G23">
         <f>VLOOKUP(F23,Sheet2!C:E,3,FALSE)</f>
-        <v>463.20000000000005</v>
+        <v>793</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -6718,23 +5961,24 @@
         <v>20</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>紫2 - Lv3</v>
+        <f t="shared" si="2"/>
+        <v>橙2 - Lv4</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>紫3</v>
+        <f t="shared" si="3"/>
+        <v>橙4</v>
       </c>
       <c r="G24">
         <f>VLOOKUP(F24,Sheet2!C:E,3,FALSE)</f>
-        <v>463.20000000000005</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
@@ -6743,24 +5987,25 @@
       <c r="B25">
         <v>21</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8">
         <v>5</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>橙2 - Lv5</v>
+        <f t="shared" si="2"/>
+        <v>橙1 - Lv5</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>橙5</v>
       </c>
       <c r="G25">
         <f>VLOOKUP(F25,Sheet2!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -6770,23 +6015,24 @@
         <v>22</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>紫4 - Lv3</v>
+        <f t="shared" si="2"/>
+        <v>橙2 - Lv5</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>紫3</v>
+        <f t="shared" si="3"/>
+        <v>橙5</v>
       </c>
       <c r="G26">
         <f>VLOOKUP(F26,Sheet2!C:E,3,FALSE)</f>
-        <v>463.20000000000005</v>
-      </c>
+        <v>713.7</v>
+      </c>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -6795,18 +6041,25 @@
       <c r="B27">
         <v>23</v>
       </c>
+      <c r="C27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4</v>
+      </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="2"/>
+        <v>紫1 - Lv4</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" t="e">
+        <f t="shared" si="3"/>
+        <v>紫4</v>
+      </c>
+      <c r="G27">
         <f>VLOOKUP(F27,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1179</v>
+      </c>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -6815,18 +6068,25 @@
       <c r="B28">
         <v>24</v>
       </c>
+      <c r="C28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="2"/>
+        <v>紫1 - Lv5</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" t="e">
+        <f t="shared" si="3"/>
+        <v>紫5</v>
+      </c>
+      <c r="G28">
         <f>VLOOKUP(F28,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1061.1000000000001</v>
+      </c>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -6835,18 +6095,25 @@
       <c r="B29">
         <v>25</v>
       </c>
+      <c r="C29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4</v>
+      </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="2"/>
+        <v>紫2 - Lv4</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" t="e">
+        <f t="shared" si="3"/>
+        <v>紫4</v>
+      </c>
+      <c r="G29">
         <f>VLOOKUP(F29,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1179</v>
+      </c>
+      <c r="H29" s="22"/>
       <c r="M29" t="s">
         <v>145</v>
       </c>
@@ -6858,17 +6125,27 @@
       <c r="B30">
         <v>26</v>
       </c>
+      <c r="C30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="2"/>
+        <v>紫2 - Lv5</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" t="e">
+        <f t="shared" si="3"/>
+        <v>紫5</v>
+      </c>
+      <c r="G30">
         <f>VLOOKUP(F30,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>1061.1000000000001</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="J30" t="s">
+        <v>182</v>
       </c>
       <c r="M30" t="s">
         <v>63</v>
@@ -6902,34 +6179,47 @@
       <c r="B31">
         <v>27</v>
       </c>
-      <c r="E31" t="e">
-        <f>#REF!&amp;" - " &amp;"Lv"&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" t="e">
-        <f>TEXT(SUBSTITUTE(#REF!,RIGHT(#REF!,1),"")&amp;#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" t="e">
+      <c r="C31" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>紫3 - Lv4</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>紫4</v>
+      </c>
+      <c r="G31">
         <f>VLOOKUP(F31,Sheet2!C:E,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M31" s="16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="J31" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="P31" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="Q31" s="17" t="s">
+      <c r="Q31" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="R31" s="17" t="s">
+      <c r="R31" s="18" t="s">
         <v>146</v>
       </c>
       <c r="S31" s="8" t="s">
@@ -6946,34 +6236,45 @@
       <c r="B32">
         <v>28</v>
       </c>
-      <c r="E32" t="e">
-        <f>#REF!&amp;" - " &amp;"Lv"&amp;D32</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" t="e">
-        <f>TEXT(SUBSTITUTE(#REF!,RIGHT(#REF!,1),"")&amp;D32,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" t="e">
+      <c r="C32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>紫3 - Lv5</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>紫5</v>
+      </c>
+      <c r="G32">
         <f>VLOOKUP(F32,Sheet2!C:E,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M32" s="16" t="s">
+        <v>1061.1000000000001</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="R32" s="17" t="s">
+      <c r="R32" s="18" t="s">
         <v>147</v>
       </c>
       <c r="S32" s="8" t="s">
@@ -6990,34 +6291,42 @@
       <c r="B33">
         <v>29</v>
       </c>
-      <c r="E33" t="e">
-        <f>#REF!&amp;" - " &amp;"Lv"&amp;D33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" t="e">
-        <f>TEXT(SUBSTITUTE(#REF!,RIGHT(#REF!,1),"")&amp;D33,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" t="e">
+      <c r="C33" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>紫4 - Lv4</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v>紫4</v>
+      </c>
+      <c r="G33">
         <f>VLOOKUP(F33,Sheet2!C:E,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M33" s="16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="P33" s="17" t="s">
+      <c r="P33" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Q33" s="17" t="s">
+      <c r="Q33" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="18" t="s">
         <v>148</v>
       </c>
       <c r="S33" s="8" t="s">
@@ -7034,34 +6343,44 @@
       <c r="B34">
         <v>30</v>
       </c>
+      <c r="C34" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E6:E48" si="2">C34&amp;" - " &amp;"Lv"&amp;D34</f>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="2"/>
+        <v>紫4 - Lv5</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F16:F46" si="3">TEXT(SUBSTITUTE(C34,RIGHT(C34,1),"")&amp;D34,0)</f>
-        <v/>
-      </c>
-      <c r="G34" t="e">
+        <f t="shared" si="3"/>
+        <v>紫5</v>
+      </c>
+      <c r="G34">
         <f>VLOOKUP(F34,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="16" t="s">
+        <v>1061.1000000000001</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="L34" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="R34" s="18" t="s">
         <v>149</v>
       </c>
       <c r="S34" s="8" t="s">
@@ -7078,34 +6397,42 @@
       <c r="B35">
         <v>31</v>
       </c>
+      <c r="C35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" ref="E6:E48" si="4">C35&amp;" - " &amp;"Lv"&amp;D35</f>
+        <v>橙1 - Lv6</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G35" t="e">
+        <v>橙6</v>
+      </c>
+      <c r="G35">
         <f>VLOOKUP(F35,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M35" s="16" t="s">
+        <v>634.40000000000009</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="R35" s="8" t="s">
+      <c r="R35" s="18" t="s">
         <v>150</v>
       </c>
       <c r="S35" s="8" t="s">
@@ -7122,34 +6449,45 @@
       <c r="B36">
         <v>32</v>
       </c>
+      <c r="C36" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="4"/>
+        <v>橙2 - Lv6</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G36" t="e">
+        <v>橙6</v>
+      </c>
+      <c r="G36">
         <f>VLOOKUP(F36,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" s="8" t="s">
+        <v>634.40000000000009</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="J36" t="s">
+        <v>185</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="N36" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R36" s="8" t="s">
+      <c r="R36" s="18" t="s">
         <v>151</v>
       </c>
       <c r="S36" s="8" t="s">
@@ -7166,17 +6504,30 @@
       <c r="B37">
         <v>33</v>
       </c>
+      <c r="C37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="4"/>
+        <v>紫1 - Lv6</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G37" t="e">
+        <v>紫6</v>
+      </c>
+      <c r="G37">
         <f>VLOOKUP(F37,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>943.2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="J37" t="s">
+        <v>186</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>152</v>
@@ -7210,18 +6561,29 @@
       <c r="B38">
         <v>34</v>
       </c>
+      <c r="C38" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="4"/>
+        <v>紫2 - Lv6</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" t="e">
+        <v>紫6</v>
+      </c>
+      <c r="G38">
         <f>VLOOKUP(F38,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>943.2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="J38" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" s="15"/>
       <c r="M38" s="8" t="s">
         <v>153</v>
       </c>
@@ -7254,18 +6616,26 @@
       <c r="B39">
         <v>35</v>
       </c>
+      <c r="C39" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="4"/>
+        <v>紫3 - Lv6</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G39" t="e">
+        <v>紫6</v>
+      </c>
+      <c r="G39">
         <f>VLOOKUP(F39,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>943.2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="8" t="s">
         <v>154</v>
       </c>
@@ -7298,17 +6668,27 @@
       <c r="B40">
         <v>36</v>
       </c>
+      <c r="C40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="4"/>
+        <v>紫4 - Lv6</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G40" t="e">
+        <f t="shared" ref="F16:F46" si="5">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
+        <v>紫6</v>
+      </c>
+      <c r="G40">
         <f>VLOOKUP(F40,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>943.2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="L40" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>155</v>
@@ -7342,17 +6722,26 @@
       <c r="B41">
         <v>37</v>
       </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" ref="E41:E61" si="6">C41&amp;" - " &amp;"Lv"&amp;D41</f>
+        <v>橙1 - Lv7</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G41" t="e">
+        <f t="shared" si="5"/>
+        <v>橙7</v>
+      </c>
+      <c r="G41">
         <f>VLOOKUP(F41,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>1293</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -7362,18 +6751,25 @@
       <c r="B42">
         <v>38</v>
       </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>橙2 - Lv7</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G42" t="e">
+        <f t="shared" si="5"/>
+        <v>橙7</v>
+      </c>
+      <c r="G42">
         <f>VLOOKUP(F42,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1293</v>
+      </c>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -7382,18 +6778,25 @@
       <c r="B43">
         <v>39</v>
       </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>橙1 - Lv8</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G43" t="e">
+        <f t="shared" ref="F43:F61" si="7">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
+        <v>橙8</v>
+      </c>
+      <c r="G43">
         <f>VLOOKUP(F43,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1163.7</v>
+      </c>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -7402,18 +6805,25 @@
       <c r="B44">
         <v>40</v>
       </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>橙2 - Lv8</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G44" t="e">
+        <f t="shared" si="7"/>
+        <v>橙8</v>
+      </c>
+      <c r="G44">
         <f>VLOOKUP(F44,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1163.7</v>
+      </c>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
@@ -7422,18 +6832,25 @@
       <c r="B45">
         <v>41</v>
       </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>紫1 - Lv7</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G45" t="e">
+        <f t="shared" si="7"/>
+        <v>紫7</v>
+      </c>
+      <c r="G45">
         <f>VLOOKUP(F45,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>2379</v>
+      </c>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
@@ -7442,18 +6859,25 @@
       <c r="B46">
         <v>42</v>
       </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>紫1 - Lv8</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G46" t="e">
+        <f t="shared" si="7"/>
+        <v>紫8</v>
+      </c>
+      <c r="G46">
         <f>VLOOKUP(F46,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>2141.1</v>
+      </c>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
@@ -7462,18 +6886,25 @@
       <c r="B47">
         <v>43</v>
       </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>紫2 - Lv7</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47:F48" si="4">TEXT(SUBSTITUTE(C47,RIGHT(C47,1),"")&amp;D47,0)</f>
-        <v/>
-      </c>
-      <c r="G47" t="e">
+        <f t="shared" si="7"/>
+        <v>紫7</v>
+      </c>
+      <c r="G47">
         <f>VLOOKUP(F47,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+        <v>2379</v>
+      </c>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
@@ -7482,146 +6913,459 @@
       <c r="B48">
         <v>44</v>
       </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - Lv</v>
+        <f t="shared" si="6"/>
+        <v>紫2 - Lv8</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G48" t="e">
+        <f t="shared" si="7"/>
+        <v>紫8</v>
+      </c>
+      <c r="G48">
         <f>VLOOKUP(F48,Sheet2!C:E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2141.1</v>
+      </c>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>45</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="6"/>
+        <v>紫3 - Lv7</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="7"/>
+        <v>紫7</v>
+      </c>
+      <c r="G49">
+        <f>VLOOKUP(F49,Sheet2!C:E,3,FALSE)</f>
+        <v>2379</v>
+      </c>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="6"/>
+        <v>紫3 - Lv8</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="7"/>
+        <v>紫8</v>
+      </c>
+      <c r="G50">
+        <f>VLOOKUP(F50,Sheet2!C:E,3,FALSE)</f>
+        <v>2141.1</v>
+      </c>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="6"/>
+        <v>紫4 - Lv7</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="7"/>
+        <v>紫7</v>
+      </c>
+      <c r="G51">
+        <f>VLOOKUP(F51,Sheet2!C:E,3,FALSE)</f>
+        <v>2379</v>
+      </c>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="6"/>
+        <v>紫4 - Lv8</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="7"/>
+        <v>紫8</v>
+      </c>
+      <c r="G52">
+        <f>VLOOKUP(F52,Sheet2!C:E,3,FALSE)</f>
+        <v>2141.1</v>
+      </c>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="6"/>
+        <v>橙1 - Lv9</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="7"/>
+        <v>橙9</v>
+      </c>
+      <c r="G53">
+        <f>VLOOKUP(F53,Sheet2!C:E,3,FALSE)</f>
+        <v>1034.4000000000001</v>
+      </c>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="6"/>
+        <v>橙2 - Lv9</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="7"/>
+        <v>橙9</v>
+      </c>
+      <c r="G54">
+        <f>VLOOKUP(F54,Sheet2!C:E,3,FALSE)</f>
+        <v>1034.4000000000001</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>51</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="6"/>
+        <v>紫1 - Lv9</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="7"/>
+        <v>紫9</v>
+      </c>
+      <c r="G55">
+        <f>VLOOKUP(F55,Sheet2!C:E,3,FALSE)</f>
+        <v>1903.2</v>
+      </c>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>52</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="6"/>
+        <v>紫2 - Lv9</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="7"/>
+        <v>紫9</v>
+      </c>
+      <c r="G56">
+        <f>VLOOKUP(F56,Sheet2!C:E,3,FALSE)</f>
+        <v>1903.2</v>
+      </c>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>53</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="6"/>
+        <v>紫3 - Lv9</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="7"/>
+        <v>紫9</v>
+      </c>
+      <c r="G57">
+        <f>VLOOKUP(F57,Sheet2!C:E,3,FALSE)</f>
+        <v>1903.2</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>54</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" ref="E58:E64" si="8">C58&amp;" - " &amp;"Lv"&amp;D58</f>
+        <v>紫4 - Lv9</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ref="F58:F64" si="9">TEXT(SUBSTITUTE(C58,RIGHT(C58,1),"")&amp;D58,0)</f>
+        <v>紫9</v>
+      </c>
+      <c r="G58">
+        <f>VLOOKUP(F58,Sheet2!C:E,3,FALSE)</f>
+        <v>1903.2</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>55</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="8"/>
+        <v>橙1 - Lv10</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="9"/>
+        <v>橙10</v>
+      </c>
+      <c r="G59">
+        <f>VLOOKUP(F59,Sheet2!C:E,3,FALSE)</f>
+        <v>2293</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="8"/>
+        <v>橙2 - Lv10</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="9"/>
+        <v>橙10</v>
+      </c>
+      <c r="G60">
+        <f>VLOOKUP(F60,Sheet2!C:E,3,FALSE)</f>
+        <v>2293</v>
+      </c>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="8"/>
+        <v>紫1 - Lv10</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="9"/>
+        <v>紫10</v>
+      </c>
+      <c r="G61">
+        <f>VLOOKUP(F61,Sheet2!C:E,3,FALSE)</f>
+        <v>3879</v>
+      </c>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="8"/>
+        <v>紫2 - Lv10</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="9"/>
+        <v>紫10</v>
+      </c>
+      <c r="G62">
+        <f>VLOOKUP(F62,Sheet2!C:E,3,FALSE)</f>
+        <v>3879</v>
+      </c>
+      <c r="H62" s="24"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="8"/>
+        <v>紫3 - Lv10</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="9"/>
+        <v>紫10</v>
+      </c>
+      <c r="G63">
+        <f>VLOOKUP(F63,Sheet2!C:E,3,FALSE)</f>
+        <v>3879</v>
+      </c>
+      <c r="H63" s="24"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="8"/>
+        <v>紫4 - Lv10</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="9"/>
+        <v>紫10</v>
+      </c>
+      <c r="G64">
+        <f>VLOOKUP(F64,Sheet2!C:E,3,FALSE)</f>
+        <v>3879</v>
+      </c>
+      <c r="H64" s="24"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
@@ -7714,10 +7458,18 @@
       <c r="A94" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H41:H58"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="H5:H22"/>
+    <mergeCell ref="H23:H40"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7725,8 +7477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A62" zoomScale="98" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7931,14 +7683,14 @@
         <f>E9*0.8</f>
         <v>5952</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -8153,7 +7905,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -8375,11 +8127,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -9837,20 +9589,20 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -9895,7 +9647,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1">
@@ -9939,7 +9691,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -9981,7 +9733,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -10023,7 +9775,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -10065,7 +9817,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -10087,7 +9839,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -10107,7 +9859,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -10127,7 +9879,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1">
@@ -10149,7 +9901,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -10169,7 +9921,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -10224,14 +9976,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C131825-9B07-BF4B-B700-6E148F9210BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01987F-7C4F-2E4B-AF94-50543F43D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F171FA-F767-3C42-8EAF-A1C4EA1BF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Framework" sheetId="2" r:id="rId2"/>
     <sheet name="Dungeon" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="Cards" sheetId="5" r:id="rId5"/>
+    <sheet name="Cards" sheetId="5" r:id="rId4"/>
+    <sheet name="Reference1" sheetId="9" r:id="rId5"/>
     <sheet name="Review" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="202">
   <si>
     <t>Birde</t>
   </si>
@@ -604,6 +604,48 @@
   </si>
   <si>
     <t>传奇2 - Lv6</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv7</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv8</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv9</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv7</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv8</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv9</t>
+  </si>
+  <si>
+    <t>传奇1 - Lv10</t>
+  </si>
+  <si>
+    <t>传奇2 - Lv10</t>
+  </si>
+  <si>
+    <t>要点</t>
+  </si>
+  <si>
+    <t>【传达升级体验】前期对于紫3&amp;紫4的卡片投放要充足，保证玩家可以体验到两轮场景升级体验</t>
+  </si>
+  <si>
+    <t>【教学】</t>
+  </si>
+  <si>
+    <t>衔接，完成后获得橙1升到2的条件</t>
+  </si>
+  <si>
+    <t>【教学】 升级教学，完成后获得橙2升到2的条件</t>
+  </si>
+  <si>
+    <t>【衔接】完成后获得紫1</t>
   </si>
 </sst>
 </file>
@@ -748,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -776,6 +818,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -787,6 +832,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,6 +859,1004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dungeon!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>难度指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Dungeon!$H$5:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>353.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>463.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>521.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>463.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>314.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>463.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>463.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>713.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>713.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1061.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1061.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1061.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1061.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>634.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>634.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>943.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>943.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>943.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>943.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1163.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1163.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2141.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2141.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2141.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2141.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1034.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1034.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1903.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1903.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1903.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1903.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2293</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2293</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3879</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3879</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3879</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A523-8246-AADB-F35ED1F59B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1914088240"/>
+        <c:axId val="569580432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1914088240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569580432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="569580432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914088240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3153,6 +4202,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA143092-691F-CA48-AD00-1DE741DA4A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5246,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189F3F05-2483-004A-8615-441A100C4EE4}">
   <dimension ref="X11:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="I11" zoomScale="111" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5297,22 +6387,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5328,53 +6420,53 @@
       <c r="E1">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5385,17 +6477,18 @@
         <v>67</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="M2" t="s">
+      <c r="L2" s="3"/>
+      <c r="N2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5411,14 +6504,17 @@
       <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -5435,19 +6531,22 @@
         <f>C5&amp;" - " &amp;"Lv"&amp;D5</f>
         <v>橙1 - Lv1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="str">
         <f>TEXT(SUBSTITUTE(C5,RIGHT(C5,1),"")&amp;D5,0)</f>
         <v>橙1</v>
       </c>
-      <c r="G5">
-        <f>VLOOKUP(F5,Sheet2!C:E,3,FALSE)</f>
+      <c r="H5">
+        <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -5464,17 +6563,20 @@
         <f t="shared" ref="E6:E22" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
         <v>橙2 - Lv1</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" ref="F6:F22" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
+      <c r="F6" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G22" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
         <v>橙1</v>
       </c>
-      <c r="G6">
-        <f>VLOOKUP(F6,Sheet2!C:E,3,FALSE)</f>
+      <c r="H6">
+        <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -5491,17 +6593,20 @@
         <f t="shared" si="0"/>
         <v>橙1 - Lv2</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v>橙2</v>
       </c>
-      <c r="G7">
-        <f>VLOOKUP(F7,Sheet2!C:E,3,FALSE)</f>
+      <c r="H7">
+        <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -5518,17 +6623,20 @@
         <f t="shared" si="0"/>
         <v>橙2 - Lv2</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>橙2</v>
       </c>
-      <c r="G8">
-        <f>VLOOKUP(F8,Sheet2!C:E,3,FALSE)</f>
+      <c r="H8">
+        <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -5545,17 +6653,17 @@
         <f t="shared" si="0"/>
         <v>紫1 - Lv1</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
       </c>
-      <c r="G9">
-        <f>VLOOKUP(F9,Sheet2!C:E,3,FALSE)</f>
+      <c r="H9">
+        <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -5572,17 +6680,17 @@
         <f t="shared" si="0"/>
         <v>紫1 - Lv2</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
       </c>
-      <c r="G10">
-        <f>VLOOKUP(F10,Sheet2!C:E,3,FALSE)</f>
+      <c r="H10">
+        <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -5599,17 +6707,17 @@
         <f t="shared" si="0"/>
         <v>紫2 - Lv1</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
       </c>
-      <c r="G11">
-        <f>VLOOKUP(F11,Sheet2!C:E,3,FALSE)</f>
+      <c r="H11">
+        <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -5626,20 +6734,20 @@
         <f t="shared" si="0"/>
         <v>紫2 - Lv2</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
       </c>
-      <c r="G12">
-        <f>VLOOKUP(F12,Sheet2!C:E,3,FALSE)</f>
+      <c r="H12">
+        <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="J12" t="s">
+      <c r="I12" s="22"/>
+      <c r="K12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -5656,20 +6764,20 @@
         <f t="shared" si="0"/>
         <v>橙1 - Lv3</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="1"/>
         <v>橙3</v>
       </c>
-      <c r="G13">
-        <f>VLOOKUP(F13,Sheet2!C:E,3,FALSE)</f>
+      <c r="H13">
+        <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="J13" t="s">
+      <c r="I13" s="22"/>
+      <c r="K13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5686,20 +6794,23 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
       </c>
-      <c r="G14">
-        <f>VLOOKUP(F14,Sheet2!C:E,3,FALSE)</f>
+      <c r="H14">
+        <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="J14" t="s">
+      <c r="I14" s="22"/>
+      <c r="K14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -5716,17 +6827,18 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="21"/>
+      <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
       </c>
-      <c r="G15">
-        <f>VLOOKUP(F15,Sheet2!C:E,3,FALSE)</f>
+      <c r="H15">
+        <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -5743,17 +6855,18 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="21"/>
+      <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
       </c>
-      <c r="G16">
-        <f>VLOOKUP(F16,Sheet2!C:E,3,FALSE)</f>
+      <c r="H16">
+        <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -5770,17 +6883,18 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="21"/>
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
       </c>
-      <c r="G17">
-        <f>VLOOKUP(F17,Sheet2!C:E,3,FALSE)</f>
+      <c r="H17">
+        <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -5797,20 +6911,21 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="21"/>
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
       </c>
-      <c r="G18">
-        <f>VLOOKUP(F18,Sheet2!C:E,3,FALSE)</f>
+      <c r="H18">
+        <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="J18" t="s">
+      <c r="I18" s="22"/>
+      <c r="K18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -5827,20 +6942,21 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="21"/>
+      <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
       </c>
-      <c r="G19">
-        <f>VLOOKUP(F19,Sheet2!C:E,3,FALSE)</f>
+      <c r="H19">
+        <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="J19" t="s">
+      <c r="I19" s="22"/>
+      <c r="K19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -5857,20 +6973,20 @@
         <f t="shared" si="0"/>
         <v>橙2 - Lv3</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="1"/>
         <v>橙3</v>
       </c>
-      <c r="G20">
-        <f>VLOOKUP(F20,Sheet2!C:E,3,FALSE)</f>
+      <c r="H20">
+        <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="J20" t="s">
+      <c r="I20" s="22"/>
+      <c r="K20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -5887,17 +7003,17 @@
         <f t="shared" si="0"/>
         <v>紫1 - Lv3</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
       </c>
-      <c r="G21">
-        <f>VLOOKUP(F21,Sheet2!C:E,3,FALSE)</f>
+      <c r="H21">
+        <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5914,17 +7030,17 @@
         <f t="shared" si="0"/>
         <v>紫2 - Lv3</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
       </c>
-      <c r="G22">
-        <f>VLOOKUP(F22,Sheet2!C:E,3,FALSE)</f>
+      <c r="H22">
+        <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -5941,19 +7057,19 @@
         <f t="shared" ref="E6:E34" si="2">C23&amp;" - " &amp;"Lv"&amp;D23</f>
         <v>橙1 - Lv4</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" ref="F6:F39" si="3">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
+      <c r="G23" t="str">
+        <f t="shared" ref="G6:G39" si="3">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
         <v>橙4</v>
       </c>
-      <c r="G23">
-        <f>VLOOKUP(F23,Sheet2!C:E,3,FALSE)</f>
+      <c r="H23">
+        <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="I23" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -5970,17 +7086,17 @@
         <f t="shared" si="2"/>
         <v>橙2 - Lv4</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="3"/>
         <v>橙4</v>
       </c>
-      <c r="G24">
-        <f>VLOOKUP(F24,Sheet2!C:E,3,FALSE)</f>
+      <c r="H24">
+        <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -5997,17 +7113,17 @@
         <f t="shared" si="2"/>
         <v>橙1 - Lv5</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="3"/>
         <v>橙5</v>
       </c>
-      <c r="G25">
-        <f>VLOOKUP(F25,Sheet2!C:E,3,FALSE)</f>
+      <c r="H25">
+        <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -6024,17 +7140,17 @@
         <f t="shared" si="2"/>
         <v>橙2 - Lv5</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="3"/>
         <v>橙5</v>
       </c>
-      <c r="G26">
-        <f>VLOOKUP(F26,Sheet2!C:E,3,FALSE)</f>
+      <c r="H26">
+        <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -6051,17 +7167,17 @@
         <f t="shared" si="2"/>
         <v>紫1 - Lv4</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="3"/>
         <v>紫4</v>
       </c>
-      <c r="G27">
-        <f>VLOOKUP(F27,Sheet2!C:E,3,FALSE)</f>
+      <c r="H27">
+        <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -6078,17 +7194,17 @@
         <f t="shared" si="2"/>
         <v>紫1 - Lv5</v>
       </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="3"/>
         <v>紫5</v>
       </c>
-      <c r="G28">
-        <f>VLOOKUP(F28,Sheet2!C:E,3,FALSE)</f>
+      <c r="H28">
+        <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -6105,20 +7221,20 @@
         <f t="shared" si="2"/>
         <v>紫2 - Lv4</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="3"/>
         <v>紫4</v>
       </c>
-      <c r="G29">
-        <f>VLOOKUP(F29,Sheet2!C:E,3,FALSE)</f>
+      <c r="H29">
+        <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="M29" t="s">
+      <c r="I29" s="23"/>
+      <c r="N29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -6135,44 +7251,44 @@
         <f t="shared" si="2"/>
         <v>紫2 - Lv5</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="3"/>
         <v>紫5</v>
       </c>
-      <c r="G30">
-        <f>VLOOKUP(F30,Sheet2!C:E,3,FALSE)</f>
+      <c r="H30">
+        <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="J30" t="s">
+      <c r="I30" s="23"/>
+      <c r="K30" t="s">
         <v>182</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>63</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>64</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>65</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>118</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>126</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>127</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>143</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -6189,28 +7305,25 @@
         <f t="shared" si="2"/>
         <v>紫3 - Lv4</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="3"/>
         <v>紫4</v>
       </c>
-      <c r="G31">
-        <f>VLOOKUP(F31,Sheet2!C:E,3,FALSE)</f>
+      <c r="H31">
+        <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="J31" t="s">
+      <c r="I31" s="23"/>
+      <c r="K31" t="s">
         <v>183</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="M31" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="17" t="s">
         <v>146</v>
       </c>
       <c r="P31" s="18" t="s">
@@ -6222,14 +7335,17 @@
       <c r="R31" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -6246,26 +7362,23 @@
         <f t="shared" si="2"/>
         <v>紫3 - Lv5</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="3"/>
         <v>紫5</v>
       </c>
-      <c r="G32">
-        <f>VLOOKUP(F32,Sheet2!C:E,3,FALSE)</f>
+      <c r="H32">
+        <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="J32" t="s">
+      <c r="I32" s="23"/>
+      <c r="K32" t="s">
         <v>184</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="17" t="s">
-        <v>147</v>
-      </c>
+      <c r="M32" s="15"/>
       <c r="N32" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="17" t="s">
         <v>147</v>
       </c>
       <c r="P32" s="18" t="s">
@@ -6277,14 +7390,17 @@
       <c r="R32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -6301,23 +7417,20 @@
         <f t="shared" si="2"/>
         <v>紫4 - Lv4</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="3"/>
         <v>紫4</v>
       </c>
-      <c r="G33">
-        <f>VLOOKUP(F33,Sheet2!C:E,3,FALSE)</f>
+      <c r="H33">
+        <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="H33" s="22"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="17" t="s">
-        <v>148</v>
-      </c>
+      <c r="I33" s="23"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="17" t="s">
         <v>148</v>
       </c>
       <c r="P33" s="18" t="s">
@@ -6329,14 +7442,17 @@
       <c r="R33" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -6353,25 +7469,22 @@
         <f t="shared" si="2"/>
         <v>紫4 - Lv5</v>
       </c>
-      <c r="F34" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="3"/>
         <v>紫5</v>
       </c>
-      <c r="G34">
-        <f>VLOOKUP(F34,Sheet2!C:E,3,FALSE)</f>
+      <c r="H34">
+        <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="L34" s="15" t="s">
+      <c r="I34" s="23"/>
+      <c r="M34" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="N34" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="17" t="s">
         <v>149</v>
       </c>
       <c r="P34" s="18" t="s">
@@ -6383,14 +7496,17 @@
       <c r="R34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -6407,23 +7523,20 @@
         <f t="shared" ref="E6:E48" si="4">C35&amp;" - " &amp;"Lv"&amp;D35</f>
         <v>橙1 - Lv6</v>
       </c>
-      <c r="F35" t="str">
+      <c r="G35" t="str">
         <f t="shared" si="3"/>
         <v>橙6</v>
       </c>
-      <c r="G35">
-        <f>VLOOKUP(F35,Sheet2!C:E,3,FALSE)</f>
+      <c r="H35">
+        <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="I35" s="23"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="O35" s="17" t="s">
         <v>150</v>
       </c>
       <c r="P35" s="18" t="s">
@@ -6435,14 +7548,17 @@
       <c r="R35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -6459,26 +7575,23 @@
         <f t="shared" si="4"/>
         <v>橙2 - Lv6</v>
       </c>
-      <c r="F36" t="str">
+      <c r="G36" t="str">
         <f t="shared" si="3"/>
         <v>橙6</v>
       </c>
-      <c r="G36">
-        <f>VLOOKUP(F36,Sheet2!C:E,3,FALSE)</f>
+      <c r="H36">
+        <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="J36" t="s">
+      <c r="I36" s="23"/>
+      <c r="K36" t="s">
         <v>185</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="M36" s="15"/>
       <c r="N36" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="17" t="s">
         <v>151</v>
       </c>
       <c r="P36" s="18" t="s">
@@ -6490,14 +7603,17 @@
       <c r="R36" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>33</v>
       </c>
@@ -6514,47 +7630,47 @@
         <f t="shared" si="4"/>
         <v>紫1 - Lv6</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="3"/>
         <v>紫6</v>
       </c>
-      <c r="G37">
-        <f>VLOOKUP(F37,Sheet2!C:E,3,FALSE)</f>
+      <c r="H37">
+        <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="J37" t="s">
+      <c r="I37" s="23"/>
+      <c r="K37" t="s">
         <v>186</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="M37" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="N37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="O37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="P37" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="Q37" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="R37" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="S37" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="T37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -6571,45 +7687,45 @@
         <f t="shared" si="4"/>
         <v>紫2 - Lv6</v>
       </c>
-      <c r="F38" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="3"/>
         <v>紫6</v>
       </c>
-      <c r="G38">
-        <f>VLOOKUP(F38,Sheet2!C:E,3,FALSE)</f>
+      <c r="H38">
+        <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="J38" t="s">
+      <c r="I38" s="23"/>
+      <c r="K38" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="15"/>
+      <c r="N38" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="O38" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="P38" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="Q38" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="R38" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="S38" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="T38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -6626,42 +7742,42 @@
         <f t="shared" si="4"/>
         <v>紫3 - Lv6</v>
       </c>
-      <c r="F39" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="3"/>
         <v>紫6</v>
       </c>
-      <c r="G39">
-        <f>VLOOKUP(F39,Sheet2!C:E,3,FALSE)</f>
+      <c r="H39">
+        <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="8" t="s">
+      <c r="I39" s="23"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="O39" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="P39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="Q39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="R39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="S39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="T39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -6678,51 +7794,51 @@
         <f t="shared" si="4"/>
         <v>紫4 - Lv6</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" ref="F16:F46" si="5">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
+      <c r="G40" t="str">
+        <f t="shared" ref="G16:G46" si="5">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
         <v>紫6</v>
       </c>
-      <c r="G40">
-        <f>VLOOKUP(F40,Sheet2!C:E,3,FALSE)</f>
+      <c r="H40">
+        <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="L40" s="13" t="s">
+      <c r="I40" s="23"/>
+      <c r="M40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="N40" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="O40" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="P40" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="Q40" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="R40" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="S40" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="S40" s="8" t="s">
+      <c r="T40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41">
         <v>37</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D41">
@@ -6732,26 +7848,26 @@
         <f t="shared" ref="E41:E61" si="6">C41&amp;" - " &amp;"Lv"&amp;D41</f>
         <v>橙1 - Lv7</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <f t="shared" si="5"/>
         <v>橙7</v>
       </c>
-      <c r="G41">
-        <f>VLOOKUP(F41,Sheet2!C:E,3,FALSE)</f>
+      <c r="H41">
+        <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="I41" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42">
         <v>38</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D42">
@@ -6761,24 +7877,24 @@
         <f t="shared" si="6"/>
         <v>橙2 - Lv7</v>
       </c>
-      <c r="F42" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="5"/>
         <v>橙7</v>
       </c>
-      <c r="G42">
-        <f>VLOOKUP(F42,Sheet2!C:E,3,FALSE)</f>
+      <c r="H42">
+        <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43">
         <v>39</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D43">
@@ -6788,24 +7904,24 @@
         <f t="shared" si="6"/>
         <v>橙1 - Lv8</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" ref="F43:F61" si="7">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
+      <c r="G43" t="str">
+        <f t="shared" ref="G43:G61" si="7">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
         <v>橙8</v>
       </c>
-      <c r="G43">
-        <f>VLOOKUP(F43,Sheet2!C:E,3,FALSE)</f>
+      <c r="H43">
+        <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D44">
@@ -6815,24 +7931,24 @@
         <f t="shared" si="6"/>
         <v>橙2 - Lv8</v>
       </c>
-      <c r="F44" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="7"/>
         <v>橙8</v>
       </c>
-      <c r="G44">
-        <f>VLOOKUP(F44,Sheet2!C:E,3,FALSE)</f>
+      <c r="H44">
+        <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>41</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D45">
@@ -6842,24 +7958,24 @@
         <f t="shared" si="6"/>
         <v>紫1 - Lv7</v>
       </c>
-      <c r="F45" t="str">
+      <c r="G45" t="str">
         <f t="shared" si="7"/>
         <v>紫7</v>
       </c>
-      <c r="G45">
-        <f>VLOOKUP(F45,Sheet2!C:E,3,FALSE)</f>
+      <c r="H45">
+        <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>42</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D46">
@@ -6869,24 +7985,24 @@
         <f t="shared" si="6"/>
         <v>紫1 - Lv8</v>
       </c>
-      <c r="F46" t="str">
+      <c r="G46" t="str">
         <f t="shared" si="7"/>
         <v>紫8</v>
       </c>
-      <c r="G46">
-        <f>VLOOKUP(F46,Sheet2!C:E,3,FALSE)</f>
+      <c r="H46">
+        <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>43</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D47">
@@ -6896,24 +8012,24 @@
         <f t="shared" si="6"/>
         <v>紫2 - Lv7</v>
       </c>
-      <c r="F47" t="str">
+      <c r="G47" t="str">
         <f t="shared" si="7"/>
         <v>紫7</v>
       </c>
-      <c r="G47">
-        <f>VLOOKUP(F47,Sheet2!C:E,3,FALSE)</f>
+      <c r="H47">
+        <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>44</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D48">
@@ -6923,24 +8039,27 @@
         <f t="shared" si="6"/>
         <v>紫2 - Lv8</v>
       </c>
-      <c r="F48" t="str">
+      <c r="G48" t="str">
         <f t="shared" si="7"/>
         <v>紫8</v>
       </c>
-      <c r="G48">
-        <f>VLOOKUP(F48,Sheet2!C:E,3,FALSE)</f>
+      <c r="H48">
+        <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="H48" s="23"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="24"/>
+      <c r="K48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>45</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D49">
@@ -6950,24 +8069,27 @@
         <f t="shared" si="6"/>
         <v>紫3 - Lv7</v>
       </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="7"/>
         <v>紫7</v>
       </c>
-      <c r="G49">
-        <f>VLOOKUP(F49,Sheet2!C:E,3,FALSE)</f>
+      <c r="H49">
+        <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="24"/>
+      <c r="K49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D50">
@@ -6977,24 +8099,27 @@
         <f t="shared" si="6"/>
         <v>紫3 - Lv8</v>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="7"/>
         <v>紫8</v>
       </c>
-      <c r="G50">
-        <f>VLOOKUP(F50,Sheet2!C:E,3,FALSE)</f>
+      <c r="H50">
+        <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="24"/>
+      <c r="K50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D51">
@@ -7004,24 +8129,24 @@
         <f t="shared" si="6"/>
         <v>紫4 - Lv7</v>
       </c>
-      <c r="F51" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="7"/>
         <v>紫7</v>
       </c>
-      <c r="G51">
-        <f>VLOOKUP(F51,Sheet2!C:E,3,FALSE)</f>
+      <c r="H51">
+        <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="H51" s="23"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D52">
@@ -7031,24 +8156,24 @@
         <f t="shared" si="6"/>
         <v>紫4 - Lv8</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="7"/>
         <v>紫8</v>
       </c>
-      <c r="G52">
-        <f>VLOOKUP(F52,Sheet2!C:E,3,FALSE)</f>
+      <c r="H52">
+        <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53">
         <v>49</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D53">
@@ -7058,24 +8183,24 @@
         <f t="shared" si="6"/>
         <v>橙1 - Lv9</v>
       </c>
-      <c r="F53" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="7"/>
         <v>橙9</v>
       </c>
-      <c r="G53">
-        <f>VLOOKUP(F53,Sheet2!C:E,3,FALSE)</f>
+      <c r="H53">
+        <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D54">
@@ -7085,24 +8210,27 @@
         <f t="shared" si="6"/>
         <v>橙2 - Lv9</v>
       </c>
-      <c r="F54" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="7"/>
         <v>橙9</v>
       </c>
-      <c r="G54">
-        <f>VLOOKUP(F54,Sheet2!C:E,3,FALSE)</f>
+      <c r="H54">
+        <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="H54" s="23"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="24"/>
+      <c r="K54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>51</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D55">
@@ -7112,24 +8240,27 @@
         <f t="shared" si="6"/>
         <v>紫1 - Lv9</v>
       </c>
-      <c r="F55" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="7"/>
         <v>紫9</v>
       </c>
-      <c r="G55">
-        <f>VLOOKUP(F55,Sheet2!C:E,3,FALSE)</f>
+      <c r="H55">
+        <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="H55" s="23"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="24"/>
+      <c r="K55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>52</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D56">
@@ -7139,24 +8270,27 @@
         <f t="shared" si="6"/>
         <v>紫2 - Lv9</v>
       </c>
-      <c r="F56" t="str">
+      <c r="G56" t="str">
         <f t="shared" si="7"/>
         <v>紫9</v>
       </c>
-      <c r="G56">
-        <f>VLOOKUP(F56,Sheet2!C:E,3,FALSE)</f>
+      <c r="H56">
+        <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="24"/>
+      <c r="K56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>53</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D57">
@@ -7166,24 +8300,24 @@
         <f t="shared" si="6"/>
         <v>紫3 - Lv9</v>
       </c>
-      <c r="F57" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="7"/>
         <v>紫9</v>
       </c>
-      <c r="G57">
-        <f>VLOOKUP(F57,Sheet2!C:E,3,FALSE)</f>
+      <c r="H57">
+        <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>54</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D58">
@@ -7193,24 +8327,24 @@
         <f t="shared" ref="E58:E64" si="8">C58&amp;" - " &amp;"Lv"&amp;D58</f>
         <v>紫4 - Lv9</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" ref="F58:F64" si="9">TEXT(SUBSTITUTE(C58,RIGHT(C58,1),"")&amp;D58,0)</f>
+      <c r="G58" t="str">
+        <f t="shared" ref="G58:G64" si="9">TEXT(SUBSTITUTE(C58,RIGHT(C58,1),"")&amp;D58,0)</f>
         <v>紫9</v>
       </c>
-      <c r="G58">
-        <f>VLOOKUP(F58,Sheet2!C:E,3,FALSE)</f>
+      <c r="H58">
+        <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="H58" s="23"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>55</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D59">
@@ -7220,26 +8354,26 @@
         <f t="shared" si="8"/>
         <v>橙1 - Lv10</v>
       </c>
-      <c r="F59" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="9"/>
         <v>橙10</v>
       </c>
-      <c r="G59">
-        <f>VLOOKUP(F59,Sheet2!C:E,3,FALSE)</f>
+      <c r="H59">
+        <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="I59" s="25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D60">
@@ -7249,24 +8383,24 @@
         <f t="shared" si="8"/>
         <v>橙2 - Lv10</v>
       </c>
-      <c r="F60" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="9"/>
         <v>橙10</v>
       </c>
-      <c r="G60">
-        <f>VLOOKUP(F60,Sheet2!C:E,3,FALSE)</f>
+      <c r="H60">
+        <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="H60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D61">
@@ -7276,24 +8410,24 @@
         <f t="shared" si="8"/>
         <v>紫1 - Lv10</v>
       </c>
-      <c r="F61" t="str">
+      <c r="G61" t="str">
         <f t="shared" si="9"/>
         <v>紫10</v>
       </c>
-      <c r="G61">
-        <f>VLOOKUP(F61,Sheet2!C:E,3,FALSE)</f>
+      <c r="H61">
+        <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="H61" s="24"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D62">
@@ -7303,24 +8437,27 @@
         <f t="shared" si="8"/>
         <v>紫2 - Lv10</v>
       </c>
-      <c r="F62" t="str">
+      <c r="G62" t="str">
         <f t="shared" si="9"/>
         <v>紫10</v>
       </c>
-      <c r="G62">
-        <f>VLOOKUP(F62,Sheet2!C:E,3,FALSE)</f>
+      <c r="H62">
+        <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="25"/>
+      <c r="K62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63">
         <v>59</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D63">
@@ -7330,24 +8467,27 @@
         <f t="shared" si="8"/>
         <v>紫3 - Lv10</v>
       </c>
-      <c r="F63" t="str">
+      <c r="G63" t="str">
         <f t="shared" si="9"/>
         <v>紫10</v>
       </c>
-      <c r="G63">
-        <f>VLOOKUP(F63,Sheet2!C:E,3,FALSE)</f>
+      <c r="H63">
+        <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="H63" s="24"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="25"/>
+      <c r="K63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D64">
@@ -7357,15 +8497,15 @@
         <f t="shared" si="8"/>
         <v>紫4 - Lv10</v>
       </c>
-      <c r="F64" t="str">
+      <c r="G64" t="str">
         <f t="shared" si="9"/>
         <v>紫10</v>
       </c>
-      <c r="G64">
-        <f>VLOOKUP(F64,Sheet2!C:E,3,FALSE)</f>
+      <c r="H64">
+        <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="H64" s="24"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
@@ -7458,26 +8598,431 @@
       <c r="A94" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H41:H58"/>
-    <mergeCell ref="H59:H64"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="H5:H22"/>
-    <mergeCell ref="H23:H40"/>
+  <mergeCells count="8">
+    <mergeCell ref="I41:I58"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="I5:I22"/>
+    <mergeCell ref="I23:I40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1">
+        <v>13</v>
+      </c>
+      <c r="N7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
@@ -9568,409 +11113,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>11</v>
-      </c>
-      <c r="L5" s="1">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1">
-        <v>13</v>
-      </c>
-      <c r="N5" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>11</v>
-      </c>
-      <c r="L7" s="1">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1">
-        <v>13</v>
-      </c>
-      <c r="N7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F171FA-F767-3C42-8EAF-A1C4EA1BF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A362DAE-195B-8540-9F26-E7D90B961880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Framework" sheetId="2" r:id="rId2"/>
     <sheet name="Dungeon" sheetId="4" r:id="rId3"/>
     <sheet name="Cards" sheetId="5" r:id="rId4"/>
-    <sheet name="Reference1" sheetId="9" r:id="rId5"/>
-    <sheet name="Review" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId5"/>
+    <sheet name="Reference1" sheetId="9" r:id="rId6"/>
+    <sheet name="Review" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="217">
   <si>
     <t>Birde</t>
   </si>
@@ -123,54 +124,12 @@
     <t>PVP 过程讨论or模拟or目标</t>
   </si>
   <si>
-    <t>传奇卡</t>
-  </si>
-  <si>
     <t>Lv</t>
   </si>
   <si>
-    <t>第一开球点</t>
-  </si>
-  <si>
-    <t>第二开球点</t>
-  </si>
-  <si>
-    <t>第三开球点</t>
-  </si>
-  <si>
-    <t>Birde1</t>
-  </si>
-  <si>
-    <t>Birde2</t>
-  </si>
-  <si>
-    <t>Eagle1</t>
-  </si>
-  <si>
-    <t>Eagle2</t>
-  </si>
-  <si>
-    <t>Eagle3</t>
-  </si>
-  <si>
-    <t>Albatross1</t>
-  </si>
-  <si>
-    <t>Albatross2</t>
-  </si>
-  <si>
-    <t>Albatross3</t>
-  </si>
-  <si>
-    <t>Albatross4</t>
-  </si>
-  <si>
     <t>⭐️</t>
   </si>
   <si>
-    <t>第四开球点</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 直接使用现成数据进行拟合</t>
   </si>
   <si>
@@ -646,13 +605,100 @@
   </si>
   <si>
     <t>【衔接】完成后获得紫1</t>
+  </si>
+  <si>
+    <t>birde</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>albatross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一个最根本的问题？  是否所有品级场的 Albatross 都从同一值开始加⭐️？   若如此做，则传奇卡失去对战时的 Unfair advantage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 不同品级的球场卡拥有不同固定 birde星星取值 与 eagle取值，从而区分出 eagle &amp; Albatross 的星星初始值</t>
+  </si>
+  <si>
+    <t>⭐️与平衡性关系较大，需做不同类型的战斗模拟以验证</t>
+  </si>
+  <si>
+    <t>ques： 卡与卡之间的差距要拉的如此之大吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破阶之后： Albatross 的基础星要变多 </t>
+  </si>
+  <si>
+    <t>悖论： 最后一级，能拉出这么多档的差距吗？</t>
+  </si>
+  <si>
+    <t>悖论：第一级才是拉出差距最多的档位啊</t>
+  </si>
+  <si>
+    <t>第一级才是⭐️可能性最多的级</t>
+  </si>
+  <si>
+    <t>第10级需要重构</t>
+  </si>
+  <si>
+    <t>第10级一定要是空投场</t>
+  </si>
+  <si>
+    <t>正常空投</t>
+  </si>
+  <si>
+    <t>大力空投</t>
+  </si>
+  <si>
+    <t>3-4-3空投</t>
+  </si>
+  <si>
+    <t>4-4-2空投</t>
+  </si>
+  <si>
+    <t>5-4-0空投</t>
+  </si>
+  <si>
+    <t>5档位</t>
+  </si>
+  <si>
+    <t>1.卡片之间要拉出差距</t>
+  </si>
+  <si>
+    <t>2.破解之后星星总数变多，各个成绩的基础星星值变多</t>
+  </si>
+  <si>
+    <t>3.最后一大区内的 Albatross 段不能有过多档位</t>
+  </si>
+  <si>
+    <t>四类玩家的模拟</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>水平</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,8 +728,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,8 +814,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACCCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -786,14 +850,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -808,16 +908,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -827,18 +936,39 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +977,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFACCCF"/>
       <color rgb="FFFFA6A7"/>
+      <color rgb="FF5CACF9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1864,15 +1996,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>123326</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110761</xdr:rowOff>
+      <xdr:colOff>288979</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>161426</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>139347</xdr:rowOff>
+      <xdr:colOff>327079</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1895,7 +2027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12260109" y="3688848"/>
+          <a:off x="12425762" y="3832087"/>
           <a:ext cx="6664187" cy="4600586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4542,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B76B-281E-8E47-AF7A-D4E6247A3AFE}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A5" zoomScale="115" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4657,22 +4789,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -4680,19 +4812,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s">
         <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -4766,10 +4898,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -4845,8 +4977,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -4920,8 +5052,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4995,8 +5127,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -5072,8 +5204,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -5138,8 +5270,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5195,8 +5327,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -5240,8 +5372,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -5280,8 +5412,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -5320,8 +5452,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -5362,8 +5494,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -5402,8 +5534,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -5442,10 +5574,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -5486,8 +5618,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -5525,12 +5657,12 @@
         <v>70</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5569,8 +5701,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -5611,8 +5743,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -5651,8 +5783,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5691,8 +5823,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -5733,8 +5865,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -5773,8 +5905,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5813,10 +5945,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -5857,8 +5989,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -5897,8 +6029,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -5937,8 +6069,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -5979,8 +6111,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -6019,8 +6151,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6059,8 +6191,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -6101,8 +6233,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -6141,8 +6273,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6181,10 +6313,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -6225,8 +6357,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -6265,8 +6397,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6306,6 +6438,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -6318,12 +6456,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6336,7 +6468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189F3F05-2483-004A-8615-441A100C4EE4}">
   <dimension ref="X11:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="111" workbookViewId="0">
       <selection sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -6389,9 +6521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29:G30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6399,7 +6531,7 @@
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
@@ -6468,61 +6600,61 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>196</v>
+        <v>52</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>63</v>
+      <c r="C5" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6531,8 +6663,8 @@
         <f>C5&amp;" - " &amp;"Lv"&amp;D5</f>
         <v>橙1 - Lv1</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>198</v>
+      <c r="F5" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="G5" t="str">
         <f>TEXT(SUBSTITUTE(C5,RIGHT(C5,1),"")&amp;D5,0)</f>
@@ -6542,19 +6674,19 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>181</v>
+      <c r="I5" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>64</v>
+      <c r="C6" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6563,8 +6695,8 @@
         <f t="shared" ref="E6:E22" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
         <v>橙2 - Lv1</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>199</v>
+      <c r="F6" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G22" si="1">TEXT(SUBSTITUTE(C6,RIGHT(C6,1),"")&amp;D6,0)</f>
@@ -6574,17 +6706,17 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>63</v>
+      <c r="C7" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -6593,8 +6725,8 @@
         <f t="shared" si="0"/>
         <v>橙1 - Lv2</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>200</v>
+      <c r="F7" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -6604,17 +6736,17 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>64</v>
+      <c r="C8" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -6623,8 +6755,8 @@
         <f t="shared" si="0"/>
         <v>橙2 - Lv2</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>201</v>
+      <c r="F8" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -6634,17 +6766,17 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>65</v>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6661,17 +6793,17 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>65</v>
+      <c r="C10" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -6688,17 +6820,17 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>118</v>
+      <c r="C11" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6715,17 +6847,17 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>118</v>
+      <c r="C12" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -6742,22 +6874,22 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="24"/>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
         <v>3</v>
       </c>
       <c r="E13" t="str">
@@ -6772,30 +6904,30 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="24"/>
       <c r="K13" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>197</v>
+      <c r="F14" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -6805,29 +6937,29 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="24"/>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="7">
         <v>2</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="23"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -6836,26 +6968,26 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="7">
         <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="23"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -6864,26 +6996,26 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="23"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -6892,26 +7024,26 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="7">
         <v>2</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="23"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -6920,29 +7052,29 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="24"/>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="7">
         <v>3</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="23"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -6951,22 +7083,22 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="24"/>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7">
         <v>3</v>
       </c>
       <c r="E20" t="str">
@@ -6981,22 +7113,22 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="24"/>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7">
         <v>3</v>
       </c>
       <c r="E21" t="str">
@@ -7011,19 +7143,19 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="7">
         <v>3</v>
       </c>
       <c r="E22" t="str">
@@ -7038,48 +7170,48 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="7">
         <v>4</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E6:E34" si="2">C23&amp;" - " &amp;"Lv"&amp;D23</f>
+        <f t="shared" ref="E23:E34" si="2">C23&amp;" - " &amp;"Lv"&amp;D23</f>
         <v>橙1 - Lv4</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G6:G39" si="3">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
+        <f t="shared" ref="G23:G39" si="3">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
         <v>橙4</v>
       </c>
       <c r="H23">
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>172</v>
+      <c r="I23" s="25" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7">
         <v>4</v>
       </c>
       <c r="E24" t="str">
@@ -7094,19 +7226,19 @@
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
       <c r="B25">
         <v>21</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7">
         <v>5</v>
       </c>
       <c r="E25" t="str">
@@ -7121,19 +7253,19 @@
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7">
         <v>5</v>
       </c>
       <c r="E26" t="str">
@@ -7148,19 +7280,19 @@
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7">
         <v>4</v>
       </c>
       <c r="E27" t="str">
@@ -7175,19 +7307,19 @@
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="7">
         <v>5</v>
       </c>
       <c r="E28" t="str">
@@ -7202,19 +7334,19 @@
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>25</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="7">
         <v>4</v>
       </c>
       <c r="E29" t="str">
@@ -7229,22 +7361,22 @@
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="25"/>
       <c r="N29" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7">
         <v>5</v>
       </c>
       <c r="E30" t="str">
@@ -7259,46 +7391,46 @@
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="25"/>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="R30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S30" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="T30" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="U30" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="7">
         <v>4</v>
       </c>
       <c r="E31" t="str">
@@ -7313,47 +7445,47 @@
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="25"/>
       <c r="K31" t="s">
-        <v>183</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q31" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="R31" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="U31" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>126</v>
+      <c r="C32" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -7370,45 +7502,45 @@
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="25"/>
       <c r="K32" t="s">
-        <v>184</v>
-      </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q32" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="M32" s="20"/>
+      <c r="N32" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="U32" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>127</v>
+      <c r="C33" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -7425,42 +7557,42 @@
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="R33" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="S33" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>148</v>
+      <c r="I33" s="25"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="U33" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>127</v>
+      <c r="C34" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -7477,50 +7609,50 @@
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="M34" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q34" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="S34" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>149</v>
+      <c r="I34" s="25"/>
+      <c r="M34" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="U34" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>31</v>
       </c>
       <c r="B35">
         <v>31</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>63</v>
+      <c r="C35" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E6:E48" si="4">C35&amp;" - " &amp;"Lv"&amp;D35</f>
+        <f t="shared" ref="E35:E40" si="4">C35&amp;" - " &amp;"Lv"&amp;D35</f>
         <v>橙1 - Lv6</v>
       </c>
       <c r="G35" t="str">
@@ -7531,42 +7663,42 @@
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="R35" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="S35" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>150</v>
+      <c r="I35" s="25"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="U35" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>32</v>
       </c>
       <c r="B36">
         <v>32</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>64</v>
+      <c r="C36" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -7583,45 +7715,45 @@
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="25"/>
       <c r="K36" t="s">
-        <v>185</v>
-      </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="S36" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>151</v>
+        <v>171</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="U36" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>33</v>
       </c>
       <c r="B37">
         <v>33</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>65</v>
+      <c r="C37" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -7638,47 +7770,47 @@
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="25"/>
       <c r="K37" t="s">
-        <v>186</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="R37" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="S37" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>152</v>
+        <v>172</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="U37" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>34</v>
       </c>
       <c r="B38">
         <v>34</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>118</v>
+      <c r="C38" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -7695,45 +7827,45 @@
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="25"/>
       <c r="K38" t="s">
-        <v>187</v>
-      </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="S38" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="T38" s="8" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="U38" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>35</v>
       </c>
       <c r="B39">
         <v>35</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>126</v>
+      <c r="C39" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -7750,42 +7882,42 @@
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="R39" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="S39" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>154</v>
+      <c r="I39" s="25"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="U39" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
       <c r="B40">
         <v>36</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>127</v>
+      <c r="C40" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -7795,57 +7927,57 @@
         <v>紫4 - Lv6</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" ref="G16:G46" si="5">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
+        <f t="shared" ref="G40:G42" si="5">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
         <v>紫6</v>
       </c>
       <c r="H40">
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="M40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="N40" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="R40" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="S40" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>155</v>
+      <c r="I40" s="25"/>
+      <c r="M40" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="U40" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41">
         <v>37</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>63</v>
+      <c r="C41" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ref="E41:E61" si="6">C41&amp;" - " &amp;"Lv"&amp;D41</f>
+        <f t="shared" ref="E41:E57" si="6">C41&amp;" - " &amp;"Lv"&amp;D41</f>
         <v>橙1 - Lv7</v>
       </c>
       <c r="G41" t="str">
@@ -7856,19 +7988,19 @@
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="24" t="s">
-        <v>173</v>
+      <c r="I41" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
       <c r="B42">
         <v>38</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>64</v>
+      <c r="C42" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -7885,17 +8017,17 @@
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="24"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43">
         <v>39</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>63</v>
+      <c r="C43" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -7905,24 +8037,24 @@
         <v>橙1 - Lv8</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" ref="G43:G61" si="7">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
+        <f t="shared" ref="G43:G57" si="7">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
         <v>橙8</v>
       </c>
       <c r="H43">
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="24"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>64</v>
+      <c r="C44" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -7939,17 +8071,17 @@
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="24"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <v>41</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>65</v>
+      <c r="C45" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -7966,17 +8098,17 @@
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <v>42</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>65</v>
+      <c r="C46" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D46">
         <v>8</v>
@@ -7993,17 +8125,17 @@
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="24"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>43</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>118</v>
+      <c r="C47" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -8020,17 +8152,17 @@
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="24"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>44</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>118</v>
+      <c r="C48" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -8047,20 +8179,20 @@
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="24"/>
+      <c r="I48" s="21"/>
       <c r="K48" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <v>45</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>126</v>
+      <c r="C49" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -8077,20 +8209,20 @@
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="24"/>
+      <c r="I49" s="21"/>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>46</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>126</v>
+      <c r="C50" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -8107,20 +8239,20 @@
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="24"/>
+      <c r="I50" s="21"/>
       <c r="K50" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>47</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>127</v>
+      <c r="C51" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D51">
         <v>7</v>
@@ -8137,17 +8269,17 @@
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="24"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>48</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>127</v>
+      <c r="C52" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -8164,17 +8296,17 @@
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="24"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>49</v>
       </c>
       <c r="B53">
         <v>49</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>63</v>
+      <c r="C53" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D53">
         <v>9</v>
@@ -8191,17 +8323,17 @@
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>50</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>64</v>
+      <c r="C54" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -8218,20 +8350,20 @@
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="24"/>
+      <c r="I54" s="21"/>
       <c r="K54" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+      <c r="A55" s="11">
         <v>51</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>65</v>
+      <c r="C55" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -8248,20 +8380,20 @@
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="24"/>
+      <c r="I55" s="21"/>
       <c r="K55" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <v>52</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>118</v>
+      <c r="C56" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -8278,20 +8410,20 @@
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="24"/>
+      <c r="I56" s="21"/>
       <c r="K56" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="A57" s="11">
         <v>53</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>126</v>
+      <c r="C57" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D57">
         <v>9</v>
@@ -8308,17 +8440,17 @@
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="24"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
+      <c r="A58" s="11">
         <v>54</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>127</v>
+      <c r="C58" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -8335,17 +8467,17 @@
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <v>55</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>63</v>
+      <c r="C59" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -8362,19 +8494,19 @@
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="25" t="s">
-        <v>174</v>
+      <c r="I59" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>56</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>64</v>
+      <c r="C60" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D60">
         <v>10</v>
@@ -8391,17 +8523,17 @@
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="25"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>57</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>65</v>
+      <c r="C61" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -8418,17 +8550,17 @@
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="25"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>58</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>118</v>
+      <c r="C62" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -8445,20 +8577,20 @@
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="25"/>
+      <c r="I62" s="22"/>
       <c r="K62" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>59</v>
       </c>
       <c r="B63">
         <v>59</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>126</v>
+      <c r="C63" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D63">
         <v>10</v>
@@ -8475,20 +8607,20 @@
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="25"/>
+      <c r="I63" s="22"/>
       <c r="K63" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>60</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>127</v>
+      <c r="C64" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D64">
         <v>10</v>
@@ -8505,97 +8637,97 @@
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="25"/>
+      <c r="I64" s="22"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="11"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="11"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
+      <c r="A75" s="11"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
+      <c r="A76" s="11"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
+      <c r="A77" s="11"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
+      <c r="A78" s="11"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
+      <c r="A79" s="11"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
+      <c r="A85" s="11"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
+      <c r="A87" s="11"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
+      <c r="A88" s="11"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
+      <c r="A89" s="11"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
+      <c r="A94" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8617,401 +8749,2428 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="J5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
+      <c r="S5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="40">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="40">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="40">
+        <v>6</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39">
+        <v>11</v>
+      </c>
+      <c r="J8" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="27">
+        <v>4</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>7</v>
+      </c>
+      <c r="S8" s="29">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="29">
+        <v>1</v>
+      </c>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="29">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="X8" s="28"/>
+      <c r="Y8" s="29">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40">
+        <v>2</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
+        <v>7</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39">
+        <v>12</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27">
+        <v>2</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
+        <v>5</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26">
+        <v>8</v>
+      </c>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29">
+        <v>3</v>
+      </c>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40">
+        <v>3</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40">
+        <v>8</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39">
+        <v>13</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27">
+        <v>3</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27">
+        <v>6</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26">
+        <v>9</v>
+      </c>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40">
+        <v>4</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40">
+        <v>9</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39">
+        <v>14</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26">
+        <v>10</v>
+      </c>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40">
+        <v>5</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40">
+        <v>10</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="W24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z24" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="40">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="40">
+        <v>6</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39">
+        <v>12</v>
+      </c>
+      <c r="J25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="27">
+        <v>1</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="27">
+        <v>4</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>8</v>
+      </c>
+      <c r="S25" s="29">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="29">
+        <v>1</v>
+      </c>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29">
+        <v>-1</v>
+      </c>
+      <c r="W25" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="X25" s="28"/>
+      <c r="Y25" s="29">
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40">
+        <v>2</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40">
+        <v>7</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39">
+        <v>13</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27">
+        <v>5</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26">
+        <v>9</v>
+      </c>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40">
+        <v>3</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40">
+        <v>8</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39">
+        <v>14</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27">
+        <v>6</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26">
+        <v>10</v>
+      </c>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29">
+        <v>4</v>
+      </c>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40">
+        <v>4</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40">
+        <v>9</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39">
+        <v>15</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27">
+        <v>7</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26">
+        <v>11</v>
+      </c>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40">
+        <v>10</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39">
+        <v>16</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26">
+        <v>12</v>
+      </c>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40">
+        <v>11</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q44" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="W44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z44" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="40">
+        <v>-1</v>
+      </c>
+      <c r="B45" s="40">
+        <v>1</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="40">
+        <v>7</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39">
+        <v>14</v>
+      </c>
+      <c r="J45" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="27">
+        <v>1</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="27">
+        <v>5</v>
+      </c>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>10</v>
+      </c>
+      <c r="S45" s="29">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="29">
+        <v>1</v>
+      </c>
+      <c r="U45" s="28"/>
+      <c r="V45" s="29">
+        <v>-1</v>
+      </c>
+      <c r="W45" s="29">
+        <v>3</v>
+      </c>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="29">
+        <v>-1</v>
+      </c>
+      <c r="Z45" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40">
+        <v>2</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40">
+        <v>8</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39">
+        <v>15</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27">
+        <v>2</v>
+      </c>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27">
         <v>6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26">
+        <v>11</v>
+      </c>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29">
+        <v>2</v>
+      </c>
+      <c r="U46" s="28"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29">
+        <v>4</v>
+      </c>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40">
+        <v>3</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40">
+        <v>9</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39">
+        <v>16</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27">
+        <v>3</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27">
         <v>7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26">
+        <v>12</v>
+      </c>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29">
+        <v>5</v>
+      </c>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40">
+        <v>4</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40">
+        <v>10</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39">
+        <v>17</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27">
+        <v>4</v>
+      </c>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27">
         <v>8</v>
       </c>
-      <c r="J4" s="1">
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26">
+        <v>13</v>
+      </c>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29">
+        <v>6</v>
+      </c>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28">
         <v>10</v>
       </c>
-      <c r="K4" s="1">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40">
+        <v>5</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40">
         <v>11</v>
       </c>
-      <c r="L4" s="1">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39">
+        <v>18</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27">
+        <v>9</v>
+      </c>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26">
+        <v>14</v>
+      </c>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40">
+        <v>6</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40">
         <v>12</v>
       </c>
-      <c r="M4" s="1">
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40">
         <v>13</v>
       </c>
-      <c r="N4" s="1">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N64" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q64" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S64" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T64" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="W64" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z64" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="40">
+        <v>-1</v>
+      </c>
+      <c r="B65" s="40">
+        <v>1</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="40">
+        <v>8</v>
+      </c>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39">
+        <v>16</v>
+      </c>
+      <c r="J65" s="27">
+        <v>-1</v>
+      </c>
+      <c r="K65" s="27">
+        <v>1</v>
+      </c>
+      <c r="L65" s="26"/>
+      <c r="M65" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N65" s="27">
+        <v>6</v>
+      </c>
+      <c r="O65" s="26"/>
+      <c r="P65" s="27">
+        <v>-1</v>
+      </c>
+      <c r="Q65" s="26">
+        <v>12</v>
+      </c>
+      <c r="S65" s="29">
+        <v>-1</v>
+      </c>
+      <c r="T65" s="29">
+        <v>1</v>
+      </c>
+      <c r="U65" s="28"/>
+      <c r="V65" s="29">
+        <v>-1</v>
+      </c>
+      <c r="W65" s="29">
+        <v>4</v>
+      </c>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="29">
+        <v>-1</v>
+      </c>
+      <c r="Z65" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="40">
+        <v>2</v>
+      </c>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40">
+        <v>9</v>
+      </c>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39">
+        <v>17</v>
+      </c>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27">
+        <v>2</v>
+      </c>
+      <c r="L66" s="26"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27">
+        <v>7</v>
+      </c>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26">
+        <v>13</v>
+      </c>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29">
+        <v>2</v>
+      </c>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29">
+        <v>5</v>
+      </c>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40">
+        <v>3</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40">
+        <v>10</v>
+      </c>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39">
+        <v>18</v>
+      </c>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27">
+        <v>3</v>
+      </c>
+      <c r="L67" s="26"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27">
+        <v>8</v>
+      </c>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="S67" s="29"/>
+      <c r="T67" s="29">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="U67" s="28"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29">
+        <v>6</v>
+      </c>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40">
+        <v>4</v>
+      </c>
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40">
+        <v>11</v>
+      </c>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39">
+        <v>19</v>
+      </c>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27">
+        <v>4</v>
+      </c>
+      <c r="L68" s="26"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27">
+        <v>9</v>
+      </c>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26">
+        <v>15</v>
+      </c>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29">
+        <v>7</v>
+      </c>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="C69" s="39"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40">
+        <v>12</v>
+      </c>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39">
+        <v>20</v>
+      </c>
+      <c r="J69" s="26"/>
+      <c r="K69" s="27">
+        <v>5</v>
+      </c>
+      <c r="L69" s="26"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27">
+        <v>10</v>
+      </c>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26">
+        <v>16</v>
+      </c>
+      <c r="S69" s="28"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29">
+        <v>8</v>
+      </c>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40">
+        <v>13</v>
+      </c>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27">
+        <v>11</v>
+      </c>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40">
         <v>7</v>
       </c>
-      <c r="I5" s="1">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>11</v>
-      </c>
-      <c r="L5" s="1">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1">
-        <v>13</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="C71" s="39"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>11</v>
-      </c>
-      <c r="L7" s="1">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1">
-        <v>13</v>
-      </c>
-      <c r="N7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40">
+        <v>15</v>
+      </c>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>196</v>
+      </c>
+      <c r="M80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>197</v>
+      </c>
+      <c r="M81" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>201</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
+        <v>202</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>207</v>
+      </c>
+      <c r="M85" t="s">
+        <v>203</v>
+      </c>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>208</v>
+      </c>
+      <c r="M86" t="s">
+        <v>204</v>
+      </c>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>209</v>
+      </c>
+      <c r="M87" t="s">
+        <v>205</v>
+      </c>
+      <c r="N87" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="3">
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9019,11 +11178,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B95D537-18ED-7A4B-831D-B6FACAE50269}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"充值" &amp; B7 &amp; " 水平" &amp;C6</f>
+        <v>充值多 水平低</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9034,26 +11247,26 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="10">
         <f t="shared" ref="D3:D12" si="0">VLOOKUP(B3,$F$43:$I$53,2,FALSE)</f>
         <v>1440</v>
       </c>
@@ -9063,16 +11276,16 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -9081,20 +11294,20 @@
         <v>1296</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
@@ -9103,20 +11316,20 @@
         <v>1152</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>3440</v>
       </c>
@@ -9125,20 +11338,20 @@
         <v>3440</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>3440</v>
       </c>
@@ -9148,16 +11361,16 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>3440</v>
       </c>
@@ -9167,16 +11380,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>7440</v>
       </c>
@@ -9185,20 +11398,20 @@
         <v>7440</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>7440</v>
       </c>
@@ -9207,20 +11420,20 @@
         <v>6696</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>7440</v>
       </c>
@@ -9228,26 +11441,26 @@
         <f>E9*0.8</f>
         <v>5952</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="I11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>15440</v>
       </c>
@@ -9257,16 +11470,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" ref="D14:D23" si="1">VLOOKUP(B14,$F$43:$I$53,3,FALSE)</f>
         <v>579</v>
       </c>
@@ -9276,16 +11489,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="9">
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
@@ -9295,16 +11508,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
@@ -9314,16 +11527,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="1"/>
         <v>1179</v>
       </c>
@@ -9333,16 +11546,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="1"/>
         <v>1179</v>
       </c>
@@ -9352,16 +11565,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>1179</v>
       </c>
@@ -9371,16 +11584,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
         <v>7</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>2379</v>
       </c>
@@ -9390,16 +11603,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>2379</v>
       </c>
@@ -9409,16 +11622,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="C22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>2379</v>
       </c>
@@ -9428,16 +11641,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="1"/>
         <v>3879</v>
       </c>
@@ -9447,22 +11660,22 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="8">
         <f>VLOOKUP(B25,$F$43:$I$53,4,FALSE)</f>
         <v>393</v>
       </c>
@@ -9472,16 +11685,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6">
         <v>2</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" ref="D26:D34" si="2">VLOOKUP(B26,$F$43:$I$53,4,FALSE)</f>
         <v>393</v>
       </c>
@@ -9491,16 +11704,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
         <v>3</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="2"/>
         <v>393</v>
       </c>
@@ -9510,16 +11723,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>793</v>
       </c>
@@ -9529,16 +11742,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="2"/>
         <v>793</v>
       </c>
@@ -9548,16 +11761,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="6">
         <v>6</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>793</v>
       </c>
@@ -9567,16 +11780,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6">
         <v>7</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="2"/>
         <v>1293</v>
       </c>
@@ -9586,16 +11799,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="6">
         <v>8</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="2"/>
         <v>1293</v>
       </c>
@@ -9605,16 +11818,16 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6">
         <v>9</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="C33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="2"/>
         <v>1293</v>
       </c>
@@ -9624,16 +11837,16 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="A34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6">
         <v>10</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>2293</v>
       </c>
@@ -9643,68 +11856,68 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G42" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -9736,7 +11949,7 @@
         <v>393</v>
       </c>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -9768,7 +11981,7 @@
         <v>393</v>
       </c>
       <c r="M45" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -10005,49 +12218,49 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" t="s">
+        <v>68</v>
+      </c>
+      <c r="M62" t="s">
+        <v>69</v>
+      </c>
+      <c r="N62" t="s">
+        <v>70</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="s">
         <v>72</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s">
-        <v>79</v>
-      </c>
-      <c r="J62" t="s">
-        <v>80</v>
-      </c>
-      <c r="K62" t="s">
-        <v>81</v>
-      </c>
-      <c r="L62" t="s">
-        <v>82</v>
-      </c>
-      <c r="M62" t="s">
-        <v>83</v>
-      </c>
-      <c r="N62" t="s">
-        <v>84</v>
-      </c>
-      <c r="O62" t="s">
-        <v>85</v>
-      </c>
-      <c r="P62" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -10099,49 +12312,49 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s">
+        <v>82</v>
+      </c>
+      <c r="L65" t="s">
+        <v>83</v>
+      </c>
+      <c r="M65" t="s">
+        <v>84</v>
+      </c>
+      <c r="N65" t="s">
+        <v>85</v>
+      </c>
+      <c r="O65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" t="s">
         <v>87</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" t="s">
-        <v>93</v>
-      </c>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-      <c r="J65" t="s">
-        <v>95</v>
-      </c>
-      <c r="K65" t="s">
-        <v>96</v>
-      </c>
-      <c r="L65" t="s">
-        <v>97</v>
-      </c>
-      <c r="M65" t="s">
-        <v>98</v>
-      </c>
-      <c r="N65" t="s">
-        <v>99</v>
-      </c>
-      <c r="O65" t="s">
-        <v>100</v>
-      </c>
-      <c r="P65" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -10193,13 +12406,13 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -10247,77 +12460,77 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>5</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>0</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" t="s">
+        <v>66</v>
+      </c>
+      <c r="K75" t="s">
+        <v>67</v>
+      </c>
+      <c r="L75" t="s">
+        <v>68</v>
+      </c>
+      <c r="M75" t="s">
+        <v>69</v>
+      </c>
+      <c r="N75" t="s">
+        <v>70</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="s">
         <v>72</v>
       </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>75</v>
-      </c>
-      <c r="F75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s">
-        <v>79</v>
-      </c>
-      <c r="J75" t="s">
-        <v>80</v>
-      </c>
-      <c r="K75" t="s">
-        <v>81</v>
-      </c>
-      <c r="L75" t="s">
-        <v>82</v>
-      </c>
-      <c r="M75" t="s">
-        <v>83</v>
-      </c>
-      <c r="N75" t="s">
-        <v>84</v>
-      </c>
-      <c r="O75" t="s">
-        <v>85</v>
-      </c>
-      <c r="P75" t="s">
-        <v>86</v>
-      </c>
       <c r="Q75" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="R75" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="S75" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="T75" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="U75" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -10383,169 +12596,169 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="Q78" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="R78" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="S78" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="T78" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O78" s="4" t="s">
+      <c r="U78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P78" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R78" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S78" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T78" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U78" s="4" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>2</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>4</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3">
         <v>10</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>20</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>50</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="3">
         <v>100</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <v>200</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="3">
         <v>400</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="3">
         <v>800</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="3">
         <v>1000</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="3">
         <v>1800</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79" s="3">
         <v>2600</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="3">
         <v>3400</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O79" s="3">
         <v>4200</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="3">
         <v>10000</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="Q79" s="3">
         <v>50000</v>
       </c>
-      <c r="R79" s="4">
+      <c r="R79" s="3">
         <v>100000</v>
       </c>
-      <c r="S79" s="4">
+      <c r="S79" s="3">
         <v>200000</v>
       </c>
-      <c r="T79" s="4">
+      <c r="T79" s="3">
         <v>400000</v>
       </c>
-      <c r="U79" s="4">
+      <c r="U79" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K83" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L83" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="P83" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Q83" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="S83" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -10591,7 +12804,7 @@
         <v>80</v>
       </c>
       <c r="S84" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="T84">
         <v>6</v>
@@ -10599,7 +12812,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -10645,7 +12858,7 @@
         <v>240</v>
       </c>
       <c r="S85" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="T85">
         <v>60</v>
@@ -10653,7 +12866,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -10699,7 +12912,7 @@
         <v>640</v>
       </c>
       <c r="S86" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="T86">
         <v>1600</v>
@@ -10707,7 +12920,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B87">
         <v>20</v>
@@ -10755,7 +12968,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B88">
         <v>50</v>
@@ -10803,7 +13016,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B89">
         <v>100</v>
@@ -10851,7 +13064,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B90">
         <v>200</v>
@@ -10899,7 +13112,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B91">
         <v>400</v>
@@ -10936,7 +13149,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B92">
         <v>800</v>
@@ -10973,7 +13186,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -11010,7 +13223,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B94">
         <v>2000</v>
@@ -11047,7 +13260,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>5000</v>
@@ -11073,7 +13286,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B96">
         <v>10000</v>
@@ -11085,7 +13298,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B97">
         <v>20000</v>
@@ -11097,7 +13310,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B98">
         <v>40000</v>
@@ -11116,7 +13329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C131825-9B07-BF4B-B700-6E148F9210BB}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -11128,47 +13341,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intelheartprime/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A362DAE-195B-8540-9F26-E7D90B961880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB8DFA4-508E-7643-8F93-227B4E4BA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="-1440" yWindow="-21100" windowWidth="37600" windowHeight="20200" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Framework" sheetId="2" r:id="rId2"/>
-    <sheet name="Dungeon" sheetId="4" r:id="rId3"/>
-    <sheet name="Cards" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId5"/>
-    <sheet name="Reference1" sheetId="9" r:id="rId6"/>
-    <sheet name="Review" sheetId="3" r:id="rId7"/>
+    <sheet name="ResFlow" sheetId="2" r:id="rId2"/>
+    <sheet name="Dungeon&amp;Framework" sheetId="4" r:id="rId3"/>
+    <sheet name="CardsStar" sheetId="5" r:id="rId4"/>
+    <sheet name="CardUpgrade" sheetId="11" r:id="rId5"/>
+    <sheet name="PlayerMatrix" sheetId="10" r:id="rId6"/>
+    <sheet name="Reference1" sheetId="9" r:id="rId7"/>
+    <sheet name="Review" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,11 +30,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="272">
   <si>
     <t>Birde</t>
   </si>
@@ -692,23 +690,234 @@
   </si>
   <si>
     <t>高</t>
+  </si>
+  <si>
+    <t>定价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙卡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫卡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇卡</t>
+  </si>
+  <si>
+    <t>传奇卡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要张数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度的各个卡片等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">传奇2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度的卡片张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度的卡片张数对应的价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值-纯主线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值-加上支线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用脚本列出所有进度与等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用公式列出需要拥有的卡片张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要开的宝箱次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考皇室战争升级张数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次希望玩家升级传奇卡升满吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然是希望的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同玩家投入的资源与产出的资源图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入的资源：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊球</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出的资源：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP进度条上的奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE进度条上的奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比从 3逐步衰减到1.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里产出的资源并未记球场卡，因为球场卡最后是不计入玩家资产的，它是体验的媒介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最关键在于对挂机数值如何模拟？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对开宝箱如何模拟？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何计入当期的剧本？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何估计pve进度与pvp进度的一般关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然同时也要做好纯pvp处的性价比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯PVP 价值比例 2-&gt;1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需卡牌数</t>
+  </si>
+  <si>
+    <t>普通（白卡）</t>
+  </si>
+  <si>
+    <t>稀有（橙卡）</t>
+  </si>
+  <si>
+    <t>史诗（紫卡）</t>
+  </si>
+  <si>
+    <t>解锁</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>皇室战争</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需金币</t>
+  </si>
+  <si>
+    <t>折算为美元？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -717,20 +926,61 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFA31A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFB300B3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF2B2B2B"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -891,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -904,9 +1154,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -918,6 +1165,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,19 +1187,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,18 +1207,38 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA6A7"/>
       <color rgb="FFFACCCF"/>
-      <color rgb="FFFFA6A7"/>
       <color rgb="FF5CACF9"/>
     </mruColors>
   </colors>
@@ -996,7 +1256,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1033,7 +1293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1048,7 +1308,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dungeon!$H$4</c:f>
+              <c:f>'Dungeon&amp;Framework'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1071,7 +1331,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dungeon!$H$5:$H$64</c:f>
+              <c:f>'Dungeon&amp;Framework'!$H$5:$H$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1317,7 +1577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569580432"/>
@@ -1376,7 +1636,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1914088240"/>
@@ -1424,7 +1684,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CN"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4372,11 +4632,301 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>186422</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>198074</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68AD3FB-DAFD-9349-A243-B2EB21205BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27427922" y="2519959"/>
+          <a:ext cx="11652" cy="3680903"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>233028</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>58257</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7745E4-6670-4C41-95E0-C4E4FC489622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27474528" y="6177559"/>
+          <a:ext cx="3952729" cy="23303"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>139817</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>34954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>629175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="上箭头标注 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BE271E-27A5-F548-B411-A1AD8CF087FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29032317" y="6334154"/>
+          <a:ext cx="1314858" cy="574646"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>投入的资源</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>792294</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>664128</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>58256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右箭头标注 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B52602F-279B-3D47-83ED-7E97A67C3E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26382794" y="2949662"/>
+          <a:ext cx="697334" cy="1172594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收获的资源</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>149076</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="弧 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3EB9E7-FA32-FE40-844E-DCAEC4040E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="57485421" y="3830180"/>
+          <a:ext cx="7149036" cy="5686275"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4678,13 +5228,13 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -4788,23 +5338,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="20" t="s">
+    <row r="2" spans="1:34">
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -4827,7 +5377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -4897,11 +5447,11 @@
         <v>0.11306039167826701</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:34">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -4976,9 +5526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+    <row r="5" spans="1:34">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -5051,9 +5601,9 @@
         <v>4.3935088957113705E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:34">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5126,9 +5676,9 @@
         <v>0.1160160942773784</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:34">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -5203,9 +5753,9 @@
         <v>6.8839266985755423E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:34">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -5269,9 +5819,9 @@
         <v>9.3438340229972717E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+    <row r="9" spans="1:34">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5326,9 +5876,9 @@
         <v>0.28082988501363437</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:34">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -5371,9 +5921,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+    <row r="11" spans="1:34">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -5411,9 +5961,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+    <row r="12" spans="1:34">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -5451,9 +6001,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:34">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -5493,9 +6043,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:34">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -5533,9 +6083,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:34">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -5573,11 +6123,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:34">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -5617,9 +6167,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -5660,9 +6210,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5700,9 +6250,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -5742,9 +6292,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:16">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -5782,9 +6332,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -5822,9 +6372,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -5864,9 +6414,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:16">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -5904,9 +6454,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+    <row r="24" spans="1:16">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -5944,11 +6494,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -5988,9 +6538,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+    <row r="26" spans="1:16">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -6028,9 +6578,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6068,9 +6618,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -6110,9 +6660,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:16">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -6150,9 +6700,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+    <row r="30" spans="1:16">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6190,9 +6740,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -6232,9 +6782,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:16">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -6272,9 +6822,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:14">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6312,11 +6862,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:14">
+      <c r="A34" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -6356,9 +6906,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -6396,9 +6946,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+    <row r="36" spans="1:14">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6438,12 +6988,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -6456,6 +7000,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6468,13 +7018,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189F3F05-2483-004A-8615-441A100C4EE4}">
   <dimension ref="X11:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="111" workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="11" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="24:26">
       <c r="X11" t="s">
         <v>20</v>
       </c>
@@ -6482,12 +7032,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="24:26">
       <c r="Y13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="24:26">
       <c r="X15" t="s">
         <v>19</v>
       </c>
@@ -6495,22 +7045,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="24:26">
       <c r="X22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="24:26">
       <c r="Z24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="24:26">
       <c r="X29" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -6519,24 +7070,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:BO94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6598,7 +7149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6609,7 +7160,7 @@
         <v>53</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="19"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -6619,8 +7170,26 @@
       <c r="N2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="17">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6636,7 +7205,7 @@
       <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>182</v>
       </c>
       <c r="G4" t="s">
@@ -6645,15 +7214,102 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>225</v>
+      </c>
+      <c r="X4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" ht="17">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D5">
@@ -6663,7 +7319,7 @@
         <f>C5&amp;" - " &amp;"Lv"&amp;D5</f>
         <v>橙1 - Lv1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>184</v>
       </c>
       <c r="G5" t="str">
@@ -6674,18 +7330,45 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="29" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="18" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D6">
@@ -6695,7 +7378,7 @@
         <f t="shared" ref="E6:E22" si="0">C6&amp;" - " &amp;"Lv"&amp;D6</f>
         <v>橙2 - Lv1</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>185</v>
       </c>
       <c r="G6" t="str">
@@ -6706,16 +7389,40 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="29"/>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="19" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D7">
@@ -6725,7 +7432,7 @@
         <f t="shared" si="0"/>
         <v>橙1 - Lv2</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>186</v>
       </c>
       <c r="G7" t="str">
@@ -6736,16 +7443,46 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="I7" s="29"/>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="17">
       <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D8">
@@ -6755,7 +7492,7 @@
         <f t="shared" si="0"/>
         <v>橙2 - Lv2</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>187</v>
       </c>
       <c r="G8" t="str">
@@ -6766,16 +7503,43 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I8" s="29"/>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D9">
@@ -6793,16 +7557,22 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I9" s="29"/>
+      <c r="BK9" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D10">
@@ -6820,16 +7590,22 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I10" s="29"/>
+      <c r="BK10" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D11">
@@ -6847,16 +7623,19 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I11" s="29"/>
+      <c r="BK11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D12">
@@ -6874,19 +7653,22 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="29"/>
       <c r="K12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="BM12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="7">
@@ -6904,19 +7686,19 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="29"/>
       <c r="K13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="7">
@@ -6926,7 +7708,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="28" t="s">
         <v>183</v>
       </c>
       <c r="G14" t="str">
@@ -6937,19 +7719,19 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="29"/>
       <c r="K14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65">
       <c r="A15" s="11">
         <v>11</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="7">
@@ -6959,7 +7741,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="28"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -6968,16 +7750,16 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:65">
       <c r="A16" s="11">
         <v>12</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="7">
@@ -6987,7 +7769,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="28"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -6996,16 +7778,16 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="11">
         <v>13</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="7">
@@ -7015,7 +7797,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="28"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -7024,16 +7806,16 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="11">
         <v>14</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="7">
@@ -7043,7 +7825,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="28"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -7052,19 +7834,19 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="29"/>
       <c r="K18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="11">
         <v>15</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="7">
@@ -7074,7 +7856,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="28"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -7083,19 +7865,19 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="29"/>
       <c r="K19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="7">
@@ -7113,19 +7895,19 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="29"/>
       <c r="K20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="7">
@@ -7143,16 +7925,16 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="7">
@@ -7170,16 +7952,16 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="7">
@@ -7197,18 +7979,18 @@
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="7">
@@ -7226,16 +8008,16 @@
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="11">
         <v>21</v>
       </c>
       <c r="B25">
         <v>21</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="7">
@@ -7253,16 +8035,16 @@
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="11">
         <v>22</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="7">
@@ -7280,16 +8062,16 @@
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="11">
         <v>23</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="7">
@@ -7307,16 +8089,16 @@
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="11">
         <v>24</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="7">
@@ -7334,16 +8116,16 @@
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="11">
         <v>25</v>
       </c>
       <c r="B29">
         <v>25</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="7">
@@ -7361,19 +8143,19 @@
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="30"/>
       <c r="N29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D30" s="7">
@@ -7391,7 +8173,7 @@
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="I30" s="30"/>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -7420,14 +8202,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31">
         <v>27</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="7">
@@ -7445,29 +8227,29 @@
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="30"/>
       <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="R31" s="15" t="s">
+      <c r="R31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="S31" s="15" t="s">
+      <c r="S31" s="14" t="s">
         <v>132</v>
       </c>
       <c r="T31" s="7" t="s">
@@ -7477,14 +8259,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D32">
@@ -7502,27 +8284,27 @@
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="30"/>
       <c r="K32" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="14" t="s">
+      <c r="M32" s="40"/>
+      <c r="N32" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="P32" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="Q32" s="15" t="s">
+      <c r="Q32" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="R32" s="15" t="s">
+      <c r="R32" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S32" s="15" t="s">
+      <c r="S32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="T32" s="7" t="s">
@@ -7532,14 +8314,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:67">
       <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33">
         <v>29</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D33">
@@ -7557,24 +8339,24 @@
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="14" t="s">
+      <c r="I33" s="30"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="P33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="R33" s="15" t="s">
+      <c r="R33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="S33" s="15" t="s">
+      <c r="S33" s="14" t="s">
         <v>134</v>
       </c>
       <c r="T33" s="7" t="s">
@@ -7584,14 +8366,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:67">
       <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D34">
@@ -7609,26 +8391,26 @@
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="M34" s="20" t="s">
+      <c r="I34" s="30"/>
+      <c r="M34" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="P34" s="15" t="s">
+      <c r="P34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="Q34" s="15" t="s">
+      <c r="Q34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="R34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="S34" s="15" t="s">
+      <c r="S34" s="14" t="s">
         <v>135</v>
       </c>
       <c r="T34" s="7" t="s">
@@ -7638,14 +8420,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67">
       <c r="A35" s="11">
         <v>31</v>
       </c>
       <c r="B35">
         <v>31</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D35">
@@ -7663,24 +8445,24 @@
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="14" t="s">
+      <c r="I35" s="30"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="P35" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="R35" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="S35" s="15" t="s">
+      <c r="S35" s="14" t="s">
         <v>136</v>
       </c>
       <c r="T35" s="7" t="s">
@@ -7690,14 +8472,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67">
       <c r="A36" s="11">
         <v>32</v>
       </c>
       <c r="B36">
         <v>32</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D36">
@@ -7715,27 +8497,27 @@
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="25"/>
+      <c r="I36" s="30"/>
       <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="14" t="s">
+      <c r="M36" s="40"/>
+      <c r="N36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="P36" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="R36" s="15" t="s">
+      <c r="R36" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="S36" s="15" t="s">
+      <c r="S36" s="14" t="s">
         <v>137</v>
       </c>
       <c r="T36" s="7" t="s">
@@ -7745,14 +8527,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:67">
       <c r="A37" s="11">
         <v>33</v>
       </c>
       <c r="B37">
         <v>33</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D37">
@@ -7770,29 +8552,29 @@
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="30"/>
       <c r="K37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="O37" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="R37" s="15" t="s">
+      <c r="R37" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="S37" s="15" t="s">
+      <c r="S37" s="14" t="s">
         <v>138</v>
       </c>
       <c r="T37" s="7" t="s">
@@ -7802,14 +8584,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:67">
       <c r="A38" s="11">
         <v>34</v>
       </c>
       <c r="B38">
         <v>34</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D38">
@@ -7827,27 +8609,27 @@
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="30"/>
       <c r="K38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="14" t="s">
+      <c r="M38" s="40"/>
+      <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="O38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="R38" s="15" t="s">
+      <c r="R38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S38" s="15" t="s">
+      <c r="S38" s="14" t="s">
         <v>139</v>
       </c>
       <c r="T38" s="7" t="s">
@@ -7857,14 +8639,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67">
       <c r="A39" s="11">
         <v>35</v>
       </c>
       <c r="B39">
         <v>35</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D39">
@@ -7882,24 +8664,24 @@
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="14" t="s">
+      <c r="I39" s="30"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="O39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P39" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="R39" s="15" t="s">
+      <c r="R39" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="S39" s="15" t="s">
+      <c r="S39" s="14" t="s">
         <v>140</v>
       </c>
       <c r="T39" s="7" t="s">
@@ -7909,14 +8691,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67">
       <c r="A40" s="2">
         <v>36</v>
       </c>
       <c r="B40">
         <v>36</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D40">
@@ -7934,26 +8716,26 @@
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="M40" s="12" t="s">
+      <c r="I40" s="30"/>
+      <c r="M40" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="S40" s="15" t="s">
+      <c r="S40" s="14" t="s">
         <v>141</v>
       </c>
       <c r="T40" s="7" t="s">
@@ -7962,15 +8744,18 @@
       <c r="U40" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="BK40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67">
       <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41">
         <v>37</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D41">
@@ -7988,18 +8773,21 @@
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="26" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="BK41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67">
       <c r="A42" s="2">
         <v>38</v>
       </c>
       <c r="B42">
         <v>38</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D42">
@@ -8017,16 +8805,22 @@
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I42" s="26"/>
+      <c r="BK42" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="BL42" s="48"/>
+      <c r="BM42" s="48"/>
+      <c r="BN42" s="48"/>
+    </row>
+    <row r="43" spans="1:67">
       <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43">
         <v>39</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D43">
@@ -8044,16 +8838,22 @@
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I43" s="26"/>
+      <c r="BK43" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:67">
       <c r="A44" s="2">
         <v>40</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D44">
@@ -8071,16 +8871,19 @@
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I44" s="26"/>
+      <c r="BK44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67">
       <c r="A45" s="11">
         <v>41</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D45">
@@ -8098,16 +8901,16 @@
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:67">
       <c r="A46" s="11">
         <v>42</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D46">
@@ -8125,16 +8928,16 @@
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:67">
       <c r="A47" s="11">
         <v>43</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D47">
@@ -8152,16 +8955,16 @@
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:67">
       <c r="A48" s="11">
         <v>44</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D48">
@@ -8179,19 +8982,19 @@
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48" s="26"/>
       <c r="K48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="11">
         <v>45</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D49">
@@ -8209,19 +9012,19 @@
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="21"/>
+      <c r="I49" s="26"/>
       <c r="K49" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>46</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D50">
@@ -8239,19 +9042,19 @@
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="21"/>
+      <c r="I50" s="26"/>
       <c r="K50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>47</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D51">
@@ -8269,16 +9072,16 @@
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>48</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D52">
@@ -8296,16 +9099,16 @@
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>49</v>
       </c>
       <c r="B53">
         <v>49</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D53">
@@ -8323,16 +9126,16 @@
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>50</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D54">
@@ -8350,19 +9153,19 @@
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="21"/>
+      <c r="I54" s="26"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="11">
         <v>51</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D55">
@@ -8380,19 +9183,19 @@
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="21"/>
+      <c r="I55" s="26"/>
       <c r="K55" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="11">
         <v>52</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D56">
@@ -8410,19 +9213,19 @@
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="21"/>
+      <c r="I56" s="26"/>
       <c r="K56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="11">
         <v>53</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D57">
@@ -8440,16 +9243,16 @@
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="11">
         <v>54</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D58">
@@ -8467,16 +9270,16 @@
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="11">
         <v>55</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D59">
@@ -8494,18 +9297,18 @@
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="I59" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>56</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D60">
@@ -8523,16 +9326,16 @@
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="22"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>57</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D61">
@@ -8550,16 +9353,16 @@
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>58</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D62">
@@ -8577,19 +9380,19 @@
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="22"/>
+      <c r="I62" s="27"/>
       <c r="K62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>59</v>
       </c>
       <c r="B63">
         <v>59</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D63">
@@ -8607,19 +9410,19 @@
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="22"/>
+      <c r="I63" s="27"/>
       <c r="K63" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>60</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D64">
@@ -8637,96 +9440,96 @@
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="11"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="11"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="11"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="11"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="11"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="11"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="2"/>
     </row>
   </sheetData>
@@ -8751,18 +9554,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
   <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="S1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -8770,2341 +9573,2341 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="O3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:26">
+      <c r="A5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="J5" s="30" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="J5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="S5" s="33" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="S5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="33"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26" t="s">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="T7" s="28" t="s">
+      <c r="T7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28" t="s">
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="Z7" s="28" t="s">
+      <c r="Z7" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+    <row r="8" spans="1:26">
+      <c r="A8" s="24">
         <v>-1</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="24">
         <v>1</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24">
         <v>-1</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="24">
         <v>6</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
         <v>11</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="20">
         <v>-1</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="20">
         <v>1</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27">
+      <c r="L8" s="19"/>
+      <c r="M8" s="20">
         <v>-1</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="20">
         <v>4</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27">
+      <c r="O8" s="19"/>
+      <c r="P8" s="20">
         <v>-1</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="19">
         <v>7</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="22">
         <v>-1</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="22">
         <v>1</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29">
+      <c r="U8" s="21"/>
+      <c r="V8" s="22">
         <v>-1</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="22">
         <v>2</v>
       </c>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="29">
+      <c r="X8" s="21"/>
+      <c r="Y8" s="22">
         <v>-1</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40">
+    <row r="9" spans="1:26">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
         <v>7</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
         <v>12</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20">
         <v>2</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>5</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19">
         <v>8</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22">
         <v>3</v>
       </c>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28">
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40">
+    <row r="10" spans="1:26">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24">
         <v>3</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24">
         <v>8</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <v>13</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20">
         <v>3</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27">
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
         <v>6</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26">
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19">
         <v>9</v>
       </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28">
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40">
+    <row r="11" spans="1:26">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
         <v>9</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <v>14</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19">
         <v>10</v>
       </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40">
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24">
         <v>5</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <v>10</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23">
         <v>1</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:26">
+      <c r="A24" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26" t="s">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26" t="s">
+      <c r="O24" s="19"/>
+      <c r="P24" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="Q24" s="26" t="s">
+      <c r="Q24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S24" s="28" t="s">
+      <c r="S24" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="T24" s="28" t="s">
+      <c r="T24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28" t="s">
+      <c r="U24" s="21"/>
+      <c r="V24" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="W24" s="28" t="s">
+      <c r="W24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28" t="s">
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="Z24" s="28" t="s">
+      <c r="Z24" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
+    <row r="25" spans="1:26">
+      <c r="A25" s="24">
         <v>-1</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="24">
         <v>1</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24">
         <v>-1</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="24">
         <v>6</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23">
         <v>12</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="20">
         <v>-1</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="20">
         <v>1</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27">
+      <c r="L25" s="19"/>
+      <c r="M25" s="20">
         <v>-1</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="20">
         <v>4</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27">
+      <c r="O25" s="19"/>
+      <c r="P25" s="20">
         <v>-1</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="19">
         <v>8</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="22">
         <v>-1</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="22">
         <v>1</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="29">
+      <c r="U25" s="21"/>
+      <c r="V25" s="22">
         <v>-1</v>
       </c>
-      <c r="W25" s="29">
+      <c r="W25" s="22">
         <v>2</v>
       </c>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="29">
+      <c r="X25" s="21"/>
+      <c r="Y25" s="22">
         <v>-1</v>
       </c>
-      <c r="Z25" s="29">
+      <c r="Z25" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40">
+    <row r="26" spans="1:26">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
         <v>2</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40">
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24">
         <v>7</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23">
         <v>13</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27">
+      <c r="J26" s="20"/>
+      <c r="K26" s="20">
         <v>2</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27">
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20">
         <v>5</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26">
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19">
         <v>9</v>
       </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29">
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22">
         <v>3</v>
       </c>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28">
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40">
+    <row r="27" spans="1:26">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24">
         <v>3</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40">
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24">
         <v>8</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23">
         <v>14</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27">
+      <c r="J27" s="20"/>
+      <c r="K27" s="20">
         <v>3</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27">
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20">
         <v>6</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26">
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19">
         <v>10</v>
       </c>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29">
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22">
         <v>4</v>
       </c>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="29">
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40">
+    <row r="28" spans="1:26">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24">
         <v>4</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24">
         <v>9</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
         <v>15</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27">
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20">
         <v>7</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19">
         <v>11</v>
       </c>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40">
+    <row r="29" spans="1:26">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24">
         <v>5</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40">
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24">
         <v>10</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
         <v>16</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19">
         <v>12</v>
       </c>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24">
         <v>11</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39" t="s">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26" t="s">
+      <c r="L44" s="19"/>
+      <c r="M44" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N44" s="26" t="s">
+      <c r="N44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26" t="s">
+      <c r="O44" s="19"/>
+      <c r="P44" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="Q44" s="26" t="s">
+      <c r="Q44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S44" s="28" t="s">
+      <c r="S44" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="T44" s="28" t="s">
+      <c r="T44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28" t="s">
+      <c r="U44" s="21"/>
+      <c r="V44" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="W44" s="28" t="s">
+      <c r="W44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28" t="s">
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="Z44" s="28" t="s">
+      <c r="Z44" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="40">
+    <row r="45" spans="1:26">
+      <c r="A45" s="24">
         <v>-1</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="24">
         <v>1</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40">
+      <c r="C45" s="23"/>
+      <c r="D45" s="24">
         <v>-1</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="24">
         <v>7</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23">
         <v>14</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="20">
         <v>-1</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="20">
         <v>1</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="27">
+      <c r="L45" s="19"/>
+      <c r="M45" s="20">
         <v>-1</v>
       </c>
-      <c r="N45" s="27">
+      <c r="N45" s="20">
         <v>5</v>
       </c>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27">
+      <c r="O45" s="19"/>
+      <c r="P45" s="20">
         <v>-1</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="19">
         <v>10</v>
       </c>
-      <c r="S45" s="29">
+      <c r="S45" s="22">
         <v>-1</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="22">
         <v>1</v>
       </c>
-      <c r="U45" s="28"/>
-      <c r="V45" s="29">
+      <c r="U45" s="21"/>
+      <c r="V45" s="22">
         <v>-1</v>
       </c>
-      <c r="W45" s="29">
+      <c r="W45" s="22">
         <v>3</v>
       </c>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="29">
+      <c r="X45" s="21"/>
+      <c r="Y45" s="22">
         <v>-1</v>
       </c>
-      <c r="Z45" s="28">
+      <c r="Z45" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40">
+    <row r="46" spans="1:26">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24">
         <v>2</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40">
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24">
         <v>8</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39">
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23">
         <v>15</v>
       </c>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27">
+      <c r="J46" s="20"/>
+      <c r="K46" s="20">
         <v>2</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27">
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20">
         <v>6</v>
       </c>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26">
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19">
         <v>11</v>
       </c>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29">
+      <c r="S46" s="22"/>
+      <c r="T46" s="22">
         <v>2</v>
       </c>
-      <c r="U46" s="28"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29">
+      <c r="U46" s="21"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22">
         <v>4</v>
       </c>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28">
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40">
+    <row r="47" spans="1:26">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24">
         <v>3</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40">
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24">
         <v>9</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23">
         <v>16</v>
       </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27">
+      <c r="J47" s="20"/>
+      <c r="K47" s="20">
         <v>3</v>
       </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27">
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20">
         <v>7</v>
       </c>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19">
         <v>12</v>
       </c>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22">
         <v>5</v>
       </c>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28">
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40">
+    <row r="48" spans="1:26">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24">
         <v>4</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40">
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24">
         <v>10</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23">
         <v>17</v>
       </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27">
+      <c r="J48" s="20"/>
+      <c r="K48" s="20">
         <v>4</v>
       </c>
-      <c r="L48" s="26"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27">
+      <c r="L48" s="19"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20">
         <v>8</v>
       </c>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26">
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19">
         <v>13</v>
       </c>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29">
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22">
         <v>6</v>
       </c>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28">
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40">
+    <row r="49" spans="1:26">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24">
         <v>5</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40">
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24">
         <v>11</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23">
         <v>18</v>
       </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27">
+      <c r="J49" s="19"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20">
         <v>9</v>
       </c>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26">
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19">
         <v>14</v>
       </c>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40">
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24">
         <v>6</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40">
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24">
         <v>12</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40">
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24">
         <v>13</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="39" t="s">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39" t="s">
+      <c r="C64" s="23"/>
+      <c r="D64" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39" t="s">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K64" s="26" t="s">
+      <c r="K64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26" t="s">
+      <c r="L64" s="19"/>
+      <c r="M64" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N64" s="26" t="s">
+      <c r="N64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26" t="s">
+      <c r="O64" s="19"/>
+      <c r="P64" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="Q64" s="26" t="s">
+      <c r="Q64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S64" s="28" t="s">
+      <c r="S64" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="T64" s="28" t="s">
+      <c r="T64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28" t="s">
+      <c r="U64" s="21"/>
+      <c r="V64" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="W64" s="28" t="s">
+      <c r="W64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28" t="s">
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="Z64" s="28" t="s">
+      <c r="Z64" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="40">
+    <row r="65" spans="1:26">
+      <c r="A65" s="24">
         <v>-1</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="24">
         <v>1</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40">
+      <c r="C65" s="23"/>
+      <c r="D65" s="24">
         <v>-1</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="24">
         <v>8</v>
       </c>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39">
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23">
         <v>16</v>
       </c>
-      <c r="J65" s="27">
+      <c r="J65" s="20">
         <v>-1</v>
       </c>
-      <c r="K65" s="27">
+      <c r="K65" s="20">
         <v>1</v>
       </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="27">
+      <c r="L65" s="19"/>
+      <c r="M65" s="20">
         <v>-1</v>
       </c>
-      <c r="N65" s="27">
+      <c r="N65" s="20">
         <v>6</v>
       </c>
-      <c r="O65" s="26"/>
-      <c r="P65" s="27">
+      <c r="O65" s="19"/>
+      <c r="P65" s="20">
         <v>-1</v>
       </c>
-      <c r="Q65" s="26">
+      <c r="Q65" s="19">
         <v>12</v>
       </c>
-      <c r="S65" s="29">
+      <c r="S65" s="22">
         <v>-1</v>
       </c>
-      <c r="T65" s="29">
+      <c r="T65" s="22">
         <v>1</v>
       </c>
-      <c r="U65" s="28"/>
-      <c r="V65" s="29">
+      <c r="U65" s="21"/>
+      <c r="V65" s="22">
         <v>-1</v>
       </c>
-      <c r="W65" s="29">
+      <c r="W65" s="22">
         <v>4</v>
       </c>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="29">
+      <c r="X65" s="21"/>
+      <c r="Y65" s="22">
         <v>-1</v>
       </c>
-      <c r="Z65" s="29">
+      <c r="Z65" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40">
+    <row r="66" spans="1:26">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24">
         <v>2</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40">
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24">
         <v>9</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39">
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23">
         <v>17</v>
       </c>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27">
+      <c r="J66" s="20"/>
+      <c r="K66" s="20">
         <v>2</v>
       </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27">
+      <c r="L66" s="19"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20">
         <v>7</v>
       </c>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26">
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19">
         <v>13</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29">
+      <c r="S66" s="22"/>
+      <c r="T66" s="22">
         <v>2</v>
       </c>
-      <c r="U66" s="28"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29">
+      <c r="U66" s="21"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22">
         <v>5</v>
       </c>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28">
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40">
+    <row r="67" spans="1:26">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24">
         <v>3</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40">
+      <c r="C67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24">
         <v>10</v>
       </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39">
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23">
         <v>18</v>
       </c>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27">
+      <c r="J67" s="20"/>
+      <c r="K67" s="20">
         <v>3</v>
       </c>
-      <c r="L67" s="26"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27">
+      <c r="L67" s="19"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20">
         <v>8</v>
       </c>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26">
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19">
         <v>14</v>
       </c>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29">
+      <c r="S67" s="22"/>
+      <c r="T67" s="22">
         <v>3</v>
       </c>
-      <c r="U67" s="28"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29">
+      <c r="U67" s="21"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22">
         <v>6</v>
       </c>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28">
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40">
+    <row r="68" spans="1:26">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24">
         <v>4</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40">
+      <c r="C68" s="23"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24">
         <v>11</v>
       </c>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39">
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23">
         <v>19</v>
       </c>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27">
+      <c r="J68" s="20"/>
+      <c r="K68" s="20">
         <v>4</v>
       </c>
-      <c r="L68" s="26"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27">
+      <c r="L68" s="19"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20">
         <v>9</v>
       </c>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26">
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19">
         <v>15</v>
       </c>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29">
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22">
         <v>7</v>
       </c>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28">
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40">
+    <row r="69" spans="1:26">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24">
         <v>5</v>
       </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40">
+      <c r="C69" s="23"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24">
         <v>12</v>
       </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39">
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23">
         <v>20</v>
       </c>
-      <c r="J69" s="26"/>
-      <c r="K69" s="27">
+      <c r="J69" s="19"/>
+      <c r="K69" s="20">
         <v>5</v>
       </c>
-      <c r="L69" s="26"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27">
+      <c r="L69" s="19"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20">
         <v>10</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26">
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19">
         <v>16</v>
       </c>
-      <c r="S69" s="28"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29">
+      <c r="S69" s="21"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22">
         <v>8</v>
       </c>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40">
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24">
         <v>6</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40">
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24">
         <v>13</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27">
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20">
         <v>11</v>
       </c>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40">
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24">
         <v>7</v>
       </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40">
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24">
         <v>14</v>
       </c>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40">
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24">
         <v>15</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+    </row>
+    <row r="80" spans="1:26">
       <c r="G80" t="s">
         <v>196</v>
       </c>
@@ -11112,7 +11915,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:14">
       <c r="G81" t="s">
         <v>197</v>
       </c>
@@ -11120,12 +11923,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:14">
       <c r="G82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:14">
       <c r="M83" t="s">
         <v>201</v>
       </c>
@@ -11133,13 +11936,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:14">
       <c r="M84" t="s">
         <v>202</v>
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:14">
       <c r="G85" t="s">
         <v>207</v>
       </c>
@@ -11148,7 +11951,7 @@
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:14">
       <c r="G86" t="s">
         <v>208</v>
       </c>
@@ -11157,7 +11960,7 @@
       </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:14">
       <c r="G87" t="s">
         <v>209</v>
       </c>
@@ -11172,66 +11975,844 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="J5:Q5"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B95D537-18ED-7A4B-831D-B6FACAE50269}">
-  <dimension ref="A2:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A8B60-FF78-F14F-B548-B7C2DFDD14B0}">
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18">
       <c r="D6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="str">
-        <f>"充值" &amp; B7 &amp; " 水平" &amp;C6</f>
-        <v>充值多 水平低</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18">
+      <c r="P7" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S7" s="46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18">
+      <c r="P8" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="42">
+        <v>1</v>
+      </c>
+      <c r="R8" s="42">
+        <v>1</v>
+      </c>
+      <c r="S8" s="42">
+        <v>1</v>
+      </c>
+      <c r="T8" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18">
+      <c r="E9" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="P9" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="42">
+        <v>2</v>
+      </c>
+      <c r="R9" s="42">
+        <v>2</v>
+      </c>
+      <c r="S9" s="42">
+        <v>2</v>
+      </c>
+      <c r="T9" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18">
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" t="s">
+        <v>221</v>
+      </c>
+      <c r="P10" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="42">
+        <v>4</v>
+      </c>
+      <c r="R10" s="42">
+        <v>4</v>
+      </c>
+      <c r="S10" s="42">
+        <v>4</v>
+      </c>
+      <c r="T10" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="42">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>10</v>
+      </c>
+      <c r="R11" s="42">
+        <v>10</v>
+      </c>
+      <c r="S11" s="42">
+        <v>10</v>
+      </c>
+      <c r="T11" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="P12" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>20</v>
+      </c>
+      <c r="R12" s="42">
+        <v>20</v>
+      </c>
+      <c r="S12" s="42">
+        <v>20</v>
+      </c>
+      <c r="T12" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="P13" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>50</v>
+      </c>
+      <c r="R13" s="42">
+        <v>50</v>
+      </c>
+      <c r="S13" s="42">
+        <v>50</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="P14" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>100</v>
+      </c>
+      <c r="R14" s="42">
+        <v>100</v>
+      </c>
+      <c r="S14" s="42">
+        <v>100</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18">
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="P15" s="42">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>200</v>
+      </c>
+      <c r="R15" s="42">
+        <v>200</v>
+      </c>
+      <c r="S15" s="42">
+        <v>200</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="P16" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>400</v>
+      </c>
+      <c r="R16" s="42">
+        <v>400</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" ht="18">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="P17" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>800</v>
+      </c>
+      <c r="R17" s="42">
+        <v>800</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" ht="18">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="P18" s="42">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" ht="18">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="P19" s="42">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>2000</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T19" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" ht="18">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="P20" s="42">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>5000</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" ht="18">
+      <c r="P21" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>9586</v>
+      </c>
+      <c r="R21" s="42">
+        <v>2586</v>
+      </c>
+      <c r="S21" s="42">
+        <v>386</v>
+      </c>
+      <c r="T21" s="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" ht="18">
+      <c r="P25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="V25" t="s">
+        <v>271</v>
+      </c>
+      <c r="X25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" ht="18">
+      <c r="P26" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q26" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S26" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y26" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z26" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA26" s="46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" ht="18">
+      <c r="P27" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="R27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB27" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" ht="18">
+      <c r="P28" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>5</v>
+      </c>
+      <c r="R28" s="42">
+        <v>50</v>
+      </c>
+      <c r="S28" s="42">
+        <v>400</v>
+      </c>
+      <c r="T28" s="47">
+        <v>5000</v>
+      </c>
+      <c r="X28" s="42">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="47"/>
+    </row>
+    <row r="29" spans="3:28" ht="18">
+      <c r="P29" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>20</v>
+      </c>
+      <c r="R29" s="42">
+        <v>150</v>
+      </c>
+      <c r="S29" s="47">
+        <v>2000</v>
+      </c>
+      <c r="T29" s="47">
+        <v>20000</v>
+      </c>
+      <c r="X29" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+    </row>
+    <row r="30" spans="3:28" ht="18">
+      <c r="P30" s="42">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>50</v>
+      </c>
+      <c r="R30" s="42">
+        <v>400</v>
+      </c>
+      <c r="S30" s="47">
+        <v>4000</v>
+      </c>
+      <c r="T30" s="47">
+        <v>50000</v>
+      </c>
+      <c r="X30" s="42">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+    </row>
+    <row r="31" spans="3:28" ht="18">
+      <c r="P31" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="42">
+        <v>150</v>
+      </c>
+      <c r="R31" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S31" s="47">
+        <v>8000</v>
+      </c>
+      <c r="T31" s="47">
+        <v>100000</v>
+      </c>
+      <c r="X31" s="42">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+    </row>
+    <row r="32" spans="3:28" ht="18">
+      <c r="P32" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>400</v>
+      </c>
+      <c r="R32" s="47">
+        <v>2000</v>
+      </c>
+      <c r="S32" s="47">
+        <v>20000</v>
+      </c>
+      <c r="T32" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="X32" s="42">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="42"/>
+    </row>
+    <row r="33" spans="16:28" ht="18">
+      <c r="P33" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="47">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="47">
+        <v>4000</v>
+      </c>
+      <c r="S33" s="47">
+        <v>50000</v>
+      </c>
+      <c r="T33" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" s="42">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="42"/>
+    </row>
+    <row r="34" spans="16:28" ht="18">
+      <c r="P34" s="42">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="47">
+        <v>2000</v>
+      </c>
+      <c r="R34" s="47">
+        <v>8000</v>
+      </c>
+      <c r="S34" s="47">
+        <v>100000</v>
+      </c>
+      <c r="T34" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X34" s="42">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="42"/>
+    </row>
+    <row r="35" spans="16:28" ht="18">
+      <c r="P35" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="47">
+        <v>4000</v>
+      </c>
+      <c r="R35" s="47">
+        <v>20000</v>
+      </c>
+      <c r="S35" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T35" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X35" s="42">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+    </row>
+    <row r="36" spans="16:28" ht="18">
+      <c r="P36" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="47">
+        <v>8000</v>
+      </c>
+      <c r="R36" s="47">
+        <v>50000</v>
+      </c>
+      <c r="S36" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T36" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X36" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+    </row>
+    <row r="37" spans="16:28" ht="18">
+      <c r="P37" s="42">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="47">
+        <v>20000</v>
+      </c>
+      <c r="R37" s="47">
+        <v>100000</v>
+      </c>
+      <c r="S37" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T37" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X37" s="42">
+        <v>11</v>
+      </c>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+    </row>
+    <row r="38" spans="16:28" ht="18">
+      <c r="P38" s="42">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="47">
+        <v>50000</v>
+      </c>
+      <c r="R38" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="S38" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T38" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X38" s="42">
+        <v>12</v>
+      </c>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+    </row>
+    <row r="39" spans="16:28" ht="18">
+      <c r="P39" s="42">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="47">
+        <v>100000</v>
+      </c>
+      <c r="R39" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="S39" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="T39" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X39" s="42">
+        <v>13</v>
+      </c>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42"/>
+    </row>
+    <row r="40" spans="16:28" ht="18">
+      <c r="P40" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q40" s="47">
+        <v>185625</v>
+      </c>
+      <c r="R40" s="47">
+        <v>185600</v>
+      </c>
+      <c r="S40" s="47">
+        <v>184400</v>
+      </c>
+      <c r="T40" s="47">
+        <v>175000</v>
+      </c>
+      <c r="X40" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B95D537-18ED-7A4B-831D-B6FACAE50269}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"充值" &amp; $B7 &amp; " 水平" &amp;C$6</f>
+        <v>充值多 水平低</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"充值" &amp; $B7 &amp; " 水平" &amp;D$6</f>
+        <v>充值多 水平高</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"充值" &amp; $B8 &amp; " 水平" &amp;C$6</f>
+        <v>充值少 水平低</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"充值" &amp; $B8 &amp; " 水平" &amp;D$6</f>
+        <v>充值少 水平高</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
@@ -11239,13 +12820,13 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -11256,7 +12837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -11275,7 +12856,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -11297,7 +12878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -11319,7 +12900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -11341,7 +12922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -11360,7 +12941,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -11379,7 +12960,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -11401,7 +12982,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -11423,7 +13004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="23">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -11441,16 +13022,16 @@
         <f>E9*0.8</f>
         <v>5952</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -11469,7 +13050,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -11488,7 +13069,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -11507,7 +13088,7 @@
         <v>521.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -11526,7 +13107,7 @@
         <v>463.20000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -11545,7 +13126,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -11564,7 +13145,7 @@
         <v>1061.1000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -11583,7 +13164,7 @@
         <v>943.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -11602,7 +13183,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -11621,7 +13202,7 @@
         <v>2141.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -11640,7 +13221,7 @@
         <v>1903.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -11659,13 +13240,13 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" s="7" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
@@ -11684,7 +13265,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -11703,7 +13284,7 @@
         <v>353.7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -11722,7 +13303,7 @@
         <v>314.40000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -11741,7 +13322,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -11760,7 +13341,7 @@
         <v>713.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -11779,7 +13360,7 @@
         <v>634.40000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -11798,7 +13379,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -11817,7 +13398,7 @@
         <v>1163.7</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -11836,7 +13417,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -11855,43 +13436,43 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="20" t="s">
+    <row r="42" spans="1:13">
+      <c r="G42" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -11920,7 +13501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11952,7 +13533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2</v>
       </c>
@@ -11984,7 +13565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>3</v>
       </c>
@@ -12013,7 +13594,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>4</v>
       </c>
@@ -12042,7 +13623,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>5</v>
       </c>
@@ -12071,7 +13652,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>6</v>
       </c>
@@ -12100,7 +13681,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>7</v>
       </c>
@@ -12129,7 +13710,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>8</v>
       </c>
@@ -12158,7 +13739,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>9</v>
       </c>
@@ -12187,7 +13768,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>10</v>
       </c>
@@ -12216,7 +13797,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -12263,7 +13844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>5</v>
       </c>
@@ -12310,7 +13891,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -12357,7 +13938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>2</v>
       </c>
@@ -12404,7 +13985,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -12415,7 +13996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>1</v>
       </c>
@@ -12426,7 +14007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>2</v>
       </c>
@@ -12437,7 +14018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>3</v>
       </c>
@@ -12448,7 +14029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>4</v>
       </c>
@@ -12459,7 +14040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="3">
         <v>5</v>
       </c>
@@ -12471,7 +14052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -12533,7 +14114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>5</v>
       </c>
@@ -12595,7 +14176,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
@@ -12658,7 +14239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -12721,7 +14302,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="F83" t="s">
         <v>39</v>
       </c>
@@ -12756,7 +14337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -12810,7 +14391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -12864,7 +14445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -12918,7 +14499,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -12966,7 +14547,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -13014,7 +14595,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -13062,7 +14643,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -13110,7 +14691,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -13147,7 +14728,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -13184,7 +14765,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -13221,7 +14802,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -13258,7 +14839,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -13284,7 +14865,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -13296,7 +14877,7 @@
         <v>19586</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -13308,7 +14889,7 @@
         <v>39586</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -13329,7 +14910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C131825-9B07-BF4B-B700-6E148F9210BB}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -13337,54 +14918,55 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intelheartprime/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB8DFA4-508E-7643-8F93-227B4E4BA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAE7928-AEC1-114D-B16F-45A6A2235D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="-21100" windowWidth="37600" windowHeight="20200" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ResFlow" sheetId="2" r:id="rId2"/>
     <sheet name="Dungeon&amp;Framework" sheetId="4" r:id="rId3"/>
-    <sheet name="CardsStar" sheetId="5" r:id="rId4"/>
-    <sheet name="CardUpgrade" sheetId="11" r:id="rId5"/>
-    <sheet name="PlayerMatrix" sheetId="10" r:id="rId6"/>
-    <sheet name="Reference1" sheetId="9" r:id="rId7"/>
-    <sheet name="Review" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId4"/>
+    <sheet name="CardsStar" sheetId="5" r:id="rId5"/>
+    <sheet name="CardUpgrade" sheetId="11" r:id="rId6"/>
+    <sheet name="PlayerMatrix" sheetId="10" r:id="rId7"/>
+    <sheet name="Reference1" sheetId="9" r:id="rId8"/>
+    <sheet name="starIdelRewards" sheetId="13" r:id="rId9"/>
+    <sheet name="Review" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="337">
   <si>
     <t>Birde</t>
   </si>
@@ -901,23 +906,218 @@
   <si>
     <t>折算为美元？</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线 ： 收获&amp;成长反馈点  - 时间</t>
+  </si>
+  <si>
+    <t>当此线越密集，则游戏反馈越足</t>
+  </si>
+  <si>
+    <t>保证不同类型的玩家的这条曲线体验都足够好</t>
+  </si>
+  <si>
+    <t>使用目标梯队法做offer的弹出</t>
+  </si>
+  <si>
+    <t>对应KingLevelEXp</t>
+  </si>
+  <si>
+    <t>对应KingLv</t>
+  </si>
+  <si>
+    <t>礼包设计： 球杆卡 + 体力</t>
+  </si>
+  <si>
+    <t>情况：礼包+挂机奖励使得礼包溢出的情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宝箱奖励设计：宝箱中是否可以投体力/门票🎫 </t>
+  </si>
+  <si>
+    <t>重复刷关卡也可以获得大量宝箱币与少量球场卡升级币</t>
+  </si>
+  <si>
+    <t>挂机获少量宝箱币获得大量球场卡升级币</t>
+  </si>
+  <si>
+    <t>框架：</t>
+  </si>
+  <si>
+    <t>1.资源&amp;进度曲线</t>
+  </si>
+  <si>
+    <t>2. 性价比曲线</t>
+  </si>
+  <si>
+    <t>3.反馈点密度曲线</t>
+  </si>
+  <si>
+    <t>系统性宏观指标的控制：</t>
+  </si>
+  <si>
+    <t>4.目标梯队变化表</t>
+  </si>
+  <si>
+    <t>根据游戏体验来不断完善模型约束，再使用合适的工具与方法将此约束在模型中表达出来</t>
+  </si>
+  <si>
+    <t>总张数</t>
+  </si>
+  <si>
+    <t>pvp进度预估</t>
+  </si>
+  <si>
+    <t>充值多 水平低</t>
+  </si>
+  <si>
+    <t>充值多 水平高</t>
+  </si>
+  <si>
+    <t>充值少 水平低</t>
+  </si>
+  <si>
+    <t>充值少 水平高</t>
+  </si>
+  <si>
+    <t>挂机加速度（下限）每关1星</t>
+  </si>
+  <si>
+    <t xml:space="preserve">挂机加速度（上限） </t>
+  </si>
+  <si>
+    <t>如果升级球场卡也获得一次性⭐️奖励，那么这个问题会变得更加复杂</t>
+  </si>
+  <si>
+    <t>理想模型：玩家每天都玩，且正常使用体力，按照正常进度收取挂机奖励</t>
+  </si>
+  <si>
+    <t>挂机加速度（正常）Bat5</t>
+  </si>
+  <si>
+    <t>挂机加速度（正常）Bat6</t>
+  </si>
+  <si>
+    <t>挂机加速度（正常）Bat7</t>
+  </si>
+  <si>
+    <t>挂机加速度（正常）Bat8</t>
+  </si>
+  <si>
+    <t>(挂机加速度；需要多久可以到达此关)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家打不同关卡所能拿到的⭐️，以及当前的挂机加速度，在这一关待多久（计算上中间所有的体力都用来刷奖励的情况） </t>
+  </si>
+  <si>
+    <t>建模，然后让模型跑出来，然后再调参，也是一种方法</t>
+  </si>
+  <si>
+    <t>(当前加速度，在这关停留多久) 这是一个关键指标</t>
+  </si>
+  <si>
+    <t>加速度又可以转化为卡片张数加速度，进而根据这关需要的张数和已有的张数推出在这关停留多久，可能需要拉多列数据</t>
+  </si>
+  <si>
+    <t>这关的卡1数量</t>
+  </si>
+  <si>
+    <t>这关的加速度</t>
+  </si>
+  <si>
+    <t>下一关需要到达的卡1数量</t>
+  </si>
+  <si>
+    <t>在这关停留多久</t>
+  </si>
+  <si>
+    <t>因为同步的所有的卡片数量都在增长，那么会出现0day的情况</t>
+  </si>
+  <si>
+    <t>这关目前有的量</t>
+  </si>
+  <si>
+    <t>到达下一关需要的此卡数量</t>
+  </si>
+  <si>
+    <t>当前卡获取加速度</t>
+  </si>
+  <si>
+    <t>此关停留天数</t>
+  </si>
+  <si>
+    <t>礼包栏</t>
+  </si>
+  <si>
+    <t>通过此字段生成 进度-天数折线图📈</t>
+  </si>
+  <si>
+    <t>加速度&amp;积量表 -&gt; 转换出宝箱个数-进度表</t>
+  </si>
+  <si>
+    <t>消费额度 &amp; 加速天数表</t>
+  </si>
+  <si>
+    <t>礼包 = 花钱买时间</t>
+  </si>
+  <si>
+    <t>时间 -&gt; 进度表</t>
+  </si>
+  <si>
+    <t>工具：</t>
+  </si>
+  <si>
+    <t>1.向量折线图工具</t>
+  </si>
+  <si>
+    <t>2.正反馈点密度图</t>
+  </si>
+  <si>
+    <t>3.游戏内目标梯队系统</t>
+  </si>
+  <si>
+    <t>这张表的展开</t>
+  </si>
+  <si>
+    <t>一个礼包对整体曲线的影响，落实到数学上</t>
+  </si>
+  <si>
+    <t>对各个向量值的变化 与 礼包值的数学关系</t>
+  </si>
+  <si>
+    <t>card_upgrade_coin(min)</t>
+  </si>
+  <si>
+    <t>chest_coin(min)</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>橙卡场最多获得星星</t>
+  </si>
+  <si>
+    <t>紫卡场最多获得星星</t>
+  </si>
+  <si>
+    <t>传奇卡场最多获得星星</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -926,14 +1126,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -945,7 +1145,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -984,8 +1184,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,8 +1289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1137,11 +1356,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1171,6 +1399,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,6 +1420,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1216,22 +1457,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,7 +1505,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1293,7 +1542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1577,7 +1826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569580432"/>
@@ -1636,7 +1885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1914088240"/>
@@ -1684,7 +1933,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4599,15 +4848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4634,13 +4883,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>186422</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>198074</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -4687,13 +4936,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>233028</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>58257</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -4740,13 +4989,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>139817</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>34954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>629175</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4803,13 +5052,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>792294</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>664128</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>58256</xdr:rowOff>
@@ -4866,13 +5115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>241301</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>149076</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>189436</xdr:rowOff>
@@ -4925,8 +5174,331 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F91F6A-2FCD-2E42-822F-1562D7C208C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2159000" y="431800"/>
+          <a:ext cx="12700" cy="8089900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C791AC-F1FE-A443-A1AF-19EA201D75CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="8483600"/>
+          <a:ext cx="15303500" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EE1AD2-504D-B544-A452-FABC85378C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2247900" y="7899400"/>
+          <a:ext cx="584200" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC193C0A-2213-2942-9C2B-DCDDFD8257D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2895600" y="7632700"/>
+          <a:ext cx="749300" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FDAD8E-5E73-9145-A2B3-7719C3F343FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3695700" y="6972300"/>
+          <a:ext cx="406400" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E46775-073A-194B-A020-43936D8EDC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4127500" y="6692900"/>
+          <a:ext cx="533400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5224,17 +5796,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B76B-281E-8E47-AF7A-D4E6247A3AFE}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5338,23 +5910,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="D2" s="25" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -5377,7 +5949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -5447,11 +6019,11 @@
         <v>0.11306039167826701</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -5526,9 +6098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -5601,9 +6173,9 @@
         <v>4.3935088957113705E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -5676,9 +6248,9 @@
         <v>0.1160160942773784</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -5753,9 +6325,9 @@
         <v>6.8839266985755423E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -5819,9 +6391,9 @@
         <v>9.3438340229972717E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5876,9 +6448,9 @@
         <v>0.28082988501363437</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -5921,9 +6493,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -5961,9 +6533,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6001,9 +6573,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -6043,9 +6615,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -6083,9 +6655,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6123,11 +6695,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -6167,9 +6739,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -6210,9 +6782,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -6250,9 +6822,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -6292,9 +6864,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -6332,9 +6904,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -6372,9 +6944,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -6414,9 +6986,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -6454,9 +7026,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -6494,11 +7066,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -6538,9 +7110,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -6578,9 +7150,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -6618,9 +7190,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -6660,9 +7232,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -6700,9 +7272,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -6740,9 +7312,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -6782,9 +7354,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -6822,9 +7394,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -6862,11 +7434,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -6906,9 +7478,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -6946,9 +7518,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -6988,6 +7560,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -7000,12 +7578,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7014,17 +7586,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C131825-9B07-BF4B-B700-6E148F9210BB}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189F3F05-2483-004A-8615-441A100C4EE4}">
   <dimension ref="X11:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView topLeftCell="B1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="11" spans="24:26">
+    <row r="11" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X11" t="s">
         <v>20</v>
       </c>
@@ -7032,12 +7666,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="24:26">
+    <row r="13" spans="24:26" x14ac:dyDescent="0.2">
       <c r="Y13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="24:26">
+    <row r="15" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X15" t="s">
         <v>19</v>
       </c>
@@ -7045,17 +7679,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="24:26">
+    <row r="22" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="24:26">
+    <row r="24" spans="24:26" x14ac:dyDescent="0.2">
       <c r="Z24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="24:26">
+    <row r="29" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X29" t="s">
         <v>26</v>
       </c>
@@ -7070,14 +7704,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:BO94"/>
+  <dimension ref="A1:EB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CT13" sqref="CT13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -7085,9 +7719,30 @@
     <col min="6" max="6" width="53.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="44" max="44" width="38" customWidth="1"/>
+    <col min="45" max="45" width="24.5" customWidth="1"/>
+    <col min="46" max="46" width="27.5" customWidth="1"/>
+    <col min="47" max="48" width="23" customWidth="1"/>
+    <col min="49" max="49" width="20.83203125" customWidth="1"/>
+    <col min="51" max="51" width="14.33203125" customWidth="1"/>
+    <col min="52" max="52" width="14.6640625" customWidth="1"/>
+    <col min="53" max="53" width="13.83203125" customWidth="1"/>
+    <col min="54" max="54" width="14.1640625" customWidth="1"/>
+    <col min="98" max="98" width="29.33203125" customWidth="1"/>
+    <col min="99" max="99" width="18.83203125" style="54" customWidth="1"/>
+    <col min="100" max="100" width="16.1640625" style="54" customWidth="1"/>
+    <col min="101" max="101" width="25.5" style="54" customWidth="1"/>
+    <col min="103" max="106" width="10.83203125" style="54"/>
+    <col min="108" max="110" width="10.83203125" style="56"/>
+    <col min="112" max="114" width="10.83203125" style="56"/>
+    <col min="116" max="118" width="10.83203125" style="56"/>
+    <col min="120" max="122" width="10.83203125" style="56"/>
+    <col min="123" max="123" width="10.83203125" style="59"/>
+    <col min="125" max="127" width="10.83203125" style="60"/>
+    <col min="130" max="132" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7103,53 +7758,203 @@
       <c r="E1">
         <v>5</v>
       </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
       <c r="G1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+      <c r="AN1">
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <v>38</v>
+      </c>
+      <c r="AP1">
+        <v>39</v>
+      </c>
+      <c r="BB1">
+        <v>40</v>
+      </c>
+      <c r="BC1">
+        <v>41</v>
+      </c>
+      <c r="BD1">
+        <v>42</v>
+      </c>
+      <c r="BE1">
+        <v>43</v>
+      </c>
+      <c r="BF1">
+        <v>44</v>
+      </c>
+      <c r="BG1">
+        <v>45</v>
+      </c>
+      <c r="BH1">
+        <v>46</v>
+      </c>
+      <c r="BI1">
+        <v>47</v>
+      </c>
+      <c r="BJ1">
+        <v>48</v>
+      </c>
+      <c r="BK1">
+        <v>49</v>
+      </c>
+      <c r="BL1">
+        <v>50</v>
+      </c>
+      <c r="BM1">
+        <v>51</v>
+      </c>
+      <c r="BN1">
+        <v>52</v>
+      </c>
+      <c r="BO1">
+        <v>53</v>
+      </c>
+      <c r="BP1">
+        <v>54</v>
+      </c>
+      <c r="BQ1">
+        <v>55</v>
+      </c>
+      <c r="BR1">
+        <v>56</v>
+      </c>
+      <c r="BS1">
+        <v>57</v>
+      </c>
+      <c r="BT1">
+        <v>58</v>
+      </c>
+      <c r="BU1">
+        <v>59</v>
+      </c>
+      <c r="BV1">
+        <v>60</v>
+      </c>
+      <c r="BW1">
+        <v>61</v>
+      </c>
+      <c r="BX1">
+        <v>62</v>
+      </c>
+      <c r="BY1">
+        <v>63</v>
+      </c>
+      <c r="BZ1">
+        <v>64</v>
+      </c>
+      <c r="CA1">
+        <v>65</v>
+      </c>
+      <c r="CB1">
+        <v>66</v>
+      </c>
+      <c r="CC1">
+        <v>67</v>
+      </c>
+      <c r="CD1">
+        <v>68</v>
+      </c>
+      <c r="CE1">
+        <v>69</v>
+      </c>
+      <c r="CF1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:132" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -7176,20 +7981,118 @@
       <c r="Z2" t="s">
         <v>237</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>233</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>238</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="BD2" t="s">
         <v>234</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BR2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:65" ht="17">
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CS2" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="CT2" s="50"/>
+    </row>
+    <row r="3" spans="1:132" ht="24" x14ac:dyDescent="0.3">
+      <c r="AR3" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>291</v>
+      </c>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CS3" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="CT3" s="50"/>
+      <c r="CU3" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV3" s="55"/>
+      <c r="CW3" s="55"/>
+      <c r="CY3" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="CZ3" s="55"/>
+      <c r="DA3" s="55"/>
+      <c r="DD3" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="DE3" s="57"/>
+      <c r="DF3" s="57"/>
+      <c r="DH3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="DI3" s="57"/>
+      <c r="DJ3" s="57"/>
+      <c r="DL3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="DM3" s="57"/>
+      <c r="DN3" s="57"/>
+      <c r="DP3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="DQ3" s="57"/>
+      <c r="DR3" s="57"/>
+      <c r="DU3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="DV3" s="61"/>
+      <c r="DW3" s="61"/>
+      <c r="DZ3" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="EA3" s="61"/>
+      <c r="EB3" s="61"/>
+    </row>
+    <row r="4" spans="1:132" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7239,70 +8142,201 @@
         <v>232</v>
       </c>
       <c r="AF4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI4" t="s">
         <v>225</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>226</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>227</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>228</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>229</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>230</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>231</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>232</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD4" t="s">
         <v>225</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="BE4" t="s">
         <v>226</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="BF4" t="s">
         <v>227</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="BG4" t="s">
         <v>228</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="BH4" t="s">
         <v>229</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="BI4" t="s">
         <v>230</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="BJ4" t="s">
         <v>231</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BK4" t="s">
         <v>232</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BM4" t="s">
         <v>235</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BO4" t="s">
         <v>236</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BR4" t="s">
         <v>240</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BS4" t="s">
         <v>241</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BT4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="1:65" ht="17">
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CO4" t="s">
+        <v>318</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>317</v>
+      </c>
+      <c r="CU4" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="CV4" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="CW4" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="CY4" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="CZ4" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="DA4" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="DD4" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="DE4" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="DF4" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="DH4" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="DI4" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="DJ4" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="DL4" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="DM4" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="DN4" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="DP4" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="DQ4" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="DR4" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="DU4" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="DV4" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="DW4" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="DZ4" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="EA4" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="EB4" s="62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:132" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -7330,7 +8364,7 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="38" t="s">
         <v>167</v>
       </c>
       <c r="W5">
@@ -7357,11 +8391,52 @@
       <c r="AD5">
         <v>0</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="AI5">
+        <f>VLOOKUP(W5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="e">
+        <f>VLOOKUP(X5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK5" t="e">
+        <f>VLOOKUP(Y5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL5" t="e">
+        <f>VLOOKUP(Z5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM5" t="e">
+        <f>VLOOKUP(AA5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN5" t="e">
+        <f>VLOOKUP(AB5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO5" t="e">
+        <f>VLOOKUP(AC5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP5" t="e">
+        <f>VLOOKUP(AD5,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>304</v>
+      </c>
+      <c r="BY5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="6" spans="1:65" ht="18" customHeight="1">
+      <c r="CJ5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:132" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -7389,7 +8464,7 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="38"/>
       <c r="W6">
         <v>1</v>
       </c>
@@ -7414,8 +8489,40 @@
       <c r="AD6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:65" ht="19" customHeight="1">
+      <c r="AI6">
+        <f>VLOOKUP(W6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <f>VLOOKUP(X6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK6" t="e">
+        <f>VLOOKUP(Y6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL6" t="e">
+        <f>VLOOKUP(Z6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM6" t="e">
+        <f>VLOOKUP(AA6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN6" t="e">
+        <f>VLOOKUP(AB6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO6" t="e">
+        <f>VLOOKUP(AC6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP6" t="e">
+        <f>VLOOKUP(AD6,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:132" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -7443,39 +8550,79 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="W7">
+      <c r="I7" s="38"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7">
         <v>2</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="7">
         <v>1</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
         <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="AI7">
+        <f>VLOOKUP(W7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <f>VLOOKUP(X7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK7" t="e">
+        <f>VLOOKUP(Y7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL7" t="e">
+        <f>VLOOKUP(Z7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM7" t="e">
+        <f>VLOOKUP(AA7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN7" t="e">
+        <f>VLOOKUP(AB7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO7" t="e">
+        <f>VLOOKUP(AC7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP7" t="e">
+        <f>VLOOKUP(AD7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY7" t="s">
         <v>247</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="CA7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="8" spans="1:65" ht="17">
+      <c r="CJ7" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="CP7" s="2"/>
+    </row>
+    <row r="8" spans="1:132" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -7503,36 +8650,72 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
+      <c r="I8" s="38"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7">
         <v>2</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="X8" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
         <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="AI8">
+        <f>VLOOKUP(W8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ8">
+        <f>VLOOKUP(X8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK8" t="e">
+        <f>VLOOKUP(Y8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL8" t="e">
+        <f>VLOOKUP(Z8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM8" t="e">
+        <f>VLOOKUP(AA8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN8" t="e">
+        <f>VLOOKUP(AB8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO8" t="e">
+        <f>VLOOKUP(AC8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP8" t="e">
+        <f>VLOOKUP(AD8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CA8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:65">
+      <c r="CJ8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -7557,15 +8740,75 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="BK9" t="s">
+      <c r="I9" s="38"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7">
+        <v>2</v>
+      </c>
+      <c r="X9" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>VLOOKUP(W9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ9">
+        <f>VLOOKUP(X9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <f>VLOOKUP(Y9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL9" t="e">
+        <f>VLOOKUP(Z9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM9" t="e">
+        <f>VLOOKUP(AA9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN9" t="e">
+        <f>VLOOKUP(AB9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO9" t="e">
+        <f>VLOOKUP(AC9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP9" t="e">
+        <f>VLOOKUP(AD9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY9" t="s">
         <v>248</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="CA9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:65">
+      <c r="CJ9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7590,15 +8833,75 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="BK10" t="s">
+      <c r="I10" s="38"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7">
+        <v>2</v>
+      </c>
+      <c r="X10" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f>VLOOKUP(W10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <f>VLOOKUP(X10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK10">
+        <f>VLOOKUP(Y10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL10" t="e">
+        <f>VLOOKUP(Z10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM10" t="e">
+        <f>VLOOKUP(AA10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN10" t="e">
+        <f>VLOOKUP(AB10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO10" t="e">
+        <f>VLOOKUP(AC10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP10" t="e">
+        <f>VLOOKUP(AD10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY10" t="s">
         <v>249</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="CA10" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:65">
+      <c r="CJ10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7623,12 +8926,69 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="BK11" t="s">
+      <c r="I11" s="38"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7">
+        <v>2</v>
+      </c>
+      <c r="X11" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f>VLOOKUP(W11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ11">
+        <f>VLOOKUP(X11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK11">
+        <f>VLOOKUP(Y11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL11">
+        <f>VLOOKUP(Z11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AM11" t="e">
+        <f>VLOOKUP(AA11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN11" t="e">
+        <f>VLOOKUP(AB11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO11" t="e">
+        <f>VLOOKUP(AC11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP11" t="e">
+        <f>VLOOKUP(AD11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7653,15 +9013,75 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="38"/>
       <c r="K12" t="s">
         <v>161</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="V12" s="7"/>
+      <c r="W12" s="7">
+        <v>2</v>
+      </c>
+      <c r="X12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f>VLOOKUP(W12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ12">
+        <f>VLOOKUP(X12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK12">
+        <f>VLOOKUP(Y12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL12">
+        <f>VLOOKUP(Z12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM12" t="e">
+        <f>VLOOKUP(AA12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN12" t="e">
+        <f>VLOOKUP(AB12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO12" t="e">
+        <f>VLOOKUP(AC12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP12" t="e">
+        <f>VLOOKUP(AD12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CA12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:65">
+      <c r="CO12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7686,12 +9106,69 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="38"/>
       <c r="K13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:65">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7">
+        <v>3</v>
+      </c>
+      <c r="X13" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f>VLOOKUP(W13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ13">
+        <f>VLOOKUP(X13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <f>VLOOKUP(Y13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <f>VLOOKUP(Z13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM13" t="e">
+        <f>VLOOKUP(AA13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN13" t="e">
+        <f>VLOOKUP(AB13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO13" t="e">
+        <f>VLOOKUP(AC13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP13" t="e">
+        <f>VLOOKUP(AD13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7708,7 +9185,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="36" t="s">
         <v>183</v>
       </c>
       <c r="G14" t="str">
@@ -7719,12 +9196,69 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="38"/>
       <c r="K14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:65">
+      <c r="V14" s="7"/>
+      <c r="W14" s="7">
+        <v>3</v>
+      </c>
+      <c r="X14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f>VLOOKUP(W14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ14">
+        <f>VLOOKUP(X14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK14">
+        <f>VLOOKUP(Y14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL14">
+        <f>VLOOKUP(Z14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <f>VLOOKUP(AA14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AN14" t="e">
+        <f>VLOOKUP(AB14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO14" t="e">
+        <f>VLOOKUP(AC14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP14" t="e">
+        <f>VLOOKUP(AD14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -7741,7 +9275,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="36"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -7750,9 +9284,69 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:65">
+      <c r="I15" s="38"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7">
+        <v>3</v>
+      </c>
+      <c r="X15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f>VLOOKUP(W15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ15">
+        <f>VLOOKUP(X15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <f>VLOOKUP(Y15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <f>VLOOKUP(Z15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <f>VLOOKUP(AA15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AN15" t="e">
+        <f>VLOOKUP(AB15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO15" t="e">
+        <f>VLOOKUP(AC15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP15" t="e">
+        <f>VLOOKUP(AD15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -7769,7 +9363,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="36"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -7778,9 +9372,66 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="I16" s="38"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7">
+        <v>3</v>
+      </c>
+      <c r="X16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f>VLOOKUP(W16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ16">
+        <f>VLOOKUP(X16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK16">
+        <f>VLOOKUP(Y16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL16">
+        <f>VLOOKUP(Z16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM16">
+        <f>VLOOKUP(AA16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN16" t="e">
+        <f>VLOOKUP(AB16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO16" t="e">
+        <f>VLOOKUP(AC16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP16" t="e">
+        <f>VLOOKUP(AD16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -7797,7 +9448,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="36"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -7806,9 +9457,66 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="I17" s="38"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7">
+        <v>3</v>
+      </c>
+      <c r="X17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f>VLOOKUP(W17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ17">
+        <f>VLOOKUP(X17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <f>VLOOKUP(Y17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL17">
+        <f>VLOOKUP(Z17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <f>VLOOKUP(AA17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN17">
+        <f>VLOOKUP(AB17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AO17" t="e">
+        <f>VLOOKUP(AC17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP17" t="e">
+        <f>VLOOKUP(AD17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -7825,7 +9533,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="36"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -7834,12 +9542,69 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="38"/>
       <c r="K18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="7"/>
+      <c r="W18" s="7">
+        <v>3</v>
+      </c>
+      <c r="X18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f>VLOOKUP(W18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ18">
+        <f>VLOOKUP(X18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <f>VLOOKUP(Y18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL18">
+        <f>VLOOKUP(Z18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <f>VLOOKUP(AA18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN18">
+        <f>VLOOKUP(AB18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AO18" t="e">
+        <f>VLOOKUP(AC18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP18" t="e">
+        <f>VLOOKUP(AD18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -7856,7 +9621,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="36"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -7865,12 +9630,69 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="38"/>
       <c r="K19" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="7"/>
+      <c r="W19" s="7">
+        <v>3</v>
+      </c>
+      <c r="X19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f>VLOOKUP(W19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ19">
+        <f>VLOOKUP(X19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <f>VLOOKUP(Y19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL19">
+        <f>VLOOKUP(Z19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <f>VLOOKUP(AA19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN19">
+        <f>VLOOKUP(AB19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO19" t="e">
+        <f>VLOOKUP(AC19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP19" t="e">
+        <f>VLOOKUP(AD19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7895,12 +9717,69 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="38"/>
       <c r="K20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7">
+        <v>3</v>
+      </c>
+      <c r="X20" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f>VLOOKUP(W20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ20">
+        <f>VLOOKUP(X20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AK20">
+        <f>VLOOKUP(Y20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <f>VLOOKUP(Z20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM20">
+        <f>VLOOKUP(AA20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN20">
+        <f>VLOOKUP(AB20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO20" t="e">
+        <f>VLOOKUP(AC20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP20" t="e">
+        <f>VLOOKUP(AD20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7925,9 +9804,66 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="I21" s="38"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7">
+        <v>3</v>
+      </c>
+      <c r="X21" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <f>VLOOKUP(W21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ21">
+        <f>VLOOKUP(X21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AK21">
+        <f>VLOOKUP(Y21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AL21">
+        <f>VLOOKUP(Z21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AM21">
+        <f>VLOOKUP(AA21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN21">
+        <f>VLOOKUP(AB21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO21" t="e">
+        <f>VLOOKUP(AC21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP21" t="e">
+        <f>VLOOKUP(AD21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7952,9 +9888,66 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="I22" s="38"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7">
+        <v>3</v>
+      </c>
+      <c r="X22" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <f>VLOOKUP(W22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ22">
+        <f>VLOOKUP(X22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AK22">
+        <f>VLOOKUP(Y22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AL22">
+        <f>VLOOKUP(Z22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM22">
+        <f>VLOOKUP(AA22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN22">
+        <f>VLOOKUP(AB22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO22" t="e">
+        <f>VLOOKUP(AC22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP22" t="e">
+        <f>VLOOKUP(AD22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7979,11 +9972,71 @@
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="39" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="7"/>
+      <c r="W23" s="7">
+        <v>4</v>
+      </c>
+      <c r="X23" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <f>VLOOKUP(W23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AJ23">
+        <f>VLOOKUP(X23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AK23">
+        <f>VLOOKUP(Y23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AL23">
+        <f>VLOOKUP(Z23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM23">
+        <f>VLOOKUP(AA23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN23">
+        <f>VLOOKUP(AB23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO23" t="e">
+        <f>VLOOKUP(AC23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP23" t="e">
+        <f>VLOOKUP(AD23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR23" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -8008,9 +10061,69 @@
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="I24" s="39"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7">
+        <v>4</v>
+      </c>
+      <c r="X24" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <f>VLOOKUP(W24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AJ24">
+        <f>VLOOKUP(X24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AK24">
+        <f>VLOOKUP(Y24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AL24">
+        <f>VLOOKUP(Z24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM24">
+        <f>VLOOKUP(AA24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN24">
+        <f>VLOOKUP(AB24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO24" t="e">
+        <f>VLOOKUP(AC24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP24" t="e">
+        <f>VLOOKUP(AD24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -8035,9 +10148,66 @@
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="I25" s="39"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7">
+        <v>5</v>
+      </c>
+      <c r="X25" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <f>VLOOKUP(W25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ25">
+        <f>VLOOKUP(X25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AK25">
+        <f>VLOOKUP(Y25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <f>VLOOKUP(Z25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM25">
+        <f>VLOOKUP(AA25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN25">
+        <f>VLOOKUP(AB25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO25" t="e">
+        <f>VLOOKUP(AC25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP25" t="e">
+        <f>VLOOKUP(AD25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -8062,9 +10232,69 @@
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="I26" s="39"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7">
+        <v>5</v>
+      </c>
+      <c r="X26" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f>VLOOKUP(W26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ26">
+        <f>VLOOKUP(X26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK26">
+        <f>VLOOKUP(Y26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AL26">
+        <f>VLOOKUP(Z26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM26">
+        <f>VLOOKUP(AA26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN26">
+        <f>VLOOKUP(AB26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO26" t="e">
+        <f>VLOOKUP(AC26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP26" t="e">
+        <f>VLOOKUP(AD26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -8089,9 +10319,69 @@
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="I27" s="39"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7">
+        <v>5</v>
+      </c>
+      <c r="X27" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <f>VLOOKUP(W27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ27">
+        <f>VLOOKUP(X27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK27">
+        <f>VLOOKUP(Y27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AL27">
+        <f>VLOOKUP(Z27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM27">
+        <f>VLOOKUP(AA27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN27">
+        <f>VLOOKUP(AB27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO27" t="e">
+        <f>VLOOKUP(AC27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP27" t="e">
+        <f>VLOOKUP(AD27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -8116,9 +10406,69 @@
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="I28" s="39"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7">
+        <v>5</v>
+      </c>
+      <c r="X28" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <f>VLOOKUP(W28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ28">
+        <f>VLOOKUP(X28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK28">
+        <f>VLOOKUP(Y28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL28">
+        <f>VLOOKUP(Z28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AM28">
+        <f>VLOOKUP(AA28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN28">
+        <f>VLOOKUP(AB28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO28" t="e">
+        <f>VLOOKUP(AC28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP28" t="e">
+        <f>VLOOKUP(AD28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -8143,12 +10493,72 @@
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="39"/>
       <c r="N29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="7"/>
+      <c r="W29" s="7">
+        <v>5</v>
+      </c>
+      <c r="X29" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <f>VLOOKUP(W29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ29">
+        <f>VLOOKUP(X29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK29">
+        <f>VLOOKUP(Y29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL29">
+        <f>VLOOKUP(Z29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AM29">
+        <f>VLOOKUP(AA29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN29">
+        <f>VLOOKUP(AB29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO29" t="e">
+        <f>VLOOKUP(AC29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP29" t="e">
+        <f>VLOOKUP(AD29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -8173,7 +10583,7 @@
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="39"/>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -8201,8 +10611,68 @@
       <c r="U30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30" s="7"/>
+      <c r="W30" s="7">
+        <v>5</v>
+      </c>
+      <c r="X30" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <f>VLOOKUP(W30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ30">
+        <f>VLOOKUP(X30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK30">
+        <f>VLOOKUP(Y30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL30">
+        <f>VLOOKUP(Z30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM30">
+        <f>VLOOKUP(AA30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AN30">
+        <f>VLOOKUP(AB30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO30" t="e">
+        <f>VLOOKUP(AC30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP30" t="e">
+        <f>VLOOKUP(AD30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -8227,11 +10697,11 @@
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="30"/>
+      <c r="I31" s="39"/>
       <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="37" t="s">
         <v>157</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -8258,8 +10728,65 @@
       <c r="U31" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31" s="7"/>
+      <c r="W31" s="7">
+        <v>5</v>
+      </c>
+      <c r="X31" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f>VLOOKUP(W31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ31">
+        <f>VLOOKUP(X31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK31">
+        <f>VLOOKUP(Y31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL31">
+        <f>VLOOKUP(Z31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM31">
+        <f>VLOOKUP(AA31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AN31">
+        <f>VLOOKUP(AB31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO31" t="e">
+        <f>VLOOKUP(AC31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP31" t="e">
+        <f>VLOOKUP(AD31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -8284,11 +10811,11 @@
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="39"/>
       <c r="K32" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="40"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="13" t="s">
         <v>133</v>
       </c>
@@ -8313,8 +10840,65 @@
       <c r="U32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:67">
+      <c r="V32" s="7"/>
+      <c r="W32" s="7">
+        <v>5</v>
+      </c>
+      <c r="X32" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <f>VLOOKUP(W32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ32">
+        <f>VLOOKUP(X32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK32">
+        <f>VLOOKUP(Y32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL32">
+        <f>VLOOKUP(Z32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM32">
+        <f>VLOOKUP(AA32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN32">
+        <f>VLOOKUP(AB32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AO32" t="e">
+        <f>VLOOKUP(AC32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP32" t="e">
+        <f>VLOOKUP(AD32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -8339,8 +10923,8 @@
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="M33" s="40"/>
+      <c r="I33" s="39"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
@@ -8365,8 +10949,65 @@
       <c r="U33" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" spans="1:67">
+      <c r="V33" s="7"/>
+      <c r="W33" s="7">
+        <v>5</v>
+      </c>
+      <c r="X33" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <f>VLOOKUP(W33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ33">
+        <f>VLOOKUP(X33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK33">
+        <f>VLOOKUP(Y33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL33">
+        <f>VLOOKUP(Z33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM33">
+        <f>VLOOKUP(AA33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN33">
+        <f>VLOOKUP(AB33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="AO33" t="e">
+        <f>VLOOKUP(AC33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP33" t="e">
+        <f>VLOOKUP(AD33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -8391,8 +11032,8 @@
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="M34" s="40" t="s">
+      <c r="I34" s="39"/>
+      <c r="M34" s="37" t="s">
         <v>158</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -8419,8 +11060,65 @@
       <c r="U34" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:67">
+      <c r="V34" s="7"/>
+      <c r="W34" s="7">
+        <v>5</v>
+      </c>
+      <c r="X34" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <f>VLOOKUP(W34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ34">
+        <f>VLOOKUP(X34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK34">
+        <f>VLOOKUP(Y34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL34">
+        <f>VLOOKUP(Z34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM34">
+        <f>VLOOKUP(AA34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN34">
+        <f>VLOOKUP(AB34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AO34" t="e">
+        <f>VLOOKUP(AC34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP34" t="e">
+        <f>VLOOKUP(AD34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -8445,8 +11143,8 @@
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="M35" s="40"/>
+      <c r="I35" s="39"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="13" t="s">
         <v>136</v>
       </c>
@@ -8471,8 +11169,65 @@
       <c r="U35" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:67">
+      <c r="V35" s="7"/>
+      <c r="W35" s="7">
+        <v>6</v>
+      </c>
+      <c r="X35" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <f>VLOOKUP(W35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AJ35">
+        <f>VLOOKUP(X35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AK35">
+        <f>VLOOKUP(Y35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL35">
+        <f>VLOOKUP(Z35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM35">
+        <f>VLOOKUP(AA35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN35">
+        <f>VLOOKUP(AB35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AO35" t="e">
+        <f>VLOOKUP(AC35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP35" t="e">
+        <f>VLOOKUP(AD35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -8497,11 +11252,11 @@
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="30"/>
+      <c r="I36" s="39"/>
       <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="40"/>
+      <c r="M36" s="37"/>
       <c r="N36" s="13" t="s">
         <v>137</v>
       </c>
@@ -8526,8 +11281,65 @@
       <c r="U36" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" spans="1:67">
+      <c r="V36" s="7"/>
+      <c r="W36" s="7">
+        <v>6</v>
+      </c>
+      <c r="X36" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f>VLOOKUP(W36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AJ36">
+        <f>VLOOKUP(X36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AK36">
+        <f>VLOOKUP(Y36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AL36">
+        <f>VLOOKUP(Z36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM36">
+        <f>VLOOKUP(AA36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN36">
+        <f>VLOOKUP(AB36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AO36" t="e">
+        <f>VLOOKUP(AC36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP36" t="e">
+        <f>VLOOKUP(AD36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -8552,11 +11364,11 @@
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="I37" s="39"/>
       <c r="K37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M37" s="37" t="s">
         <v>159</v>
       </c>
       <c r="N37" s="13" t="s">
@@ -8583,8 +11395,65 @@
       <c r="U37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:67">
+      <c r="V37" s="7"/>
+      <c r="W37" s="7">
+        <v>6</v>
+      </c>
+      <c r="X37" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f>VLOOKUP(W37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AJ37">
+        <f>VLOOKUP(X37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AK37">
+        <f>VLOOKUP(Y37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL37">
+        <f>VLOOKUP(Z37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AM37">
+        <f>VLOOKUP(AA37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN37">
+        <f>VLOOKUP(AB37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AO37" t="e">
+        <f>VLOOKUP(AC37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP37" t="e">
+        <f>VLOOKUP(AD37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -8609,11 +11478,11 @@
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="39"/>
       <c r="K38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="40"/>
+      <c r="M38" s="37"/>
       <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
@@ -8638,8 +11507,65 @@
       <c r="U38" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="39" spans="1:67">
+      <c r="V38" s="7"/>
+      <c r="W38" s="7">
+        <v>6</v>
+      </c>
+      <c r="X38" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <f>VLOOKUP(W38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AJ38">
+        <f>VLOOKUP(X38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AK38">
+        <f>VLOOKUP(Y38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL38">
+        <f>VLOOKUP(Z38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM38">
+        <f>VLOOKUP(AA38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AN38">
+        <f>VLOOKUP(AB38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AO38" t="e">
+        <f>VLOOKUP(AC38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP38" t="e">
+        <f>VLOOKUP(AD38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -8664,8 +11590,8 @@
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="M39" s="40"/>
+      <c r="I39" s="39"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="13" t="s">
         <v>140</v>
       </c>
@@ -8690,8 +11616,65 @@
       <c r="U39" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:67">
+      <c r="V39" s="7"/>
+      <c r="W39" s="7">
+        <v>6</v>
+      </c>
+      <c r="X39" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <f>VLOOKUP(W39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AJ39">
+        <f>VLOOKUP(X39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AK39">
+        <f>VLOOKUP(Y39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL39">
+        <f>VLOOKUP(Z39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM39">
+        <f>VLOOKUP(AA39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN39">
+        <f>VLOOKUP(AB39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="AO39" t="e">
+        <f>VLOOKUP(AC39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP39" t="e">
+        <f>VLOOKUP(AD39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -8716,8 +11699,8 @@
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="M40" s="41" t="s">
+      <c r="I40" s="39"/>
+      <c r="M40" s="25" t="s">
         <v>160</v>
       </c>
       <c r="N40" s="13" t="s">
@@ -8744,11 +11727,68 @@
       <c r="U40" t="s">
         <v>141</v>
       </c>
-      <c r="BK40" t="s">
+      <c r="V40" s="7"/>
+      <c r="W40" s="7">
+        <v>6</v>
+      </c>
+      <c r="X40" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <f>VLOOKUP(W40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AJ40">
+        <f>VLOOKUP(X40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AK40">
+        <f>VLOOKUP(Y40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL40">
+        <f>VLOOKUP(Z40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM40">
+        <f>VLOOKUP(AA40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN40">
+        <f>VLOOKUP(AB40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO40" t="e">
+        <f>VLOOKUP(AC40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP40" t="e">
+        <f>VLOOKUP(AD40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY40" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -8773,14 +11813,71 @@
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="BK41" t="s">
+      <c r="V41" s="7"/>
+      <c r="W41" s="7">
+        <v>7</v>
+      </c>
+      <c r="X41" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <f>VLOOKUP(W41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AJ41">
+        <f>VLOOKUP(X41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AK41">
+        <f>VLOOKUP(Y41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL41">
+        <f>VLOOKUP(Z41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM41">
+        <f>VLOOKUP(AA41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN41">
+        <f>VLOOKUP(AB41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO41" t="e">
+        <f>VLOOKUP(AC41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP41" t="e">
+        <f>VLOOKUP(AD41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -8805,15 +11902,72 @@
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="BK42" s="48" t="s">
+      <c r="I42" s="34"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7">
+        <v>7</v>
+      </c>
+      <c r="X42" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <f>VLOOKUP(W42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AJ42">
+        <f>VLOOKUP(X42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AK42">
+        <f>VLOOKUP(Y42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL42">
+        <f>VLOOKUP(Z42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM42">
+        <f>VLOOKUP(AA42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN42">
+        <f>VLOOKUP(AB42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO42" t="e">
+        <f>VLOOKUP(AC42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP42" t="e">
+        <f>VLOOKUP(AD42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY42" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="BL42" s="48"/>
-      <c r="BM42" s="48"/>
-      <c r="BN42" s="48"/>
-    </row>
-    <row r="43" spans="1:67">
+      <c r="BZ42" s="32"/>
+      <c r="CA42" s="32"/>
+      <c r="CB42" s="32"/>
+    </row>
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -8838,15 +11992,72 @@
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="BK43" t="s">
+      <c r="I43" s="34"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7">
+        <v>8</v>
+      </c>
+      <c r="X43" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <f>VLOOKUP(W43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ43">
+        <f>VLOOKUP(X43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AK43">
+        <f>VLOOKUP(Y43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL43">
+        <f>VLOOKUP(Z43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM43">
+        <f>VLOOKUP(AA43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN43">
+        <f>VLOOKUP(AB43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO43" t="e">
+        <f>VLOOKUP(AC43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP43" t="e">
+        <f>VLOOKUP(AD43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY43" t="s">
         <v>260</v>
       </c>
-      <c r="BO43" t="s">
+      <c r="CC43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -8871,12 +12082,69 @@
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="BK44" t="s">
+      <c r="I44" s="34"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7">
+        <v>8</v>
+      </c>
+      <c r="X44" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <f>VLOOKUP(W44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ44">
+        <f>VLOOKUP(X44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK44">
+        <f>VLOOKUP(Y44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AL44">
+        <f>VLOOKUP(Z44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM44">
+        <f>VLOOKUP(AA44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN44">
+        <f>VLOOKUP(AB44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO44" t="e">
+        <f>VLOOKUP(AC44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP44" t="e">
+        <f>VLOOKUP(AD44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -8901,9 +12169,66 @@
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:67">
+      <c r="I45" s="34"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7">
+        <v>8</v>
+      </c>
+      <c r="X45" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>7</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <f>VLOOKUP(W45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ45">
+        <f>VLOOKUP(X45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK45">
+        <f>VLOOKUP(Y45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AL45">
+        <f>VLOOKUP(Z45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM45">
+        <f>VLOOKUP(AA45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN45">
+        <f>VLOOKUP(AB45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO45" t="e">
+        <f>VLOOKUP(AC45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP45" t="e">
+        <f>VLOOKUP(AD45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -8928,9 +12253,66 @@
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="1:67">
+      <c r="I46" s="34"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7">
+        <v>8</v>
+      </c>
+      <c r="X46" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <f>VLOOKUP(W46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ46">
+        <f>VLOOKUP(X46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK46">
+        <f>VLOOKUP(Y46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL46">
+        <f>VLOOKUP(Z46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AM46">
+        <f>VLOOKUP(AA46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN46">
+        <f>VLOOKUP(AB46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO46" t="e">
+        <f>VLOOKUP(AC46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP46" t="e">
+        <f>VLOOKUP(AD46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -8955,9 +12337,66 @@
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="1:67">
+      <c r="I47" s="34"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7">
+        <v>8</v>
+      </c>
+      <c r="X47" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>7</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <f>VLOOKUP(W47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ47">
+        <f>VLOOKUP(X47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK47">
+        <f>VLOOKUP(Y47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL47">
+        <f>VLOOKUP(Z47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AM47">
+        <f>VLOOKUP(AA47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN47">
+        <f>VLOOKUP(AB47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO47" t="e">
+        <f>VLOOKUP(AC47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP47" t="e">
+        <f>VLOOKUP(AD47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -8982,12 +12421,69 @@
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="26"/>
+      <c r="I48" s="34"/>
       <c r="K48" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="V48" s="7"/>
+      <c r="W48" s="7">
+        <v>8</v>
+      </c>
+      <c r="X48" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <f>VLOOKUP(W48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ48">
+        <f>VLOOKUP(X48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK48">
+        <f>VLOOKUP(Y48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL48">
+        <f>VLOOKUP(Z48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM48">
+        <f>VLOOKUP(AA48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AN48">
+        <f>VLOOKUP(AB48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO48" t="e">
+        <f>VLOOKUP(AC48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP48" t="e">
+        <f>VLOOKUP(AD48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -9012,12 +12508,69 @@
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="26"/>
+      <c r="I49" s="34"/>
       <c r="K49" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="V49" s="7"/>
+      <c r="W49" s="7">
+        <v>8</v>
+      </c>
+      <c r="X49" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <f>VLOOKUP(W49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ49">
+        <f>VLOOKUP(X49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK49">
+        <f>VLOOKUP(Y49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL49">
+        <f>VLOOKUP(Z49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM49">
+        <f>VLOOKUP(AA49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AN49">
+        <f>VLOOKUP(AB49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO49" t="e">
+        <f>VLOOKUP(AC49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP49" t="e">
+        <f>VLOOKUP(AD49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -9042,12 +12595,69 @@
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="26"/>
+      <c r="I50" s="34"/>
       <c r="K50" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="V50" s="7"/>
+      <c r="W50" s="7">
+        <v>8</v>
+      </c>
+      <c r="X50" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB50" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <f>VLOOKUP(W50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ50">
+        <f>VLOOKUP(X50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK50">
+        <f>VLOOKUP(Y50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL50">
+        <f>VLOOKUP(Z50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM50">
+        <f>VLOOKUP(AA50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN50">
+        <f>VLOOKUP(AB50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="AO50" t="e">
+        <f>VLOOKUP(AC50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP50" t="e">
+        <f>VLOOKUP(AD50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -9072,9 +12682,72 @@
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="26"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="I51" s="34"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7">
+        <v>8</v>
+      </c>
+      <c r="X51" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC51" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <f>VLOOKUP(W51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ51">
+        <f>VLOOKUP(X51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK51">
+        <f>VLOOKUP(Y51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL51">
+        <f>VLOOKUP(Z51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM51">
+        <f>VLOOKUP(AA51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN51">
+        <f>VLOOKUP(AB51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="AO51" t="e">
+        <f>VLOOKUP(AC51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP51" t="e">
+        <f>VLOOKUP(AD51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY51" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="BZ51" s="49"/>
+      <c r="CA51" s="49"/>
+      <c r="CB51" s="49"/>
+    </row>
+    <row r="52" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -9099,9 +12772,69 @@
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="26"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="I52" s="34"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7">
+        <v>8</v>
+      </c>
+      <c r="X52" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <f>VLOOKUP(W52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ52">
+        <f>VLOOKUP(X52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK52">
+        <f>VLOOKUP(Y52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL52">
+        <f>VLOOKUP(Z52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM52">
+        <f>VLOOKUP(AA52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN52">
+        <f>VLOOKUP(AB52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AO52" t="e">
+        <f>VLOOKUP(AC52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP52" t="e">
+        <f>VLOOKUP(AD52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -9126,9 +12859,69 @@
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="I53" s="34"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7">
+        <v>9</v>
+      </c>
+      <c r="X53" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <f>VLOOKUP(W53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AJ53">
+        <f>VLOOKUP(X53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AK53">
+        <f>VLOOKUP(Y53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL53">
+        <f>VLOOKUP(Z53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM53">
+        <f>VLOOKUP(AA53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN53">
+        <f>VLOOKUP(AB53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AO53" t="e">
+        <f>VLOOKUP(AC53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP53" t="e">
+        <f>VLOOKUP(AD53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -9153,12 +12946,69 @@
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="26"/>
+      <c r="I54" s="34"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="V54" s="7"/>
+      <c r="W54" s="7">
+        <v>9</v>
+      </c>
+      <c r="X54" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <f>VLOOKUP(W54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AJ54">
+        <f>VLOOKUP(X54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AK54">
+        <f>VLOOKUP(Y54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AL54">
+        <f>VLOOKUP(Z54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM54">
+        <f>VLOOKUP(AA54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN54">
+        <f>VLOOKUP(AB54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AO54" t="e">
+        <f>VLOOKUP(AC54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP54" t="e">
+        <f>VLOOKUP(AD54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -9183,12 +13033,69 @@
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="26"/>
+      <c r="I55" s="34"/>
       <c r="K55" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="V55" s="7"/>
+      <c r="W55" s="7">
+        <v>9</v>
+      </c>
+      <c r="X55" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <f>VLOOKUP(W55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AJ55">
+        <f>VLOOKUP(X55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AK55">
+        <f>VLOOKUP(Y55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AL55">
+        <f>VLOOKUP(Z55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AM55">
+        <f>VLOOKUP(AA55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN55">
+        <f>VLOOKUP(AB55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AO55" t="e">
+        <f>VLOOKUP(AC55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP55" t="e">
+        <f>VLOOKUP(AD55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -9213,12 +13120,69 @@
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="26"/>
+      <c r="I56" s="34"/>
       <c r="K56" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="V56" s="7"/>
+      <c r="W56" s="7">
+        <v>9</v>
+      </c>
+      <c r="X56" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <f>VLOOKUP(W56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AJ56">
+        <f>VLOOKUP(X56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AK56">
+        <f>VLOOKUP(Y56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AL56">
+        <f>VLOOKUP(Z56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AM56">
+        <f>VLOOKUP(AA56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AN56">
+        <f>VLOOKUP(AB56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AO56" t="e">
+        <f>VLOOKUP(AC56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP56" t="e">
+        <f>VLOOKUP(AD56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -9243,9 +13207,69 @@
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="26"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="I57" s="34"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7">
+        <v>9</v>
+      </c>
+      <c r="X57" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <f>VLOOKUP(W57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AJ57">
+        <f>VLOOKUP(X57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AK57">
+        <f>VLOOKUP(Y57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AL57">
+        <f>VLOOKUP(Z57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AM57">
+        <f>VLOOKUP(AA57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AN57">
+        <f>VLOOKUP(AB57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>387</v>
+      </c>
+      <c r="AO57" t="e">
+        <f>VLOOKUP(AC57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP57" t="e">
+        <f>VLOOKUP(AD57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -9270,9 +13294,66 @@
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="26"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="I58" s="34"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7">
+        <v>9</v>
+      </c>
+      <c r="X58" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <f>VLOOKUP(W58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AJ58">
+        <f>VLOOKUP(X58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AK58">
+        <f>VLOOKUP(Y58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AL58">
+        <f>VLOOKUP(Z58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AM58">
+        <f>VLOOKUP(AA58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AN58">
+        <f>VLOOKUP(AB58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AO58" t="e">
+        <f>VLOOKUP(AC58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP58" t="e">
+        <f>VLOOKUP(AD58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -9297,11 +13378,68 @@
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I59" s="35" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="V59" s="7"/>
+      <c r="W59" s="7">
+        <v>10</v>
+      </c>
+      <c r="X59" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <f>VLOOKUP(W59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AJ59">
+        <f>VLOOKUP(X59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AK59">
+        <f>VLOOKUP(Y59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AL59">
+        <f>VLOOKUP(Z59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AM59">
+        <f>VLOOKUP(AA59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AN59">
+        <f>VLOOKUP(AB59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AO59" t="e">
+        <f>VLOOKUP(AC59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP59" t="e">
+        <f>VLOOKUP(AD59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -9326,9 +13464,66 @@
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="I60" s="35"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7">
+        <v>10</v>
+      </c>
+      <c r="X60" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB60" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <f>VLOOKUP(W60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AJ60">
+        <f>VLOOKUP(X60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AK60">
+        <f>VLOOKUP(Y60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AL60">
+        <f>VLOOKUP(Z60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AM60">
+        <f>VLOOKUP(AA60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AN60">
+        <f>VLOOKUP(AB60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AO60" t="e">
+        <f>VLOOKUP(AC60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP60" t="e">
+        <f>VLOOKUP(AD60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -9353,9 +13548,66 @@
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="I61" s="35"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7">
+        <v>10</v>
+      </c>
+      <c r="X61" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <f>VLOOKUP(W61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AJ61">
+        <f>VLOOKUP(X61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AK61">
+        <f>VLOOKUP(Y61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AL61">
+        <f>VLOOKUP(Z61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AM61">
+        <f>VLOOKUP(AA61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AN61">
+        <f>VLOOKUP(AB61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AO61" t="e">
+        <f>VLOOKUP(AC61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP61" t="e">
+        <f>VLOOKUP(AD61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -9380,12 +13632,72 @@
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="27"/>
+      <c r="I62" s="35"/>
       <c r="K62" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="V62" s="7"/>
+      <c r="W62" s="7">
+        <v>10</v>
+      </c>
+      <c r="X62" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB62" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <f>VLOOKUP(W62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AJ62">
+        <f>VLOOKUP(X62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AK62">
+        <f>VLOOKUP(Y62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AL62">
+        <f>VLOOKUP(Z62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AM62">
+        <f>VLOOKUP(AA62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AN62">
+        <f>VLOOKUP(AB62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AO62" t="e">
+        <f>VLOOKUP(AC62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP62" t="e">
+        <f>VLOOKUP(AD62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -9410,12 +13722,72 @@
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="27"/>
+      <c r="I63" s="35"/>
       <c r="K63" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="V63" s="7"/>
+      <c r="W63" s="7">
+        <v>10</v>
+      </c>
+      <c r="X63" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <f>VLOOKUP(W63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AJ63">
+        <f>VLOOKUP(X63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AK63">
+        <f>VLOOKUP(Y63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AL63">
+        <f>VLOOKUP(Z63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AM63">
+        <f>VLOOKUP(AA63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AN63">
+        <f>VLOOKUP(AB63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>787</v>
+      </c>
+      <c r="AO63" t="e">
+        <f>VLOOKUP(AC63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP63" t="e">
+        <f>VLOOKUP(AD63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -9440,100 +13812,206 @@
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="I64" s="35"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7">
+        <v>10</v>
+      </c>
+      <c r="X64" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB64" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <f>VLOOKUP(W64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AJ64">
+        <f>VLOOKUP(X64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AK64">
+        <f>VLOOKUP(Y64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AL64">
+        <f>VLOOKUP(Z64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AM64">
+        <f>VLOOKUP(AA64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AN64">
+        <f>VLOOKUP(AB64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>1587</v>
+      </c>
+      <c r="AO64" t="e">
+        <f>VLOOKUP(AC64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP64" t="e">
+        <f>VLOOKUP(AD64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="BY65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+    </row>
+    <row r="67" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+    </row>
+    <row r="68" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="BY68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="BY69" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="CY3:DA3"/>
+    <mergeCell ref="DD3:DF3"/>
+    <mergeCell ref="DH3:DJ3"/>
+    <mergeCell ref="DL3:DN3"/>
+    <mergeCell ref="DP3:DR3"/>
+    <mergeCell ref="DU3:DW3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="CU3:CW3"/>
     <mergeCell ref="I41:I58"/>
     <mergeCell ref="I59:I64"/>
     <mergeCell ref="F14:F19"/>
@@ -9551,21 +14029,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
-  <dimension ref="A1:Z87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79644A07-E96A-0840-9CBB-B68A8ECE6530}">
+  <dimension ref="D2:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="AG31" sqref="AG31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="2" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
+  <dimension ref="A1:AD87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -9573,49 +14102,49 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="J5" s="37" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="S5" s="31" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
+      <c r="S5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="33"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="42"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -9640,8 +14169,16 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AB6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC6" s="7"/>
+      <c r="AD6">
+        <f>(Z10+Z28+Z48+Z68)*2</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>188</v>
       </c>
@@ -9702,8 +14239,16 @@
       <c r="Z7" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AB7" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7">
+        <f>(Q11+Q29+Q49+AD31)*4</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>-1</v>
       </c>
@@ -9762,8 +14307,16 @@
       <c r="Z8" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AB8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8">
+        <f>(MAX(H8:H21)+MAX(H25:H41)+MAX(H45:H62)+MAX(H65:H73))*2</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>2</v>
@@ -9805,7 +14358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="24">
         <v>3</v>
@@ -9844,8 +14397,12 @@
       <c r="Z10" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AD10">
+        <f>SUM(AD6:AD8)</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24">
         <v>4</v>
@@ -9879,7 +14436,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24">
         <v>5</v>
@@ -9909,7 +14466,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="23"/>
@@ -9935,7 +14492,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="23"/>
@@ -9961,7 +14518,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -9987,7 +14544,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -10013,7 +14570,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -10039,7 +14596,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -10065,7 +14622,7 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -10091,7 +14648,7 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -10117,7 +14674,7 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -10143,7 +14700,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -10169,7 +14726,7 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -10199,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>188</v>
       </c>
@@ -10261,7 +14818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>-1</v>
       </c>
@@ -10321,7 +14878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>2</v>
@@ -10363,7 +14920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24">
         <v>3</v>
@@ -10405,7 +14962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24">
         <v>4</v>
@@ -10443,7 +15000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24">
         <v>5</v>
@@ -10477,7 +15034,7 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="23"/>
@@ -10505,7 +15062,7 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="23"/>
@@ -10531,7 +15088,7 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -10557,7 +15114,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -10583,7 +15140,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -10609,7 +15166,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -10635,7 +15192,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -10661,7 +15218,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -10687,7 +15244,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -10713,7 +15270,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -10739,7 +15296,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -10765,7 +15322,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -10791,7 +15348,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -10817,7 +15374,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -10843,7 +15400,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>188</v>
       </c>
@@ -10905,7 +15462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>-1</v>
       </c>
@@ -10965,7 +15522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="24">
         <v>2</v>
@@ -11009,7 +15566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="24">
         <v>3</v>
@@ -11051,7 +15608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
       <c r="B48" s="24">
         <v>4</v>
@@ -11093,7 +15650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24">
         <v>5</v>
@@ -11129,7 +15686,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="24">
         <v>6</v>
@@ -11159,7 +15716,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="23"/>
@@ -11187,7 +15744,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -11213,7 +15770,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -11239,7 +15796,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -11265,7 +15822,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -11291,7 +15848,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -11317,7 +15874,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -11343,7 +15900,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -11369,7 +15926,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -11395,7 +15952,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -11421,7 +15978,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -11447,7 +16004,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -11473,7 +16030,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -11499,7 +16056,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>188</v>
       </c>
@@ -11561,7 +16118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="24">
         <v>-1</v>
       </c>
@@ -11621,7 +16178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="B66" s="24">
         <v>2</v>
@@ -11665,7 +16222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="24">
         <v>3</v>
@@ -11709,7 +16266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="24"/>
       <c r="B68" s="24">
         <v>4</v>
@@ -11751,7 +16308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="24">
         <v>5</v>
@@ -11791,7 +16348,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" s="24">
         <v>6</v>
@@ -11823,7 +16380,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="24">
         <v>7</v>
@@ -11853,7 +16410,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -11881,7 +16438,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -11907,7 +16464,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>196</v>
       </c>
@@ -11915,7 +16472,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="7:14">
+    <row r="81" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>197</v>
       </c>
@@ -11923,12 +16480,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="7:14">
+    <row r="82" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="7:14">
+    <row r="83" spans="7:14" x14ac:dyDescent="0.2">
       <c r="M83" t="s">
         <v>201</v>
       </c>
@@ -11936,13 +16493,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="7:14">
+    <row r="84" spans="7:14" x14ac:dyDescent="0.2">
       <c r="M84" t="s">
         <v>202</v>
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="7:14">
+    <row r="85" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>207</v>
       </c>
@@ -11951,7 +16508,7 @@
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="7:14">
+    <row r="86" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>208</v>
       </c>
@@ -11960,7 +16517,7 @@
       </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="7:14">
+    <row r="87" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>209</v>
       </c>
@@ -11981,15 +16538,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A8B60-FF78-F14F-B548-B7C2DFDD14B0}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
@@ -11997,17 +16554,17 @@
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -12018,7 +16575,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -12026,71 +16583,71 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="26" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18">
-      <c r="P7" s="43" t="s">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="P7" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18">
-      <c r="P8" s="42" t="s">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="P8" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="26">
         <v>1</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="26">
         <v>1</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="26">
         <v>1</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
-      <c r="E9" s="25" t="s">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="E9" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="P9" s="42">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="P9" s="26">
         <v>2</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="26">
         <v>2</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="26">
         <v>2</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="26">
         <v>2</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>222</v>
       </c>
@@ -12103,634 +16660,758 @@
       <c r="G10" t="s">
         <v>221</v>
       </c>
-      <c r="P10" s="42">
+      <c r="I10" t="s">
+        <v>290</v>
+      </c>
+      <c r="P10" s="26">
         <v>3</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="26">
         <v>4</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="26">
         <v>4</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="26">
         <v>4</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="P11" s="42">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>SUM($G$11:G11)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="26">
         <v>4</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="26">
         <v>10</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="26">
         <v>10</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="26">
         <v>10</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="P12" s="42">
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>SUM($G$11:G12)</f>
+        <v>3</v>
+      </c>
+      <c r="P12" s="26">
         <v>5</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="26">
         <v>20</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="26">
         <v>20</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="26">
         <v>20</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="P13" s="42">
+      <c r="E13" s="26">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26">
+        <v>4</v>
+      </c>
+      <c r="G13" s="26">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f>SUM($G$11:G13)</f>
+        <v>7</v>
+      </c>
+      <c r="P13" s="26">
         <v>6</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="26">
         <v>50</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="26">
         <v>50</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="26">
         <v>50</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="T13" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="P14" s="42">
+      <c r="E14" s="26">
+        <v>10</v>
+      </c>
+      <c r="F14" s="26">
+        <v>10</v>
+      </c>
+      <c r="G14" s="26">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <f>SUM($G$11:G14)</f>
+        <v>17</v>
+      </c>
+      <c r="P14" s="26">
         <v>7</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="26">
         <v>100</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="26">
         <v>100</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="26">
         <v>100</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18">
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="P15" s="42">
+      <c r="E15" s="26">
+        <v>20</v>
+      </c>
+      <c r="F15" s="26">
+        <v>20</v>
+      </c>
+      <c r="G15" s="26">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <f>SUM($G$11:G15)</f>
+        <v>37</v>
+      </c>
+      <c r="P15" s="26">
         <v>8</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="26">
         <v>200</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="26">
         <v>200</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="26">
         <v>200</v>
       </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18">
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="P16" s="42">
+      <c r="E16" s="26">
+        <v>50</v>
+      </c>
+      <c r="F16" s="26">
+        <v>50</v>
+      </c>
+      <c r="G16" s="26">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <f>SUM($G$11:G16)</f>
+        <v>87</v>
+      </c>
+      <c r="P16" s="26">
         <v>9</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="26">
         <v>400</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="26">
         <v>400</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T16" s="42" t="s">
+      <c r="T16" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="3:28" ht="18">
+    <row r="17" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>7</v>
       </c>
-      <c r="P17" s="42">
+      <c r="E17" s="26">
+        <v>100</v>
+      </c>
+      <c r="F17" s="26">
+        <v>100</v>
+      </c>
+      <c r="G17" s="26">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <f>SUM($G$11:G17)</f>
+        <v>187</v>
+      </c>
+      <c r="P17" s="26">
         <v>10</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="26">
         <v>800</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="26">
         <v>800</v>
       </c>
-      <c r="S17" s="42" t="s">
+      <c r="S17" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T17" s="42" t="s">
+      <c r="T17" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="3:28" ht="18">
+    <row r="18" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>8</v>
       </c>
-      <c r="P18" s="42">
+      <c r="E18" s="26">
+        <v>200</v>
+      </c>
+      <c r="F18" s="26">
+        <v>200</v>
+      </c>
+      <c r="G18" s="26">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <f>SUM($G$11:G18)</f>
+        <v>387</v>
+      </c>
+      <c r="P18" s="26">
         <v>11</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="26">
         <v>1000</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="26">
         <v>1000</v>
       </c>
-      <c r="S18" s="42" t="s">
+      <c r="S18" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T18" s="42" t="s">
+      <c r="T18" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="3:28" ht="18">
+    <row r="19" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>9</v>
       </c>
-      <c r="P19" s="42">
+      <c r="E19" s="26">
+        <v>400</v>
+      </c>
+      <c r="F19" s="26">
+        <v>400</v>
+      </c>
+      <c r="G19" s="26">
+        <v>400</v>
+      </c>
+      <c r="I19">
+        <f>SUM($G$11:G19)</f>
+        <v>787</v>
+      </c>
+      <c r="P19" s="26">
         <v>12</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="26">
         <v>2000</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="S19" s="42" t="s">
+      <c r="S19" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T19" s="42" t="s">
+      <c r="T19" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="3:28" ht="18">
+    <row r="20" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="P20" s="42">
+      <c r="E20" s="26">
+        <v>800</v>
+      </c>
+      <c r="F20" s="26">
+        <v>800</v>
+      </c>
+      <c r="G20" s="26">
+        <v>800</v>
+      </c>
+      <c r="I20">
+        <f>SUM($G$11:G20)</f>
+        <v>1587</v>
+      </c>
+      <c r="P20" s="26">
         <v>13</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="26">
         <v>5000</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="S20" s="42" t="s">
+      <c r="S20" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="3:28" ht="18">
-      <c r="P21" s="42" t="s">
+    <row r="21" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P21" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="26">
         <v>9586</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="26">
         <v>2586</v>
       </c>
-      <c r="S21" s="42">
+      <c r="S21" s="26">
         <v>386</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="26">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:28" ht="18">
-      <c r="P25" s="42" t="s">
+    <row r="25" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="42" t="s">
+      <c r="Q25" s="26" t="s">
         <v>270</v>
       </c>
       <c r="V25" t="s">
         <v>271</v>
       </c>
-      <c r="X25" s="42" t="s">
+      <c r="X25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y25" s="42" t="s">
+      <c r="Y25" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="3:28" ht="18">
-      <c r="P26" s="43" t="s">
+    <row r="26" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P26" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="Q26" s="44" t="s">
+      <c r="Q26" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="R26" s="45" t="s">
+      <c r="R26" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="S26" s="46" t="s">
+      <c r="S26" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="X26" s="43" t="s">
+      <c r="X26" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="Y26" s="44" t="s">
+      <c r="Y26" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="Z26" s="45" t="s">
+      <c r="Z26" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="AA26" s="46" t="s">
+      <c r="AA26" s="30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="3:28" ht="18">
-      <c r="P27" s="42" t="s">
+    <row r="27" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P27" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="Q27" s="42" t="s">
+      <c r="Q27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="S27" s="42" t="s">
+      <c r="S27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T27" s="42" t="s">
+      <c r="T27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X27" s="42" t="s">
+      <c r="X27" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="Y27" s="42" t="s">
+      <c r="Y27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="Z27" s="42" t="s">
+      <c r="Z27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="AA27" s="42" t="s">
+      <c r="AA27" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="AB27" s="42" t="s">
+      <c r="AB27" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="3:28" ht="18">
-      <c r="P28" s="42">
+    <row r="28" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P28" s="26">
         <v>2</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="26">
         <v>5</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="26">
         <v>50</v>
       </c>
-      <c r="S28" s="42">
+      <c r="S28" s="26">
         <v>400</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="31">
         <v>5000</v>
       </c>
-      <c r="X28" s="42">
+      <c r="X28" s="26">
         <v>2</v>
       </c>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="47"/>
-    </row>
-    <row r="29" spans="3:28" ht="18">
-      <c r="P29" s="42">
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="31"/>
+    </row>
+    <row r="29" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P29" s="26">
         <v>3</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="26">
         <v>20</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="26">
         <v>150</v>
       </c>
-      <c r="S29" s="47">
+      <c r="S29" s="31">
         <v>2000</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="31">
         <v>20000</v>
       </c>
-      <c r="X29" s="42">
+      <c r="X29" s="26">
         <v>3</v>
       </c>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-    </row>
-    <row r="30" spans="3:28" ht="18">
-      <c r="P30" s="42">
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+    </row>
+    <row r="30" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P30" s="26">
         <v>4</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="26">
         <v>50</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="26">
         <v>400</v>
       </c>
-      <c r="S30" s="47">
+      <c r="S30" s="31">
         <v>4000</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T30" s="31">
         <v>50000</v>
       </c>
-      <c r="X30" s="42">
+      <c r="X30" s="26">
         <v>4</v>
       </c>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-    </row>
-    <row r="31" spans="3:28" ht="18">
-      <c r="P31" s="42">
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+    </row>
+    <row r="31" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P31" s="26">
         <v>5</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="26">
         <v>150</v>
       </c>
-      <c r="R31" s="47">
+      <c r="R31" s="31">
         <v>1000</v>
       </c>
-      <c r="S31" s="47">
+      <c r="S31" s="31">
         <v>8000</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="31">
         <v>100000</v>
       </c>
-      <c r="X31" s="42">
+      <c r="X31" s="26">
         <v>5</v>
       </c>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-    </row>
-    <row r="32" spans="3:28" ht="18">
-      <c r="P32" s="42">
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+    </row>
+    <row r="32" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P32" s="26">
         <v>6</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="26">
         <v>400</v>
       </c>
-      <c r="R32" s="47">
+      <c r="R32" s="31">
         <v>2000</v>
       </c>
-      <c r="S32" s="47">
+      <c r="S32" s="31">
         <v>20000</v>
       </c>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="X32" s="42">
+      <c r="X32" s="26">
         <v>6</v>
       </c>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="42"/>
-    </row>
-    <row r="33" spans="16:28" ht="18">
-      <c r="P33" s="42">
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="26"/>
+    </row>
+    <row r="33" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P33" s="26">
         <v>7</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="31">
         <v>1000</v>
       </c>
-      <c r="R33" s="47">
+      <c r="R33" s="31">
         <v>4000</v>
       </c>
-      <c r="S33" s="47">
+      <c r="S33" s="31">
         <v>50000</v>
       </c>
-      <c r="T33" s="42" t="s">
+      <c r="T33" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X33" s="42">
+      <c r="X33" s="26">
         <v>7</v>
       </c>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="42"/>
-    </row>
-    <row r="34" spans="16:28" ht="18">
-      <c r="P34" s="42">
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="26"/>
+    </row>
+    <row r="34" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P34" s="26">
         <v>8</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="31">
         <v>2000</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="31">
         <v>8000</v>
       </c>
-      <c r="S34" s="47">
+      <c r="S34" s="31">
         <v>100000</v>
       </c>
-      <c r="T34" s="42" t="s">
+      <c r="T34" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X34" s="42">
+      <c r="X34" s="26">
         <v>8</v>
       </c>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="42"/>
-    </row>
-    <row r="35" spans="16:28" ht="18">
-      <c r="P35" s="42">
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="26"/>
+    </row>
+    <row r="35" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P35" s="26">
         <v>9</v>
       </c>
-      <c r="Q35" s="47">
+      <c r="Q35" s="31">
         <v>4000</v>
       </c>
-      <c r="R35" s="47">
+      <c r="R35" s="31">
         <v>20000</v>
       </c>
-      <c r="S35" s="42" t="s">
+      <c r="S35" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T35" s="42" t="s">
+      <c r="T35" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X35" s="42">
+      <c r="X35" s="26">
         <v>9</v>
       </c>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-    </row>
-    <row r="36" spans="16:28" ht="18">
-      <c r="P36" s="42">
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+    </row>
+    <row r="36" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P36" s="26">
         <v>10</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q36" s="31">
         <v>8000</v>
       </c>
-      <c r="R36" s="47">
+      <c r="R36" s="31">
         <v>50000</v>
       </c>
-      <c r="S36" s="42" t="s">
+      <c r="S36" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T36" s="42" t="s">
+      <c r="T36" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X36" s="42">
+      <c r="X36" s="26">
         <v>10</v>
       </c>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-    </row>
-    <row r="37" spans="16:28" ht="18">
-      <c r="P37" s="42">
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+    </row>
+    <row r="37" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P37" s="26">
         <v>11</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q37" s="31">
         <v>20000</v>
       </c>
-      <c r="R37" s="47">
+      <c r="R37" s="31">
         <v>100000</v>
       </c>
-      <c r="S37" s="42" t="s">
+      <c r="S37" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T37" s="42" t="s">
+      <c r="T37" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X37" s="42">
+      <c r="X37" s="26">
         <v>11</v>
       </c>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-    </row>
-    <row r="38" spans="16:28" ht="18">
-      <c r="P38" s="42">
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+    </row>
+    <row r="38" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P38" s="26">
         <v>12</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="31">
         <v>50000</v>
       </c>
-      <c r="R38" s="42" t="s">
+      <c r="R38" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T38" s="42" t="s">
+      <c r="T38" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X38" s="42">
+      <c r="X38" s="26">
         <v>12</v>
       </c>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-    </row>
-    <row r="39" spans="16:28" ht="18">
-      <c r="P39" s="42">
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+    </row>
+    <row r="39" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P39" s="26">
         <v>13</v>
       </c>
-      <c r="Q39" s="47">
+      <c r="Q39" s="31">
         <v>100000</v>
       </c>
-      <c r="R39" s="42" t="s">
+      <c r="R39" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="S39" s="42" t="s">
+      <c r="S39" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="T39" s="42" t="s">
+      <c r="T39" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="X39" s="42">
+      <c r="X39" s="26">
         <v>13</v>
       </c>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-    </row>
-    <row r="40" spans="16:28" ht="18">
-      <c r="P40" s="42" t="s">
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+    </row>
+    <row r="40" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+      <c r="P40" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="31">
         <v>185625</v>
       </c>
-      <c r="R40" s="47">
+      <c r="R40" s="31">
         <v>185600</v>
       </c>
-      <c r="S40" s="47">
+      <c r="S40" s="31">
         <v>184400</v>
       </c>
-      <c r="T40" s="47">
+      <c r="T40" s="31">
         <v>175000</v>
       </c>
-      <c r="X40" s="42" t="s">
+      <c r="X40" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12741,32 +17422,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B95D537-18ED-7A4B-831D-B6FACAE50269}">
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>211</v>
       </c>
@@ -12777,7 +17458,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>212</v>
       </c>
@@ -12790,7 +17471,7 @@
         <v>充值多 水平高</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>213</v>
       </c>
@@ -12812,7 +17493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
@@ -12820,13 +17501,13 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -12837,7 +17518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -12856,7 +17537,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -12878,7 +17559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -12900,7 +17581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -12922,7 +17603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -12941,7 +17622,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -12960,7 +17641,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -12982,7 +17663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -13004,7 +17685,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="23">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -13031,7 +17712,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -13050,7 +17731,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -13069,7 +17750,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -13088,7 +17769,7 @@
         <v>521.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -13107,7 +17788,7 @@
         <v>463.20000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -13126,7 +17807,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -13145,7 +17826,7 @@
         <v>1061.1000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -13164,7 +17845,7 @@
         <v>943.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -13183,7 +17864,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -13202,7 +17883,7 @@
         <v>2141.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -13221,7 +17902,7 @@
         <v>1903.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -13240,13 +17921,13 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:5" s="7" customFormat="1">
+    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
@@ -13265,7 +17946,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -13284,7 +17965,7 @@
         <v>353.7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -13303,7 +17984,7 @@
         <v>314.40000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -13322,7 +18003,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -13341,7 +18022,7 @@
         <v>713.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -13360,7 +18041,7 @@
         <v>634.40000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -13379,7 +18060,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -13398,7 +18079,7 @@
         <v>1163.7</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -13417,7 +18098,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -13436,43 +18117,43 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="G42" s="25" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G42" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -13501,7 +18182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -13533,7 +18214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -13565,7 +18246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -13594,7 +18275,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -13623,7 +18304,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -13652,7 +18333,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -13681,7 +18362,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -13710,7 +18391,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8</v>
       </c>
@@ -13739,7 +18420,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9</v>
       </c>
@@ -13768,7 +18449,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -13797,7 +18478,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -13844,7 +18525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -13891,7 +18572,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -13938,7 +18619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -13985,7 +18666,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -13996,7 +18677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -14007,7 +18688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -14018,7 +18699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -14029,7 +18710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -14040,7 +18721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>5</v>
       </c>
@@ -14052,7 +18733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -14114,7 +18795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
@@ -14176,7 +18857,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
@@ -14239,7 +18920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -14302,7 +18983,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
         <v>39</v>
       </c>
@@ -14337,7 +19018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -14391,7 +19072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -14445,7 +19126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -14499,7 +19180,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -14547,7 +19228,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -14595,7 +19276,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -14643,7 +19324,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -14691,7 +19372,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -14728,7 +19409,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -14765,7 +19446,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -14802,7 +19483,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -14839,7 +19520,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -14865,7 +19546,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -14877,7 +19558,7 @@
         <v>19586</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -14889,7 +19570,7 @@
         <v>39586</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -14910,64 +19591,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C131825-9B07-BF4B-B700-6E148F9210BB}">
-  <dimension ref="A1:A9"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F968AD9-6F4F-8C40-9B05-E564DA362BDB}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>156</v>
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAE7928-AEC1-114D-B16F-45A6A2235D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50991F-630F-AD4B-A887-700341660F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="338">
   <si>
     <t>Birde</t>
   </si>
@@ -1101,13 +1101,16 @@
   </si>
   <si>
     <t>传奇卡场最多获得星星</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5800,13 +5803,13 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>0.11306039167826701</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" t="s">
@@ -6173,7 +6176,7 @@
         <v>4.3935088957113705E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" t="s">
@@ -6248,7 +6251,7 @@
         <v>0.1160160942773784</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
         <v>4</v>
@@ -6325,7 +6328,7 @@
         <v>6.8839266985755423E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" t="s">
@@ -6391,7 +6394,7 @@
         <v>9.3438340229972717E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" t="s">
@@ -6448,7 +6451,7 @@
         <v>0.28082988501363437</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10" s="33"/>
       <c r="B10" s="33" t="s">
         <v>5</v>
@@ -6493,7 +6496,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" t="s">
@@ -6533,7 +6536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" t="s">
@@ -6573,7 +6576,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34">
       <c r="A13" s="33"/>
       <c r="B13" s="33" t="s">
         <v>6</v>
@@ -6615,7 +6618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" t="s">
@@ -6655,7 +6658,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" t="s">
@@ -6695,7 +6698,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" t="s">
@@ -6782,7 +6785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" t="s">
@@ -6822,7 +6825,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="33"/>
       <c r="B19" s="33" t="s">
         <v>8</v>
@@ -6864,7 +6867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" t="s">
@@ -6904,7 +6907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" t="s">
@@ -6944,7 +6947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="33"/>
       <c r="B22" s="33" t="s">
         <v>9</v>
@@ -6986,7 +6989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" t="s">
@@ -7026,7 +7029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" t="s">
@@ -7066,7 +7069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="33" t="s">
         <v>16</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" t="s">
@@ -7150,7 +7153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" t="s">
@@ -7190,7 +7193,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="33"/>
       <c r="B28" s="33" t="s">
         <v>11</v>
@@ -7232,7 +7235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" t="s">
@@ -7272,7 +7275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" t="s">
@@ -7312,7 +7315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="33"/>
       <c r="B31" s="33" t="s">
         <v>12</v>
@@ -7354,7 +7357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" t="s">
@@ -7394,7 +7397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" t="s">
@@ -7434,7 +7437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="33" t="s">
         <v>17</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" t="s">
@@ -7518,7 +7521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" t="s">
@@ -7594,49 +7597,49 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -7656,9 +7659,9 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="11" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="24:26">
       <c r="X11" t="s">
         <v>20</v>
       </c>
@@ -7666,12 +7669,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="24:26">
       <c r="Y13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="24:26">
       <c r="X15" t="s">
         <v>19</v>
       </c>
@@ -7679,17 +7682,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="24:26">
       <c r="X22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="24:26">
       <c r="Z24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="24:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="24:26">
       <c r="X29" t="s">
         <v>26</v>
       </c>
@@ -7706,12 +7709,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
   <dimension ref="A1:EB94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CT13" sqref="CT13"/>
+    <sheetView topLeftCell="A4" zoomScale="87" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -7728,6 +7731,7 @@
     <col min="52" max="52" width="14.6640625" customWidth="1"/>
     <col min="53" max="53" width="13.83203125" customWidth="1"/>
     <col min="54" max="54" width="14.1640625" customWidth="1"/>
+    <col min="78" max="78" width="0" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="29.33203125" customWidth="1"/>
     <col min="99" max="99" width="18.83203125" style="54" customWidth="1"/>
     <col min="100" max="100" width="16.1640625" style="54" customWidth="1"/>
@@ -7742,7 +7746,7 @@
     <col min="130" max="132" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:132">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7954,7 +7958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:132" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:132" ht="24">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -8023,7 +8027,7 @@
       </c>
       <c r="CT2" s="50"/>
     </row>
-    <row r="3" spans="1:132" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:132" ht="24">
       <c r="AR3" s="52" t="s">
         <v>299</v>
       </c>
@@ -8092,7 +8096,7 @@
       <c r="EA3" s="61"/>
       <c r="EB3" s="61"/>
     </row>
-    <row r="4" spans="1:132" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:132" ht="17">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:132" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:132" ht="17">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:132" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:132" ht="18" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:132" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:132" ht="19" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -8622,7 +8626,7 @@
       </c>
       <c r="CP7" s="2"/>
     </row>
-    <row r="8" spans="1:132" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:132" ht="17">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:132">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:132">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:132">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:132">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -9081,7 +9085,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:132">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:132">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:132">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:132">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -9516,7 +9520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -9779,7 +9783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -9947,7 +9951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -10036,7 +10040,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -10207,7 +10211,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -10294,7 +10298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -10381,7 +10385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -10468,7 +10472,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -10558,7 +10562,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -10672,7 +10676,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -11118,7 +11122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -11227,7 +11231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -11453,7 +11457,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -11674,7 +11678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -11788,7 +11792,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -11967,7 +11971,7 @@
       <c r="CA42" s="32"/>
       <c r="CB42" s="32"/>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -12057,7 +12061,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -12228,7 +12232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -12396,7 +12400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -12483,7 +12487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:80">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -12570,7 +12574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:80">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:80">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -12747,7 +12751,7 @@
       <c r="CA51" s="49"/>
       <c r="CB51" s="49"/>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:80">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -12834,7 +12838,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:80">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -12921,7 +12925,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:80">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -13008,7 +13012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:80">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:80">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:80">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -13269,7 +13273,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:80">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -13353,7 +13357,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:80">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:80">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -13523,7 +13527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:80">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -13607,7 +13611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:80">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -13697,7 +13701,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:80">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -13787,7 +13791,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:80">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -13871,7 +13875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:77">
       <c r="A65" s="11"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -13885,7 +13889,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:77">
       <c r="A66" s="11"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -13896,7 +13900,7 @@
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:77">
       <c r="A67" s="11"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
@@ -13907,7 +13911,7 @@
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:77">
       <c r="A68" s="11"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -13921,85 +13925,88 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:77">
       <c r="A69" s="11"/>
       <c r="BY69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:77">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:77">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:77">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:77">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:77">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:77">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:77">
       <c r="A76" s="11"/>
-    </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="X76" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:77">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:77">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:77">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:77">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="11"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="11"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="11"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="11"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="11"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="2"/>
     </row>
   </sheetData>
@@ -14032,43 +14039,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79644A07-E96A-0840-9CBB-B68A8ECE6530}">
   <dimension ref="D2:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="24:24">
       <c r="X2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="24:24">
       <c r="X3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="24:24">
       <c r="X4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="24:24">
       <c r="X5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4">
       <c r="D45" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4">
       <c r="D46" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4">
       <c r="D47" t="s">
         <v>330</v>
       </c>
@@ -14083,18 +14090,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -14102,17 +14109,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="O3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="43" t="s">
         <v>37</v>
       </c>
@@ -14144,7 +14151,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -14178,7 +14185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7" s="23" t="s">
         <v>188</v>
       </c>
@@ -14248,7 +14255,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8" s="24">
         <v>-1</v>
       </c>
@@ -14265,7 +14272,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="20">
         <v>-1</v>
@@ -14312,11 +14319,11 @@
       </c>
       <c r="AC8" s="7"/>
       <c r="AD8">
-        <f>(MAX(H8:H21)+MAX(H25:H41)+MAX(H45:H62)+MAX(H65:H73))*2</f>
+        <f>(MAX(H9:H21)+MAX(H25:H41)+MAX(H45:H62)+MAX(H65:H73))*2</f>
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>2</v>
@@ -14329,7 +14336,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20">
@@ -14358,7 +14365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10" s="24"/>
       <c r="B10" s="24">
         <v>3</v>
@@ -14371,7 +14378,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20">
@@ -14402,7 +14409,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="24"/>
       <c r="B11" s="24">
         <v>4</v>
@@ -14415,7 +14422,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -14436,19 +14443,19 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="24"/>
       <c r="B12" s="24">
         <v>5</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="24">
-        <v>10</v>
-      </c>
+      <c r="E12" s="24"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="23">
+        <v>14</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -14466,7 +14473,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="23"/>
@@ -14492,7 +14499,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="23"/>
@@ -14518,7 +14525,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="24"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -14544,7 +14551,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="24"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -14570,7 +14577,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -14596,7 +14603,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -14622,7 +14629,7 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -14648,7 +14655,7 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -14674,7 +14681,7 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -14700,7 +14707,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -14726,7 +14733,7 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -14756,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26">
       <c r="A24" s="23" t="s">
         <v>188</v>
       </c>
@@ -14818,7 +14825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26">
       <c r="A25" s="24">
         <v>-1</v>
       </c>
@@ -14878,7 +14885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>2</v>
@@ -14920,7 +14927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26">
       <c r="A27" s="24"/>
       <c r="B27" s="24">
         <v>3</v>
@@ -14962,7 +14969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26">
       <c r="A28" s="24"/>
       <c r="B28" s="24">
         <v>4</v>
@@ -15000,7 +15007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26">
       <c r="A29" s="24"/>
       <c r="B29" s="24">
         <v>5</v>
@@ -15034,7 +15041,7 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="23"/>
@@ -15062,7 +15069,7 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="23"/>
@@ -15088,7 +15095,7 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -15114,7 +15121,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -15140,7 +15147,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -15166,7 +15173,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -15192,7 +15199,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -15218,7 +15225,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -15244,7 +15251,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -15270,7 +15277,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -15296,7 +15303,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -15322,7 +15329,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -15348,7 +15355,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -15374,7 +15381,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -15400,7 +15407,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26">
       <c r="A44" s="23" t="s">
         <v>188</v>
       </c>
@@ -15462,7 +15469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26">
       <c r="A45" s="24">
         <v>-1</v>
       </c>
@@ -15522,7 +15529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46" s="23"/>
       <c r="B46" s="24">
         <v>2</v>
@@ -15566,7 +15573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26">
       <c r="A47" s="24"/>
       <c r="B47" s="24">
         <v>3</v>
@@ -15608,7 +15615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26">
       <c r="A48" s="24"/>
       <c r="B48" s="24">
         <v>4</v>
@@ -15650,7 +15657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26">
       <c r="A49" s="24"/>
       <c r="B49" s="24">
         <v>5</v>
@@ -15686,7 +15693,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26">
       <c r="A50" s="24"/>
       <c r="B50" s="24">
         <v>6</v>
@@ -15716,7 +15723,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="23"/>
@@ -15744,7 +15751,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -15770,7 +15777,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -15796,7 +15803,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -15822,7 +15829,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -15848,7 +15855,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -15874,7 +15881,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -15900,7 +15907,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -15926,7 +15933,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -15952,7 +15959,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -15978,7 +15985,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -16004,7 +16011,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -16030,7 +16037,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -16056,7 +16063,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26">
       <c r="A64" s="23" t="s">
         <v>188</v>
       </c>
@@ -16118,7 +16125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26">
       <c r="A65" s="24">
         <v>-1</v>
       </c>
@@ -16178,7 +16185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26">
       <c r="A66" s="23"/>
       <c r="B66" s="24">
         <v>2</v>
@@ -16222,7 +16229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26">
       <c r="A67" s="24"/>
       <c r="B67" s="24">
         <v>3</v>
@@ -16266,7 +16273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26">
       <c r="A68" s="24"/>
       <c r="B68" s="24">
         <v>4</v>
@@ -16308,7 +16315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26">
       <c r="A69" s="24"/>
       <c r="B69" s="24">
         <v>5</v>
@@ -16348,7 +16355,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26">
       <c r="A70" s="24"/>
       <c r="B70" s="24">
         <v>6</v>
@@ -16380,7 +16387,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26">
       <c r="A71" s="24"/>
       <c r="B71" s="24">
         <v>7</v>
@@ -16410,7 +16417,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -16438,7 +16445,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -16464,7 +16471,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26">
       <c r="G80" t="s">
         <v>196</v>
       </c>
@@ -16472,7 +16479,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:14">
       <c r="G81" t="s">
         <v>197</v>
       </c>
@@ -16480,12 +16487,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:14">
       <c r="G82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:14">
       <c r="M83" t="s">
         <v>201</v>
       </c>
@@ -16493,13 +16500,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:14">
       <c r="M84" t="s">
         <v>202</v>
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:14">
       <c r="G85" t="s">
         <v>207</v>
       </c>
@@ -16508,7 +16515,7 @@
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:14">
       <c r="G86" t="s">
         <v>208</v>
       </c>
@@ -16517,7 +16524,7 @@
       </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:14">
       <c r="G87" t="s">
         <v>209</v>
       </c>
@@ -16546,7 +16553,7 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
@@ -16554,17 +16561,17 @@
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -16575,7 +16582,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -16583,7 +16590,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="18">
       <c r="D6" t="s">
         <v>243</v>
       </c>
@@ -16594,7 +16601,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="18">
       <c r="P7" s="27" t="s">
         <v>263</v>
       </c>
@@ -16608,7 +16615,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="18">
       <c r="P8" s="26" t="s">
         <v>266</v>
       </c>
@@ -16625,7 +16632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="18">
       <c r="E9" s="33" t="s">
         <v>223</v>
       </c>
@@ -16647,7 +16654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="18">
       <c r="C10" t="s">
         <v>222</v>
       </c>
@@ -16679,7 +16686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="18">
       <c r="C11">
         <v>1</v>
       </c>
@@ -16712,7 +16719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="18">
       <c r="C12">
         <v>2</v>
       </c>
@@ -16745,7 +16752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="18">
       <c r="C13">
         <v>3</v>
       </c>
@@ -16778,7 +16785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="18">
       <c r="C14">
         <v>4</v>
       </c>
@@ -16811,7 +16818,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="18">
       <c r="C15">
         <v>5</v>
       </c>
@@ -16844,7 +16851,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="18">
       <c r="C16">
         <v>6</v>
       </c>
@@ -16877,7 +16884,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:28" ht="18">
       <c r="C17">
         <v>7</v>
       </c>
@@ -16910,7 +16917,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" ht="18">
       <c r="C18">
         <v>8</v>
       </c>
@@ -16943,7 +16950,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" ht="18">
       <c r="C19">
         <v>9</v>
       </c>
@@ -16976,7 +16983,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:28" ht="18">
       <c r="C20">
         <v>10</v>
       </c>
@@ -17009,7 +17016,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" ht="18">
       <c r="P21" s="26" t="s">
         <v>268</v>
       </c>
@@ -17026,7 +17033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" ht="18">
       <c r="P25" s="26" t="s">
         <v>47</v>
       </c>
@@ -17043,7 +17050,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:28" ht="18">
       <c r="P26" s="27" t="s">
         <v>263</v>
       </c>
@@ -17069,7 +17076,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" ht="18">
       <c r="P27" s="26" t="s">
         <v>266</v>
       </c>
@@ -17101,7 +17108,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" ht="18">
       <c r="P28" s="26">
         <v>2</v>
       </c>
@@ -17125,7 +17132,7 @@
       <c r="AA28" s="26"/>
       <c r="AB28" s="31"/>
     </row>
-    <row r="29" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:28" ht="18">
       <c r="P29" s="26">
         <v>3</v>
       </c>
@@ -17149,7 +17156,7 @@
       <c r="AA29" s="31"/>
       <c r="AB29" s="31"/>
     </row>
-    <row r="30" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" ht="18">
       <c r="P30" s="26">
         <v>4</v>
       </c>
@@ -17173,7 +17180,7 @@
       <c r="AA30" s="31"/>
       <c r="AB30" s="31"/>
     </row>
-    <row r="31" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:28" ht="18">
       <c r="P31" s="26">
         <v>5</v>
       </c>
@@ -17197,7 +17204,7 @@
       <c r="AA31" s="31"/>
       <c r="AB31" s="31"/>
     </row>
-    <row r="32" spans="3:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:28" ht="18">
       <c r="P32" s="26">
         <v>6</v>
       </c>
@@ -17221,7 +17228,7 @@
       <c r="AA32" s="31"/>
       <c r="AB32" s="26"/>
     </row>
-    <row r="33" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="16:28" ht="18">
       <c r="P33" s="26">
         <v>7</v>
       </c>
@@ -17245,7 +17252,7 @@
       <c r="AA33" s="31"/>
       <c r="AB33" s="26"/>
     </row>
-    <row r="34" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="16:28" ht="18">
       <c r="P34" s="26">
         <v>8</v>
       </c>
@@ -17269,7 +17276,7 @@
       <c r="AA34" s="31"/>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="16:28" ht="18">
       <c r="P35" s="26">
         <v>9</v>
       </c>
@@ -17293,7 +17300,7 @@
       <c r="AA35" s="26"/>
       <c r="AB35" s="26"/>
     </row>
-    <row r="36" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="16:28" ht="18">
       <c r="P36" s="26">
         <v>10</v>
       </c>
@@ -17317,7 +17324,7 @@
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
     </row>
-    <row r="37" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="16:28" ht="18">
       <c r="P37" s="26">
         <v>11</v>
       </c>
@@ -17341,7 +17348,7 @@
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
     </row>
-    <row r="38" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="16:28" ht="18">
       <c r="P38" s="26">
         <v>12</v>
       </c>
@@ -17365,7 +17372,7 @@
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
     </row>
-    <row r="39" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="16:28" ht="18">
       <c r="P39" s="26">
         <v>13</v>
       </c>
@@ -17389,7 +17396,7 @@
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
     </row>
-    <row r="40" spans="16:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="16:28" ht="18">
       <c r="P40" s="26" t="s">
         <v>268</v>
       </c>
@@ -17430,24 +17437,24 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="C5" s="33" t="s">
         <v>214</v>
       </c>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>211</v>
       </c>
@@ -17458,7 +17465,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>212</v>
       </c>
@@ -17471,7 +17478,7 @@
         <v>充值多 水平高</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>213</v>
       </c>
@@ -17501,13 +17508,13 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -17518,7 +17525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -17537,7 +17544,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -17559,7 +17566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -17581,7 +17588,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -17603,7 +17610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -17622,7 +17629,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -17641,7 +17648,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -17663,7 +17670,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -17685,7 +17692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="24">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -17712,7 +17719,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -17731,7 +17738,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -17750,7 +17757,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -17769,7 +17776,7 @@
         <v>521.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -17788,7 +17795,7 @@
         <v>463.20000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -17807,7 +17814,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -17826,7 +17833,7 @@
         <v>1061.1000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -17845,7 +17852,7 @@
         <v>943.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -17864,7 +17871,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -17883,7 +17890,7 @@
         <v>2141.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -17902,7 +17909,7 @@
         <v>1903.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -17921,13 +17928,13 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="7" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
@@ -17946,7 +17953,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -17965,7 +17972,7 @@
         <v>353.7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -17984,7 +17991,7 @@
         <v>314.40000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -18003,7 +18010,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -18022,7 +18029,7 @@
         <v>713.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -18041,7 +18048,7 @@
         <v>634.40000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -18060,7 +18067,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -18079,7 +18086,7 @@
         <v>1163.7</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -18098,7 +18105,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -18117,43 +18124,43 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="G42" s="33" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -18182,7 +18189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1</v>
       </c>
@@ -18214,7 +18221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2</v>
       </c>
@@ -18246,7 +18253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>3</v>
       </c>
@@ -18275,7 +18282,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>4</v>
       </c>
@@ -18304,7 +18311,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>5</v>
       </c>
@@ -18333,7 +18340,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>6</v>
       </c>
@@ -18362,7 +18369,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>7</v>
       </c>
@@ -18391,7 +18398,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>8</v>
       </c>
@@ -18420,7 +18427,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>9</v>
       </c>
@@ -18449,7 +18456,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>10</v>
       </c>
@@ -18478,7 +18485,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -18525,7 +18532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>5</v>
       </c>
@@ -18572,7 +18579,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -18619,7 +18626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>2</v>
       </c>
@@ -18666,7 +18673,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -18677,7 +18684,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>1</v>
       </c>
@@ -18688,7 +18695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>2</v>
       </c>
@@ -18699,7 +18706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>3</v>
       </c>
@@ -18710,7 +18717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>4</v>
       </c>
@@ -18721,7 +18728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="3">
         <v>5</v>
       </c>
@@ -18733,7 +18740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -18795,7 +18802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>5</v>
       </c>
@@ -18857,7 +18864,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
@@ -18920,7 +18927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -18983,7 +18990,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="F83" t="s">
         <v>39</v>
       </c>
@@ -19018,7 +19025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -19072,7 +19079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -19126,7 +19133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -19180,7 +19187,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -19228,7 +19235,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -19276,7 +19283,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -19324,7 +19331,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -19372,7 +19379,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -19409,7 +19416,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -19446,7 +19453,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -19483,7 +19490,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -19520,7 +19527,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -19546,7 +19553,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -19558,7 +19565,7 @@
         <v>19586</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -19570,7 +19577,7 @@
         <v>39586</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -19599,13 +19606,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>333</v>
       </c>
@@ -19616,17 +19623,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50991F-630F-AD4B-A887-700341660F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972B417-ECA7-D444-BA8F-4F6E7620E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="5" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="346">
   <si>
     <t>Birde</t>
   </si>
@@ -1085,12 +1085,6 @@
     <t>对各个向量值的变化 与 礼包值的数学关系</t>
   </si>
   <si>
-    <t>card_upgrade_coin(min)</t>
-  </si>
-  <si>
-    <t>chest_coin(min)</t>
-  </si>
-  <si>
     <t>star</t>
   </si>
   <si>
@@ -1104,13 +1098,43 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Level up</t>
+  </si>
+  <si>
+    <t>star speed ⤴</t>
+  </si>
+  <si>
+    <t>card_need up</t>
+  </si>
+  <si>
+    <t>card_upgrade_coin(day)</t>
+  </si>
+  <si>
+    <t>chest_coin(day)</t>
+  </si>
+  <si>
+    <t>limit (need)    x hours 作为线路</t>
+  </si>
+  <si>
+    <t>上线之后领取</t>
+  </si>
+  <si>
+    <t>时间线：</t>
+  </si>
+  <si>
+    <t>可领取的量  1. x次宝箱 2.x次升级</t>
+  </si>
+  <si>
+    <t>溢出后通知</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1412,7 +1436,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1460,27 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5803,13 +5827,13 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5913,23 +5937,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="D2" s="33" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -5952,7 +5976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -6022,11 +6046,11 @@
         <v>0.11306039167826701</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -6101,9 +6125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -6176,9 +6200,9 @@
         <v>4.3935088957113705E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -6251,9 +6275,9 @@
         <v>0.1160160942773784</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -6328,9 +6352,9 @@
         <v>6.8839266985755423E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -6394,9 +6418,9 @@
         <v>9.3438340229972717E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -6451,9 +6475,9 @@
         <v>0.28082988501363437</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -6496,9 +6520,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -6536,9 +6560,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6576,9 +6600,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -6618,9 +6642,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -6658,9 +6682,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6698,11 +6722,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -6742,9 +6766,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -6785,9 +6809,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -6825,9 +6849,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -6867,9 +6891,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -6907,9 +6931,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -6947,9 +6971,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -6989,9 +7013,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -7029,9 +7053,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7069,11 +7093,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -7113,9 +7137,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -7153,9 +7177,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -7193,9 +7217,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -7235,9 +7259,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -7275,9 +7299,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -7315,9 +7339,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -7357,9 +7381,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -7397,9 +7421,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -7437,11 +7461,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -7481,9 +7505,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -7521,9 +7545,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -7563,12 +7587,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -7581,6 +7599,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7597,49 +7621,49 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -7659,9 +7683,9 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="11" spans="24:26">
+    <row r="11" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X11" t="s">
         <v>20</v>
       </c>
@@ -7669,12 +7693,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="24:26">
+    <row r="13" spans="24:26" x14ac:dyDescent="0.2">
       <c r="Y13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="24:26">
+    <row r="15" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X15" t="s">
         <v>19</v>
       </c>
@@ -7682,17 +7706,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="24:26">
+    <row r="22" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="24:26">
+    <row r="24" spans="24:26" x14ac:dyDescent="0.2">
       <c r="Z24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="24:26">
+    <row r="29" spans="24:26" x14ac:dyDescent="0.2">
       <c r="X29" t="s">
         <v>26</v>
       </c>
@@ -7714,7 +7738,7 @@
       <selection pane="topRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -7733,20 +7757,20 @@
     <col min="54" max="54" width="14.1640625" customWidth="1"/>
     <col min="78" max="78" width="0" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="29.33203125" customWidth="1"/>
-    <col min="99" max="99" width="18.83203125" style="54" customWidth="1"/>
-    <col min="100" max="100" width="16.1640625" style="54" customWidth="1"/>
-    <col min="101" max="101" width="25.5" style="54" customWidth="1"/>
-    <col min="103" max="106" width="10.83203125" style="54"/>
-    <col min="108" max="110" width="10.83203125" style="56"/>
-    <col min="112" max="114" width="10.83203125" style="56"/>
-    <col min="116" max="118" width="10.83203125" style="56"/>
-    <col min="120" max="122" width="10.83203125" style="56"/>
-    <col min="123" max="123" width="10.83203125" style="59"/>
-    <col min="125" max="127" width="10.83203125" style="60"/>
-    <col min="130" max="132" width="10.83203125" style="60"/>
+    <col min="99" max="99" width="18.83203125" style="38" customWidth="1"/>
+    <col min="100" max="100" width="16.1640625" style="38" customWidth="1"/>
+    <col min="101" max="101" width="25.5" style="38" customWidth="1"/>
+    <col min="103" max="106" width="10.83203125" style="38"/>
+    <col min="108" max="110" width="10.83203125" style="39"/>
+    <col min="112" max="114" width="10.83203125" style="39"/>
+    <col min="116" max="118" width="10.83203125" style="39"/>
+    <col min="120" max="122" width="10.83203125" style="39"/>
+    <col min="123" max="123" width="10.83203125" style="41"/>
+    <col min="125" max="127" width="10.83203125" style="42"/>
+    <col min="130" max="132" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7958,7 +7982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:132" ht="24">
+    <row r="2" spans="1:132" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -7991,14 +8015,14 @@
       <c r="AL2" t="s">
         <v>238</v>
       </c>
-      <c r="AR2" s="51" t="s">
+      <c r="AR2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
       <c r="BD2" t="s">
         <v>234</v>
       </c>
@@ -8009,7 +8033,7 @@
       <c r="BZ2" s="6"/>
       <c r="CA2" s="6"/>
       <c r="CB2" s="6"/>
-      <c r="CC2" s="53"/>
+      <c r="CC2" s="37"/>
       <c r="CD2" s="6" t="s">
         <v>287</v>
       </c>
@@ -8022,13 +8046,13 @@
       <c r="CK2" s="6"/>
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
-      <c r="CS2" s="50" t="s">
+      <c r="CS2" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="CT2" s="50"/>
-    </row>
-    <row r="3" spans="1:132" ht="24">
-      <c r="AR3" s="52" t="s">
+      <c r="CT2" s="34"/>
+    </row>
+    <row r="3" spans="1:132" ht="24" x14ac:dyDescent="0.3">
+      <c r="AR3" s="36" t="s">
         <v>299</v>
       </c>
       <c r="AY3" t="s">
@@ -8038,7 +8062,7 @@
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
       <c r="CB3" s="6"/>
-      <c r="CC3" s="53" t="s">
+      <c r="CC3" s="37" t="s">
         <v>289</v>
       </c>
       <c r="CD3" s="6"/>
@@ -8051,52 +8075,52 @@
       <c r="CK3" s="6"/>
       <c r="CL3" s="6"/>
       <c r="CM3" s="6"/>
-      <c r="CS3" s="50" t="s">
+      <c r="CS3" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="CT3" s="50"/>
-      <c r="CU3" s="55" t="s">
+      <c r="CT3" s="34"/>
+      <c r="CU3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="CV3" s="55"/>
-      <c r="CW3" s="55"/>
-      <c r="CY3" s="55" t="s">
+      <c r="CV3" s="46"/>
+      <c r="CW3" s="46"/>
+      <c r="CY3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="CZ3" s="55"/>
-      <c r="DA3" s="55"/>
-      <c r="DD3" s="57" t="s">
+      <c r="CZ3" s="46"/>
+      <c r="DA3" s="46"/>
+      <c r="DD3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="DE3" s="57"/>
-      <c r="DF3" s="57"/>
-      <c r="DH3" s="57" t="s">
+      <c r="DE3" s="47"/>
+      <c r="DF3" s="47"/>
+      <c r="DH3" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="DI3" s="57"/>
-      <c r="DJ3" s="57"/>
-      <c r="DL3" s="57" t="s">
+      <c r="DI3" s="47"/>
+      <c r="DJ3" s="47"/>
+      <c r="DL3" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="DM3" s="57"/>
-      <c r="DN3" s="57"/>
-      <c r="DP3" s="57" t="s">
+      <c r="DM3" s="47"/>
+      <c r="DN3" s="47"/>
+      <c r="DP3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="DQ3" s="57"/>
-      <c r="DR3" s="57"/>
-      <c r="DU3" s="61" t="s">
+      <c r="DQ3" s="47"/>
+      <c r="DR3" s="47"/>
+      <c r="DU3" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="DV3" s="61"/>
-      <c r="DW3" s="61"/>
-      <c r="DZ3" s="61" t="s">
+      <c r="DV3" s="48"/>
+      <c r="DW3" s="48"/>
+      <c r="DZ3" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="EA3" s="61"/>
-      <c r="EB3" s="61"/>
-    </row>
-    <row r="4" spans="1:132" ht="17">
+      <c r="EA3" s="48"/>
+      <c r="EB3" s="48"/>
+    </row>
+    <row r="4" spans="1:132" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -8267,80 +8291,80 @@
       <c r="CS4" t="s">
         <v>317</v>
       </c>
-      <c r="CU4" s="54" t="s">
+      <c r="CU4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="CV4" s="54" t="s">
+      <c r="CV4" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="CW4" s="54" t="s">
+      <c r="CW4" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="CY4" s="54" t="s">
+      <c r="CY4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="CZ4" s="54" t="s">
+      <c r="CZ4" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="DA4" s="54" t="s">
+      <c r="DA4" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="DD4" s="58" t="s">
+      <c r="DD4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="DE4" s="58" t="s">
+      <c r="DE4" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="DF4" s="58" t="s">
+      <c r="DF4" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="DH4" s="58" t="s">
+      <c r="DH4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="DI4" s="58" t="s">
+      <c r="DI4" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="DJ4" s="58" t="s">
+      <c r="DJ4" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="DL4" s="58" t="s">
+      <c r="DL4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="DM4" s="58" t="s">
+      <c r="DM4" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="DN4" s="58" t="s">
+      <c r="DN4" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="DP4" s="58" t="s">
+      <c r="DP4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="DQ4" s="58" t="s">
+      <c r="DQ4" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="DR4" s="58" t="s">
+      <c r="DR4" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="DU4" s="62" t="s">
+      <c r="DU4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="DV4" s="62" t="s">
+      <c r="DV4" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="DW4" s="62" t="s">
+      <c r="DW4" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="DZ4" s="62" t="s">
+      <c r="DZ4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="EA4" s="62" t="s">
+      <c r="EA4" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="EB4" s="62" t="s">
+      <c r="EB4" s="43" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:132" ht="17">
+    <row r="5" spans="1:132" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -8368,7 +8392,7 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="53" t="s">
         <v>167</v>
       </c>
       <c r="W5">
@@ -8440,7 +8464,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:132" ht="18" customHeight="1">
+    <row r="6" spans="1:132" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -8468,7 +8492,7 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="53"/>
       <c r="W6">
         <v>1</v>
       </c>
@@ -8526,7 +8550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:132" ht="19" customHeight="1">
+    <row r="7" spans="1:132" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -8554,7 +8578,7 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="53"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7">
         <v>2</v>
@@ -8626,7 +8650,7 @@
       </c>
       <c r="CP7" s="2"/>
     </row>
-    <row r="8" spans="1:132" ht="17">
+    <row r="8" spans="1:132" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -8654,7 +8678,7 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="53"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7">
         <v>2</v>
@@ -8719,7 +8743,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:132">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -8744,7 +8768,7 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="53"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7">
         <v>2</v>
@@ -8812,7 +8836,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:132">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -8837,7 +8861,7 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="53"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7">
         <v>2</v>
@@ -8905,7 +8929,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:132">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -8930,7 +8954,7 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="38"/>
+      <c r="I11" s="53"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7">
         <v>2</v>
@@ -8992,7 +9016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:132">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -9017,7 +9041,7 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="38"/>
+      <c r="I12" s="53"/>
       <c r="K12" t="s">
         <v>161</v>
       </c>
@@ -9085,7 +9109,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:132">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -9110,7 +9134,7 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="53"/>
       <c r="K13" t="s">
         <v>163</v>
       </c>
@@ -9172,7 +9196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:132">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -9189,7 +9213,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="51" t="s">
         <v>183</v>
       </c>
       <c r="G14" t="str">
@@ -9200,7 +9224,7 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="53"/>
       <c r="K14" t="s">
         <v>164</v>
       </c>
@@ -9262,7 +9286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:132">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -9279,7 +9303,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="51"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -9288,7 +9312,7 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="53"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7">
         <v>3</v>
@@ -9350,7 +9374,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:132">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -9367,7 +9391,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="51"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -9376,7 +9400,7 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="53"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7">
         <v>3</v>
@@ -9435,7 +9459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -9452,7 +9476,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="51"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -9461,7 +9485,7 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="38"/>
+      <c r="I17" s="53"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7">
         <v>3</v>
@@ -9520,7 +9544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -9537,7 +9561,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="51"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -9546,7 +9570,7 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="53"/>
       <c r="K18" t="s">
         <v>165</v>
       </c>
@@ -9608,7 +9632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -9625,7 +9649,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="51"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -9634,7 +9658,7 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="53"/>
       <c r="K19" t="s">
         <v>162</v>
       </c>
@@ -9696,7 +9720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -9721,7 +9745,7 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="53"/>
       <c r="K20" t="s">
         <v>166</v>
       </c>
@@ -9783,7 +9807,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -9808,7 +9832,7 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="38"/>
+      <c r="I21" s="53"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7">
         <v>3</v>
@@ -9867,7 +9891,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -9892,7 +9916,7 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="38"/>
+      <c r="I22" s="53"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7">
         <v>3</v>
@@ -9951,7 +9975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -9976,7 +10000,7 @@
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="54" t="s">
         <v>158</v>
       </c>
       <c r="V23" s="7"/>
@@ -10040,7 +10064,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -10065,7 +10089,7 @@
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="54"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7">
         <v>4</v>
@@ -10127,7 +10151,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -10152,7 +10176,7 @@
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="54"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7">
         <v>5</v>
@@ -10211,7 +10235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -10236,7 +10260,7 @@
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="39"/>
+      <c r="I26" s="54"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7">
         <v>5</v>
@@ -10298,7 +10322,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -10323,7 +10347,7 @@
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="54"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7">
         <v>5</v>
@@ -10385,7 +10409,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -10410,7 +10434,7 @@
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="54"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7">
         <v>5</v>
@@ -10472,7 +10496,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -10497,7 +10521,7 @@
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="54"/>
       <c r="N29" t="s">
         <v>131</v>
       </c>
@@ -10562,7 +10586,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -10587,7 +10611,7 @@
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="54"/>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -10676,7 +10700,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -10701,11 +10725,11 @@
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="54"/>
       <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="52" t="s">
         <v>157</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -10790,7 +10814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -10815,11 +10839,11 @@
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="54"/>
       <c r="K32" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="37"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="13" t="s">
         <v>133</v>
       </c>
@@ -10902,7 +10926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -10927,8 +10951,8 @@
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="M33" s="37"/>
+      <c r="I33" s="54"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
@@ -11011,7 +11035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:81">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -11036,8 +11060,8 @@
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="39"/>
-      <c r="M34" s="37" t="s">
+      <c r="I34" s="54"/>
+      <c r="M34" s="52" t="s">
         <v>158</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -11122,7 +11146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -11147,8 +11171,8 @@
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="M35" s="37"/>
+      <c r="I35" s="54"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="13" t="s">
         <v>136</v>
       </c>
@@ -11231,7 +11255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:81">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -11256,11 +11280,11 @@
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="54"/>
       <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="37"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="13" t="s">
         <v>137</v>
       </c>
@@ -11343,7 +11367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:81">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -11368,11 +11392,11 @@
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="54"/>
       <c r="K37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="52" t="s">
         <v>159</v>
       </c>
       <c r="N37" s="13" t="s">
@@ -11457,7 +11481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:81">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -11482,11 +11506,11 @@
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="54"/>
       <c r="K38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="37"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
@@ -11569,7 +11593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:81">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -11594,8 +11618,8 @@
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="M39" s="37"/>
+      <c r="I39" s="54"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="13" t="s">
         <v>140</v>
       </c>
@@ -11678,7 +11702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:81">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -11703,7 +11727,7 @@
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="54"/>
       <c r="M40" s="25" t="s">
         <v>160</v>
       </c>
@@ -11792,7 +11816,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -11817,7 +11841,7 @@
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="49" t="s">
         <v>159</v>
       </c>
       <c r="V41" s="7"/>
@@ -11881,7 +11905,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -11906,7 +11930,7 @@
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="49"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7">
         <v>7</v>
@@ -11971,7 +11995,7 @@
       <c r="CA42" s="32"/>
       <c r="CB42" s="32"/>
     </row>
-    <row r="43" spans="1:81">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -11996,7 +12020,7 @@
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="49"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7">
         <v>8</v>
@@ -12061,7 +12085,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:81">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -12086,7 +12110,7 @@
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="49"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7">
         <v>8</v>
@@ -12148,7 +12172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -12173,7 +12197,7 @@
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="49"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7">
         <v>8</v>
@@ -12232,7 +12256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:81">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -12257,7 +12281,7 @@
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="49"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7">
         <v>8</v>
@@ -12316,7 +12340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:81">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -12341,7 +12365,7 @@
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="34"/>
+      <c r="I47" s="49"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7">
         <v>8</v>
@@ -12400,7 +12424,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:81">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -12425,7 +12449,7 @@
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="34"/>
+      <c r="I48" s="49"/>
       <c r="K48" t="s">
         <v>174</v>
       </c>
@@ -12487,7 +12511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:80">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -12512,7 +12536,7 @@
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="34"/>
+      <c r="I49" s="49"/>
       <c r="K49" t="s">
         <v>175</v>
       </c>
@@ -12574,7 +12598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:80">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -12599,7 +12623,7 @@
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="49"/>
       <c r="K50" t="s">
         <v>176</v>
       </c>
@@ -12661,7 +12685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:80">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -12686,7 +12710,7 @@
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="34"/>
+      <c r="I51" s="49"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7">
         <v>8</v>
@@ -12744,14 +12768,14 @@
         <f>VLOOKUP(AD51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY51" s="49" t="s">
+      <c r="BY51" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="BZ51" s="49"/>
-      <c r="CA51" s="49"/>
-      <c r="CB51" s="49"/>
-    </row>
-    <row r="52" spans="1:80">
+      <c r="BZ51" s="33"/>
+      <c r="CA51" s="33"/>
+      <c r="CB51" s="33"/>
+    </row>
+    <row r="52" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -12776,7 +12800,7 @@
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="49"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7">
         <v>8</v>
@@ -12838,7 +12862,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:80">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -12863,7 +12887,7 @@
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="34"/>
+      <c r="I53" s="49"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7">
         <v>9</v>
@@ -12925,7 +12949,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:80">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -12950,7 +12974,7 @@
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="49"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
@@ -13012,7 +13036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:80">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -13037,7 +13061,7 @@
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="34"/>
+      <c r="I55" s="49"/>
       <c r="K55" t="s">
         <v>178</v>
       </c>
@@ -13099,7 +13123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:80">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -13124,7 +13148,7 @@
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="49"/>
       <c r="K56" t="s">
         <v>179</v>
       </c>
@@ -13186,7 +13210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:80">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -13211,7 +13235,7 @@
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="34"/>
+      <c r="I57" s="49"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7">
         <v>9</v>
@@ -13273,7 +13297,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:80">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -13298,7 +13322,7 @@
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="49"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7">
         <v>9</v>
@@ -13357,7 +13381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:80">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -13382,7 +13406,7 @@
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="50" t="s">
         <v>160</v>
       </c>
       <c r="V59" s="7"/>
@@ -13443,7 +13467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:80">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -13468,7 +13492,7 @@
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="35"/>
+      <c r="I60" s="50"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7">
         <v>10</v>
@@ -13527,7 +13551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:80">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -13552,7 +13576,7 @@
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="35"/>
+      <c r="I61" s="50"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7">
         <v>10</v>
@@ -13611,7 +13635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:80">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -13636,7 +13660,7 @@
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="35"/>
+      <c r="I62" s="50"/>
       <c r="K62" t="s">
         <v>180</v>
       </c>
@@ -13701,7 +13725,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:80">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -13726,7 +13750,7 @@
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="35"/>
+      <c r="I63" s="50"/>
       <c r="K63" t="s">
         <v>181</v>
       </c>
@@ -13791,7 +13815,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:80">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -13816,7 +13840,7 @@
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="35"/>
+      <c r="I64" s="50"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7">
         <v>10</v>
@@ -13875,7 +13899,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:77">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -13889,7 +13913,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:77">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -13900,7 +13924,7 @@
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
     </row>
-    <row r="67" spans="1:77">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
@@ -13911,7 +13935,7 @@
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
     </row>
-    <row r="68" spans="1:77">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -13925,108 +13949,108 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:77">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="BY69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:77">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:77">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:77">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:77">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:77">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:77">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:77">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="X76" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:77">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:77">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:77">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:77">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="CY3:DA3"/>
-    <mergeCell ref="DD3:DF3"/>
-    <mergeCell ref="DH3:DJ3"/>
-    <mergeCell ref="DL3:DN3"/>
-    <mergeCell ref="DP3:DR3"/>
-    <mergeCell ref="DU3:DW3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="I41:I58"/>
-    <mergeCell ref="I59:I64"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="M31:M33"/>
     <mergeCell ref="M34:M36"/>
     <mergeCell ref="M37:M39"/>
     <mergeCell ref="I5:I22"/>
     <mergeCell ref="I23:I40"/>
+    <mergeCell ref="DU3:DW3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="I41:I58"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="CY3:DA3"/>
+    <mergeCell ref="DD3:DF3"/>
+    <mergeCell ref="DH3:DJ3"/>
+    <mergeCell ref="DL3:DN3"/>
+    <mergeCell ref="DP3:DR3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14043,39 +14067,39 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="24:24">
+    <row r="2" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="24:24">
+    <row r="3" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="24:24">
+    <row r="4" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="24:24">
+    <row r="5" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>330</v>
       </c>
@@ -14090,18 +14114,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="109" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -14109,49 +14133,49 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="J5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
-      <c r="S5" s="40" t="s">
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="S5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="42"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="57"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -14177,7 +14201,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AB6" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6">
@@ -14185,7 +14209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>188</v>
       </c>
@@ -14246,8 +14270,8 @@
       <c r="Z7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AB7" s="63" t="s">
-        <v>335</v>
+      <c r="AB7" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7">
@@ -14255,7 +14279,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>-1</v>
       </c>
@@ -14315,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AC8" s="7"/>
       <c r="AD8">
@@ -14323,7 +14347,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>2</v>
@@ -14365,7 +14389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="24">
         <v>3</v>
@@ -14409,7 +14433,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24">
         <v>4</v>
@@ -14443,7 +14467,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24">
         <v>5</v>
@@ -14473,7 +14497,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="23"/>
@@ -14499,7 +14523,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="23"/>
@@ -14525,7 +14549,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -14551,7 +14575,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -14577,7 +14601,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -14603,7 +14627,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -14629,7 +14653,7 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -14655,7 +14679,7 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -14681,7 +14705,7 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -14707,7 +14731,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -14733,7 +14757,7 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -14763,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>188</v>
       </c>
@@ -14825,7 +14849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>-1</v>
       </c>
@@ -14885,7 +14909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>2</v>
@@ -14927,7 +14951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24">
         <v>3</v>
@@ -14969,7 +14993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24">
         <v>4</v>
@@ -15007,7 +15031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24">
         <v>5</v>
@@ -15041,7 +15065,7 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="23"/>
@@ -15069,7 +15093,7 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="23"/>
@@ -15095,7 +15119,7 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -15121,7 +15145,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -15147,7 +15171,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -15173,7 +15197,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -15199,7 +15223,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -15225,7 +15249,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -15251,7 +15275,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -15277,7 +15301,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -15303,7 +15327,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -15329,7 +15353,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -15355,7 +15379,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -15381,7 +15405,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -15407,7 +15431,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>188</v>
       </c>
@@ -15469,7 +15493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>-1</v>
       </c>
@@ -15529,7 +15553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="24">
         <v>2</v>
@@ -15573,7 +15597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="24">
         <v>3</v>
@@ -15615,7 +15639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
       <c r="B48" s="24">
         <v>4</v>
@@ -15657,7 +15681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24">
         <v>5</v>
@@ -15693,7 +15717,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="24">
         <v>6</v>
@@ -15723,7 +15747,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="23"/>
@@ -15751,7 +15775,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -15777,7 +15801,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -15803,7 +15827,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -15829,7 +15853,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -15855,7 +15879,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -15881,7 +15905,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -15907,7 +15931,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -15933,7 +15957,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -15959,7 +15983,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -15985,7 +16009,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -16011,7 +16035,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -16037,7 +16061,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -16063,7 +16087,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>188</v>
       </c>
@@ -16125,7 +16149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="24">
         <v>-1</v>
       </c>
@@ -16185,7 +16209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="23"/>
       <c r="B66" s="24">
         <v>2</v>
@@ -16229,7 +16253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="24">
         <v>3</v>
@@ -16273,7 +16297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="24"/>
       <c r="B68" s="24">
         <v>4</v>
@@ -16315,7 +16339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="24">
         <v>5</v>
@@ -16355,7 +16379,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" s="24">
         <v>6</v>
@@ -16387,7 +16411,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="24">
         <v>7</v>
@@ -16417,7 +16441,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -16445,7 +16469,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -16471,7 +16495,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>196</v>
       </c>
@@ -16479,7 +16503,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="7:14">
+    <row r="81" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>197</v>
       </c>
@@ -16487,12 +16511,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="7:14">
+    <row r="82" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="7:14">
+    <row r="83" spans="7:14" x14ac:dyDescent="0.2">
       <c r="M83" t="s">
         <v>201</v>
       </c>
@@ -16500,13 +16524,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="7:14">
+    <row r="84" spans="7:14" x14ac:dyDescent="0.2">
       <c r="M84" t="s">
         <v>202</v>
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="7:14">
+    <row r="85" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>207</v>
       </c>
@@ -16515,7 +16539,7 @@
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="7:14">
+    <row r="86" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>208</v>
       </c>
@@ -16524,7 +16548,7 @@
       </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="7:14">
+    <row r="87" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>209</v>
       </c>
@@ -16549,11 +16573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A8B60-FF78-F14F-B548-B7C2DFDD14B0}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
@@ -16561,17 +16585,17 @@
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -16582,7 +16606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -16590,7 +16614,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>243</v>
       </c>
@@ -16601,7 +16625,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="P7" s="27" t="s">
         <v>263</v>
       </c>
@@ -16615,7 +16639,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="P8" s="26" t="s">
         <v>266</v>
       </c>
@@ -16632,12 +16656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
-      <c r="E9" s="33" t="s">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="E9" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
       <c r="P9" s="26">
         <v>2</v>
       </c>
@@ -16654,7 +16678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>222</v>
       </c>
@@ -16686,7 +16710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>1</v>
       </c>
@@ -16719,7 +16743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2</v>
       </c>
@@ -16752,7 +16776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>3</v>
       </c>
@@ -16785,7 +16809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>4</v>
       </c>
@@ -16818,7 +16842,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18">
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>5</v>
       </c>
@@ -16851,7 +16875,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18">
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>6</v>
       </c>
@@ -16884,7 +16908,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="3:28" ht="18">
+    <row r="17" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>7</v>
       </c>
@@ -16917,7 +16941,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="3:28" ht="18">
+    <row r="18" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>8</v>
       </c>
@@ -16950,7 +16974,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="3:28" ht="18">
+    <row r="19" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>9</v>
       </c>
@@ -16983,7 +17007,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="3:28" ht="18">
+    <row r="20" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>10</v>
       </c>
@@ -17016,7 +17040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="3:28" ht="18">
+    <row r="21" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P21" s="26" t="s">
         <v>268</v>
       </c>
@@ -17033,7 +17057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:28" ht="18">
+    <row r="25" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P25" s="26" t="s">
         <v>47</v>
       </c>
@@ -17050,7 +17074,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="3:28" ht="18">
+    <row r="26" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P26" s="27" t="s">
         <v>263</v>
       </c>
@@ -17076,7 +17100,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="3:28" ht="18">
+    <row r="27" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P27" s="26" t="s">
         <v>266</v>
       </c>
@@ -17108,7 +17132,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="3:28" ht="18">
+    <row r="28" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P28" s="26">
         <v>2</v>
       </c>
@@ -17132,7 +17156,7 @@
       <c r="AA28" s="26"/>
       <c r="AB28" s="31"/>
     </row>
-    <row r="29" spans="3:28" ht="18">
+    <row r="29" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P29" s="26">
         <v>3</v>
       </c>
@@ -17156,7 +17180,7 @@
       <c r="AA29" s="31"/>
       <c r="AB29" s="31"/>
     </row>
-    <row r="30" spans="3:28" ht="18">
+    <row r="30" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P30" s="26">
         <v>4</v>
       </c>
@@ -17180,7 +17204,7 @@
       <c r="AA30" s="31"/>
       <c r="AB30" s="31"/>
     </row>
-    <row r="31" spans="3:28" ht="18">
+    <row r="31" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P31" s="26">
         <v>5</v>
       </c>
@@ -17204,7 +17228,7 @@
       <c r="AA31" s="31"/>
       <c r="AB31" s="31"/>
     </row>
-    <row r="32" spans="3:28" ht="18">
+    <row r="32" spans="3:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P32" s="26">
         <v>6</v>
       </c>
@@ -17228,7 +17252,7 @@
       <c r="AA32" s="31"/>
       <c r="AB32" s="26"/>
     </row>
-    <row r="33" spans="16:28" ht="18">
+    <row r="33" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P33" s="26">
         <v>7</v>
       </c>
@@ -17252,7 +17276,7 @@
       <c r="AA33" s="31"/>
       <c r="AB33" s="26"/>
     </row>
-    <row r="34" spans="16:28" ht="18">
+    <row r="34" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P34" s="26">
         <v>8</v>
       </c>
@@ -17276,7 +17300,7 @@
       <c r="AA34" s="31"/>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" spans="16:28" ht="18">
+    <row r="35" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P35" s="26">
         <v>9</v>
       </c>
@@ -17300,7 +17324,7 @@
       <c r="AA35" s="26"/>
       <c r="AB35" s="26"/>
     </row>
-    <row r="36" spans="16:28" ht="18">
+    <row r="36" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P36" s="26">
         <v>10</v>
       </c>
@@ -17324,7 +17348,7 @@
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
     </row>
-    <row r="37" spans="16:28" ht="18">
+    <row r="37" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P37" s="26">
         <v>11</v>
       </c>
@@ -17348,7 +17372,7 @@
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
     </row>
-    <row r="38" spans="16:28" ht="18">
+    <row r="38" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P38" s="26">
         <v>12</v>
       </c>
@@ -17372,7 +17396,7 @@
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
     </row>
-    <row r="39" spans="16:28" ht="18">
+    <row r="39" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P39" s="26">
         <v>13</v>
       </c>
@@ -17396,7 +17420,7 @@
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
     </row>
-    <row r="40" spans="16:28" ht="18">
+    <row r="40" spans="16:28" ht="18" x14ac:dyDescent="0.2">
       <c r="P40" s="26" t="s">
         <v>268</v>
       </c>
@@ -17437,24 +17461,24 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="33" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>211</v>
       </c>
@@ -17465,7 +17489,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>212</v>
       </c>
@@ -17478,7 +17502,7 @@
         <v>充值多 水平高</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>213</v>
       </c>
@@ -17504,17 +17528,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="98" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -17525,7 +17549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -17544,7 +17568,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -17566,7 +17590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -17588,7 +17612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -17610,7 +17634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -17629,7 +17653,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -17648,7 +17672,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -17670,7 +17694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -17692,7 +17716,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="24">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -17719,7 +17743,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -17738,7 +17762,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -17757,7 +17781,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -17776,7 +17800,7 @@
         <v>521.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -17795,7 +17819,7 @@
         <v>463.20000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -17814,7 +17838,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -17833,7 +17857,7 @@
         <v>1061.1000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -17852,7 +17876,7 @@
         <v>943.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -17871,7 +17895,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -17890,7 +17914,7 @@
         <v>2141.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -17909,7 +17933,7 @@
         <v>1903.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -17928,13 +17952,13 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:5" s="7" customFormat="1">
+    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
@@ -17953,7 +17977,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -17972,7 +17996,7 @@
         <v>353.7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -17991,7 +18015,7 @@
         <v>314.40000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -18010,7 +18034,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -18029,7 +18053,7 @@
         <v>713.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -18048,7 +18072,7 @@
         <v>634.40000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -18067,7 +18091,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -18086,7 +18110,7 @@
         <v>1163.7</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -18105,7 +18129,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -18124,43 +18148,43 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="G42" s="33" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G42" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -18189,7 +18213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -18221,7 +18245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -18253,7 +18277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -18282,7 +18306,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -18311,7 +18335,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -18340,7 +18364,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -18369,7 +18393,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -18398,7 +18422,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8</v>
       </c>
@@ -18427,7 +18451,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9</v>
       </c>
@@ -18456,7 +18480,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -18485,7 +18509,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -18532,7 +18556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -18579,7 +18603,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -18626,7 +18650,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -18673,7 +18697,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -18684,7 +18708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -18695,7 +18719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -18706,7 +18730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -18717,7 +18741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -18728,7 +18752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>5</v>
       </c>
@@ -18740,7 +18764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -18802,7 +18826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
@@ -18864,7 +18888,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
@@ -18927,7 +18951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -18990,7 +19014,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
         <v>39</v>
       </c>
@@ -19025,7 +19049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -19079,7 +19103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -19133,7 +19157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -19187,7 +19211,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -19235,7 +19259,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -19283,7 +19307,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -19331,7 +19355,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -19379,7 +19403,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -19416,7 +19440,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -19453,7 +19477,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -19490,7 +19514,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -19527,7 +19551,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -19553,7 +19577,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -19565,7 +19589,7 @@
         <v>19586</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -19577,7 +19601,7 @@
         <v>39586</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -19600,42 +19624,2867 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F968AD9-6F4F-8C40-9B05-E564DA362BDB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3">
+        <v>1100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1300</v>
+      </c>
+      <c r="G5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1800</v>
+      </c>
+      <c r="G10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1900</v>
+      </c>
+      <c r="G11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2300</v>
+      </c>
+      <c r="G15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <v>21900</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <v>24100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>25700</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>26300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>26900</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>27100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>28100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>29300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>30900</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>31100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>31300</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>31600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <v>32700</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <v>32900</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <v>33100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>33400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>33700</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="C332">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="C334">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="C335">
+        <v>34300</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="C336">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="C337">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="C338">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="C339">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="C340">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="C341">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="C342">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="C343">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="C344">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="C345">
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="C346">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="C347">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="C348">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="C349">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="C350">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="C351">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="C352">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="C353">
+        <v>36100</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8982D3F-11A2-DD4C-A2B0-19CB4096EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180B086-2855-CF47-9F57-010EAB57511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="370">
   <si>
     <t>Birde</t>
   </si>
@@ -1167,9 +1167,6 @@
     <t>宝箱币</t>
   </si>
   <si>
-    <t>对应宝箱币</t>
-  </si>
-  <si>
     <t>定价（宝箱币）</t>
   </si>
   <si>
@@ -1177,6 +1174,33 @@
   </si>
   <si>
     <t>当前阶段要获得的宝箱币</t>
+  </si>
+  <si>
+    <t>对应宝箱币（只看主线）</t>
+  </si>
+  <si>
+    <t>付费比例</t>
+  </si>
+  <si>
+    <t>游戏内直接投放宝箱币</t>
+  </si>
+  <si>
+    <t>礼包投放宝箱币</t>
+  </si>
+  <si>
+    <t>礼包卡牌价值</t>
+  </si>
+  <si>
+    <t>这个付费节奏不对</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 付费加速模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 课题： 如何让玩家在后期也很爽的成长</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,6 +1402,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5CACF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1453,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1505,19 +1535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,6 +1553,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,8 +1594,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,9 +1606,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5CACF9"/>
       <color rgb="FFFFA6A7"/>
       <color rgb="FFFACCCF"/>
-      <color rgb="FF5CACF9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2135,13 +2168,13 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>720</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1224</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2460</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>120</c:v>
@@ -2153,13 +2186,13 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>720</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1440</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2424</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>240</c:v>
@@ -2189,13 +2222,13 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7200</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12600</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31200</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>600</c:v>
@@ -2207,13 +2240,13 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6300</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3000</c:v>
@@ -2243,13 +2276,13 @@
                   <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>126000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>252000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6000</c:v>
@@ -2261,13 +2294,13 @@
                   <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62400</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>144000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>264000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>24000</c:v>
@@ -2285,10 +2318,10 @@
                   <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>528000</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>528000</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>48000</c:v>
@@ -5968,13 +6001,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>186422</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>198074</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -6021,13 +6054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>233028</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>58257</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -6074,13 +6107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>139817</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>34954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>629175</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6137,13 +6170,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>792294</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
+      <xdr:col>94</xdr:col>
       <xdr:colOff>664128</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>58256</xdr:rowOff>
@@ -6200,13 +6233,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>241301</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>149076</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>189436</xdr:rowOff>
@@ -6258,16 +6291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>772217</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139262</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>569310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>102183</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14596</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>467127</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7032,22 +7065,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -7141,10 +7174,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -7220,8 +7253,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -7295,8 +7328,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7370,8 +7403,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -7447,8 +7480,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -7513,8 +7546,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -7570,8 +7603,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -7615,8 +7648,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -7655,8 +7688,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7695,8 +7728,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -7737,8 +7770,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -7777,8 +7810,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -7817,10 +7850,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -7861,8 +7894,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -7904,8 +7937,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7944,8 +7977,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -7986,8 +8019,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -8026,8 +8059,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8066,8 +8099,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -8108,8 +8141,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -8148,8 +8181,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8188,10 +8221,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -8232,8 +8265,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -8272,8 +8305,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -8312,8 +8345,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -8354,8 +8387,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -8394,8 +8427,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8434,8 +8467,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -8476,8 +8509,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -8516,8 +8549,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8556,10 +8589,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="47" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -8600,8 +8633,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -8640,8 +8673,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8681,12 +8714,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -8699,6 +8726,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12751,11 +12784,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:EO94"/>
+  <dimension ref="A1:ES94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT46" sqref="AT46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="BB48" sqref="BB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12766,31 +12800,36 @@
     <col min="6" max="6" width="53.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="57" max="57" width="38" customWidth="1"/>
-    <col min="58" max="58" width="24.5" customWidth="1"/>
-    <col min="59" max="59" width="27.5" customWidth="1"/>
-    <col min="60" max="61" width="23" customWidth="1"/>
-    <col min="62" max="62" width="20.83203125" customWidth="1"/>
-    <col min="64" max="64" width="14.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.6640625" customWidth="1"/>
-    <col min="66" max="66" width="13.83203125" customWidth="1"/>
-    <col min="67" max="67" width="14.1640625" customWidth="1"/>
-    <col min="91" max="91" width="0" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="29.33203125" customWidth="1"/>
-    <col min="112" max="112" width="18.83203125" style="37" customWidth="1"/>
-    <col min="113" max="113" width="16.1640625" style="37" customWidth="1"/>
-    <col min="114" max="114" width="25.5" style="37" customWidth="1"/>
-    <col min="116" max="119" width="10.83203125" style="37"/>
-    <col min="121" max="123" width="10.83203125" style="38"/>
+    <col min="45" max="45" width="16.1640625" customWidth="1"/>
+    <col min="47" max="47" width="26.33203125" customWidth="1"/>
+    <col min="48" max="48" width="15.5" customWidth="1"/>
+    <col min="50" max="50" width="23.6640625" customWidth="1"/>
+    <col min="51" max="51" width="20.1640625" customWidth="1"/>
+    <col min="61" max="61" width="38" customWidth="1"/>
+    <col min="62" max="62" width="24.5" customWidth="1"/>
+    <col min="63" max="63" width="27.5" customWidth="1"/>
+    <col min="64" max="65" width="23" customWidth="1"/>
+    <col min="66" max="66" width="20.83203125" customWidth="1"/>
+    <col min="68" max="68" width="14.33203125" customWidth="1"/>
+    <col min="69" max="69" width="14.6640625" customWidth="1"/>
+    <col min="70" max="70" width="13.83203125" customWidth="1"/>
+    <col min="71" max="71" width="14.1640625" customWidth="1"/>
+    <col min="95" max="95" width="0" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="29.33203125" customWidth="1"/>
+    <col min="116" max="116" width="18.83203125" style="37" customWidth="1"/>
+    <col min="117" max="117" width="16.1640625" style="37" customWidth="1"/>
+    <col min="118" max="118" width="25.5" style="37" customWidth="1"/>
+    <col min="120" max="123" width="10.83203125" style="37"/>
     <col min="125" max="127" width="10.83203125" style="38"/>
     <col min="129" max="131" width="10.83203125" style="38"/>
     <col min="133" max="135" width="10.83203125" style="38"/>
-    <col min="136" max="136" width="10.83203125" style="40"/>
-    <col min="138" max="140" width="10.83203125" style="41"/>
-    <col min="143" max="145" width="10.83203125" style="41"/>
+    <col min="137" max="139" width="10.83203125" style="38"/>
+    <col min="140" max="140" width="10.83203125" style="40"/>
+    <col min="142" max="144" width="10.83203125" style="41"/>
+    <col min="147" max="149" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -12908,101 +12947,101 @@
       <c r="AP1">
         <v>39</v>
       </c>
-      <c r="BO1">
+      <c r="BS1">
         <v>40</v>
       </c>
-      <c r="BP1">
+      <c r="BT1">
         <v>41</v>
       </c>
-      <c r="BQ1">
+      <c r="BU1">
         <v>42</v>
       </c>
-      <c r="BR1">
+      <c r="BV1">
         <v>43</v>
       </c>
-      <c r="BS1">
+      <c r="BW1">
         <v>44</v>
       </c>
-      <c r="BT1">
+      <c r="BX1">
         <v>45</v>
       </c>
-      <c r="BU1">
+      <c r="BY1">
         <v>46</v>
       </c>
-      <c r="BV1">
+      <c r="BZ1">
         <v>47</v>
       </c>
-      <c r="BW1">
+      <c r="CA1">
         <v>48</v>
       </c>
-      <c r="BX1">
+      <c r="CB1">
         <v>49</v>
       </c>
-      <c r="BY1">
+      <c r="CC1">
         <v>50</v>
       </c>
-      <c r="BZ1">
+      <c r="CD1">
         <v>51</v>
       </c>
-      <c r="CA1">
+      <c r="CE1">
         <v>52</v>
       </c>
-      <c r="CB1">
+      <c r="CF1">
         <v>53</v>
       </c>
-      <c r="CC1">
+      <c r="CG1">
         <v>54</v>
       </c>
-      <c r="CD1">
+      <c r="CH1">
         <v>55</v>
       </c>
-      <c r="CE1">
+      <c r="CI1">
         <v>56</v>
       </c>
-      <c r="CF1">
+      <c r="CJ1">
         <v>57</v>
       </c>
-      <c r="CG1">
+      <c r="CK1">
         <v>58</v>
       </c>
-      <c r="CH1">
+      <c r="CL1">
         <v>59</v>
       </c>
-      <c r="CI1">
+      <c r="CM1">
         <v>60</v>
       </c>
-      <c r="CJ1">
+      <c r="CN1">
         <v>61</v>
       </c>
-      <c r="CK1">
+      <c r="CO1">
         <v>62</v>
       </c>
-      <c r="CL1">
+      <c r="CP1">
         <v>63</v>
       </c>
-      <c r="CM1">
+      <c r="CQ1">
         <v>64</v>
       </c>
-      <c r="CN1">
+      <c r="CR1">
         <v>65</v>
       </c>
-      <c r="CO1">
+      <c r="CS1">
         <v>66</v>
       </c>
-      <c r="CP1">
+      <c r="CT1">
         <v>67</v>
       </c>
-      <c r="CQ1">
+      <c r="CU1">
         <v>68</v>
       </c>
-      <c r="CR1">
+      <c r="CV1">
         <v>69</v>
       </c>
-      <c r="CS1">
+      <c r="CW1">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:145" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:149" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -13035,112 +13074,112 @@
       <c r="AL2" t="s">
         <v>238</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BI2" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
       <c r="BJ2" s="34"/>
-      <c r="BQ2" t="s">
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BU2" t="s">
         <v>234</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CI2" t="s">
         <v>239</v>
       </c>
-      <c r="CL2" s="6"/>
-      <c r="CM2" s="6"/>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="6" t="s">
-        <v>287</v>
-      </c>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
       <c r="CR2" s="6"/>
       <c r="CS2" s="6"/>
-      <c r="CT2" s="6"/>
-      <c r="CU2" s="6"/>
+      <c r="CT2" s="36"/>
+      <c r="CU2" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="CV2" s="6"/>
       <c r="CW2" s="6"/>
       <c r="CX2" s="6"/>
       <c r="CY2" s="6"/>
       <c r="CZ2" s="6"/>
-      <c r="DF2" s="33" t="s">
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="6"/>
+      <c r="DD2" s="6"/>
+      <c r="DJ2" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="DG2" s="33"/>
-    </row>
-    <row r="3" spans="1:145" ht="24" x14ac:dyDescent="0.3">
-      <c r="BE3" s="35" t="s">
+      <c r="DK2" s="33"/>
+    </row>
+    <row r="3" spans="1:149" ht="24" x14ac:dyDescent="0.3">
+      <c r="BI3" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BP3" t="s">
         <v>291</v>
       </c>
-      <c r="CL3" s="6"/>
-      <c r="CM3" s="6"/>
-      <c r="CN3" s="6"/>
-      <c r="CO3" s="6"/>
-      <c r="CP3" s="36" t="s">
-        <v>289</v>
-      </c>
+      <c r="CP3" s="6"/>
       <c r="CQ3" s="6"/>
       <c r="CR3" s="6"/>
       <c r="CS3" s="6"/>
-      <c r="CT3" s="6"/>
+      <c r="CT3" s="36" t="s">
+        <v>289</v>
+      </c>
       <c r="CU3" s="6"/>
       <c r="CV3" s="6"/>
       <c r="CW3" s="6"/>
       <c r="CX3" s="6"/>
       <c r="CY3" s="6"/>
       <c r="CZ3" s="6"/>
-      <c r="DF3" s="33" t="s">
+      <c r="DA3" s="6"/>
+      <c r="DB3" s="6"/>
+      <c r="DC3" s="6"/>
+      <c r="DD3" s="6"/>
+      <c r="DJ3" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="DG3" s="33"/>
-      <c r="DH3" s="51" t="s">
+      <c r="DK3" s="33"/>
+      <c r="DL3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="DI3" s="51"/>
-      <c r="DJ3" s="51"/>
-      <c r="DL3" s="51" t="s">
+      <c r="DM3" s="49"/>
+      <c r="DN3" s="49"/>
+      <c r="DP3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="DM3" s="51"/>
-      <c r="DN3" s="51"/>
-      <c r="DQ3" s="54" t="s">
+      <c r="DQ3" s="49"/>
+      <c r="DR3" s="49"/>
+      <c r="DU3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="DR3" s="54"/>
-      <c r="DS3" s="54"/>
-      <c r="DU3" s="54" t="s">
+      <c r="DV3" s="52"/>
+      <c r="DW3" s="52"/>
+      <c r="DY3" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="DV3" s="54"/>
-      <c r="DW3" s="54"/>
-      <c r="DY3" s="54" t="s">
+      <c r="DZ3" s="52"/>
+      <c r="EA3" s="52"/>
+      <c r="EC3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="DZ3" s="54"/>
-      <c r="EA3" s="54"/>
-      <c r="EC3" s="54" t="s">
+      <c r="ED3" s="52"/>
+      <c r="EE3" s="52"/>
+      <c r="EG3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="ED3" s="54"/>
-      <c r="EE3" s="54"/>
-      <c r="EH3" s="50" t="s">
+      <c r="EH3" s="52"/>
+      <c r="EI3" s="52"/>
+      <c r="EL3" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="EI3" s="50"/>
-      <c r="EJ3" s="50"/>
-      <c r="EM3" s="50" t="s">
+      <c r="EM3" s="48"/>
+      <c r="EN3" s="48"/>
+      <c r="EQ3" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="EN3" s="50"/>
-      <c r="EO3" s="50"/>
-    </row>
-    <row r="4" spans="1:145" ht="17" x14ac:dyDescent="0.2">
+      <c r="ER3" s="48"/>
+      <c r="ES3" s="48"/>
+    </row>
+    <row r="4" spans="1:149" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -13220,112 +13259,115 @@
         <v>232</v>
       </c>
       <c r="AS4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AU4" t="s">
-        <v>361</v>
-      </c>
-      <c r="AX4" s="64"/>
-      <c r="BE4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>365</v>
+      </c>
+      <c r="BB4" s="45"/>
+      <c r="BI4" t="s">
         <v>296</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BJ4" t="s">
         <v>300</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BK4" t="s">
         <v>301</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BL4" t="s">
         <v>302</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BM4" t="s">
         <v>303</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BN4" t="s">
         <v>297</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BP4" t="s">
         <v>292</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BQ4" t="s">
         <v>293</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BR4" t="s">
         <v>294</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BS4" t="s">
         <v>295</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BU4" t="s">
         <v>225</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BV4" t="s">
         <v>226</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BW4" t="s">
         <v>227</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BX4" t="s">
         <v>228</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BY4" t="s">
         <v>229</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BZ4" t="s">
         <v>230</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="CA4" t="s">
         <v>231</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="CB4" t="s">
         <v>232</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CD4" t="s">
         <v>235</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CF4" t="s">
         <v>236</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CI4" t="s">
         <v>240</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CJ4" t="s">
         <v>241</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CK4" t="s">
         <v>242</v>
       </c>
-      <c r="CL4" s="6"/>
-      <c r="CM4" s="6"/>
-      <c r="CN4" s="6"/>
-      <c r="CO4" s="6"/>
-      <c r="CP4" s="6" t="s">
-        <v>306</v>
-      </c>
+      <c r="CP4" s="6"/>
       <c r="CQ4" s="6"/>
       <c r="CR4" s="6"/>
       <c r="CS4" s="6"/>
-      <c r="CT4" s="6"/>
+      <c r="CT4" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="CU4" s="6"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
       <c r="CY4" s="6"/>
       <c r="CZ4" s="6"/>
-      <c r="DB4" t="s">
+      <c r="DA4" s="6"/>
+      <c r="DB4" s="6"/>
+      <c r="DC4" s="6"/>
+      <c r="DD4" s="6"/>
+      <c r="DF4" t="s">
         <v>318</v>
       </c>
-      <c r="DF4" t="s">
+      <c r="DJ4" t="s">
         <v>317</v>
-      </c>
-      <c r="DH4" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="DI4" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="DJ4" s="37" t="s">
-        <v>315</v>
       </c>
       <c r="DL4" s="37" t="s">
         <v>314</v>
@@ -13336,13 +13378,13 @@
       <c r="DN4" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="DQ4" s="39" t="s">
+      <c r="DP4" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="DR4" s="39" t="s">
+      <c r="DQ4" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="DS4" s="39" t="s">
+      <c r="DR4" s="37" t="s">
         <v>315</v>
       </c>
       <c r="DU4" s="39" t="s">
@@ -13372,26 +13414,35 @@
       <c r="EE4" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="EH4" s="42" t="s">
+      <c r="EG4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="EI4" s="42" t="s">
+      <c r="EH4" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="EJ4" s="42" t="s">
+      <c r="EI4" s="39" t="s">
         <v>315</v>
       </c>
+      <c r="EL4" s="42" t="s">
+        <v>314</v>
+      </c>
       <c r="EM4" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="EN4" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="EQ4" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="EN4" s="42" t="s">
+      <c r="ER4" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="EO4" s="42" t="s">
+      <c r="ES4" s="42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:145" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:149" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -13419,7 +13470,7 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="55" t="s">
         <v>167</v>
       </c>
       <c r="V5" s="2"/>
@@ -13480,27 +13531,38 @@
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <f>SUM(AI5:AJ5)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK5:AN5)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO5:AP5)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI5:AJ5)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK5:AN5)*'Chest&amp;Cards'!$M$4</f>
         <v>6</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="2">
         <f>AS5</f>
         <v>6</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="AW5" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <f>AU5*(1-AW5)</f>
+        <v>6</v>
+      </c>
+      <c r="AY5">
+        <f>AU5-AX5</f>
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
         <v>304</v>
       </c>
-      <c r="CL5" t="s">
+      <c r="CP5" t="s">
         <v>246</v>
       </c>
-      <c r="CW5" t="s">
+      <c r="DA5" t="s">
         <v>283</v>
       </c>
-      <c r="DB5" t="s">
+      <c r="DF5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:145" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:149" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -13528,7 +13590,7 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="55"/>
       <c r="V6" s="2"/>
       <c r="W6">
         <v>1</v>
@@ -13587,15 +13649,26 @@
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <f>SUM(AI6:AJ6)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK6:AN6)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO6:AP6)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI6:AJ6)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK6:AN6)*'Chest&amp;Cards'!$M$4</f>
         <v>12</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="2">
         <f>AS6-AS5</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:145" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW6" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6:AX64" si="2">AU6*(1-AW6)</f>
+        <v>6</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:AY64" si="3">AU6-AX6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:149" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -13623,7 +13696,7 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="55"/>
       <c r="V7" s="2"/>
       <c r="W7" s="7">
         <v>2</v>
@@ -13682,28 +13755,39 @@
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <f>SUM(AI7:AJ7)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK7:AN7)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO7:AP7)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI7:AJ7)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK7:AN7)*'Chest&amp;Cards'!$M$4</f>
         <v>24</v>
       </c>
-      <c r="AU7">
-        <f t="shared" ref="AU7:AU64" si="2">AS7-AS6</f>
+      <c r="AU7" s="2">
+        <f t="shared" ref="AU7:AU64" si="4">AS7-AS6</f>
         <v>12</v>
       </c>
-      <c r="CL7" t="s">
+      <c r="AW7" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CP7" t="s">
         <v>247</v>
       </c>
-      <c r="CN7" t="s">
+      <c r="CR7" t="s">
         <v>251</v>
       </c>
-      <c r="CW7" t="s">
+      <c r="DA7" t="s">
         <v>284</v>
       </c>
-      <c r="DB7" s="2" t="s">
+      <c r="DF7" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="DC7" s="2"/>
-    </row>
-    <row r="8" spans="1:145" ht="17" x14ac:dyDescent="0.2">
+      <c r="DG7" s="2"/>
+    </row>
+    <row r="8" spans="1:149" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -13731,7 +13815,7 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="55"/>
       <c r="V8" s="2"/>
       <c r="W8" s="7">
         <v>2</v>
@@ -13790,21 +13874,32 @@
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <f>SUM(AI8:AJ8)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK8:AN8)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO8:AP8)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI8:AJ8)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK8:AN8)*'Chest&amp;Cards'!$M$4</f>
         <v>36</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AW8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="CN8" t="s">
+      <c r="AY8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CR8" t="s">
         <v>255</v>
       </c>
-      <c r="CW8" t="s">
+      <c r="DA8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -13829,7 +13924,7 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="55"/>
       <c r="V9" s="2"/>
       <c r="W9" s="7">
         <v>2</v>
@@ -13888,24 +13983,35 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <f>SUM(AI9:AJ9)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK9:AN9)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO9:AP9)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI9:AJ9)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK9:AN9)*'Chest&amp;Cards'!$M$4</f>
         <v>96</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AW9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX9">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="CL9" t="s">
+      <c r="AY9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CP9" t="s">
         <v>248</v>
       </c>
-      <c r="CN9" t="s">
+      <c r="CR9" t="s">
         <v>253</v>
       </c>
-      <c r="CW9" t="s">
+      <c r="DA9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -13930,7 +14036,7 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="55"/>
       <c r="V10" s="2"/>
       <c r="W10" s="7">
         <v>2</v>
@@ -13989,24 +14095,35 @@
         <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <f>SUM(AI10:AJ10)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK10:AN10)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO10:AP10)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI10:AJ10)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK10:AN10)*'Chest&amp;Cards'!$M$4</f>
         <v>216</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AW10" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX10">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="CL10" t="s">
+      <c r="AY10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CP10" t="s">
         <v>249</v>
       </c>
-      <c r="CN10" t="s">
+      <c r="CR10" t="s">
         <v>252</v>
       </c>
-      <c r="CW10" t="s">
+      <c r="DA10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -14031,7 +14148,7 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="55"/>
       <c r="V11" s="2"/>
       <c r="W11" s="7">
         <v>2</v>
@@ -14090,18 +14207,29 @@
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <f>SUM(AI11:AJ11)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK11:AN11)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO11:AP11)*'Chest&amp;Cards'!$M$5</f>
+        <f>SUM(AI11:AJ11)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK11:AN11)*'Chest&amp;Cards'!$M$4</f>
         <v>276</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AW11" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX11">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="CL11" t="s">
+      <c r="AY11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CP11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -14126,7 +14254,7 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="55"/>
       <c r="K12" t="s">
         <v>161</v>
       </c>
@@ -14188,21 +14316,32 @@
         <v>0</v>
       </c>
       <c r="AS12" s="2">
-        <f>SUM(AI12:AJ12)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK12:AN12)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO12:AP12)*'Chest&amp;Cards'!$M$5</f>
-        <v>996</v>
-      </c>
-      <c r="AU12">
+        <f>SUM(AI12:AJ12)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK12:AN12)*'Chest&amp;Cards'!$M$4</f>
+        <v>396</v>
+      </c>
+      <c r="AU12" s="2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AW12" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="CN12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CR12" t="s">
         <v>254</v>
       </c>
-      <c r="DB12" t="s">
+      <c r="DF12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -14227,7 +14366,7 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="55"/>
       <c r="K13" t="s">
         <v>163</v>
       </c>
@@ -14289,15 +14428,26 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <f>SUM(AI13:AJ13)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK13:AN13)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO13:AP13)*'Chest&amp;Cards'!$M$5</f>
-        <v>2220</v>
-      </c>
-      <c r="AU13">
+        <f>SUM(AI13:AJ13)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK13:AN13)*'Chest&amp;Cards'!$M$4</f>
+        <v>420</v>
+      </c>
+      <c r="AU13" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AW13" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <f t="shared" si="2"/>
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:145" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -14314,7 +14464,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="53" t="s">
         <v>183</v>
       </c>
       <c r="G14" t="str">
@@ -14325,7 +14475,7 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="48"/>
+      <c r="I14" s="55"/>
       <c r="K14" t="s">
         <v>164</v>
       </c>
@@ -14389,15 +14539,26 @@
         <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <f>SUM(AI14:AJ14)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK14:AN14)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO14:AP14)*'Chest&amp;Cards'!$M$5</f>
-        <v>4680</v>
-      </c>
-      <c r="AU14">
+        <f>SUM(AI14:AJ14)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK14:AN14)*'Chest&amp;Cards'!$M$4</f>
+        <v>480</v>
+      </c>
+      <c r="AU14" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AW14" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX14">
         <f t="shared" si="2"/>
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:145" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -14414,7 +14575,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="53"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -14423,7 +14584,7 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="55"/>
       <c r="V15" s="2"/>
       <c r="W15" s="7">
         <v>3</v>
@@ -14482,18 +14643,29 @@
         <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <f>SUM(AI15:AJ15)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK15:AN15)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO15:AP15)*'Chest&amp;Cards'!$M$5</f>
-        <v>4800</v>
-      </c>
-      <c r="AU15">
+        <f>SUM(AI15:AJ15)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK15:AN15)*'Chest&amp;Cards'!$M$4</f>
+        <v>600</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AW15" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="AY15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -14510,7 +14682,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="53"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -14519,7 +14691,7 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="48"/>
+      <c r="I16" s="55"/>
       <c r="V16" s="2"/>
       <c r="W16" s="7">
         <v>3</v>
@@ -14578,15 +14750,26 @@
         <v>0</v>
       </c>
       <c r="AS16" s="2">
-        <f>SUM(AI16:AJ16)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK16:AN16)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO16:AP16)*'Chest&amp;Cards'!$M$5</f>
-        <v>5040</v>
-      </c>
-      <c r="AU16">
+        <f>SUM(AI16:AJ16)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK16:AN16)*'Chest&amp;Cards'!$M$4</f>
+        <v>840</v>
+      </c>
+      <c r="AU16" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="AW16" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX16">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AY16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -14603,7 +14786,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="53"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -14612,7 +14795,7 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="48"/>
+      <c r="I17" s="55"/>
       <c r="V17" s="2"/>
       <c r="W17" s="7">
         <v>3</v>
@@ -14671,15 +14854,26 @@
         <v>0</v>
       </c>
       <c r="AS17" s="2">
-        <f>SUM(AI17:AJ17)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK17:AN17)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO17:AP17)*'Chest&amp;Cards'!$M$5</f>
-        <v>5100</v>
-      </c>
-      <c r="AU17">
+        <f>SUM(AI17:AJ17)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK17:AN17)*'Chest&amp;Cards'!$M$4</f>
+        <v>900</v>
+      </c>
+      <c r="AU17" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AW17" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX17">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AY17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -14696,7 +14890,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="53"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -14705,7 +14899,7 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="48"/>
+      <c r="I18" s="55"/>
       <c r="K18" t="s">
         <v>165</v>
       </c>
@@ -14767,15 +14961,26 @@
         <v>1</v>
       </c>
       <c r="AS18" s="2">
-        <f>SUM(AI18:AJ18)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK18:AN18)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO18:AP18)*'Chest&amp;Cards'!$M$5</f>
-        <v>5820</v>
-      </c>
-      <c r="AU18">
+        <f>SUM(AI18:AJ18)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK18:AN18)*'Chest&amp;Cards'!$M$4</f>
+        <v>1020</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AW18" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX18">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -14792,7 +14997,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="53"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -14801,7 +15006,7 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="48"/>
+      <c r="I19" s="55"/>
       <c r="K19" t="s">
         <v>162</v>
       </c>
@@ -14863,15 +15068,26 @@
         <v>3</v>
       </c>
       <c r="AS19" s="2">
-        <f>SUM(AI19:AJ19)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK19:AN19)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO19:AP19)*'Chest&amp;Cards'!$M$5</f>
-        <v>7260</v>
-      </c>
-      <c r="AU19">
+        <f>SUM(AI19:AJ19)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK19:AN19)*'Chest&amp;Cards'!$M$4</f>
+        <v>1260</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="AW19" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX19">
         <f t="shared" si="2"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -14896,7 +15112,7 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="48"/>
+      <c r="I20" s="55"/>
       <c r="K20" t="s">
         <v>166</v>
       </c>
@@ -14958,15 +15174,26 @@
         <v>7</v>
       </c>
       <c r="AS20" s="2">
-        <f>SUM(AI20:AJ20)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK20:AN20)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO20:AP20)*'Chest&amp;Cards'!$M$5</f>
-        <v>9684</v>
-      </c>
-      <c r="AU20">
+        <f>SUM(AI20:AJ20)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK20:AN20)*'Chest&amp;Cards'!$M$4</f>
+        <v>1284</v>
+      </c>
+      <c r="AU20" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AW20" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX20">
         <f t="shared" si="2"/>
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -14991,7 +15218,7 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="48"/>
+      <c r="I21" s="55"/>
       <c r="V21" s="2"/>
       <c r="W21" s="7">
         <v>3</v>
@@ -15050,15 +15277,26 @@
         <v>7</v>
       </c>
       <c r="AS21" s="2">
-        <f>SUM(AI21:AJ21)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK21:AN21)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO21:AP21)*'Chest&amp;Cards'!$M$5</f>
-        <v>9924</v>
-      </c>
-      <c r="AU21">
+        <f>SUM(AI21:AJ21)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK21:AN21)*'Chest&amp;Cards'!$M$4</f>
+        <v>1524</v>
+      </c>
+      <c r="AU21" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="AW21" s="67">
+        <v>1</v>
+      </c>
+      <c r="AX21">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -15083,7 +15321,7 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="48"/>
+      <c r="I22" s="55"/>
       <c r="V22" s="2"/>
       <c r="W22" s="7">
         <v>3</v>
@@ -15142,15 +15380,30 @@
         <v>7</v>
       </c>
       <c r="AS22" s="2">
-        <f>SUM(AI22:AJ22)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK22:AN22)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO22:AP22)*'Chest&amp;Cards'!$M$5</f>
-        <v>10164</v>
-      </c>
-      <c r="AU22">
+        <f>SUM(AI22:AJ22)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK22:AN22)*'Chest&amp;Cards'!$M$4</f>
+        <v>1764</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="AW22" s="67">
+        <v>1</v>
+      </c>
+      <c r="AX22">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AZ22">
+        <f>SUM(AY5:AY22)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -15164,18 +15417,18 @@
         <v>4</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:E34" si="3">C23&amp;" - " &amp;"Lv"&amp;D23</f>
+        <f t="shared" ref="E23:E34" si="5">C23&amp;" - " &amp;"Lv"&amp;D23</f>
         <v>橙1 - Lv4</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G23:G39" si="4">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
+        <f t="shared" ref="G23:G39" si="6">TEXT(SUBSTITUTE(C23,RIGHT(C23,1),"")&amp;D23,0)</f>
         <v>橙4</v>
       </c>
       <c r="H23">
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="56" t="s">
         <v>158</v>
       </c>
       <c r="V23" s="32"/>
@@ -15235,19 +15488,30 @@
         <f>VLOOKUP(AD23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS23" s="32">
-        <f>SUM(AI23:AJ23)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK23:AN23)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO23:AP23)*'Chest&amp;Cards'!$M$5</f>
-        <v>10224</v>
-      </c>
-      <c r="AU23">
+      <c r="AS23" s="2">
+        <f>SUM(AI23:AJ23)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK23:AN23)*'Chest&amp;Cards'!$M$4</f>
+        <v>1824</v>
+      </c>
+      <c r="AU23" s="11">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AW23" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX23">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="BE23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="BI23" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -15261,18 +15525,18 @@
         <v>4</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>橙2 - Lv4</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>橙4</v>
       </c>
       <c r="H24">
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="49"/>
+      <c r="I24" s="56"/>
       <c r="V24" s="32"/>
       <c r="W24" s="7">
         <v>4</v>
@@ -15330,19 +15594,30 @@
         <f>VLOOKUP(AD24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS24" s="32">
-        <f>SUM(AI24:AJ24)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK24:AN24)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO24:AP24)*'Chest&amp;Cards'!$M$5</f>
-        <v>10284</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="2"/>
+      <c r="AS24" s="2">
+        <f>SUM(AI24:AJ24)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK24:AN24)*'Chest&amp;Cards'!$M$4</f>
+        <v>1884</v>
+      </c>
+      <c r="AU24" s="11">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="AW24" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX24">
+        <f>AU24*(1-AW24)</f>
+        <v>42</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="BI24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -15356,18 +15631,18 @@
         <v>5</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>橙1 - Lv5</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>橙5</v>
       </c>
       <c r="H25">
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="56"/>
       <c r="V25" s="32"/>
       <c r="W25" s="7">
         <v>5</v>
@@ -15425,16 +15700,30 @@
         <f>VLOOKUP(AD25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS25" s="32">
-        <f>SUM(AI25:AJ25)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK25:AN25)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO25:AP25)*'Chest&amp;Cards'!$M$5</f>
-        <v>10404</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="2"/>
+      <c r="AS25" s="2">
+        <f>SUM(AI25:AJ25)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK25:AN25)*'Chest&amp;Cards'!$M$4</f>
+        <v>2004</v>
+      </c>
+      <c r="AU25" s="11">
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AW25" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX25">
+        <f>AU25*(1-AW25)</f>
+        <v>84</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -15448,18 +15737,18 @@
         <v>5</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>橙2 - Lv5</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>橙5</v>
       </c>
       <c r="H26">
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="56"/>
       <c r="V26" s="32"/>
       <c r="W26" s="7">
         <v>5</v>
@@ -15517,19 +15806,30 @@
         <f>VLOOKUP(AD26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS26" s="32">
-        <f>SUM(AI26:AJ26)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK26:AN26)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO26:AP26)*'Chest&amp;Cards'!$M$5</f>
-        <v>10524</v>
-      </c>
-      <c r="AU26">
+      <c r="AS26" s="2">
+        <f>SUM(AI26:AJ26)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK26:AN26)*'Chest&amp;Cards'!$M$4</f>
+        <v>2124</v>
+      </c>
+      <c r="AU26" s="11">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AW26" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX26">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="BE26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="BI26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -15543,18 +15843,18 @@
         <v>4</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫1 - Lv4</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫4</v>
       </c>
       <c r="H27">
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="56"/>
       <c r="V27" s="32"/>
       <c r="W27" s="7">
         <v>5</v>
@@ -15612,19 +15912,30 @@
         <f>VLOOKUP(AD27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS27" s="32">
-        <f>SUM(AI27:AJ27)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK27:AN27)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO27:AP27)*'Chest&amp;Cards'!$M$5</f>
-        <v>11124</v>
-      </c>
-      <c r="AU27">
+      <c r="AS27" s="2">
+        <f>SUM(AI27:AJ27)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK27:AN27)*'Chest&amp;Cards'!$M$4</f>
+        <v>2724</v>
+      </c>
+      <c r="AU27" s="11">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AW27" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX27">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="BE27" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="BI27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -15638,18 +15949,18 @@
         <v>5</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫1 - Lv5</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫5</v>
       </c>
       <c r="H28">
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="49"/>
+      <c r="I28" s="56"/>
       <c r="V28" s="32"/>
       <c r="W28" s="7">
         <v>5</v>
@@ -15707,19 +16018,30 @@
         <f>VLOOKUP(AD28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS28" s="32">
-        <f>SUM(AI28:AJ28)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK28:AN28)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO28:AP28)*'Chest&amp;Cards'!$M$5</f>
-        <v>12324</v>
-      </c>
-      <c r="AU28">
+      <c r="AS28" s="2">
+        <f>SUM(AI28:AJ28)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK28:AN28)*'Chest&amp;Cards'!$M$4</f>
+        <v>3924</v>
+      </c>
+      <c r="AU28" s="11">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="AW28" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX28">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="BE28" t="s">
+        <v>840</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="BI28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -15733,18 +16055,18 @@
         <v>4</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫2 - Lv4</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫4</v>
       </c>
       <c r="H29">
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="49"/>
+      <c r="I29" s="56"/>
       <c r="N29" t="s">
         <v>131</v>
       </c>
@@ -15805,19 +16127,30 @@
         <f>VLOOKUP(AD29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS29" s="32">
-        <f>SUM(AI29:AJ29)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK29:AN29)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO29:AP29)*'Chest&amp;Cards'!$M$5</f>
-        <v>12924</v>
-      </c>
-      <c r="AU29">
+      <c r="AS29" s="2">
+        <f>SUM(AI29:AJ29)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK29:AN29)*'Chest&amp;Cards'!$M$4</f>
+        <v>4524</v>
+      </c>
+      <c r="AU29" s="11">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AW29" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX29">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="BE29" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="BI29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -15831,18 +16164,18 @@
         <v>5</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫2 - Lv5</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫5</v>
       </c>
       <c r="H30">
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="49"/>
+      <c r="I30" s="56"/>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -15927,19 +16260,30 @@
         <f>VLOOKUP(AD30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS30" s="32">
-        <f>SUM(AI30:AJ30)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK30:AN30)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO30:AP30)*'Chest&amp;Cards'!$M$5</f>
-        <v>20124</v>
-      </c>
-      <c r="AU30">
+      <c r="AS30" s="2">
+        <f>SUM(AI30:AJ30)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK30:AN30)*'Chest&amp;Cards'!$M$4</f>
+        <v>5724</v>
+      </c>
+      <c r="AU30" s="11">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="AW30" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX30">
         <f t="shared" si="2"/>
-        <v>7200</v>
-      </c>
-      <c r="BE30" t="s">
+        <v>840</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="BI30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -15953,22 +16297,22 @@
         <v>4</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫3 - Lv4</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫4</v>
       </c>
       <c r="H31">
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="49"/>
+      <c r="I31" s="56"/>
       <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="47" t="s">
+      <c r="M31" s="54" t="s">
         <v>157</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -16054,16 +16398,30 @@
         <f>VLOOKUP(AD31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS31" s="32">
-        <f>SUM(AI31:AJ31)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK31:AN31)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO31:AP31)*'Chest&amp;Cards'!$M$5</f>
-        <v>32724</v>
-      </c>
-      <c r="AU31">
+      <c r="AS31" s="2">
+        <f>SUM(AI31:AJ31)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK31:AN31)*'Chest&amp;Cards'!$M$4</f>
+        <v>6324</v>
+      </c>
+      <c r="AU31" s="11">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AW31" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX31">
         <f t="shared" si="2"/>
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -16077,22 +16435,22 @@
         <v>5</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫3 - Lv5</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫5</v>
       </c>
       <c r="H32">
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="49"/>
+      <c r="I32" s="56"/>
       <c r="K32" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="47"/>
+      <c r="M32" s="54"/>
       <c r="N32" s="13" t="s">
         <v>133</v>
       </c>
@@ -16174,16 +16532,30 @@
         <f>VLOOKUP(AD32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS32" s="32">
-        <f>SUM(AI32:AJ32)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK32:AN32)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO32:AP32)*'Chest&amp;Cards'!$M$5</f>
-        <v>63924</v>
-      </c>
-      <c r="AU32">
+      <c r="AS32" s="2">
+        <f>SUM(AI32:AJ32)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK32:AN32)*'Chest&amp;Cards'!$M$4</f>
+        <v>7524</v>
+      </c>
+      <c r="AU32" s="11">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="AW32" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX32">
         <f t="shared" si="2"/>
-        <v>31200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -16197,19 +16569,19 @@
         <v>4</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫4 - Lv4</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫4</v>
       </c>
       <c r="H33">
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="M33" s="47"/>
+      <c r="I33" s="56"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
@@ -16291,16 +16663,27 @@
         <f>VLOOKUP(AD33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS33" s="32">
-        <f>SUM(AI33:AJ33)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK33:AN33)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO33:AP33)*'Chest&amp;Cards'!$M$5</f>
-        <v>64524</v>
-      </c>
-      <c r="AU33">
+      <c r="AS33" s="2">
+        <f>SUM(AI33:AJ33)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK33:AN33)*'Chest&amp;Cards'!$M$4</f>
+        <v>8124</v>
+      </c>
+      <c r="AU33" s="11">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AW33" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX33">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -16314,19 +16697,19 @@
         <v>5</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>紫4 - Lv5</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫5</v>
       </c>
       <c r="H34">
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="49"/>
-      <c r="M34" s="47" t="s">
+      <c r="I34" s="56"/>
+      <c r="M34" s="54" t="s">
         <v>158</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -16410,16 +16793,27 @@
         <f>VLOOKUP(AD34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS34" s="32">
-        <f>SUM(AI34:AJ34)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK34:AN34)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO34:AP34)*'Chest&amp;Cards'!$M$5</f>
-        <v>65724</v>
-      </c>
-      <c r="AU34">
+      <c r="AS34" s="2">
+        <f>SUM(AI34:AJ34)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK34:AN34)*'Chest&amp;Cards'!$M$4</f>
+        <v>9324</v>
+      </c>
+      <c r="AU34" s="11">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="AW34" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX34">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -16433,19 +16827,19 @@
         <v>6</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E40" si="5">C35&amp;" - " &amp;"Lv"&amp;D35</f>
+        <f t="shared" ref="E35:E40" si="7">C35&amp;" - " &amp;"Lv"&amp;D35</f>
         <v>橙1 - Lv6</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>橙6</v>
       </c>
       <c r="H35">
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="49"/>
-      <c r="M35" s="47"/>
+      <c r="I35" s="56"/>
+      <c r="M35" s="54"/>
       <c r="N35" s="13" t="s">
         <v>136</v>
       </c>
@@ -16527,16 +16921,30 @@
         <f>VLOOKUP(AD35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="AS35" s="32">
-        <f>SUM(AI35:AJ35)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK35:AN35)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO35:AP35)*'Chest&amp;Cards'!$M$5</f>
-        <v>66024</v>
-      </c>
-      <c r="AU35">
+      <c r="AS35" s="2">
+        <f>SUM(AI35:AJ35)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK35:AN35)*'Chest&amp;Cards'!$M$4</f>
+        <v>9624</v>
+      </c>
+      <c r="AU35" s="11">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AW35" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX35">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -16550,22 +16958,22 @@
         <v>6</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>橙2 - Lv6</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>橙6</v>
       </c>
       <c r="H36">
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="49"/>
+      <c r="I36" s="56"/>
       <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="47"/>
+      <c r="M36" s="54"/>
       <c r="N36" s="13" t="s">
         <v>137</v>
       </c>
@@ -16647,16 +17055,27 @@
         <f>VLOOKUP(AD36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="AS36" s="32">
-        <f>SUM(AI36:AJ36)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK36:AN36)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO36:AP36)*'Chest&amp;Cards'!$M$5</f>
-        <v>72324</v>
-      </c>
-      <c r="AU36">
+      <c r="AS36" s="2">
+        <f>SUM(AI36:AJ36)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK36:AN36)*'Chest&amp;Cards'!$M$4</f>
+        <v>9924</v>
+      </c>
+      <c r="AU36" s="11">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AW36" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX36">
         <f t="shared" si="2"/>
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -16670,22 +17089,22 @@
         <v>6</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>紫1 - Lv6</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫6</v>
       </c>
       <c r="H37">
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="49"/>
+      <c r="I37" s="56"/>
       <c r="K37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="54" t="s">
         <v>159</v>
       </c>
       <c r="N37" s="13" t="s">
@@ -16769,16 +17188,27 @@
         <f>VLOOKUP(AD37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="AS37" s="32">
-        <f>SUM(AI37:AJ37)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK37:AN37)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO37:AP37)*'Chest&amp;Cards'!$M$5</f>
-        <v>87324</v>
-      </c>
-      <c r="AU37">
+      <c r="AS37" s="2">
+        <f>SUM(AI37:AJ37)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK37:AN37)*'Chest&amp;Cards'!$M$4</f>
+        <v>12924</v>
+      </c>
+      <c r="AU37" s="11">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="AW37" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX37">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -16792,22 +17222,22 @@
         <v>6</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>紫2 - Lv6</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫6</v>
       </c>
       <c r="H38">
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="49"/>
+      <c r="I38" s="56"/>
       <c r="K38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="47"/>
+      <c r="M38" s="54"/>
       <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
@@ -16889,16 +17319,27 @@
         <f>VLOOKUP(AD38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>87</v>
       </c>
-      <c r="AS38" s="32">
-        <f>SUM(AI38:AJ38)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK38:AN38)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO38:AP38)*'Chest&amp;Cards'!$M$5</f>
-        <v>120324</v>
-      </c>
-      <c r="AU38">
+      <c r="AS38" s="2">
+        <f>SUM(AI38:AJ38)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK38:AN38)*'Chest&amp;Cards'!$M$4</f>
+        <v>15924</v>
+      </c>
+      <c r="AU38" s="11">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="AW38" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX38">
         <f t="shared" si="2"/>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+      <c r="AY38">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -16912,19 +17353,19 @@
         <v>6</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>紫3 - Lv6</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>紫6</v>
       </c>
       <c r="H39">
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="49"/>
-      <c r="M39" s="47"/>
+      <c r="I39" s="56"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="13" t="s">
         <v>140</v>
       </c>
@@ -17006,16 +17447,27 @@
         <f>VLOOKUP(AD39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>87</v>
       </c>
-      <c r="AS39" s="32">
-        <f>SUM(AI39:AJ39)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK39:AN39)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO39:AP39)*'Chest&amp;Cards'!$M$5</f>
-        <v>123324</v>
-      </c>
-      <c r="AU39">
+      <c r="AS39" s="2">
+        <f>SUM(AI39:AJ39)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK39:AN39)*'Chest&amp;Cards'!$M$4</f>
+        <v>18924</v>
+      </c>
+      <c r="AU39" s="11">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="AW39" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX39">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -17029,18 +17481,18 @@
         <v>6</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>紫4 - Lv6</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" ref="G40:G42" si="6">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
+        <f t="shared" ref="G40:G42" si="8">TEXT(SUBSTITUTE(C40,RIGHT(C40,1),"")&amp;D40,0)</f>
         <v>紫6</v>
       </c>
       <c r="H40">
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="49"/>
+      <c r="I40" s="56"/>
       <c r="M40" s="44" t="s">
         <v>160</v>
       </c>
@@ -17125,19 +17577,34 @@
         <f>VLOOKUP(AD40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>87</v>
       </c>
-      <c r="AS40" s="32">
-        <f>SUM(AI40:AJ40)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK40:AN40)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO40:AP40)*'Chest&amp;Cards'!$M$5</f>
-        <v>126324</v>
-      </c>
-      <c r="AU40">
+      <c r="AS40" s="2">
+        <f>SUM(AI40:AJ40)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK40:AN40)*'Chest&amp;Cards'!$M$4</f>
+        <v>21924</v>
+      </c>
+      <c r="AU40" s="11">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="AW40" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="AX40">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="CL40" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AY40">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="AZ40">
+        <f>SUM(AY23:AY40)</f>
+        <v>6048</v>
+      </c>
+      <c r="CP40" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -17151,18 +17618,18 @@
         <v>7</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ref="E41:E57" si="7">C41&amp;" - " &amp;"Lv"&amp;D41</f>
+        <f t="shared" ref="E41:E57" si="9">C41&amp;" - " &amp;"Lv"&amp;D41</f>
         <v>橙1 - Lv7</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>橙7</v>
       </c>
       <c r="H41">
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="50" t="s">
         <v>159</v>
       </c>
       <c r="V41" s="16"/>
@@ -17223,18 +17690,29 @@
         <v>87</v>
       </c>
       <c r="AS41" s="2">
-        <f>SUM(AI41:AJ41)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK41:AN41)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO41:AP41)*'Chest&amp;Cards'!$M$5</f>
-        <v>126924</v>
-      </c>
-      <c r="AU41">
+        <f>SUM(AI41:AJ41)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK41:AN41)*'Chest&amp;Cards'!$M$4</f>
+        <v>22524</v>
+      </c>
+      <c r="AU41" s="16">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AW41" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX41">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="CL41" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY41">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="CP41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -17248,18 +17726,18 @@
         <v>7</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>橙2 - Lv7</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>橙7</v>
       </c>
       <c r="H42">
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="52"/>
+      <c r="I42" s="50"/>
       <c r="V42" s="16"/>
       <c r="W42" s="7">
         <v>7</v>
@@ -17318,21 +17796,32 @@
         <v>87</v>
       </c>
       <c r="AS42" s="2">
-        <f>SUM(AI42:AJ42)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK42:AN42)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO42:AP42)*'Chest&amp;Cards'!$M$5</f>
-        <v>127524</v>
-      </c>
-      <c r="AU42">
+        <f>SUM(AI42:AJ42)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK42:AN42)*'Chest&amp;Cards'!$M$4</f>
+        <v>23124</v>
+      </c>
+      <c r="AU42" s="16">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AW42" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX42">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="CL42" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY42">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="CP42" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="CM42" s="31"/>
-      <c r="CN42" s="31"/>
-      <c r="CO42" s="31"/>
-    </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="CQ42" s="31"/>
+      <c r="CR42" s="31"/>
+      <c r="CS42" s="31"/>
+    </row>
+    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -17346,18 +17835,18 @@
         <v>8</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>橙1 - Lv8</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" ref="G43:G57" si="8">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
+        <f t="shared" ref="G43:G57" si="10">TEXT(SUBSTITUTE(C43,RIGHT(C43,1),"")&amp;D43,0)</f>
         <v>橙8</v>
       </c>
       <c r="H43">
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="52"/>
+      <c r="I43" s="50"/>
       <c r="V43" s="16"/>
       <c r="W43" s="7">
         <v>8</v>
@@ -17416,21 +17905,32 @@
         <v>87</v>
       </c>
       <c r="AS43" s="2">
-        <f>SUM(AI43:AJ43)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK43:AN43)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO43:AP43)*'Chest&amp;Cards'!$M$5</f>
-        <v>128724</v>
-      </c>
-      <c r="AU43">
+        <f>SUM(AI43:AJ43)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK43:AN43)*'Chest&amp;Cards'!$M$4</f>
+        <v>24324</v>
+      </c>
+      <c r="AU43" s="16">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="AW43" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX43">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="CL43" t="s">
+        <v>600</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="CP43" t="s">
         <v>260</v>
       </c>
-      <c r="CP43" t="s">
+      <c r="CT43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -17444,18 +17944,18 @@
         <v>8</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>橙2 - Lv8</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>橙8</v>
       </c>
       <c r="H44">
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="52"/>
+      <c r="I44" s="50"/>
       <c r="V44" s="16"/>
       <c r="W44" s="7">
         <v>8</v>
@@ -17514,18 +18014,29 @@
         <v>87</v>
       </c>
       <c r="AS44" s="2">
-        <f>SUM(AI44:AJ44)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK44:AN44)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO44:AP44)*'Chest&amp;Cards'!$M$5</f>
-        <v>129924</v>
-      </c>
-      <c r="AU44">
+        <f>SUM(AI44:AJ44)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK44:AN44)*'Chest&amp;Cards'!$M$4</f>
+        <v>25524</v>
+      </c>
+      <c r="AU44" s="16">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="AW44" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX44">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="CL44" t="s">
+        <v>600</v>
+      </c>
+      <c r="AY44">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="CP44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -17539,18 +18050,18 @@
         <v>7</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫1 - Lv7</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫7</v>
       </c>
       <c r="H45">
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="52"/>
+      <c r="I45" s="50"/>
       <c r="V45" s="16"/>
       <c r="W45" s="7">
         <v>8</v>
@@ -17609,15 +18120,26 @@
         <v>87</v>
       </c>
       <c r="AS45" s="2">
-        <f>SUM(AI45:AJ45)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK45:AN45)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO45:AP45)*'Chest&amp;Cards'!$M$5</f>
-        <v>135924</v>
-      </c>
-      <c r="AU45">
+        <f>SUM(AI45:AJ45)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK45:AN45)*'Chest&amp;Cards'!$M$4</f>
+        <v>31524</v>
+      </c>
+      <c r="AU45" s="16">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="AW45" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX45">
         <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="AY45">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -17631,18 +18153,18 @@
         <v>8</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫1 - Lv8</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫8</v>
       </c>
       <c r="H46">
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="52"/>
+      <c r="I46" s="50"/>
       <c r="V46" s="16"/>
       <c r="W46" s="7">
         <v>8</v>
@@ -17701,15 +18223,26 @@
         <v>87</v>
       </c>
       <c r="AS46" s="2">
-        <f>SUM(AI46:AJ46)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK46:AN46)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO46:AP46)*'Chest&amp;Cards'!$M$5</f>
-        <v>147924</v>
-      </c>
-      <c r="AU46">
+        <f>SUM(AI46:AJ46)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK46:AN46)*'Chest&amp;Cards'!$M$4</f>
+        <v>43524</v>
+      </c>
+      <c r="AU46" s="16">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="AW46" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX46">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="AY46">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -17723,18 +18256,18 @@
         <v>7</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫2 - Lv7</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫7</v>
       </c>
       <c r="H47">
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="52"/>
+      <c r="I47" s="50"/>
       <c r="V47" s="16"/>
       <c r="W47" s="7">
         <v>8</v>
@@ -17793,15 +18326,26 @@
         <v>87</v>
       </c>
       <c r="AS47" s="2">
-        <f>SUM(AI47:AJ47)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK47:AN47)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO47:AP47)*'Chest&amp;Cards'!$M$5</f>
-        <v>153924</v>
-      </c>
-      <c r="AU47">
+        <f>SUM(AI47:AJ47)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK47:AN47)*'Chest&amp;Cards'!$M$4</f>
+        <v>49524</v>
+      </c>
+      <c r="AU47" s="16">
         <f>AS47-AS46</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="AW47" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="AY47">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -17815,18 +18359,18 @@
         <v>8</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫2 - Lv8</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫8</v>
       </c>
       <c r="H48">
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="52"/>
+      <c r="I48" s="50"/>
       <c r="K48" t="s">
         <v>174</v>
       </c>
@@ -17888,15 +18432,26 @@
         <v>87</v>
       </c>
       <c r="AS48" s="2">
-        <f>SUM(AI48:AJ48)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK48:AN48)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO48:AP48)*'Chest&amp;Cards'!$M$5</f>
-        <v>225924</v>
-      </c>
-      <c r="AU48">
+        <f>SUM(AI48:AJ48)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK48:AN48)*'Chest&amp;Cards'!$M$4</f>
+        <v>61524</v>
+      </c>
+      <c r="AU48" s="16">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="AW48" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX48">
         <f t="shared" si="2"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:93" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="AY48">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -17910,18 +18465,18 @@
         <v>7</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫3 - Lv7</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫7</v>
       </c>
       <c r="H49">
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="52"/>
+      <c r="I49" s="50"/>
       <c r="K49" t="s">
         <v>175</v>
       </c>
@@ -17985,15 +18540,26 @@
         <v>87</v>
       </c>
       <c r="AS49" s="2">
-        <f>SUM(AI49:AJ49)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK49:AN49)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO49:AP49)*'Chest&amp;Cards'!$M$5</f>
-        <v>351924</v>
-      </c>
-      <c r="AU49">
+        <f>SUM(AI49:AJ49)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK49:AN49)*'Chest&amp;Cards'!$M$4</f>
+        <v>67524</v>
+      </c>
+      <c r="AU49" s="16">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="AW49" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX49">
         <f t="shared" si="2"/>
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:93" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="AY49">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -18007,18 +18573,18 @@
         <v>8</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫3 - Lv8</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫8</v>
       </c>
       <c r="H50">
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="52"/>
+      <c r="I50" s="50"/>
       <c r="K50" t="s">
         <v>176</v>
       </c>
@@ -18080,15 +18646,26 @@
         <v>87</v>
       </c>
       <c r="AS50" s="2">
-        <f>SUM(AI50:AJ50)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK50:AN50)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO50:AP50)*'Chest&amp;Cards'!$M$5</f>
-        <v>603924</v>
-      </c>
-      <c r="AU50">
+        <f>SUM(AI50:AJ50)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK50:AN50)*'Chest&amp;Cards'!$M$4</f>
+        <v>79524</v>
+      </c>
+      <c r="AU50" s="16">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="AW50" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX50">
         <f t="shared" si="2"/>
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:93" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="AY50">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -18102,18 +18679,18 @@
         <v>7</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫4 - Lv7</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫7</v>
       </c>
       <c r="H51">
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="52"/>
+      <c r="I51" s="50"/>
       <c r="V51" s="16"/>
       <c r="W51" s="7">
         <v>8</v>
@@ -18172,21 +18749,32 @@
         <v>87</v>
       </c>
       <c r="AS51" s="2">
-        <f>SUM(AI51:AJ51)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK51:AN51)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO51:AP51)*'Chest&amp;Cards'!$M$5</f>
-        <v>609924</v>
-      </c>
-      <c r="AU51">
+        <f>SUM(AI51:AJ51)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK51:AN51)*'Chest&amp;Cards'!$M$4</f>
+        <v>85524</v>
+      </c>
+      <c r="AU51" s="16">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="AW51" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX51">
         <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-      <c r="CL51" s="32" t="s">
+        <v>3000</v>
+      </c>
+      <c r="AY51">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="CP51" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="CM51" s="32"/>
-      <c r="CN51" s="32"/>
-      <c r="CO51" s="32"/>
-    </row>
-    <row r="52" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="CQ51" s="32"/>
+      <c r="CR51" s="32"/>
+      <c r="CS51" s="32"/>
+    </row>
+    <row r="52" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -18200,18 +18788,18 @@
         <v>8</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫4 - Lv8</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫8</v>
       </c>
       <c r="H52">
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="50"/>
       <c r="V52" s="16"/>
       <c r="W52" s="7">
         <v>8</v>
@@ -18270,18 +18858,29 @@
         <v>87</v>
       </c>
       <c r="AS52" s="2">
-        <f>SUM(AI52:AJ52)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK52:AN52)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO52:AP52)*'Chest&amp;Cards'!$M$5</f>
-        <v>621924</v>
-      </c>
-      <c r="AU52">
+        <f>SUM(AI52:AJ52)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK52:AN52)*'Chest&amp;Cards'!$M$4</f>
+        <v>97524</v>
+      </c>
+      <c r="AU52" s="16">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="AW52" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX52">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="CL52" t="s">
+        <v>6000</v>
+      </c>
+      <c r="AY52">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="CP52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -18295,18 +18894,18 @@
         <v>9</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>橙1 - Lv9</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>橙9</v>
       </c>
       <c r="H53">
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="52"/>
+      <c r="I53" s="50"/>
       <c r="V53" s="16"/>
       <c r="W53" s="7">
         <v>9</v>
@@ -18365,18 +18964,29 @@
         <v>87</v>
       </c>
       <c r="AS53" s="2">
-        <f>SUM(AI53:AJ53)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK53:AN53)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO53:AP53)*'Chest&amp;Cards'!$M$5</f>
-        <v>624324</v>
-      </c>
-      <c r="AU53">
+        <f>SUM(AI53:AJ53)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK53:AN53)*'Chest&amp;Cards'!$M$4</f>
+        <v>99924</v>
+      </c>
+      <c r="AU53" s="16">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="AW53" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX53">
         <f t="shared" si="2"/>
-        <v>2400</v>
-      </c>
-      <c r="CL53" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AY53">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="CP53" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -18390,18 +19000,18 @@
         <v>9</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>橙2 - Lv9</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>橙9</v>
       </c>
       <c r="H54">
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="52"/>
+      <c r="I54" s="50"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
@@ -18463,15 +19073,26 @@
         <v>187</v>
       </c>
       <c r="AS54" s="2">
-        <f>SUM(AI54:AJ54)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK54:AN54)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO54:AP54)*'Chest&amp;Cards'!$M$5</f>
-        <v>686724</v>
-      </c>
-      <c r="AU54">
+        <f>SUM(AI54:AJ54)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK54:AN54)*'Chest&amp;Cards'!$M$4</f>
+        <v>102324</v>
+      </c>
+      <c r="AU54" s="16">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="AW54" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX54">
         <f t="shared" si="2"/>
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:93" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="AY54">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -18485,18 +19106,18 @@
         <v>9</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫1 - Lv9</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫9</v>
       </c>
       <c r="H55">
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="52"/>
+      <c r="I55" s="50"/>
       <c r="K55" t="s">
         <v>178</v>
       </c>
@@ -18558,15 +19179,26 @@
         <v>387</v>
       </c>
       <c r="AS55" s="2">
-        <f>SUM(AI55:AJ55)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK55:AN55)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO55:AP55)*'Chest&amp;Cards'!$M$5</f>
-        <v>830724</v>
-      </c>
-      <c r="AU55">
+        <f>SUM(AI55:AJ55)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK55:AN55)*'Chest&amp;Cards'!$M$4</f>
+        <v>126324</v>
+      </c>
+      <c r="AU55" s="16">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="AW55" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX55">
         <f t="shared" si="2"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:93" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+      <c r="AY55">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -18580,18 +19212,18 @@
         <v>9</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫2 - Lv9</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫9</v>
       </c>
       <c r="H56">
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="52"/>
+      <c r="I56" s="50"/>
       <c r="K56" t="s">
         <v>179</v>
       </c>
@@ -18653,15 +19285,26 @@
         <v>787</v>
       </c>
       <c r="AS56" s="2">
-        <f>SUM(AI56:AJ56)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK56:AN56)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO56:AP56)*'Chest&amp;Cards'!$M$5</f>
-        <v>1094724</v>
-      </c>
-      <c r="AU56">
+        <f>SUM(AI56:AJ56)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK56:AN56)*'Chest&amp;Cards'!$M$4</f>
+        <v>150324</v>
+      </c>
+      <c r="AU56" s="16">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="AW56" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX56">
         <f t="shared" si="2"/>
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:93" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+      <c r="AY56">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -18675,18 +19318,18 @@
         <v>9</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>紫3 - Lv9</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>紫9</v>
       </c>
       <c r="H57">
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="52"/>
+      <c r="I57" s="50"/>
       <c r="V57" s="16"/>
       <c r="W57" s="7">
         <v>9</v>
@@ -18745,18 +19388,29 @@
         <v>787</v>
       </c>
       <c r="AS57" s="2">
-        <f>SUM(AI57:AJ57)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK57:AN57)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO57:AP57)*'Chest&amp;Cards'!$M$5</f>
-        <v>1118724</v>
-      </c>
-      <c r="AU57">
+        <f>SUM(AI57:AJ57)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK57:AN57)*'Chest&amp;Cards'!$M$4</f>
+        <v>174324</v>
+      </c>
+      <c r="AU57" s="16">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="AW57" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX57">
         <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="CL57" t="s">
+        <v>12000</v>
+      </c>
+      <c r="AY57">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="CP57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -18770,18 +19424,18 @@
         <v>9</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" ref="E58:E64" si="9">C58&amp;" - " &amp;"Lv"&amp;D58</f>
+        <f t="shared" ref="E58:E64" si="11">C58&amp;" - " &amp;"Lv"&amp;D58</f>
         <v>紫4 - Lv9</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" ref="G58:G64" si="10">TEXT(SUBSTITUTE(C58,RIGHT(C58,1),"")&amp;D58,0)</f>
+        <f t="shared" ref="G58:G64" si="12">TEXT(SUBSTITUTE(C58,RIGHT(C58,1),"")&amp;D58,0)</f>
         <v>紫9</v>
       </c>
       <c r="H58">
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="52"/>
+      <c r="I58" s="50"/>
       <c r="V58" s="16"/>
       <c r="W58" s="7">
         <v>9</v>
@@ -18840,15 +19494,30 @@
         <v>787</v>
       </c>
       <c r="AS58" s="2">
-        <f>SUM(AI58:AJ58)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK58:AN58)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO58:AP58)*'Chest&amp;Cards'!$M$5</f>
-        <v>1142724</v>
-      </c>
-      <c r="AU58">
+        <f>SUM(AI58:AJ58)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK58:AN58)*'Chest&amp;Cards'!$M$4</f>
+        <v>198324</v>
+      </c>
+      <c r="AU58" s="16">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="AW58" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AX58">
         <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:93" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+      <c r="AY58">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="AZ58">
+        <f>SUM(AY41:AY58)</f>
+        <v>88200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -18862,18 +19531,18 @@
         <v>10</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>橙1 - Lv10</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>橙10</v>
       </c>
       <c r="H59">
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="53" t="s">
+      <c r="I59" s="51" t="s">
         <v>160</v>
       </c>
       <c r="V59" s="34"/>
@@ -18933,16 +19602,27 @@
         <f>VLOOKUP(AD59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>787</v>
       </c>
-      <c r="AS59" s="34">
-        <f>SUM(AI59:AJ59)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK59:AN59)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO59:AP59)*'Chest&amp;Cards'!$M$5</f>
-        <v>1147524</v>
-      </c>
-      <c r="AU59">
+      <c r="AS59" s="2">
+        <f>SUM(AI59:AJ59)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK59:AN59)*'Chest&amp;Cards'!$M$4</f>
+        <v>203124</v>
+      </c>
+      <c r="AU59" s="66">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+      <c r="AW59" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="AX59">
         <f t="shared" si="2"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="60" spans="1:93" x14ac:dyDescent="0.2">
+        <v>1440.0000000000002</v>
+      </c>
+      <c r="AY59">
+        <f t="shared" si="3"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -18956,18 +19636,18 @@
         <v>10</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>橙2 - Lv10</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>橙10</v>
       </c>
       <c r="H60">
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="53"/>
+      <c r="I60" s="51"/>
       <c r="V60" s="34"/>
       <c r="W60" s="7">
         <v>10</v>
@@ -19025,16 +19705,27 @@
         <f>VLOOKUP(AD60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>787</v>
       </c>
-      <c r="AS60" s="34">
-        <f>SUM(AI60:AJ60)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK60:AN60)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO60:AP60)*'Chest&amp;Cards'!$M$5</f>
-        <v>1152324</v>
-      </c>
-      <c r="AU60">
+      <c r="AS60" s="2">
+        <f>SUM(AI60:AJ60)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK60:AN60)*'Chest&amp;Cards'!$M$4</f>
+        <v>207924</v>
+      </c>
+      <c r="AU60" s="66">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+      <c r="AW60" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="AX60">
         <f t="shared" si="2"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:93" x14ac:dyDescent="0.2">
+        <v>1440.0000000000002</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" si="3"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -19048,18 +19739,18 @@
         <v>10</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>紫1 - Lv10</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>紫10</v>
       </c>
       <c r="H61">
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="53"/>
+      <c r="I61" s="51"/>
       <c r="V61" s="34"/>
       <c r="W61" s="7">
         <v>10</v>
@@ -19117,16 +19808,27 @@
         <f>VLOOKUP(AD61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>787</v>
       </c>
-      <c r="AS61" s="34">
-        <f>SUM(AI61:AJ61)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK61:AN61)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO61:AP61)*'Chest&amp;Cards'!$M$5</f>
-        <v>1200324</v>
-      </c>
-      <c r="AU61">
+      <c r="AS61" s="2">
+        <f>SUM(AI61:AJ61)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK61:AN61)*'Chest&amp;Cards'!$M$4</f>
+        <v>255924</v>
+      </c>
+      <c r="AU61" s="66">
+        <f t="shared" si="4"/>
+        <v>48000</v>
+      </c>
+      <c r="AW61" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="AX61">
         <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:93" x14ac:dyDescent="0.2">
+        <v>14400.000000000002</v>
+      </c>
+      <c r="AY61">
+        <f t="shared" si="3"/>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -19140,18 +19842,18 @@
         <v>10</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>紫2 - Lv10</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>紫10</v>
       </c>
       <c r="H62">
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="53"/>
+      <c r="I62" s="51"/>
       <c r="K62" t="s">
         <v>180</v>
       </c>
@@ -19214,19 +19916,30 @@
         <f>VLOOKUP(AD62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>787</v>
       </c>
-      <c r="AS62" s="34">
-        <f>SUM(AI62:AJ62)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK62:AN62)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO62:AP62)*'Chest&amp;Cards'!$M$5</f>
-        <v>1728324</v>
-      </c>
-      <c r="AU62">
+      <c r="AS62" s="2">
+        <f>SUM(AI62:AJ62)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK62:AN62)*'Chest&amp;Cards'!$M$4</f>
+        <v>303924</v>
+      </c>
+      <c r="AU62" s="66">
+        <f t="shared" si="4"/>
+        <v>48000</v>
+      </c>
+      <c r="AW62" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="AX62">
         <f t="shared" si="2"/>
-        <v>528000</v>
-      </c>
-      <c r="CL62" t="s">
+        <v>14400.000000000002</v>
+      </c>
+      <c r="AY62">
+        <f t="shared" si="3"/>
+        <v>33600</v>
+      </c>
+      <c r="CP62" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -19240,18 +19953,18 @@
         <v>10</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>紫3 - Lv10</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>紫10</v>
       </c>
       <c r="H63">
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="53"/>
+      <c r="I63" s="51"/>
       <c r="K63" t="s">
         <v>181</v>
       </c>
@@ -19312,19 +20025,30 @@
         <f>VLOOKUP(AD63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>1587</v>
       </c>
-      <c r="AS63" s="34">
-        <f>SUM(AI63:AJ63)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK63:AN63)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO63:AP63)*'Chest&amp;Cards'!$M$5</f>
-        <v>2256324</v>
-      </c>
-      <c r="AU63">
+      <c r="AS63" s="2">
+        <f>SUM(AI63:AJ63)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK63:AN63)*'Chest&amp;Cards'!$M$4</f>
+        <v>351924</v>
+      </c>
+      <c r="AU63" s="66">
+        <f t="shared" si="4"/>
+        <v>48000</v>
+      </c>
+      <c r="AW63" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="AX63">
         <f t="shared" si="2"/>
-        <v>528000</v>
-      </c>
-      <c r="CL63" t="s">
+        <v>14400.000000000002</v>
+      </c>
+      <c r="AY63">
+        <f t="shared" si="3"/>
+        <v>33600</v>
+      </c>
+      <c r="CP63" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:93" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:97" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -19338,18 +20062,18 @@
         <v>10</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>紫4 - Lv10</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>紫10</v>
       </c>
       <c r="H64">
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="53"/>
+      <c r="I64" s="51"/>
       <c r="V64" s="34"/>
       <c r="W64" s="7">
         <v>10</v>
@@ -19407,16 +20131,31 @@
         <f>VLOOKUP(AD64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
         <v>1587</v>
       </c>
-      <c r="AS64" s="34">
-        <f>SUM(AI64:AJ64)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK64:AN64)*'Chest&amp;Cards'!$M$4 + SUM('Dungeon&amp;Framework'!AO64:AP64)*'Chest&amp;Cards'!$M$5</f>
-        <v>2304324</v>
-      </c>
-      <c r="AU64">
+      <c r="AS64" s="2">
+        <f>SUM(AI64:AJ64)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK64:AN64)*'Chest&amp;Cards'!$M$4</f>
+        <v>399924</v>
+      </c>
+      <c r="AU64" s="66">
+        <f t="shared" si="4"/>
+        <v>48000</v>
+      </c>
+      <c r="AW64" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="AX64">
         <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.2">
+        <v>14400.000000000002</v>
+      </c>
+      <c r="AY64">
+        <f t="shared" si="3"/>
+        <v>33600</v>
+      </c>
+      <c r="AZ64">
+        <f>SUM(AY59:AY64)</f>
+        <v>141120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -19426,11 +20165,11 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
-      <c r="CL65" t="s">
+      <c r="CP65" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -19441,7 +20180,7 @@
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
@@ -19452,7 +20191,7 @@
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
     </row>
-    <row r="68" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -19462,50 +20201,50 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
-      <c r="CL68" t="s">
+      <c r="CP68" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
-      <c r="CL69" t="s">
+      <c r="CP69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="X76" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -19552,22 +20291,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="EH3:EJ3"/>
-    <mergeCell ref="EM3:EO3"/>
-    <mergeCell ref="DH3:DJ3"/>
-    <mergeCell ref="I41:I58"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="DL3:DN3"/>
-    <mergeCell ref="DQ3:DS3"/>
-    <mergeCell ref="DU3:DW3"/>
-    <mergeCell ref="DY3:EA3"/>
-    <mergeCell ref="EC3:EE3"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="M31:M33"/>
     <mergeCell ref="M34:M36"/>
     <mergeCell ref="M37:M39"/>
     <mergeCell ref="I5:I22"/>
     <mergeCell ref="I23:I40"/>
+    <mergeCell ref="EL3:EN3"/>
+    <mergeCell ref="EQ3:ES3"/>
+    <mergeCell ref="DL3:DN3"/>
+    <mergeCell ref="I41:I58"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="DP3:DR3"/>
+    <mergeCell ref="DU3:DW3"/>
+    <mergeCell ref="DY3:EA3"/>
+    <mergeCell ref="EC3:EE3"/>
+    <mergeCell ref="EG3:EI3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19608,7 +20347,7 @@
         <v>352</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -19634,7 +20373,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>355</v>
       </c>
       <c r="B6" t="s">
@@ -19654,7 +20393,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>103</v>
       </c>
@@ -19672,7 +20411,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>354</v>
       </c>
@@ -19714,24 +20453,24 @@
       <c r="B11" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="46">
         <f>C10</f>
         <v>180</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="46">
         <f t="shared" ref="D11:F11" si="1">D10</f>
         <v>360</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="46">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="46">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="K11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -19830,36 +20569,36 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="J5" s="61" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="J5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="S5" s="55" t="s">
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="S5" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="57"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="59"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
@@ -22326,11 +23065,11 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="P8" s="25" t="s">
         <v>266</v>
       </c>
@@ -23174,10 +23913,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -23879,11 +24618,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180B086-2855-CF47-9F57-010EAB57511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00153676-D0E3-5C4D-9DBF-057A61D81CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -12789,7 +12789,7 @@
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AS1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="BB48" sqref="BB48"/>
+      <selection pane="topRight" activeCell="AY39" sqref="AY39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00153676-D0E3-5C4D-9DBF-057A61D81CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E209777-ED13-EE4A-AD4E-22264892876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="373">
   <si>
     <t>Birde</t>
   </si>
@@ -1201,6 +1201,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 课题： 如何让玩家在后期也很爽的成长</t>
+  </si>
+  <si>
+    <t>折算为钻石</t>
+  </si>
+  <si>
+    <t>1刀 = x 币</t>
+  </si>
+  <si>
+    <t>钻石1 = x币</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1546,22 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,18 +1577,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,9 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2153,88 +2162,88 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>240</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>60</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>120</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>600</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>600</c:v>
+                <c:pt idx="25">
+                  <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>600</c:v>
+                <c:pt idx="27">
+                  <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>600</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>1200</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>300</c:v>
@@ -2255,76 +2264,76 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>600</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>600</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1200</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1200</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6000</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12000</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6000</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12000</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6000</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12000</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6000</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12000</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2400</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2400</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>24000</c:v>
+                  <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>24000</c:v>
+                  <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24000</c:v>
+                  <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>24000</c:v>
+                  <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4800</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4800</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48000</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48000</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>48000</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48000</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6001,13 +6010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>186422</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>198074</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -6054,13 +6063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>233028</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>58257</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -6107,13 +6116,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>139817</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>34954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>629175</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6170,13 +6179,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>94</xdr:col>
       <xdr:colOff>792294</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>664128</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>58256</xdr:rowOff>
@@ -6233,13 +6242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>241301</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>102</xdr:col>
+      <xdr:col>103</xdr:col>
       <xdr:colOff>149076</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>189436</xdr:rowOff>
@@ -6291,13 +6300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>569310</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>467127</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>58391</xdr:rowOff>
@@ -7065,22 +7074,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -7174,10 +7183,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -7253,8 +7262,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -7328,8 +7337,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -7403,8 +7412,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -7480,8 +7489,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -7546,8 +7555,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -7603,8 +7612,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -7648,8 +7657,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -7688,8 +7697,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7728,8 +7737,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -7770,8 +7779,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -7810,8 +7819,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -7850,10 +7859,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
@@ -7894,8 +7903,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -7937,8 +7946,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7977,8 +7986,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -8019,8 +8028,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -8059,8 +8068,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -8099,8 +8108,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -8141,8 +8150,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -8181,8 +8190,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -8221,10 +8230,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
@@ -8265,8 +8274,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -8305,8 +8314,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -8345,8 +8354,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
@@ -8387,8 +8396,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -8427,8 +8436,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8467,8 +8476,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -8509,8 +8518,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -8549,8 +8558,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8589,10 +8598,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -8633,8 +8642,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -8673,8 +8682,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -8714,6 +8723,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -8726,12 +8741,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12784,12 +12793,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:ES94"/>
+  <dimension ref="A1:ET94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AR1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AY39" sqref="AY39"/>
+      <selection pane="topRight" activeCell="AY32" sqref="AY32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12805,31 +12814,31 @@
     <col min="48" max="48" width="15.5" customWidth="1"/>
     <col min="50" max="50" width="23.6640625" customWidth="1"/>
     <col min="51" max="51" width="20.1640625" customWidth="1"/>
-    <col min="61" max="61" width="38" customWidth="1"/>
-    <col min="62" max="62" width="24.5" customWidth="1"/>
-    <col min="63" max="63" width="27.5" customWidth="1"/>
-    <col min="64" max="65" width="23" customWidth="1"/>
-    <col min="66" max="66" width="20.83203125" customWidth="1"/>
-    <col min="68" max="68" width="14.33203125" customWidth="1"/>
-    <col min="69" max="69" width="14.6640625" customWidth="1"/>
-    <col min="70" max="70" width="13.83203125" customWidth="1"/>
-    <col min="71" max="71" width="14.1640625" customWidth="1"/>
-    <col min="95" max="95" width="0" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="29.33203125" customWidth="1"/>
-    <col min="116" max="116" width="18.83203125" style="37" customWidth="1"/>
-    <col min="117" max="117" width="16.1640625" style="37" customWidth="1"/>
-    <col min="118" max="118" width="25.5" style="37" customWidth="1"/>
-    <col min="120" max="123" width="10.83203125" style="37"/>
-    <col min="125" max="127" width="10.83203125" style="38"/>
-    <col min="129" max="131" width="10.83203125" style="38"/>
-    <col min="133" max="135" width="10.83203125" style="38"/>
-    <col min="137" max="139" width="10.83203125" style="38"/>
-    <col min="140" max="140" width="10.83203125" style="40"/>
-    <col min="142" max="144" width="10.83203125" style="41"/>
-    <col min="147" max="149" width="10.83203125" style="41"/>
+    <col min="62" max="62" width="38" customWidth="1"/>
+    <col min="63" max="63" width="24.5" customWidth="1"/>
+    <col min="64" max="64" width="27.5" customWidth="1"/>
+    <col min="65" max="66" width="23" customWidth="1"/>
+    <col min="67" max="67" width="20.83203125" customWidth="1"/>
+    <col min="69" max="69" width="14.33203125" customWidth="1"/>
+    <col min="70" max="70" width="14.6640625" customWidth="1"/>
+    <col min="71" max="71" width="13.83203125" customWidth="1"/>
+    <col min="72" max="72" width="14.1640625" customWidth="1"/>
+    <col min="96" max="96" width="0" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="29.33203125" customWidth="1"/>
+    <col min="117" max="117" width="18.83203125" style="37" customWidth="1"/>
+    <col min="118" max="118" width="16.1640625" style="37" customWidth="1"/>
+    <col min="119" max="119" width="25.5" style="37" customWidth="1"/>
+    <col min="121" max="124" width="10.83203125" style="37"/>
+    <col min="126" max="128" width="10.83203125" style="38"/>
+    <col min="130" max="132" width="10.83203125" style="38"/>
+    <col min="134" max="136" width="10.83203125" style="38"/>
+    <col min="138" max="140" width="10.83203125" style="38"/>
+    <col min="141" max="141" width="10.83203125" style="40"/>
+    <col min="143" max="145" width="10.83203125" style="41"/>
+    <col min="148" max="150" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -12947,101 +12956,101 @@
       <c r="AP1">
         <v>39</v>
       </c>
-      <c r="BS1">
+      <c r="BT1">
         <v>40</v>
       </c>
-      <c r="BT1">
+      <c r="BU1">
         <v>41</v>
       </c>
-      <c r="BU1">
+      <c r="BV1">
         <v>42</v>
       </c>
-      <c r="BV1">
+      <c r="BW1">
         <v>43</v>
       </c>
-      <c r="BW1">
+      <c r="BX1">
         <v>44</v>
       </c>
-      <c r="BX1">
+      <c r="BY1">
         <v>45</v>
       </c>
-      <c r="BY1">
+      <c r="BZ1">
         <v>46</v>
       </c>
-      <c r="BZ1">
+      <c r="CA1">
         <v>47</v>
       </c>
-      <c r="CA1">
+      <c r="CB1">
         <v>48</v>
       </c>
-      <c r="CB1">
+      <c r="CC1">
         <v>49</v>
       </c>
-      <c r="CC1">
+      <c r="CD1">
         <v>50</v>
       </c>
-      <c r="CD1">
+      <c r="CE1">
         <v>51</v>
       </c>
-      <c r="CE1">
+      <c r="CF1">
         <v>52</v>
       </c>
-      <c r="CF1">
+      <c r="CG1">
         <v>53</v>
       </c>
-      <c r="CG1">
+      <c r="CH1">
         <v>54</v>
       </c>
-      <c r="CH1">
+      <c r="CI1">
         <v>55</v>
       </c>
-      <c r="CI1">
+      <c r="CJ1">
         <v>56</v>
       </c>
-      <c r="CJ1">
+      <c r="CK1">
         <v>57</v>
       </c>
-      <c r="CK1">
+      <c r="CL1">
         <v>58</v>
       </c>
-      <c r="CL1">
+      <c r="CM1">
         <v>59</v>
       </c>
-      <c r="CM1">
+      <c r="CN1">
         <v>60</v>
       </c>
-      <c r="CN1">
+      <c r="CO1">
         <v>61</v>
       </c>
-      <c r="CO1">
+      <c r="CP1">
         <v>62</v>
       </c>
-      <c r="CP1">
+      <c r="CQ1">
         <v>63</v>
       </c>
-      <c r="CQ1">
+      <c r="CR1">
         <v>64</v>
       </c>
-      <c r="CR1">
+      <c r="CS1">
         <v>65</v>
       </c>
-      <c r="CS1">
+      <c r="CT1">
         <v>66</v>
       </c>
-      <c r="CT1">
+      <c r="CU1">
         <v>67</v>
       </c>
-      <c r="CU1">
+      <c r="CV1">
         <v>68</v>
       </c>
-      <c r="CV1">
+      <c r="CW1">
         <v>69</v>
       </c>
-      <c r="CW1">
+      <c r="CX1">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:149" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:150" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -13074,29 +13083,28 @@
       <c r="AL2" t="s">
         <v>238</v>
       </c>
-      <c r="BI2" s="34" t="s">
+      <c r="BJ2" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="BJ2" s="34"/>
       <c r="BK2" s="34"/>
       <c r="BL2" s="34"/>
       <c r="BM2" s="34"/>
       <c r="BN2" s="34"/>
-      <c r="BU2" t="s">
+      <c r="BO2" s="34"/>
+      <c r="BV2" t="s">
         <v>234</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>239</v>
       </c>
-      <c r="CP2" s="6"/>
       <c r="CQ2" s="6"/>
       <c r="CR2" s="6"/>
       <c r="CS2" s="6"/>
-      <c r="CT2" s="36"/>
-      <c r="CU2" s="6" t="s">
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="36"/>
+      <c r="CV2" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="CV2" s="6"/>
       <c r="CW2" s="6"/>
       <c r="CX2" s="6"/>
       <c r="CY2" s="6"/>
@@ -13105,26 +13113,26 @@
       <c r="DB2" s="6"/>
       <c r="DC2" s="6"/>
       <c r="DD2" s="6"/>
-      <c r="DJ2" s="33" t="s">
+      <c r="DE2" s="6"/>
+      <c r="DK2" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="DK2" s="33"/>
-    </row>
-    <row r="3" spans="1:149" ht="24" x14ac:dyDescent="0.3">
-      <c r="BI3" s="35" t="s">
+      <c r="DL2" s="33"/>
+    </row>
+    <row r="3" spans="1:150" ht="24" x14ac:dyDescent="0.3">
+      <c r="BJ3" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>291</v>
       </c>
-      <c r="CP3" s="6"/>
       <c r="CQ3" s="6"/>
       <c r="CR3" s="6"/>
       <c r="CS3" s="6"/>
-      <c r="CT3" s="36" t="s">
+      <c r="CT3" s="6"/>
+      <c r="CU3" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="CU3" s="6"/>
       <c r="CV3" s="6"/>
       <c r="CW3" s="6"/>
       <c r="CX3" s="6"/>
@@ -13134,52 +13142,53 @@
       <c r="DB3" s="6"/>
       <c r="DC3" s="6"/>
       <c r="DD3" s="6"/>
-      <c r="DJ3" s="33" t="s">
+      <c r="DE3" s="6"/>
+      <c r="DK3" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="DK3" s="33"/>
-      <c r="DL3" s="49" t="s">
+      <c r="DL3" s="33"/>
+      <c r="DM3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="DM3" s="49"/>
-      <c r="DN3" s="49"/>
-      <c r="DP3" s="49" t="s">
+      <c r="DN3" s="56"/>
+      <c r="DO3" s="56"/>
+      <c r="DQ3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="DQ3" s="49"/>
-      <c r="DR3" s="49"/>
-      <c r="DU3" s="52" t="s">
+      <c r="DR3" s="56"/>
+      <c r="DS3" s="56"/>
+      <c r="DV3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="DV3" s="52"/>
-      <c r="DW3" s="52"/>
-      <c r="DY3" s="52" t="s">
+      <c r="DW3" s="59"/>
+      <c r="DX3" s="59"/>
+      <c r="DZ3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="DZ3" s="52"/>
-      <c r="EA3" s="52"/>
-      <c r="EC3" s="52" t="s">
+      <c r="EA3" s="59"/>
+      <c r="EB3" s="59"/>
+      <c r="ED3" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="ED3" s="52"/>
-      <c r="EE3" s="52"/>
-      <c r="EG3" s="52" t="s">
+      <c r="EE3" s="59"/>
+      <c r="EF3" s="59"/>
+      <c r="EH3" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="EH3" s="52"/>
-      <c r="EI3" s="52"/>
-      <c r="EL3" s="48" t="s">
+      <c r="EI3" s="59"/>
+      <c r="EJ3" s="59"/>
+      <c r="EM3" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="EM3" s="48"/>
-      <c r="EN3" s="48"/>
-      <c r="EQ3" s="48" t="s">
+      <c r="EN3" s="55"/>
+      <c r="EO3" s="55"/>
+      <c r="ER3" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="ER3" s="48"/>
-      <c r="ES3" s="48"/>
-    </row>
-    <row r="4" spans="1:149" ht="17" x14ac:dyDescent="0.2">
+      <c r="ES3" s="55"/>
+      <c r="ET3" s="55"/>
+    </row>
+    <row r="4" spans="1:150" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -13276,84 +13285,86 @@
       <c r="AZ4" t="s">
         <v>365</v>
       </c>
-      <c r="BB4" s="45"/>
-      <c r="BI4" t="s">
+      <c r="BA4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BC4" s="45"/>
+      <c r="BJ4" t="s">
         <v>296</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>300</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>301</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>302</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>303</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>297</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>292</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>293</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BS4" t="s">
         <v>294</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>295</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>225</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BW4" t="s">
         <v>226</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BX4" t="s">
         <v>227</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BY4" t="s">
         <v>228</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BZ4" t="s">
         <v>229</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CA4" t="s">
         <v>230</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CB4" t="s">
         <v>231</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CC4" t="s">
         <v>232</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CE4" t="s">
         <v>235</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CG4" t="s">
         <v>236</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CJ4" t="s">
         <v>240</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CK4" t="s">
         <v>241</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CL4" t="s">
         <v>242</v>
       </c>
-      <c r="CP4" s="6"/>
       <c r="CQ4" s="6"/>
       <c r="CR4" s="6"/>
       <c r="CS4" s="6"/>
-      <c r="CT4" s="6" t="s">
+      <c r="CT4" s="6"/>
+      <c r="CU4" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="CU4" s="6"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -13363,86 +13374,87 @@
       <c r="DB4" s="6"/>
       <c r="DC4" s="6"/>
       <c r="DD4" s="6"/>
-      <c r="DF4" t="s">
+      <c r="DE4" s="6"/>
+      <c r="DG4" t="s">
         <v>318</v>
       </c>
-      <c r="DJ4" t="s">
+      <c r="DK4" t="s">
         <v>317</v>
       </c>
-      <c r="DL4" s="37" t="s">
+      <c r="DM4" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="DM4" s="37" t="s">
+      <c r="DN4" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="DN4" s="37" t="s">
+      <c r="DO4" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="DP4" s="37" t="s">
+      <c r="DQ4" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="DQ4" s="37" t="s">
+      <c r="DR4" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="DR4" s="37" t="s">
+      <c r="DS4" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="DU4" s="39" t="s">
+      <c r="DV4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="DV4" s="39" t="s">
+      <c r="DW4" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="DW4" s="39" t="s">
+      <c r="DX4" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="DY4" s="39" t="s">
+      <c r="DZ4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="DZ4" s="39" t="s">
+      <c r="EA4" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="EA4" s="39" t="s">
+      <c r="EB4" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="EC4" s="39" t="s">
+      <c r="ED4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="ED4" s="39" t="s">
+      <c r="EE4" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="EE4" s="39" t="s">
+      <c r="EF4" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="EG4" s="39" t="s">
+      <c r="EH4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="EH4" s="39" t="s">
+      <c r="EI4" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="EI4" s="39" t="s">
+      <c r="EJ4" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="EL4" s="42" t="s">
+      <c r="EM4" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="EM4" s="42" t="s">
+      <c r="EN4" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="EN4" s="42" t="s">
+      <c r="EO4" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="EQ4" s="42" t="s">
+      <c r="ER4" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="ER4" s="42" t="s">
+      <c r="ES4" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="ES4" s="42" t="s">
+      <c r="ET4" s="42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:149" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:150" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -13470,7 +13482,7 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="53" t="s">
         <v>167</v>
       </c>
       <c r="V5" s="2"/>
@@ -13538,7 +13550,7 @@
         <f>AS5</f>
         <v>6</v>
       </c>
-      <c r="AW5" s="67">
+      <c r="AW5" s="48">
         <v>0</v>
       </c>
       <c r="AX5">
@@ -13549,20 +13561,20 @@
         <f>AU5-AX5</f>
         <v>0</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>304</v>
       </c>
-      <c r="CP5" t="s">
+      <c r="CQ5" t="s">
         <v>246</v>
       </c>
-      <c r="DA5" t="s">
+      <c r="DB5" t="s">
         <v>283</v>
       </c>
-      <c r="DF5" t="s">
+      <c r="DG5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:149" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:150" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -13590,7 +13602,7 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="53"/>
       <c r="V6" s="2"/>
       <c r="W6">
         <v>1</v>
@@ -13656,7 +13668,7 @@
         <f>AS6-AS5</f>
         <v>6</v>
       </c>
-      <c r="AW6" s="67">
+      <c r="AW6" s="48">
         <v>0</v>
       </c>
       <c r="AX6">
@@ -13668,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:149" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:150" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -13696,7 +13708,7 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="53"/>
       <c r="V7" s="2"/>
       <c r="W7" s="7">
         <v>2</v>
@@ -13724,7 +13736,7 @@
       </c>
       <c r="AI7">
         <f>VLOOKUP(W7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ7">
         <f>VLOOKUP(X7,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -13756,38 +13768,38 @@
       </c>
       <c r="AS7" s="2">
         <f>SUM(AI7:AJ7)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK7:AN7)*'Chest&amp;Cards'!$M$4</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AU7" s="2">
         <f t="shared" ref="AU7:AU64" si="4">AS7-AS6</f>
-        <v>12</v>
-      </c>
-      <c r="AW7" s="67">
+        <v>30</v>
+      </c>
+      <c r="AW7" s="48">
         <v>0</v>
       </c>
       <c r="AX7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AY7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CP7" t="s">
+      <c r="CQ7" t="s">
         <v>247</v>
       </c>
-      <c r="CR7" t="s">
+      <c r="CS7" t="s">
         <v>251</v>
       </c>
-      <c r="DA7" t="s">
+      <c r="DB7" t="s">
         <v>284</v>
       </c>
-      <c r="DF7" s="2" t="s">
+      <c r="DG7" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="DG7" s="2"/>
-    </row>
-    <row r="8" spans="1:149" ht="17" x14ac:dyDescent="0.2">
+      <c r="DH7" s="2"/>
+    </row>
+    <row r="8" spans="1:150" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -13815,7 +13827,7 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="53"/>
       <c r="V8" s="2"/>
       <c r="W8" s="7">
         <v>2</v>
@@ -13843,11 +13855,11 @@
       </c>
       <c r="AI8">
         <f>VLOOKUP(W8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ8">
         <f>VLOOKUP(X8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK8">
         <f>VLOOKUP(Y8,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -13875,31 +13887,31 @@
       </c>
       <c r="AS8" s="2">
         <f>SUM(AI8:AJ8)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK8:AN8)*'Chest&amp;Cards'!$M$4</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AU8" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AW8" s="67">
+        <v>30</v>
+      </c>
+      <c r="AW8" s="48">
         <v>0</v>
       </c>
       <c r="AX8">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AY8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CR8" t="s">
+      <c r="CS8" t="s">
         <v>255</v>
       </c>
-      <c r="DA8" t="s">
+      <c r="DB8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -13924,7 +13936,7 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="53"/>
       <c r="V9" s="2"/>
       <c r="W9" s="7">
         <v>2</v>
@@ -13952,11 +13964,11 @@
       </c>
       <c r="AI9">
         <f>VLOOKUP(W9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ9">
         <f>VLOOKUP(X9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK9">
         <f>VLOOKUP(Y9,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -13984,13 +13996,13 @@
       </c>
       <c r="AS9" s="2">
         <f>SUM(AI9:AJ9)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK9:AN9)*'Chest&amp;Cards'!$M$4</f>
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="AU9" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AW9" s="67">
+      <c r="AW9" s="48">
         <v>0</v>
       </c>
       <c r="AX9">
@@ -14001,17 +14013,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CP9" t="s">
+      <c r="CQ9" t="s">
         <v>248</v>
       </c>
-      <c r="CR9" t="s">
+      <c r="CS9" t="s">
         <v>253</v>
       </c>
-      <c r="DA9" t="s">
+      <c r="DB9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -14036,7 +14048,7 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="53"/>
       <c r="V10" s="2"/>
       <c r="W10" s="7">
         <v>2</v>
@@ -14064,15 +14076,15 @@
       </c>
       <c r="AI10">
         <f>VLOOKUP(W10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ10">
         <f>VLOOKUP(X10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK10">
         <f>VLOOKUP(Y10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL10">
         <f>VLOOKUP(Z10,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14096,34 +14108,34 @@
       </c>
       <c r="AS10" s="2">
         <f>SUM(AI10:AJ10)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK10:AN10)*'Chest&amp;Cards'!$M$4</f>
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="AU10" s="2">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AW10" s="67">
+        <v>300</v>
+      </c>
+      <c r="AW10" s="48">
         <v>0</v>
       </c>
       <c r="AX10">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AY10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CP10" t="s">
+      <c r="CQ10" t="s">
         <v>249</v>
       </c>
-      <c r="CR10" t="s">
+      <c r="CS10" t="s">
         <v>252</v>
       </c>
-      <c r="DA10" t="s">
+      <c r="DB10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -14148,7 +14160,7 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="53"/>
       <c r="V11" s="2"/>
       <c r="W11" s="7">
         <v>2</v>
@@ -14176,15 +14188,15 @@
       </c>
       <c r="AI11">
         <f>VLOOKUP(W11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ11">
         <f>VLOOKUP(X11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK11">
         <f>VLOOKUP(Y11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL11">
         <f>VLOOKUP(Z11,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14208,13 +14220,13 @@
       </c>
       <c r="AS11" s="2">
         <f>SUM(AI11:AJ11)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK11:AN11)*'Chest&amp;Cards'!$M$4</f>
-        <v>276</v>
+        <v>492</v>
       </c>
       <c r="AU11" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AW11" s="67">
+      <c r="AW11" s="48">
         <v>0</v>
       </c>
       <c r="AX11">
@@ -14225,11 +14237,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CP11" t="s">
+      <c r="CQ11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -14254,7 +14266,7 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="53"/>
       <c r="K12" t="s">
         <v>161</v>
       </c>
@@ -14285,19 +14297,19 @@
       </c>
       <c r="AI12">
         <f>VLOOKUP(W12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ12">
         <f>VLOOKUP(X12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK12">
         <f>VLOOKUP(Y12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL12">
         <f>VLOOKUP(Z12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM12">
         <f>VLOOKUP(AA12,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14317,31 +14329,31 @@
       </c>
       <c r="AS12" s="2">
         <f>SUM(AI12:AJ12)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK12:AN12)*'Chest&amp;Cards'!$M$4</f>
-        <v>396</v>
+        <v>792</v>
       </c>
       <c r="AU12" s="2">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AW12" s="67">
+        <v>300</v>
+      </c>
+      <c r="AW12" s="48">
         <v>0</v>
       </c>
       <c r="AX12">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AY12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CR12" t="s">
+      <c r="CS12" t="s">
         <v>254</v>
       </c>
-      <c r="DF12" t="s">
+      <c r="DG12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -14366,7 +14378,7 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="53"/>
       <c r="K13" t="s">
         <v>163</v>
       </c>
@@ -14397,19 +14409,19 @@
       </c>
       <c r="AI13">
         <f>VLOOKUP(W13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ13">
         <f>VLOOKUP(X13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK13">
         <f>VLOOKUP(Y13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL13">
         <f>VLOOKUP(Z13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM13">
         <f>VLOOKUP(AA13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14421,7 +14433,7 @@
       </c>
       <c r="AO13">
         <f>VLOOKUP(AC13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP13">
         <f>VLOOKUP(AD13,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14429,25 +14441,25 @@
       </c>
       <c r="AS13" s="2">
         <f>SUM(AI13:AJ13)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK13:AN13)*'Chest&amp;Cards'!$M$4</f>
-        <v>420</v>
+        <v>852</v>
       </c>
       <c r="AU13" s="2">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="AW13" s="67">
+        <v>60</v>
+      </c>
+      <c r="AW13" s="48">
         <v>0</v>
       </c>
       <c r="AX13">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AY13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -14464,7 +14476,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="51" t="s">
         <v>183</v>
       </c>
       <c r="G14" t="str">
@@ -14475,7 +14487,7 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="53"/>
       <c r="K14" t="s">
         <v>164</v>
       </c>
@@ -14508,19 +14520,19 @@
       </c>
       <c r="AI14">
         <f>VLOOKUP(W14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ14">
         <f>VLOOKUP(X14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK14">
         <f>VLOOKUP(Y14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL14">
         <f>VLOOKUP(Z14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM14">
         <f>VLOOKUP(AA14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14532,7 +14544,7 @@
       </c>
       <c r="AO14">
         <f>VLOOKUP(AC14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP14">
         <f>VLOOKUP(AD14,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14540,13 +14552,13 @@
       </c>
       <c r="AS14" s="2">
         <f>SUM(AI14:AJ14)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK14:AN14)*'Chest&amp;Cards'!$M$4</f>
-        <v>480</v>
+        <v>912</v>
       </c>
       <c r="AU14" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AW14" s="67">
+      <c r="AW14" s="48">
         <v>0</v>
       </c>
       <c r="AX14">
@@ -14558,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -14575,7 +14587,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="51"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -14584,7 +14596,7 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="53"/>
       <c r="V15" s="2"/>
       <c r="W15" s="7">
         <v>3</v>
@@ -14612,23 +14624,23 @@
       </c>
       <c r="AI15">
         <f>VLOOKUP(W15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ15">
         <f>VLOOKUP(X15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK15">
         <f>VLOOKUP(Y15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL15">
         <f>VLOOKUP(Z15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM15">
         <f>VLOOKUP(AA15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN15">
         <f>VLOOKUP(AB15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14636,7 +14648,7 @@
       </c>
       <c r="AO15">
         <f>VLOOKUP(AC15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP15">
         <f>VLOOKUP(AD15,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14644,28 +14656,28 @@
       </c>
       <c r="AS15" s="2">
         <f>SUM(AI15:AJ15)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK15:AN15)*'Chest&amp;Cards'!$M$4</f>
-        <v>600</v>
+        <v>1212</v>
       </c>
       <c r="AU15" s="2">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AW15" s="67">
+        <v>300</v>
+      </c>
+      <c r="AW15" s="48">
         <v>0</v>
       </c>
       <c r="AX15">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AY15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:149" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -14682,7 +14694,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="51"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -14691,7 +14703,7 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="55"/>
+      <c r="I16" s="53"/>
       <c r="V16" s="2"/>
       <c r="W16" s="7">
         <v>3</v>
@@ -14719,23 +14731,23 @@
       </c>
       <c r="AI16">
         <f>VLOOKUP(W16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ16">
         <f>VLOOKUP(X16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK16">
         <f>VLOOKUP(Y16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL16">
         <f>VLOOKUP(Z16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM16">
         <f>VLOOKUP(AA16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN16">
         <f>VLOOKUP(AB16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14743,7 +14755,7 @@
       </c>
       <c r="AO16">
         <f>VLOOKUP(AC16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP16">
         <f>VLOOKUP(AD16,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14751,25 +14763,25 @@
       </c>
       <c r="AS16" s="2">
         <f>SUM(AI16:AJ16)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK16:AN16)*'Chest&amp;Cards'!$M$4</f>
-        <v>840</v>
+        <v>1812</v>
       </c>
       <c r="AU16" s="2">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="AW16" s="67">
+        <v>600</v>
+      </c>
+      <c r="AW16" s="48">
         <v>0</v>
       </c>
       <c r="AX16">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AY16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -14786,7 +14798,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="51"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -14795,7 +14807,7 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="53"/>
       <c r="V17" s="2"/>
       <c r="W17" s="7">
         <v>3</v>
@@ -14823,23 +14835,23 @@
       </c>
       <c r="AI17">
         <f>VLOOKUP(W17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ17">
         <f>VLOOKUP(X17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK17">
         <f>VLOOKUP(Y17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL17">
         <f>VLOOKUP(Z17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM17">
         <f>VLOOKUP(AA17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN17">
         <f>VLOOKUP(AB17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14847,7 +14859,7 @@
       </c>
       <c r="AO17">
         <f>VLOOKUP(AC17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP17">
         <f>VLOOKUP(AD17,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14855,13 +14867,13 @@
       </c>
       <c r="AS17" s="2">
         <f>SUM(AI17:AJ17)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK17:AN17)*'Chest&amp;Cards'!$M$4</f>
-        <v>900</v>
+        <v>1872</v>
       </c>
       <c r="AU17" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="AW17" s="67">
+      <c r="AW17" s="48">
         <v>0</v>
       </c>
       <c r="AX17">
@@ -14873,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -14890,7 +14902,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="51"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -14899,7 +14911,7 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="55"/>
+      <c r="I18" s="53"/>
       <c r="K18" t="s">
         <v>165</v>
       </c>
@@ -14930,31 +14942,31 @@
       </c>
       <c r="AI18">
         <f>VLOOKUP(W18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ18">
         <f>VLOOKUP(X18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK18">
         <f>VLOOKUP(Y18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL18">
         <f>VLOOKUP(Z18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM18">
         <f>VLOOKUP(AA18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN18">
         <f>VLOOKUP(AB18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO18">
         <f>VLOOKUP(AC18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP18">
         <f>VLOOKUP(AD18,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
@@ -14962,25 +14974,25 @@
       </c>
       <c r="AS18" s="2">
         <f>SUM(AI18:AJ18)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK18:AN18)*'Chest&amp;Cards'!$M$4</f>
-        <v>1020</v>
+        <v>2172</v>
       </c>
       <c r="AU18" s="2">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AW18" s="67">
+        <v>300</v>
+      </c>
+      <c r="AW18" s="48">
         <v>0</v>
       </c>
       <c r="AX18">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AY18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -14997,7 +15009,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="51"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -15006,7 +15018,7 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="55"/>
+      <c r="I19" s="53"/>
       <c r="K19" t="s">
         <v>162</v>
       </c>
@@ -15037,57 +15049,57 @@
       </c>
       <c r="AI19">
         <f>VLOOKUP(W19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ19">
         <f>VLOOKUP(X19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK19">
         <f>VLOOKUP(Y19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL19">
         <f>VLOOKUP(Z19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM19">
         <f>VLOOKUP(AA19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN19">
         <f>VLOOKUP(AB19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO19">
         <f>VLOOKUP(AC19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP19">
         <f>VLOOKUP(AD19,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS19" s="2">
         <f>SUM(AI19:AJ19)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK19:AN19)*'Chest&amp;Cards'!$M$4</f>
-        <v>1260</v>
+        <v>2772</v>
       </c>
       <c r="AU19" s="2">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="AW19" s="67">
+        <v>600</v>
+      </c>
+      <c r="AW19" s="48">
         <v>0</v>
       </c>
       <c r="AX19">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AY19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -15112,7 +15124,7 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="55"/>
+      <c r="I20" s="53"/>
       <c r="K20" t="s">
         <v>166</v>
       </c>
@@ -15143,57 +15155,57 @@
       </c>
       <c r="AI20">
         <f>VLOOKUP(W20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ20">
         <f>VLOOKUP(X20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AK20">
         <f>VLOOKUP(Y20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL20">
         <f>VLOOKUP(Z20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM20">
         <f>VLOOKUP(AA20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN20">
         <f>VLOOKUP(AB20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO20">
         <f>VLOOKUP(AC20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP20">
         <f>VLOOKUP(AD20,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS20" s="2">
         <f>SUM(AI20:AJ20)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK20:AN20)*'Chest&amp;Cards'!$M$4</f>
-        <v>1284</v>
+        <v>2832</v>
       </c>
       <c r="AU20" s="2">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="AW20" s="67">
+        <v>60</v>
+      </c>
+      <c r="AW20" s="48">
         <v>0</v>
       </c>
       <c r="AX20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AY20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -15218,7 +15230,7 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="53"/>
       <c r="V21" s="2"/>
       <c r="W21" s="7">
         <v>3</v>
@@ -15246,45 +15258,45 @@
       </c>
       <c r="AI21">
         <f>VLOOKUP(W21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ21">
         <f>VLOOKUP(X21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AK21">
         <f>VLOOKUP(Y21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL21">
         <f>VLOOKUP(Z21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM21">
         <f>VLOOKUP(AA21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN21">
         <f>VLOOKUP(AB21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO21">
         <f>VLOOKUP(AC21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP21">
         <f>VLOOKUP(AD21,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS21" s="2">
         <f>SUM(AI21:AJ21)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK21:AN21)*'Chest&amp;Cards'!$M$4</f>
-        <v>1524</v>
+        <v>3432</v>
       </c>
       <c r="AU21" s="2">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="AW21" s="67">
+        <v>600</v>
+      </c>
+      <c r="AW21" s="48">
         <v>1</v>
       </c>
       <c r="AX21">
@@ -15293,10 +15305,10 @@
       </c>
       <c r="AY21">
         <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -15321,7 +15333,7 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="55"/>
+      <c r="I22" s="53"/>
       <c r="V22" s="2"/>
       <c r="W22" s="7">
         <v>3</v>
@@ -15349,45 +15361,45 @@
       </c>
       <c r="AI22">
         <f>VLOOKUP(W22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AJ22">
         <f>VLOOKUP(X22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AK22">
         <f>VLOOKUP(Y22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL22">
         <f>VLOOKUP(Z22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM22">
         <f>VLOOKUP(AA22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN22">
         <f>VLOOKUP(AB22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO22">
         <f>VLOOKUP(AC22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP22">
         <f>VLOOKUP(AD22,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS22" s="2">
         <f>SUM(AI22:AJ22)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK22:AN22)*'Chest&amp;Cards'!$M$4</f>
-        <v>1764</v>
+        <v>4032</v>
       </c>
       <c r="AU22" s="2">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="AW22" s="67">
+        <v>600</v>
+      </c>
+      <c r="AW22" s="48">
         <v>1</v>
       </c>
       <c r="AX22">
@@ -15396,14 +15408,18 @@
       </c>
       <c r="AY22">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AZ22">
         <f>SUM(AY5:AY22)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="BA22">
+        <f>AZ22/'Chest&amp;Cards'!Q3</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -15428,7 +15444,7 @@
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="54" t="s">
         <v>158</v>
       </c>
       <c r="V23" s="32"/>
@@ -15458,60 +15474,60 @@
       </c>
       <c r="AI23">
         <f>VLOOKUP(W23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AJ23">
         <f>VLOOKUP(X23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AK23">
         <f>VLOOKUP(Y23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL23">
         <f>VLOOKUP(Z23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM23">
         <f>VLOOKUP(AA23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN23">
         <f>VLOOKUP(AB23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO23">
         <f>VLOOKUP(AC23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP23">
         <f>VLOOKUP(AD23,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS23" s="2">
         <f>SUM(AI23:AJ23)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK23:AN23)*'Chest&amp;Cards'!$M$4</f>
-        <v>1824</v>
+        <v>4152</v>
       </c>
       <c r="AU23" s="11">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AW23" s="68">
+        <v>120</v>
+      </c>
+      <c r="AW23" s="49">
         <v>0.3</v>
       </c>
       <c r="AX23">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="AY23">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="BI23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ23" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -15536,7 +15552,7 @@
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="54"/>
       <c r="V24" s="32"/>
       <c r="W24" s="7">
         <v>4</v>
@@ -15564,60 +15580,60 @@
       </c>
       <c r="AI24">
         <f>VLOOKUP(W24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AJ24">
         <f>VLOOKUP(X24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AK24">
         <f>VLOOKUP(Y24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL24">
         <f>VLOOKUP(Z24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM24">
         <f>VLOOKUP(AA24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN24">
         <f>VLOOKUP(AB24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO24">
         <f>VLOOKUP(AC24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP24">
         <f>VLOOKUP(AD24,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS24" s="2">
         <f>SUM(AI24:AJ24)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK24:AN24)*'Chest&amp;Cards'!$M$4</f>
-        <v>1884</v>
+        <v>4272</v>
       </c>
       <c r="AU24" s="11">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AW24" s="68">
+        <v>120</v>
+      </c>
+      <c r="AW24" s="49">
         <v>0.3</v>
       </c>
       <c r="AX24">
         <f>AU24*(1-AW24)</f>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="AY24">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="BI24" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -15642,7 +15658,7 @@
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="56"/>
+      <c r="I25" s="54"/>
       <c r="V25" s="32"/>
       <c r="W25" s="7">
         <v>5</v>
@@ -15670,60 +15686,60 @@
       </c>
       <c r="AI25">
         <f>VLOOKUP(W25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ25">
         <f>VLOOKUP(X25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AK25">
         <f>VLOOKUP(Y25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL25">
         <f>VLOOKUP(Z25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM25">
         <f>VLOOKUP(AA25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN25">
         <f>VLOOKUP(AB25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO25">
         <f>VLOOKUP(AC25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP25">
         <f>VLOOKUP(AD25,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS25" s="2">
         <f>SUM(AI25:AJ25)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK25:AN25)*'Chest&amp;Cards'!$M$4</f>
-        <v>2004</v>
+        <v>4452</v>
       </c>
       <c r="AU25" s="11">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AW25" s="68">
+        <v>180</v>
+      </c>
+      <c r="AW25" s="49">
         <v>0.3</v>
       </c>
       <c r="AX25">
         <f>AU25*(1-AW25)</f>
-        <v>84</v>
+        <v>125.99999999999999</v>
       </c>
       <c r="AY25">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="BB25" t="s">
+        <v>54.000000000000014</v>
+      </c>
+      <c r="BC25" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -15748,7 +15764,7 @@
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="56"/>
+      <c r="I26" s="54"/>
       <c r="V26" s="32"/>
       <c r="W26" s="7">
         <v>5</v>
@@ -15776,60 +15792,60 @@
       </c>
       <c r="AI26">
         <f>VLOOKUP(W26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ26">
         <f>VLOOKUP(X26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK26">
         <f>VLOOKUP(Y26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL26">
         <f>VLOOKUP(Z26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM26">
         <f>VLOOKUP(AA26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN26">
         <f>VLOOKUP(AB26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO26">
         <f>VLOOKUP(AC26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP26">
         <f>VLOOKUP(AD26,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS26" s="2">
         <f>SUM(AI26:AJ26)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK26:AN26)*'Chest&amp;Cards'!$M$4</f>
-        <v>2124</v>
+        <v>4632</v>
       </c>
       <c r="AU26" s="11">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AW26" s="68">
+        <v>180</v>
+      </c>
+      <c r="AW26" s="49">
         <v>0.3</v>
       </c>
       <c r="AX26">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>125.99999999999999</v>
       </c>
       <c r="AY26">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="BI26" t="s">
+        <v>54.000000000000014</v>
+      </c>
+      <c r="BJ26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -15854,7 +15870,7 @@
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="56"/>
+      <c r="I27" s="54"/>
       <c r="V27" s="32"/>
       <c r="W27" s="7">
         <v>5</v>
@@ -15882,60 +15898,60 @@
       </c>
       <c r="AI27">
         <f>VLOOKUP(W27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ27">
         <f>VLOOKUP(X27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK27">
         <f>VLOOKUP(Y27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AL27">
         <f>VLOOKUP(Z27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM27">
         <f>VLOOKUP(AA27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN27">
         <f>VLOOKUP(AB27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO27">
         <f>VLOOKUP(AC27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP27">
         <f>VLOOKUP(AD27,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS27" s="2">
         <f>SUM(AI27:AJ27)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK27:AN27)*'Chest&amp;Cards'!$M$4</f>
-        <v>2724</v>
+        <v>5832</v>
       </c>
       <c r="AU27" s="11">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="AW27" s="68">
+        <v>1200</v>
+      </c>
+      <c r="AW27" s="49">
         <v>0.3</v>
       </c>
       <c r="AX27">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="AY27">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="BI27" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -15960,7 +15976,7 @@
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="56"/>
+      <c r="I28" s="54"/>
       <c r="V28" s="32"/>
       <c r="W28" s="7">
         <v>5</v>
@@ -15988,60 +16004,60 @@
       </c>
       <c r="AI28">
         <f>VLOOKUP(W28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ28">
         <f>VLOOKUP(X28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK28">
         <f>VLOOKUP(Y28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL28">
         <f>VLOOKUP(Z28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM28">
         <f>VLOOKUP(AA28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN28">
         <f>VLOOKUP(AB28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO28">
         <f>VLOOKUP(AC28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP28">
         <f>VLOOKUP(AD28,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS28" s="2">
         <f>SUM(AI28:AJ28)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK28:AN28)*'Chest&amp;Cards'!$M$4</f>
-        <v>3924</v>
+        <v>7632</v>
       </c>
       <c r="AU28" s="11">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="AW28" s="68">
+        <v>1800</v>
+      </c>
+      <c r="AW28" s="49">
         <v>0.3</v>
       </c>
       <c r="AX28">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="AY28">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="BI28" t="s">
+        <v>540</v>
+      </c>
+      <c r="BJ28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -16066,7 +16082,7 @@
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="56"/>
+      <c r="I29" s="54"/>
       <c r="N29" t="s">
         <v>131</v>
       </c>
@@ -16097,60 +16113,60 @@
       </c>
       <c r="AI29">
         <f>VLOOKUP(W29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ29">
         <f>VLOOKUP(X29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK29">
         <f>VLOOKUP(Y29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL29">
         <f>VLOOKUP(Z29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AM29">
         <f>VLOOKUP(AA29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN29">
         <f>VLOOKUP(AB29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO29">
         <f>VLOOKUP(AC29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AP29">
         <f>VLOOKUP(AD29,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS29" s="2">
         <f>SUM(AI29:AJ29)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK29:AN29)*'Chest&amp;Cards'!$M$4</f>
-        <v>4524</v>
+        <v>8832</v>
       </c>
       <c r="AU29" s="11">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="AW29" s="68">
+        <v>1200</v>
+      </c>
+      <c r="AW29" s="49">
         <v>0.3</v>
       </c>
       <c r="AX29">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="AY29">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="BI29" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -16175,7 +16191,7 @@
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="56"/>
+      <c r="I30" s="54"/>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -16230,60 +16246,60 @@
       </c>
       <c r="AI30">
         <f>VLOOKUP(W30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ30">
         <f>VLOOKUP(X30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK30">
         <f>VLOOKUP(Y30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL30">
         <f>VLOOKUP(Z30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM30">
         <f>VLOOKUP(AA30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AN30">
         <f>VLOOKUP(AB30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO30">
         <f>VLOOKUP(AC30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AP30">
         <f>VLOOKUP(AD30,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS30" s="2">
         <f>SUM(AI30:AJ30)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK30:AN30)*'Chest&amp;Cards'!$M$4</f>
-        <v>5724</v>
+        <v>10632</v>
       </c>
       <c r="AU30" s="11">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="AW30" s="68">
+        <v>1800</v>
+      </c>
+      <c r="AW30" s="49">
         <v>0.3</v>
       </c>
       <c r="AX30">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="AY30">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="BI30" t="s">
+        <v>540</v>
+      </c>
+      <c r="BJ30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -16308,11 +16324,11 @@
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="56"/>
+      <c r="I31" s="54"/>
       <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="54" t="s">
+      <c r="M31" s="52" t="s">
         <v>157</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -16368,60 +16384,60 @@
       </c>
       <c r="AI31">
         <f>VLOOKUP(W31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ31">
         <f>VLOOKUP(X31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK31">
         <f>VLOOKUP(Y31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL31">
         <f>VLOOKUP(Z31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM31">
         <f>VLOOKUP(AA31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AN31">
         <f>VLOOKUP(AB31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO31">
         <f>VLOOKUP(AC31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AP31">
         <f>VLOOKUP(AD31,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS31" s="2">
         <f>SUM(AI31:AJ31)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK31:AN31)*'Chest&amp;Cards'!$M$4</f>
-        <v>6324</v>
+        <v>11832</v>
       </c>
       <c r="AU31" s="11">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="AW31" s="68">
+        <v>1200</v>
+      </c>
+      <c r="AW31" s="49">
         <v>0.3</v>
       </c>
       <c r="AX31">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="AY31">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="BB31" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC31" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -16446,11 +16462,11 @@
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="56"/>
+      <c r="I32" s="54"/>
       <c r="K32" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="54"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="13" t="s">
         <v>133</v>
       </c>
@@ -16502,60 +16518,60 @@
       </c>
       <c r="AI32">
         <f>VLOOKUP(W32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ32">
         <f>VLOOKUP(X32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK32">
         <f>VLOOKUP(Y32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL32">
         <f>VLOOKUP(Z32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM32">
         <f>VLOOKUP(AA32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN32">
         <f>VLOOKUP(AB32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO32">
         <f>VLOOKUP(AC32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP32">
         <f>VLOOKUP(AD32,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS32" s="2">
         <f>SUM(AI32:AJ32)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK32:AN32)*'Chest&amp;Cards'!$M$4</f>
-        <v>7524</v>
+        <v>13632</v>
       </c>
       <c r="AU32" s="11">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="AW32" s="68">
+        <v>1800</v>
+      </c>
+      <c r="AW32" s="49">
         <v>0.3</v>
       </c>
       <c r="AX32">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="AY32">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="BB32" t="s">
+        <v>540</v>
+      </c>
+      <c r="BC32" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -16580,8 +16596,8 @@
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="56"/>
-      <c r="M33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
@@ -16633,57 +16649,57 @@
       </c>
       <c r="AI33">
         <f>VLOOKUP(W33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ33">
         <f>VLOOKUP(X33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK33">
         <f>VLOOKUP(Y33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL33">
         <f>VLOOKUP(Z33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM33">
         <f>VLOOKUP(AA33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN33">
         <f>VLOOKUP(AB33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AO33">
         <f>VLOOKUP(AC33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP33">
         <f>VLOOKUP(AD33,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS33" s="2">
         <f>SUM(AI33:AJ33)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK33:AN33)*'Chest&amp;Cards'!$M$4</f>
-        <v>8124</v>
+        <v>14832</v>
       </c>
       <c r="AU33" s="11">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="AW33" s="68">
+        <v>1200</v>
+      </c>
+      <c r="AW33" s="49">
         <v>0.3</v>
       </c>
       <c r="AX33">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="AY33">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -16708,8 +16724,8 @@
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="M34" s="54" t="s">
+      <c r="I34" s="54"/>
+      <c r="M34" s="52" t="s">
         <v>158</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -16763,57 +16779,57 @@
       </c>
       <c r="AI34">
         <f>VLOOKUP(W34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AJ34">
         <f>VLOOKUP(X34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK34">
         <f>VLOOKUP(Y34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL34">
         <f>VLOOKUP(Z34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM34">
         <f>VLOOKUP(AA34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN34">
         <f>VLOOKUP(AB34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AO34">
         <f>VLOOKUP(AC34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP34">
         <f>VLOOKUP(AD34,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS34" s="2">
         <f>SUM(AI34:AJ34)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK34:AN34)*'Chest&amp;Cards'!$M$4</f>
-        <v>9324</v>
+        <v>16632</v>
       </c>
       <c r="AU34" s="11">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="AW34" s="68">
+        <v>1800</v>
+      </c>
+      <c r="AW34" s="49">
         <v>0.3</v>
       </c>
       <c r="AX34">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="AY34">
         <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -16838,8 +16854,8 @@
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="56"/>
-      <c r="M35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="13" t="s">
         <v>136</v>
       </c>
@@ -16891,45 +16907,45 @@
       </c>
       <c r="AI35">
         <f>VLOOKUP(W35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AJ35">
         <f>VLOOKUP(X35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK35">
         <f>VLOOKUP(Y35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL35">
         <f>VLOOKUP(Z35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM35">
         <f>VLOOKUP(AA35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN35">
         <f>VLOOKUP(AB35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AO35">
         <f>VLOOKUP(AC35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP35">
         <f>VLOOKUP(AD35,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AS35" s="2">
         <f>SUM(AI35:AJ35)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK35:AN35)*'Chest&amp;Cards'!$M$4</f>
-        <v>9624</v>
+        <v>16932</v>
       </c>
       <c r="AU35" s="11">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="AW35" s="68">
+      <c r="AW35" s="49">
         <v>0.3</v>
       </c>
       <c r="AX35">
@@ -16940,11 +16956,11 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BC35" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -16969,11 +16985,11 @@
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="56"/>
+      <c r="I36" s="54"/>
       <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="54"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="13" t="s">
         <v>137</v>
       </c>
@@ -17025,45 +17041,45 @@
       </c>
       <c r="AI36">
         <f>VLOOKUP(W36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AJ36">
         <f>VLOOKUP(X36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AK36">
         <f>VLOOKUP(Y36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AL36">
         <f>VLOOKUP(Z36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM36">
         <f>VLOOKUP(AA36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN36">
         <f>VLOOKUP(AB36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AO36">
         <f>VLOOKUP(AC36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP36">
         <f>VLOOKUP(AD36,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AS36" s="2">
         <f>SUM(AI36:AJ36)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK36:AN36)*'Chest&amp;Cards'!$M$4</f>
-        <v>9924</v>
+        <v>17232</v>
       </c>
       <c r="AU36" s="11">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="AW36" s="68">
+      <c r="AW36" s="49">
         <v>0.3</v>
       </c>
       <c r="AX36">
@@ -17075,7 +17091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -17100,11 +17116,11 @@
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="56"/>
+      <c r="I37" s="54"/>
       <c r="K37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="54" t="s">
+      <c r="M37" s="52" t="s">
         <v>159</v>
       </c>
       <c r="N37" s="13" t="s">
@@ -17158,45 +17174,45 @@
       </c>
       <c r="AI37">
         <f>VLOOKUP(W37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AJ37">
         <f>VLOOKUP(X37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AK37">
         <f>VLOOKUP(Y37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL37">
         <f>VLOOKUP(Z37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AM37">
         <f>VLOOKUP(AA37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN37">
         <f>VLOOKUP(AB37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AO37">
         <f>VLOOKUP(AC37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP37">
         <f>VLOOKUP(AD37,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AS37" s="2">
         <f>SUM(AI37:AJ37)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK37:AN37)*'Chest&amp;Cards'!$M$4</f>
-        <v>12924</v>
+        <v>20232</v>
       </c>
       <c r="AU37" s="11">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="AW37" s="68">
+      <c r="AW37" s="49">
         <v>0.3</v>
       </c>
       <c r="AX37">
@@ -17208,7 +17224,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -17233,11 +17249,11 @@
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="56"/>
+      <c r="I38" s="54"/>
       <c r="K38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="54"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
@@ -17289,45 +17305,45 @@
       </c>
       <c r="AI38">
         <f>VLOOKUP(W38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AJ38">
         <f>VLOOKUP(X38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AK38">
         <f>VLOOKUP(Y38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL38">
         <f>VLOOKUP(Z38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM38">
         <f>VLOOKUP(AA38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AN38">
         <f>VLOOKUP(AB38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AO38">
         <f>VLOOKUP(AC38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP38">
         <f>VLOOKUP(AD38,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS38" s="2">
         <f>SUM(AI38:AJ38)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK38:AN38)*'Chest&amp;Cards'!$M$4</f>
-        <v>15924</v>
+        <v>23232</v>
       </c>
       <c r="AU38" s="11">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="AW38" s="68">
+      <c r="AW38" s="49">
         <v>0.3</v>
       </c>
       <c r="AX38">
@@ -17339,7 +17355,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -17364,8 +17380,8 @@
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="56"/>
-      <c r="M39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="13" t="s">
         <v>140</v>
       </c>
@@ -17417,45 +17433,45 @@
       </c>
       <c r="AI39">
         <f>VLOOKUP(W39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AJ39">
         <f>VLOOKUP(X39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AK39">
         <f>VLOOKUP(Y39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL39">
         <f>VLOOKUP(Z39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM39">
         <f>VLOOKUP(AA39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN39">
         <f>VLOOKUP(AB39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AO39">
         <f>VLOOKUP(AC39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP39">
         <f>VLOOKUP(AD39,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS39" s="2">
         <f>SUM(AI39:AJ39)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK39:AN39)*'Chest&amp;Cards'!$M$4</f>
-        <v>18924</v>
+        <v>26232</v>
       </c>
       <c r="AU39" s="11">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="AW39" s="68">
+      <c r="AW39" s="49">
         <v>0.3</v>
       </c>
       <c r="AX39">
@@ -17467,7 +17483,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -17492,7 +17508,7 @@
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="56"/>
+      <c r="I40" s="54"/>
       <c r="M40" s="44" t="s">
         <v>160</v>
       </c>
@@ -17547,45 +17563,45 @@
       </c>
       <c r="AI40">
         <f>VLOOKUP(W40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AJ40">
         <f>VLOOKUP(X40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AK40">
         <f>VLOOKUP(Y40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL40">
         <f>VLOOKUP(Z40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM40">
         <f>VLOOKUP(AA40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN40">
         <f>VLOOKUP(AB40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO40">
         <f>VLOOKUP(AC40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP40">
         <f>VLOOKUP(AD40,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS40" s="2">
         <f>SUM(AI40:AJ40)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK40:AN40)*'Chest&amp;Cards'!$M$4</f>
-        <v>21924</v>
+        <v>29232</v>
       </c>
       <c r="AU40" s="11">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="AW40" s="68">
+      <c r="AW40" s="49">
         <v>0.3</v>
       </c>
       <c r="AX40">
@@ -17598,13 +17614,13 @@
       </c>
       <c r="AZ40">
         <f>SUM(AY23:AY40)</f>
-        <v>6048</v>
-      </c>
-      <c r="CP40" t="s">
+        <v>7560</v>
+      </c>
+      <c r="CQ40" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -17629,7 +17645,7 @@
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>159</v>
       </c>
       <c r="V41" s="16"/>
@@ -17659,60 +17675,60 @@
       </c>
       <c r="AI41">
         <f>VLOOKUP(W41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AJ41">
         <f>VLOOKUP(X41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AK41">
         <f>VLOOKUP(Y41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL41">
         <f>VLOOKUP(Z41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM41">
         <f>VLOOKUP(AA41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN41">
         <f>VLOOKUP(AB41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO41">
         <f>VLOOKUP(AC41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP41">
         <f>VLOOKUP(AD41,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS41" s="2">
         <f>SUM(AI41:AJ41)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK41:AN41)*'Chest&amp;Cards'!$M$4</f>
-        <v>22524</v>
+        <v>29712</v>
       </c>
       <c r="AU41" s="16">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="AW41" s="68">
+        <v>480</v>
+      </c>
+      <c r="AW41" s="49">
         <v>0.5</v>
       </c>
       <c r="AX41">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="AY41">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="CP41" t="s">
+        <v>240</v>
+      </c>
+      <c r="CQ41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -17737,7 +17753,7 @@
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="50"/>
+      <c r="I42" s="57"/>
       <c r="V42" s="16"/>
       <c r="W42" s="7">
         <v>7</v>
@@ -17765,63 +17781,63 @@
       </c>
       <c r="AI42">
         <f>VLOOKUP(W42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AJ42">
         <f>VLOOKUP(X42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AK42">
         <f>VLOOKUP(Y42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL42">
         <f>VLOOKUP(Z42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM42">
         <f>VLOOKUP(AA42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN42">
         <f>VLOOKUP(AB42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO42">
         <f>VLOOKUP(AC42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP42">
         <f>VLOOKUP(AD42,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS42" s="2">
         <f>SUM(AI42:AJ42)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK42:AN42)*'Chest&amp;Cards'!$M$4</f>
-        <v>23124</v>
+        <v>30192</v>
       </c>
       <c r="AU42" s="16">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="AW42" s="68">
+        <v>480</v>
+      </c>
+      <c r="AW42" s="49">
         <v>0.5</v>
       </c>
       <c r="AX42">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="AY42">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="CP42" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="CQ42" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="CQ42" s="31"/>
       <c r="CR42" s="31"/>
       <c r="CS42" s="31"/>
-    </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CT42" s="31"/>
+    </row>
+    <row r="43" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -17846,7 +17862,7 @@
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="50"/>
+      <c r="I43" s="57"/>
       <c r="V43" s="16"/>
       <c r="W43" s="7">
         <v>8</v>
@@ -17874,63 +17890,63 @@
       </c>
       <c r="AI43">
         <f>VLOOKUP(W43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ43">
         <f>VLOOKUP(X43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AK43">
         <f>VLOOKUP(Y43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL43">
         <f>VLOOKUP(Z43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM43">
         <f>VLOOKUP(AA43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN43">
         <f>VLOOKUP(AB43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO43">
         <f>VLOOKUP(AC43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP43">
         <f>VLOOKUP(AD43,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS43" s="2">
         <f>SUM(AI43:AJ43)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK43:AN43)*'Chest&amp;Cards'!$M$4</f>
-        <v>24324</v>
+        <v>30912</v>
       </c>
       <c r="AU43" s="16">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="AW43" s="68">
+        <v>720</v>
+      </c>
+      <c r="AW43" s="49">
         <v>0.5</v>
       </c>
       <c r="AX43">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="AY43">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="CP43" t="s">
+        <v>360</v>
+      </c>
+      <c r="CQ43" t="s">
         <v>260</v>
       </c>
-      <c r="CT43" t="s">
+      <c r="CU43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -17955,7 +17971,7 @@
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="50"/>
+      <c r="I44" s="57"/>
       <c r="V44" s="16"/>
       <c r="W44" s="7">
         <v>8</v>
@@ -17983,60 +17999,60 @@
       </c>
       <c r="AI44">
         <f>VLOOKUP(W44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ44">
         <f>VLOOKUP(X44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK44">
         <f>VLOOKUP(Y44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AL44">
         <f>VLOOKUP(Z44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM44">
         <f>VLOOKUP(AA44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN44">
         <f>VLOOKUP(AB44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO44">
         <f>VLOOKUP(AC44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP44">
         <f>VLOOKUP(AD44,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS44" s="2">
         <f>SUM(AI44:AJ44)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK44:AN44)*'Chest&amp;Cards'!$M$4</f>
-        <v>25524</v>
+        <v>31632</v>
       </c>
       <c r="AU44" s="16">
         <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="AW44" s="68">
+        <v>720</v>
+      </c>
+      <c r="AW44" s="49">
         <v>0.5</v>
       </c>
       <c r="AX44">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="AY44">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="CP44" t="s">
+        <v>360</v>
+      </c>
+      <c r="CQ44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -18061,7 +18077,7 @@
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="50"/>
+      <c r="I45" s="57"/>
       <c r="V45" s="16"/>
       <c r="W45" s="7">
         <v>8</v>
@@ -18089,57 +18105,57 @@
       </c>
       <c r="AI45">
         <f>VLOOKUP(W45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ45">
         <f>VLOOKUP(X45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK45">
         <f>VLOOKUP(Y45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AL45">
         <f>VLOOKUP(Z45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM45">
         <f>VLOOKUP(AA45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN45">
         <f>VLOOKUP(AB45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO45">
         <f>VLOOKUP(AC45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP45">
         <f>VLOOKUP(AD45,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS45" s="2">
         <f>SUM(AI45:AJ45)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK45:AN45)*'Chest&amp;Cards'!$M$4</f>
-        <v>31524</v>
+        <v>36432</v>
       </c>
       <c r="AU45" s="16">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="AW45" s="68">
+        <v>4800</v>
+      </c>
+      <c r="AW45" s="49">
         <v>0.5</v>
       </c>
       <c r="AX45">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="AY45">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -18164,7 +18180,7 @@
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="50"/>
+      <c r="I46" s="57"/>
       <c r="V46" s="16"/>
       <c r="W46" s="7">
         <v>8</v>
@@ -18192,57 +18208,57 @@
       </c>
       <c r="AI46">
         <f>VLOOKUP(W46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ46">
         <f>VLOOKUP(X46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK46">
         <f>VLOOKUP(Y46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL46">
         <f>VLOOKUP(Z46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AM46">
         <f>VLOOKUP(AA46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN46">
         <f>VLOOKUP(AB46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO46">
         <f>VLOOKUP(AC46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP46">
         <f>VLOOKUP(AD46,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS46" s="2">
         <f>SUM(AI46:AJ46)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK46:AN46)*'Chest&amp;Cards'!$M$4</f>
-        <v>43524</v>
+        <v>43632</v>
       </c>
       <c r="AU46" s="16">
         <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="AW46" s="68">
+        <v>7200</v>
+      </c>
+      <c r="AW46" s="49">
         <v>0.5</v>
       </c>
       <c r="AX46">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="AY46">
         <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -18267,7 +18283,7 @@
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="50"/>
+      <c r="I47" s="57"/>
       <c r="V47" s="16"/>
       <c r="W47" s="7">
         <v>8</v>
@@ -18295,57 +18311,57 @@
       </c>
       <c r="AI47">
         <f>VLOOKUP(W47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ47">
         <f>VLOOKUP(X47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK47">
         <f>VLOOKUP(Y47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL47">
         <f>VLOOKUP(Z47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AM47">
         <f>VLOOKUP(AA47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN47">
         <f>VLOOKUP(AB47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO47">
         <f>VLOOKUP(AC47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AP47">
         <f>VLOOKUP(AD47,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS47" s="2">
         <f>SUM(AI47:AJ47)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK47:AN47)*'Chest&amp;Cards'!$M$4</f>
-        <v>49524</v>
+        <v>48432</v>
       </c>
       <c r="AU47" s="16">
         <f>AS47-AS46</f>
-        <v>6000</v>
-      </c>
-      <c r="AW47" s="68">
+        <v>4800</v>
+      </c>
+      <c r="AW47" s="49">
         <v>0.5</v>
       </c>
       <c r="AX47">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="AY47">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -18370,7 +18386,7 @@
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="50"/>
+      <c r="I48" s="57"/>
       <c r="K48" t="s">
         <v>174</v>
       </c>
@@ -18401,57 +18417,57 @@
       </c>
       <c r="AI48">
         <f>VLOOKUP(W48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ48">
         <f>VLOOKUP(X48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK48">
         <f>VLOOKUP(Y48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL48">
         <f>VLOOKUP(Z48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM48">
         <f>VLOOKUP(AA48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AN48">
         <f>VLOOKUP(AB48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO48">
         <f>VLOOKUP(AC48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AP48">
         <f>VLOOKUP(AD48,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS48" s="2">
         <f>SUM(AI48:AJ48)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK48:AN48)*'Chest&amp;Cards'!$M$4</f>
-        <v>61524</v>
+        <v>55632</v>
       </c>
       <c r="AU48" s="16">
         <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="AW48" s="68">
+        <v>7200</v>
+      </c>
+      <c r="AW48" s="49">
         <v>0.5</v>
       </c>
       <c r="AX48">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="AY48">
         <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -18476,7 +18492,7 @@
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="50"/>
+      <c r="I49" s="57"/>
       <c r="K49" t="s">
         <v>175</v>
       </c>
@@ -18509,57 +18525,57 @@
       </c>
       <c r="AI49">
         <f>VLOOKUP(W49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ49">
         <f>VLOOKUP(X49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK49">
         <f>VLOOKUP(Y49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL49">
         <f>VLOOKUP(Z49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM49">
         <f>VLOOKUP(AA49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AN49">
         <f>VLOOKUP(AB49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO49">
         <f>VLOOKUP(AC49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AP49">
         <f>VLOOKUP(AD49,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS49" s="2">
         <f>SUM(AI49:AJ49)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK49:AN49)*'Chest&amp;Cards'!$M$4</f>
-        <v>67524</v>
+        <v>60432</v>
       </c>
       <c r="AU49" s="16">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="AW49" s="68">
+        <v>4800</v>
+      </c>
+      <c r="AW49" s="49">
         <v>0.5</v>
       </c>
       <c r="AX49">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="AY49">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -18584,7 +18600,7 @@
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="50"/>
+      <c r="I50" s="57"/>
       <c r="K50" t="s">
         <v>176</v>
       </c>
@@ -18615,57 +18631,57 @@
       </c>
       <c r="AI50">
         <f>VLOOKUP(W50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ50">
         <f>VLOOKUP(X50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK50">
         <f>VLOOKUP(Y50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL50">
         <f>VLOOKUP(Z50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM50">
         <f>VLOOKUP(AA50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN50">
         <f>VLOOKUP(AB50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AO50">
         <f>VLOOKUP(AC50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP50">
         <f>VLOOKUP(AD50,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS50" s="2">
         <f>SUM(AI50:AJ50)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK50:AN50)*'Chest&amp;Cards'!$M$4</f>
-        <v>79524</v>
+        <v>67632</v>
       </c>
       <c r="AU50" s="16">
         <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="AW50" s="68">
+        <v>7200</v>
+      </c>
+      <c r="AW50" s="49">
         <v>0.5</v>
       </c>
       <c r="AX50">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="AY50">
         <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -18690,7 +18706,7 @@
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="50"/>
+      <c r="I51" s="57"/>
       <c r="V51" s="16"/>
       <c r="W51" s="7">
         <v>8</v>
@@ -18718,63 +18734,63 @@
       </c>
       <c r="AI51">
         <f>VLOOKUP(W51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ51">
         <f>VLOOKUP(X51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK51">
         <f>VLOOKUP(Y51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL51">
         <f>VLOOKUP(Z51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM51">
         <f>VLOOKUP(AA51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN51">
         <f>VLOOKUP(AB51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AO51">
         <f>VLOOKUP(AC51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP51">
         <f>VLOOKUP(AD51,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS51" s="2">
         <f>SUM(AI51:AJ51)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK51:AN51)*'Chest&amp;Cards'!$M$4</f>
-        <v>85524</v>
+        <v>72432</v>
       </c>
       <c r="AU51" s="16">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="AW51" s="68">
+        <v>4800</v>
+      </c>
+      <c r="AW51" s="49">
         <v>0.5</v>
       </c>
       <c r="AX51">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="AY51">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="CP51" s="32" t="s">
+        <v>2400</v>
+      </c>
+      <c r="CQ51" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="CQ51" s="32"/>
       <c r="CR51" s="32"/>
       <c r="CS51" s="32"/>
-    </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CT51" s="32"/>
+    </row>
+    <row r="52" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -18799,7 +18815,7 @@
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="50"/>
+      <c r="I52" s="57"/>
       <c r="V52" s="16"/>
       <c r="W52" s="7">
         <v>8</v>
@@ -18827,60 +18843,60 @@
       </c>
       <c r="AI52">
         <f>VLOOKUP(W52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AJ52">
         <f>VLOOKUP(X52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK52">
         <f>VLOOKUP(Y52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL52">
         <f>VLOOKUP(Z52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM52">
         <f>VLOOKUP(AA52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN52">
         <f>VLOOKUP(AB52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AO52">
         <f>VLOOKUP(AC52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP52">
         <f>VLOOKUP(AD52,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS52" s="2">
         <f>SUM(AI52:AJ52)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK52:AN52)*'Chest&amp;Cards'!$M$4</f>
-        <v>97524</v>
+        <v>79632</v>
       </c>
       <c r="AU52" s="16">
         <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="AW52" s="68">
+        <v>7200</v>
+      </c>
+      <c r="AW52" s="49">
         <v>0.5</v>
       </c>
       <c r="AX52">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="AY52">
         <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-      <c r="CP52" t="s">
+        <v>3600</v>
+      </c>
+      <c r="CQ52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -18905,7 +18921,7 @@
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="50"/>
+      <c r="I53" s="57"/>
       <c r="V53" s="16"/>
       <c r="W53" s="7">
         <v>9</v>
@@ -18933,60 +18949,60 @@
       </c>
       <c r="AI53">
         <f>VLOOKUP(W53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AJ53">
         <f>VLOOKUP(X53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AK53">
         <f>VLOOKUP(Y53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL53">
         <f>VLOOKUP(Z53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM53">
         <f>VLOOKUP(AA53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN53">
         <f>VLOOKUP(AB53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AO53">
         <f>VLOOKUP(AC53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP53">
         <f>VLOOKUP(AD53,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AS53" s="2">
         <f>SUM(AI53:AJ53)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK53:AN53)*'Chest&amp;Cards'!$M$4</f>
-        <v>99924</v>
+        <v>80652</v>
       </c>
       <c r="AU53" s="16">
         <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="AW53" s="68">
+        <v>1020</v>
+      </c>
+      <c r="AW53" s="49">
         <v>0.5</v>
       </c>
       <c r="AX53">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>510</v>
       </c>
       <c r="AY53">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="CP53" t="s">
+        <v>510</v>
+      </c>
+      <c r="CQ53" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -19011,7 +19027,7 @@
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="50"/>
+      <c r="I54" s="57"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
@@ -19042,57 +19058,57 @@
       </c>
       <c r="AI54">
         <f>VLOOKUP(W54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AJ54">
         <f>VLOOKUP(X54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AK54">
         <f>VLOOKUP(Y54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AL54">
         <f>VLOOKUP(Z54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM54">
         <f>VLOOKUP(AA54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN54">
         <f>VLOOKUP(AB54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AO54">
         <f>VLOOKUP(AC54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP54">
         <f>VLOOKUP(AD54,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AS54" s="2">
         <f>SUM(AI54:AJ54)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK54:AN54)*'Chest&amp;Cards'!$M$4</f>
-        <v>102324</v>
+        <v>81672</v>
       </c>
       <c r="AU54" s="16">
         <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="AW54" s="68">
+        <v>1020</v>
+      </c>
+      <c r="AW54" s="49">
         <v>0.5</v>
       </c>
       <c r="AX54">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>510</v>
       </c>
       <c r="AY54">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="55" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -19117,7 +19133,7 @@
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="50"/>
+      <c r="I55" s="57"/>
       <c r="K55" t="s">
         <v>178</v>
       </c>
@@ -19148,57 +19164,57 @@
       </c>
       <c r="AI55">
         <f>VLOOKUP(W55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AJ55">
         <f>VLOOKUP(X55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AK55">
         <f>VLOOKUP(Y55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AL55">
         <f>VLOOKUP(Z55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AM55">
         <f>VLOOKUP(AA55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN55">
         <f>VLOOKUP(AB55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AO55">
         <f>VLOOKUP(AC55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP55">
         <f>VLOOKUP(AD55,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AS55" s="2">
         <f>SUM(AI55:AJ55)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK55:AN55)*'Chest&amp;Cards'!$M$4</f>
-        <v>126324</v>
+        <v>91872</v>
       </c>
       <c r="AU55" s="16">
         <f t="shared" si="4"/>
-        <v>24000</v>
-      </c>
-      <c r="AW55" s="68">
+        <v>10200</v>
+      </c>
+      <c r="AW55" s="49">
         <v>0.5</v>
       </c>
       <c r="AX55">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>5100</v>
       </c>
       <c r="AY55">
         <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.2">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -19223,7 +19239,7 @@
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="50"/>
+      <c r="I56" s="57"/>
       <c r="K56" t="s">
         <v>179</v>
       </c>
@@ -19254,57 +19270,57 @@
       </c>
       <c r="AI56">
         <f>VLOOKUP(W56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AJ56">
         <f>VLOOKUP(X56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AK56">
         <f>VLOOKUP(Y56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AL56">
         <f>VLOOKUP(Z56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AM56">
         <f>VLOOKUP(AA56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AN56">
         <f>VLOOKUP(AB56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AO56">
         <f>VLOOKUP(AC56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP56">
         <f>VLOOKUP(AD56,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS56" s="2">
         <f>SUM(AI56:AJ56)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK56:AN56)*'Chest&amp;Cards'!$M$4</f>
-        <v>150324</v>
+        <v>102072</v>
       </c>
       <c r="AU56" s="16">
         <f t="shared" si="4"/>
-        <v>24000</v>
-      </c>
-      <c r="AW56" s="68">
+        <v>10200</v>
+      </c>
+      <c r="AW56" s="49">
         <v>0.5</v>
       </c>
       <c r="AX56">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>5100</v>
       </c>
       <c r="AY56">
         <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.2">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -19329,7 +19345,7 @@
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="50"/>
+      <c r="I57" s="57"/>
       <c r="V57" s="16"/>
       <c r="W57" s="7">
         <v>9</v>
@@ -19357,60 +19373,60 @@
       </c>
       <c r="AI57">
         <f>VLOOKUP(W57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AJ57">
         <f>VLOOKUP(X57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AK57">
         <f>VLOOKUP(Y57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AL57">
         <f>VLOOKUP(Z57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AM57">
         <f>VLOOKUP(AA57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AN57">
         <f>VLOOKUP(AB57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="AO57">
         <f>VLOOKUP(AC57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP57">
         <f>VLOOKUP(AD57,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS57" s="2">
         <f>SUM(AI57:AJ57)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK57:AN57)*'Chest&amp;Cards'!$M$4</f>
-        <v>174324</v>
+        <v>112272</v>
       </c>
       <c r="AU57" s="16">
         <f t="shared" si="4"/>
-        <v>24000</v>
-      </c>
-      <c r="AW57" s="68">
+        <v>10200</v>
+      </c>
+      <c r="AW57" s="49">
         <v>0.5</v>
       </c>
       <c r="AX57">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>5100</v>
       </c>
       <c r="AY57">
         <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="CP57" t="s">
+        <v>5100</v>
+      </c>
+      <c r="CQ57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -19435,7 +19451,7 @@
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="50"/>
+      <c r="I58" s="57"/>
       <c r="V58" s="16"/>
       <c r="W58" s="7">
         <v>9</v>
@@ -19463,61 +19479,61 @@
       </c>
       <c r="AI58">
         <f>VLOOKUP(W58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AJ58">
         <f>VLOOKUP(X58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AK58">
         <f>VLOOKUP(Y58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AL58">
         <f>VLOOKUP(Z58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AM58">
         <f>VLOOKUP(AA58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AN58">
         <f>VLOOKUP(AB58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AO58">
         <f>VLOOKUP(AC58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP58">
         <f>VLOOKUP(AD58,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS58" s="2">
         <f>SUM(AI58:AJ58)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK58:AN58)*'Chest&amp;Cards'!$M$4</f>
-        <v>198324</v>
+        <v>122472</v>
       </c>
       <c r="AU58" s="16">
         <f t="shared" si="4"/>
-        <v>24000</v>
-      </c>
-      <c r="AW58" s="68">
+        <v>10200</v>
+      </c>
+      <c r="AW58" s="49">
         <v>0.5</v>
       </c>
       <c r="AX58">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>5100</v>
       </c>
       <c r="AY58">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>5100</v>
       </c>
       <c r="AZ58">
         <f>SUM(AY41:AY58)</f>
-        <v>88200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.2">
+        <v>46620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -19542,7 +19558,7 @@
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="58" t="s">
         <v>160</v>
       </c>
       <c r="V59" s="34"/>
@@ -19572,57 +19588,57 @@
       </c>
       <c r="AI59">
         <f>VLOOKUP(W59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AJ59">
         <f>VLOOKUP(X59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AK59">
         <f>VLOOKUP(Y59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AL59">
         <f>VLOOKUP(Z59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AM59">
         <f>VLOOKUP(AA59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AN59">
         <f>VLOOKUP(AB59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AO59">
         <f>VLOOKUP(AC59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP59">
         <f>VLOOKUP(AD59,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS59" s="2">
         <f>SUM(AI59:AJ59)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK59:AN59)*'Chest&amp;Cards'!$M$4</f>
-        <v>203124</v>
-      </c>
-      <c r="AU59" s="66">
+        <v>123852</v>
+      </c>
+      <c r="AU59" s="47">
         <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="AW59" s="68">
+        <v>1380</v>
+      </c>
+      <c r="AW59" s="49">
         <v>0.7</v>
       </c>
       <c r="AX59">
         <f t="shared" si="2"/>
-        <v>1440.0000000000002</v>
+        <v>414.00000000000006</v>
       </c>
       <c r="AY59">
         <f t="shared" si="3"/>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -19647,7 +19663,7 @@
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="51"/>
+      <c r="I60" s="58"/>
       <c r="V60" s="34"/>
       <c r="W60" s="7">
         <v>10</v>
@@ -19675,57 +19691,57 @@
       </c>
       <c r="AI60">
         <f>VLOOKUP(W60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AJ60">
         <f>VLOOKUP(X60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AK60">
         <f>VLOOKUP(Y60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AL60">
         <f>VLOOKUP(Z60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AM60">
         <f>VLOOKUP(AA60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AN60">
         <f>VLOOKUP(AB60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AO60">
         <f>VLOOKUP(AC60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP60">
         <f>VLOOKUP(AD60,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS60" s="2">
         <f>SUM(AI60:AJ60)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK60:AN60)*'Chest&amp;Cards'!$M$4</f>
-        <v>207924</v>
-      </c>
-      <c r="AU60" s="66">
+        <v>125232</v>
+      </c>
+      <c r="AU60" s="47">
         <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="AW60" s="68">
+        <v>1380</v>
+      </c>
+      <c r="AW60" s="49">
         <v>0.7</v>
       </c>
       <c r="AX60">
         <f t="shared" si="2"/>
-        <v>1440.0000000000002</v>
+        <v>414.00000000000006</v>
       </c>
       <c r="AY60">
         <f t="shared" si="3"/>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -19750,7 +19766,7 @@
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="51"/>
+      <c r="I61" s="58"/>
       <c r="V61" s="34"/>
       <c r="W61" s="7">
         <v>10</v>
@@ -19778,57 +19794,57 @@
       </c>
       <c r="AI61">
         <f>VLOOKUP(W61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AJ61">
         <f>VLOOKUP(X61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AK61">
         <f>VLOOKUP(Y61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AL61">
         <f>VLOOKUP(Z61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AM61">
         <f>VLOOKUP(AA61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AN61">
         <f>VLOOKUP(AB61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AO61">
         <f>VLOOKUP(AC61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AP61">
         <f>VLOOKUP(AD61,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS61" s="2">
         <f>SUM(AI61:AJ61)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK61:AN61)*'Chest&amp;Cards'!$M$4</f>
-        <v>255924</v>
-      </c>
-      <c r="AU61" s="66">
+        <v>139032</v>
+      </c>
+      <c r="AU61" s="47">
         <f t="shared" si="4"/>
-        <v>48000</v>
-      </c>
-      <c r="AW61" s="68">
+        <v>13800</v>
+      </c>
+      <c r="AW61" s="49">
         <v>0.7</v>
       </c>
       <c r="AX61">
         <f t="shared" si="2"/>
-        <v>14400.000000000002</v>
+        <v>4140.0000000000009</v>
       </c>
       <c r="AY61">
         <f t="shared" si="3"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.2">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -19853,7 +19869,7 @@
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="51"/>
+      <c r="I62" s="58"/>
       <c r="K62" t="s">
         <v>180</v>
       </c>
@@ -19886,60 +19902,60 @@
       </c>
       <c r="AI62">
         <f>VLOOKUP(W62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AJ62">
         <f>VLOOKUP(X62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AK62">
         <f>VLOOKUP(Y62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AL62">
         <f>VLOOKUP(Z62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AM62">
         <f>VLOOKUP(AA62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AN62">
         <f>VLOOKUP(AB62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AO62">
         <f>VLOOKUP(AC62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AP62">
         <f>VLOOKUP(AD62,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AS62" s="2">
         <f>SUM(AI62:AJ62)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK62:AN62)*'Chest&amp;Cards'!$M$4</f>
-        <v>303924</v>
-      </c>
-      <c r="AU62" s="66">
+        <v>152832</v>
+      </c>
+      <c r="AU62" s="47">
         <f t="shared" si="4"/>
-        <v>48000</v>
-      </c>
-      <c r="AW62" s="68">
+        <v>13800</v>
+      </c>
+      <c r="AW62" s="49">
         <v>0.7</v>
       </c>
       <c r="AX62">
         <f t="shared" si="2"/>
-        <v>14400.000000000002</v>
+        <v>4140.0000000000009</v>
       </c>
       <c r="AY62">
         <f t="shared" si="3"/>
-        <v>33600</v>
-      </c>
-      <c r="CP62" t="s">
+        <v>9660</v>
+      </c>
+      <c r="CQ62" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -19964,7 +19980,7 @@
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="51"/>
+      <c r="I63" s="58"/>
       <c r="K63" t="s">
         <v>181</v>
       </c>
@@ -19995,60 +20011,60 @@
       </c>
       <c r="AI63">
         <f>VLOOKUP(W63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AJ63">
         <f>VLOOKUP(X63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AK63">
         <f>VLOOKUP(Y63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AL63">
         <f>VLOOKUP(Z63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AM63">
         <f>VLOOKUP(AA63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AN63">
         <f>VLOOKUP(AB63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="AO63">
         <f>VLOOKUP(AC63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AP63">
         <f>VLOOKUP(AD63,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AS63" s="2">
         <f>SUM(AI63:AJ63)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK63:AN63)*'Chest&amp;Cards'!$M$4</f>
-        <v>351924</v>
-      </c>
-      <c r="AU63" s="66">
+        <v>166632</v>
+      </c>
+      <c r="AU63" s="47">
         <f t="shared" si="4"/>
-        <v>48000</v>
-      </c>
-      <c r="AW63" s="68">
+        <v>13800</v>
+      </c>
+      <c r="AW63" s="49">
         <v>0.7</v>
       </c>
       <c r="AX63">
         <f t="shared" si="2"/>
-        <v>14400.000000000002</v>
+        <v>4140.0000000000009</v>
       </c>
       <c r="AY63">
         <f t="shared" si="3"/>
-        <v>33600</v>
-      </c>
-      <c r="CP63" t="s">
+        <v>9660</v>
+      </c>
+      <c r="CQ63" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:97" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:98" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -20073,7 +20089,7 @@
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="51"/>
+      <c r="I64" s="58"/>
       <c r="V64" s="34"/>
       <c r="W64" s="7">
         <v>10</v>
@@ -20101,61 +20117,61 @@
       </c>
       <c r="AI64">
         <f>VLOOKUP(W64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AJ64">
         <f>VLOOKUP(X64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AK64">
         <f>VLOOKUP(Y64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AL64">
         <f>VLOOKUP(Z64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AM64">
         <f>VLOOKUP(AA64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AN64">
         <f>VLOOKUP(AB64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AO64">
         <f>VLOOKUP(AC64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AP64">
         <f>VLOOKUP(AD64,CardUpgrade!$C$10:$I$20,7,FALSE)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="AS64" s="2">
         <f>SUM(AI64:AJ64)*'Chest&amp;Cards'!$M$3 + SUM('Dungeon&amp;Framework'!AK64:AN64)*'Chest&amp;Cards'!$M$4</f>
-        <v>399924</v>
-      </c>
-      <c r="AU64" s="66">
+        <v>180432</v>
+      </c>
+      <c r="AU64" s="47">
         <f t="shared" si="4"/>
-        <v>48000</v>
-      </c>
-      <c r="AW64" s="68">
+        <v>13800</v>
+      </c>
+      <c r="AW64" s="49">
         <v>0.7</v>
       </c>
       <c r="AX64">
         <f t="shared" si="2"/>
-        <v>14400.000000000002</v>
+        <v>4140.0000000000009</v>
       </c>
       <c r="AY64">
         <f t="shared" si="3"/>
-        <v>33600</v>
+        <v>9660</v>
       </c>
       <c r="AZ64">
         <f>SUM(AY59:AY64)</f>
-        <v>141120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.2">
+        <v>40572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -20165,11 +20181,11 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
-      <c r="CP65" t="s">
+      <c r="CQ65" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -20180,7 +20196,7 @@
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
@@ -20191,7 +20207,7 @@
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -20201,50 +20217,50 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
-      <c r="CP68" t="s">
+      <c r="CQ68" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
-      <c r="CP69" t="s">
+      <c r="CQ69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="X76" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -20291,22 +20307,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="EM3:EO3"/>
+    <mergeCell ref="ER3:ET3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="I41:I58"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="DQ3:DS3"/>
+    <mergeCell ref="DV3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="ED3:EF3"/>
+    <mergeCell ref="EH3:EJ3"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="M31:M33"/>
     <mergeCell ref="M34:M36"/>
     <mergeCell ref="M37:M39"/>
     <mergeCell ref="I5:I22"/>
     <mergeCell ref="I23:I40"/>
-    <mergeCell ref="EL3:EN3"/>
-    <mergeCell ref="EQ3:ES3"/>
-    <mergeCell ref="DL3:DN3"/>
-    <mergeCell ref="I41:I58"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="DP3:DR3"/>
-    <mergeCell ref="DU3:DW3"/>
-    <mergeCell ref="DY3:EA3"/>
-    <mergeCell ref="EC3:EE3"/>
-    <mergeCell ref="EG3:EI3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20317,10 +20333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23828EA-318D-D844-B2AA-2E9E5A31759B}">
-  <dimension ref="A3:M11"/>
+  <dimension ref="A2:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20333,7 +20349,15 @@
     <col min="11" max="11" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>353</v>
       </c>
@@ -20355,8 +20379,15 @@
       <c r="M3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="Q3">
+        <f>O3/100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
         <v>103</v>
       </c>
@@ -20364,7 +20395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>354</v>
       </c>
@@ -20372,8 +20403,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
         <v>355</v>
       </c>
       <c r="B6" t="s">
@@ -20392,8 +20423,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
       <c r="B7" t="s">
         <v>103</v>
       </c>
@@ -20410,8 +20441,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
       <c r="B8" t="s">
         <v>354</v>
       </c>
@@ -20428,7 +20459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>356</v>
       </c>
@@ -20449,7 +20480,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>357</v>
       </c>
@@ -20569,36 +20600,36 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="J5" s="63" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="J5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="S5" s="57" t="s">
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="S5" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="59"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="62"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
@@ -22999,7 +23030,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23065,11 +23096,11 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="P8" s="25" t="s">
         <v>266</v>
       </c>
@@ -23188,17 +23219,17 @@
         <v>2</v>
       </c>
       <c r="E12" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f>SUM($G$11:G12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P12" s="25">
         <v>5</v>
@@ -23221,17 +23252,17 @@
         <v>3</v>
       </c>
       <c r="E13" s="25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" s="25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G13" s="25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <f>SUM($G$11:G13)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P13" s="25">
         <v>6</v>
@@ -23254,17 +23285,17 @@
         <v>4</v>
       </c>
       <c r="E14" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G14" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I14">
         <f>SUM($G$11:G14)</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P14" s="25">
         <v>7</v>
@@ -23287,17 +23318,17 @@
         <v>5</v>
       </c>
       <c r="E15" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F15" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G15" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <f>SUM($G$11:G15)</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="P15" s="25">
         <v>8</v>
@@ -23330,7 +23361,7 @@
       </c>
       <c r="I16">
         <f>SUM($G$11:G16)</f>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="P16" s="25">
         <v>9</v>
@@ -23353,17 +23384,17 @@
         <v>7</v>
       </c>
       <c r="E17" s="25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F17" s="25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I17">
         <f>SUM($G$11:G17)</f>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="P17" s="25">
         <v>10</v>
@@ -23386,17 +23417,17 @@
         <v>8</v>
       </c>
       <c r="E18" s="25">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F18" s="25">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G18" s="25">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I18">
         <f>SUM($G$11:G18)</f>
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="P18" s="25">
         <v>11</v>
@@ -23419,17 +23450,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="25">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="F19" s="25">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="G19" s="25">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="I19">
         <f>SUM($G$11:G19)</f>
-        <v>787</v>
+        <v>486</v>
       </c>
       <c r="P19" s="25">
         <v>12</v>
@@ -23452,17 +23483,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="25">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="F20" s="25">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="G20" s="25">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="I20">
         <f>SUM($G$11:G20)</f>
-        <v>1587</v>
+        <v>716</v>
       </c>
       <c r="P20" s="25">
         <v>13</v>
@@ -23913,10 +23944,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -24618,11 +24649,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E209777-ED13-EE4A-AD4E-22264892876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3228B8-9AA5-B242-907D-B943FC50DE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="5" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="374">
   <si>
     <t>Birde</t>
   </si>
@@ -1210,6 +1210,9 @@
   </si>
   <si>
     <t>钻石1 = x币</t>
+  </si>
+  <si>
+    <t>如果最后一档额度过多，则可将距离安排的密集即可</t>
   </si>
 </sst>
 </file>
@@ -1552,18 +1555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,6 +1568,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8723,12 +8726,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -8741,6 +8738,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12795,8 +12798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
   <dimension ref="A1:ET94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="BG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="AY32" sqref="AY32"/>
     </sheetView>
@@ -13147,46 +13150,46 @@
         <v>319</v>
       </c>
       <c r="DL3" s="33"/>
-      <c r="DM3" s="56" t="s">
+      <c r="DM3" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="DN3" s="56"/>
-      <c r="DO3" s="56"/>
-      <c r="DQ3" s="56" t="s">
+      <c r="DN3" s="52"/>
+      <c r="DO3" s="52"/>
+      <c r="DQ3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="DR3" s="56"/>
-      <c r="DS3" s="56"/>
-      <c r="DV3" s="59" t="s">
+      <c r="DR3" s="52"/>
+      <c r="DS3" s="52"/>
+      <c r="DV3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="DW3" s="59"/>
-      <c r="DX3" s="59"/>
-      <c r="DZ3" s="59" t="s">
+      <c r="DW3" s="55"/>
+      <c r="DX3" s="55"/>
+      <c r="DZ3" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="EA3" s="59"/>
-      <c r="EB3" s="59"/>
-      <c r="ED3" s="59" t="s">
+      <c r="EA3" s="55"/>
+      <c r="EB3" s="55"/>
+      <c r="ED3" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="EE3" s="59"/>
-      <c r="EF3" s="59"/>
-      <c r="EH3" s="59" t="s">
+      <c r="EE3" s="55"/>
+      <c r="EF3" s="55"/>
+      <c r="EH3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="EI3" s="59"/>
-      <c r="EJ3" s="59"/>
-      <c r="EM3" s="55" t="s">
+      <c r="EI3" s="55"/>
+      <c r="EJ3" s="55"/>
+      <c r="EM3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="EN3" s="55"/>
-      <c r="EO3" s="55"/>
-      <c r="ER3" s="55" t="s">
+      <c r="EN3" s="51"/>
+      <c r="EO3" s="51"/>
+      <c r="ER3" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="ES3" s="55"/>
-      <c r="ET3" s="55"/>
+      <c r="ES3" s="51"/>
+      <c r="ET3" s="51"/>
     </row>
     <row r="4" spans="1:150" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -13482,7 +13485,7 @@
         <f>VLOOKUP(G5,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="58" t="s">
         <v>167</v>
       </c>
       <c r="V5" s="2"/>
@@ -13602,7 +13605,7 @@
         <f>VLOOKUP(G6,Reference1!C:E,3,FALSE)</f>
         <v>393</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="58"/>
       <c r="V6" s="2"/>
       <c r="W6">
         <v>1</v>
@@ -13708,7 +13711,7 @@
         <f>VLOOKUP(G7,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="58"/>
       <c r="V7" s="2"/>
       <c r="W7" s="7">
         <v>2</v>
@@ -13827,7 +13830,7 @@
         <f>VLOOKUP(G8,Reference1!C:E,3,FALSE)</f>
         <v>353.7</v>
       </c>
-      <c r="I8" s="53"/>
+      <c r="I8" s="58"/>
       <c r="V8" s="2"/>
       <c r="W8" s="7">
         <v>2</v>
@@ -13936,7 +13939,7 @@
         <f>VLOOKUP(G9,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="58"/>
       <c r="V9" s="2"/>
       <c r="W9" s="7">
         <v>2</v>
@@ -14048,7 +14051,7 @@
         <f>VLOOKUP(G10,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="58"/>
       <c r="V10" s="2"/>
       <c r="W10" s="7">
         <v>2</v>
@@ -14160,7 +14163,7 @@
         <f>VLOOKUP(G11,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I11" s="53"/>
+      <c r="I11" s="58"/>
       <c r="V11" s="2"/>
       <c r="W11" s="7">
         <v>2</v>
@@ -14266,7 +14269,7 @@
         <f>VLOOKUP(G12,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="58"/>
       <c r="K12" t="s">
         <v>161</v>
       </c>
@@ -14378,7 +14381,7 @@
         <f>VLOOKUP(G13,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I13" s="53"/>
+      <c r="I13" s="58"/>
       <c r="K13" t="s">
         <v>163</v>
       </c>
@@ -14476,7 +14479,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv1</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="56" t="s">
         <v>183</v>
       </c>
       <c r="G14" t="str">
@@ -14487,7 +14490,7 @@
         <f>VLOOKUP(G14,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="58"/>
       <c r="K14" t="s">
         <v>164</v>
       </c>
@@ -14587,7 +14590,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv2</v>
       </c>
-      <c r="F15" s="51"/>
+      <c r="F15" s="56"/>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -14596,7 +14599,7 @@
         <f>VLOOKUP(G15,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="58"/>
       <c r="V15" s="2"/>
       <c r="W15" s="7">
         <v>3</v>
@@ -14694,7 +14697,7 @@
         <f t="shared" si="0"/>
         <v>紫3 - Lv3</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="56"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -14703,7 +14706,7 @@
         <f>VLOOKUP(G16,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I16" s="53"/>
+      <c r="I16" s="58"/>
       <c r="V16" s="2"/>
       <c r="W16" s="7">
         <v>3</v>
@@ -14798,7 +14801,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv1</v>
       </c>
-      <c r="F17" s="51"/>
+      <c r="F17" s="56"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>紫1</v>
@@ -14807,7 +14810,7 @@
         <f>VLOOKUP(G17,Reference1!C:E,3,FALSE)</f>
         <v>579</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="58"/>
       <c r="V17" s="2"/>
       <c r="W17" s="7">
         <v>3</v>
@@ -14902,7 +14905,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv2</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="56"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>紫2</v>
@@ -14911,7 +14914,7 @@
         <f>VLOOKUP(G18,Reference1!C:E,3,FALSE)</f>
         <v>521.1</v>
       </c>
-      <c r="I18" s="53"/>
+      <c r="I18" s="58"/>
       <c r="K18" t="s">
         <v>165</v>
       </c>
@@ -15009,7 +15012,7 @@
         <f t="shared" si="0"/>
         <v>紫4 - Lv3</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="56"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>紫3</v>
@@ -15018,7 +15021,7 @@
         <f>VLOOKUP(G19,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I19" s="53"/>
+      <c r="I19" s="58"/>
       <c r="K19" t="s">
         <v>162</v>
       </c>
@@ -15124,7 +15127,7 @@
         <f>VLOOKUP(G20,Reference1!C:E,3,FALSE)</f>
         <v>314.40000000000003</v>
       </c>
-      <c r="I20" s="53"/>
+      <c r="I20" s="58"/>
       <c r="K20" t="s">
         <v>166</v>
       </c>
@@ -15230,7 +15233,7 @@
         <f>VLOOKUP(G21,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I21" s="53"/>
+      <c r="I21" s="58"/>
       <c r="V21" s="2"/>
       <c r="W21" s="7">
         <v>3</v>
@@ -15333,7 +15336,7 @@
         <f>VLOOKUP(G22,Reference1!C:E,3,FALSE)</f>
         <v>463.20000000000005</v>
       </c>
-      <c r="I22" s="53"/>
+      <c r="I22" s="58"/>
       <c r="V22" s="2"/>
       <c r="W22" s="7">
         <v>3</v>
@@ -15444,7 +15447,7 @@
         <f>VLOOKUP(G23,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="59" t="s">
         <v>158</v>
       </c>
       <c r="V23" s="32"/>
@@ -15552,7 +15555,7 @@
         <f>VLOOKUP(G24,Reference1!C:E,3,FALSE)</f>
         <v>793</v>
       </c>
-      <c r="I24" s="54"/>
+      <c r="I24" s="59"/>
       <c r="V24" s="32"/>
       <c r="W24" s="7">
         <v>4</v>
@@ -15658,7 +15661,7 @@
         <f>VLOOKUP(G25,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I25" s="54"/>
+      <c r="I25" s="59"/>
       <c r="V25" s="32"/>
       <c r="W25" s="7">
         <v>5</v>
@@ -15764,7 +15767,7 @@
         <f>VLOOKUP(G26,Reference1!C:E,3,FALSE)</f>
         <v>713.7</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="59"/>
       <c r="V26" s="32"/>
       <c r="W26" s="7">
         <v>5</v>
@@ -15870,7 +15873,7 @@
         <f>VLOOKUP(G27,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="59"/>
       <c r="V27" s="32"/>
       <c r="W27" s="7">
         <v>5</v>
@@ -15976,7 +15979,7 @@
         <f>VLOOKUP(G28,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I28" s="54"/>
+      <c r="I28" s="59"/>
       <c r="V28" s="32"/>
       <c r="W28" s="7">
         <v>5</v>
@@ -16082,7 +16085,7 @@
         <f>VLOOKUP(G29,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I29" s="54"/>
+      <c r="I29" s="59"/>
       <c r="N29" t="s">
         <v>131</v>
       </c>
@@ -16191,7 +16194,7 @@
         <f>VLOOKUP(G30,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I30" s="54"/>
+      <c r="I30" s="59"/>
       <c r="K30" t="s">
         <v>168</v>
       </c>
@@ -16324,11 +16327,11 @@
         <f>VLOOKUP(G31,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I31" s="54"/>
+      <c r="I31" s="59"/>
       <c r="K31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="57" t="s">
         <v>157</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -16462,11 +16465,11 @@
         <f>VLOOKUP(G32,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I32" s="54"/>
+      <c r="I32" s="59"/>
       <c r="K32" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="52"/>
+      <c r="M32" s="57"/>
       <c r="N32" s="13" t="s">
         <v>133</v>
       </c>
@@ -16596,8 +16599,8 @@
         <f>VLOOKUP(G33,Reference1!C:E,3,FALSE)</f>
         <v>1179</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="M33" s="52"/>
+      <c r="I33" s="59"/>
+      <c r="M33" s="57"/>
       <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
@@ -16724,8 +16727,8 @@
         <f>VLOOKUP(G34,Reference1!C:E,3,FALSE)</f>
         <v>1061.1000000000001</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="M34" s="52" t="s">
+      <c r="I34" s="59"/>
+      <c r="M34" s="57" t="s">
         <v>158</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -16854,8 +16857,8 @@
         <f>VLOOKUP(G35,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I35" s="54"/>
-      <c r="M35" s="52"/>
+      <c r="I35" s="59"/>
+      <c r="M35" s="57"/>
       <c r="N35" s="13" t="s">
         <v>136</v>
       </c>
@@ -16985,11 +16988,11 @@
         <f>VLOOKUP(G36,Reference1!C:E,3,FALSE)</f>
         <v>634.40000000000009</v>
       </c>
-      <c r="I36" s="54"/>
+      <c r="I36" s="59"/>
       <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="52"/>
+      <c r="M36" s="57"/>
       <c r="N36" s="13" t="s">
         <v>137</v>
       </c>
@@ -17116,11 +17119,11 @@
         <f>VLOOKUP(G37,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I37" s="54"/>
+      <c r="I37" s="59"/>
       <c r="K37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="57" t="s">
         <v>159</v>
       </c>
       <c r="N37" s="13" t="s">
@@ -17249,11 +17252,11 @@
         <f>VLOOKUP(G38,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="59"/>
       <c r="K38" t="s">
         <v>173</v>
       </c>
-      <c r="M38" s="52"/>
+      <c r="M38" s="57"/>
       <c r="N38" s="13" t="s">
         <v>139</v>
       </c>
@@ -17380,8 +17383,8 @@
         <f>VLOOKUP(G39,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I39" s="54"/>
-      <c r="M39" s="52"/>
+      <c r="I39" s="59"/>
+      <c r="M39" s="57"/>
       <c r="N39" s="13" t="s">
         <v>140</v>
       </c>
@@ -17508,7 +17511,7 @@
         <f>VLOOKUP(G40,Reference1!C:E,3,FALSE)</f>
         <v>943.2</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="59"/>
       <c r="M40" s="44" t="s">
         <v>160</v>
       </c>
@@ -17645,7 +17648,7 @@
         <f>VLOOKUP(G41,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="53" t="s">
         <v>159</v>
       </c>
       <c r="V41" s="16"/>
@@ -17753,7 +17756,7 @@
         <f>VLOOKUP(G42,Reference1!C:E,3,FALSE)</f>
         <v>1293</v>
       </c>
-      <c r="I42" s="57"/>
+      <c r="I42" s="53"/>
       <c r="V42" s="16"/>
       <c r="W42" s="7">
         <v>7</v>
@@ -17862,7 +17865,7 @@
         <f>VLOOKUP(G43,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I43" s="57"/>
+      <c r="I43" s="53"/>
       <c r="V43" s="16"/>
       <c r="W43" s="7">
         <v>8</v>
@@ -17971,7 +17974,7 @@
         <f>VLOOKUP(G44,Reference1!C:E,3,FALSE)</f>
         <v>1163.7</v>
       </c>
-      <c r="I44" s="57"/>
+      <c r="I44" s="53"/>
       <c r="V44" s="16"/>
       <c r="W44" s="7">
         <v>8</v>
@@ -18077,7 +18080,7 @@
         <f>VLOOKUP(G45,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I45" s="57"/>
+      <c r="I45" s="53"/>
       <c r="V45" s="16"/>
       <c r="W45" s="7">
         <v>8</v>
@@ -18180,7 +18183,7 @@
         <f>VLOOKUP(G46,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I46" s="57"/>
+      <c r="I46" s="53"/>
       <c r="V46" s="16"/>
       <c r="W46" s="7">
         <v>8</v>
@@ -18283,7 +18286,7 @@
         <f>VLOOKUP(G47,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I47" s="57"/>
+      <c r="I47" s="53"/>
       <c r="V47" s="16"/>
       <c r="W47" s="7">
         <v>8</v>
@@ -18386,7 +18389,7 @@
         <f>VLOOKUP(G48,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I48" s="57"/>
+      <c r="I48" s="53"/>
       <c r="K48" t="s">
         <v>174</v>
       </c>
@@ -18492,7 +18495,7 @@
         <f>VLOOKUP(G49,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I49" s="57"/>
+      <c r="I49" s="53"/>
       <c r="K49" t="s">
         <v>175</v>
       </c>
@@ -18600,7 +18603,7 @@
         <f>VLOOKUP(G50,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I50" s="57"/>
+      <c r="I50" s="53"/>
       <c r="K50" t="s">
         <v>176</v>
       </c>
@@ -18706,7 +18709,7 @@
         <f>VLOOKUP(G51,Reference1!C:E,3,FALSE)</f>
         <v>2379</v>
       </c>
-      <c r="I51" s="57"/>
+      <c r="I51" s="53"/>
       <c r="V51" s="16"/>
       <c r="W51" s="7">
         <v>8</v>
@@ -18815,7 +18818,7 @@
         <f>VLOOKUP(G52,Reference1!C:E,3,FALSE)</f>
         <v>2141.1</v>
       </c>
-      <c r="I52" s="57"/>
+      <c r="I52" s="53"/>
       <c r="V52" s="16"/>
       <c r="W52" s="7">
         <v>8</v>
@@ -18921,7 +18924,7 @@
         <f>VLOOKUP(G53,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I53" s="57"/>
+      <c r="I53" s="53"/>
       <c r="V53" s="16"/>
       <c r="W53" s="7">
         <v>9</v>
@@ -19027,7 +19030,7 @@
         <f>VLOOKUP(G54,Reference1!C:E,3,FALSE)</f>
         <v>1034.4000000000001</v>
       </c>
-      <c r="I54" s="57"/>
+      <c r="I54" s="53"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
@@ -19133,7 +19136,7 @@
         <f>VLOOKUP(G55,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I55" s="57"/>
+      <c r="I55" s="53"/>
       <c r="K55" t="s">
         <v>178</v>
       </c>
@@ -19239,7 +19242,7 @@
         <f>VLOOKUP(G56,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I56" s="57"/>
+      <c r="I56" s="53"/>
       <c r="K56" t="s">
         <v>179</v>
       </c>
@@ -19345,7 +19348,7 @@
         <f>VLOOKUP(G57,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I57" s="57"/>
+      <c r="I57" s="53"/>
       <c r="V57" s="16"/>
       <c r="W57" s="7">
         <v>9</v>
@@ -19451,7 +19454,7 @@
         <f>VLOOKUP(G58,Reference1!C:E,3,FALSE)</f>
         <v>1903.2</v>
       </c>
-      <c r="I58" s="57"/>
+      <c r="I58" s="53"/>
       <c r="V58" s="16"/>
       <c r="W58" s="7">
         <v>9</v>
@@ -19558,7 +19561,7 @@
         <f>VLOOKUP(G59,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I59" s="58" t="s">
+      <c r="I59" s="54" t="s">
         <v>160</v>
       </c>
       <c r="V59" s="34"/>
@@ -19663,7 +19666,7 @@
         <f>VLOOKUP(G60,Reference1!C:E,3,FALSE)</f>
         <v>2293</v>
       </c>
-      <c r="I60" s="58"/>
+      <c r="I60" s="54"/>
       <c r="V60" s="34"/>
       <c r="W60" s="7">
         <v>10</v>
@@ -19766,7 +19769,7 @@
         <f>VLOOKUP(G61,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I61" s="58"/>
+      <c r="I61" s="54"/>
       <c r="V61" s="34"/>
       <c r="W61" s="7">
         <v>10</v>
@@ -19869,7 +19872,7 @@
         <f>VLOOKUP(G62,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I62" s="58"/>
+      <c r="I62" s="54"/>
       <c r="K62" t="s">
         <v>180</v>
       </c>
@@ -19980,7 +19983,7 @@
         <f>VLOOKUP(G63,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I63" s="58"/>
+      <c r="I63" s="54"/>
       <c r="K63" t="s">
         <v>181</v>
       </c>
@@ -20089,7 +20092,7 @@
         <f>VLOOKUP(G64,Reference1!C:E,3,FALSE)</f>
         <v>3879</v>
       </c>
-      <c r="I64" s="58"/>
+      <c r="I64" s="54"/>
       <c r="V64" s="34"/>
       <c r="W64" s="7">
         <v>10</v>
@@ -20307,6 +20310,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="I5:I22"/>
+    <mergeCell ref="I23:I40"/>
     <mergeCell ref="EM3:EO3"/>
     <mergeCell ref="ER3:ET3"/>
     <mergeCell ref="DM3:DO3"/>
@@ -20317,12 +20326,6 @@
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="ED3:EF3"/>
     <mergeCell ref="EH3:EJ3"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="I5:I22"/>
-    <mergeCell ref="I23:I40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20568,10 +20571,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF0C9D-BF8D-F04D-B2AF-C7D533E449BD}">
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="109" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20661,8 +20664,8 @@
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6">
-        <f>(Z10+Z28+Z48+Z68)*2</f>
-        <v>72</v>
+        <f>(Z10+Z28+Z48+Z67)*2</f>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -20731,8 +20734,8 @@
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7">
-        <f>(Q11+Q29+Q49+AD31)*4</f>
-        <v>144</v>
+        <f>(Q11+Q30+Q49+AD31)*4</f>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -20747,12 +20750,12 @@
         <v>-1</v>
       </c>
       <c r="E8" s="24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" s="20">
         <v>-1</v>
@@ -20765,14 +20768,14 @@
         <v>-1</v>
       </c>
       <c r="N8" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="20">
         <v>-1</v>
       </c>
-      <c r="Q8" s="19">
-        <v>7</v>
+      <c r="Q8" s="20">
+        <v>4</v>
       </c>
       <c r="S8" s="22">
         <v>-1</v>
@@ -20805,32 +20808,28 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
-      <c r="B9" s="24">
-        <v>2</v>
-      </c>
+      <c r="B9" s="24"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="20"/>
-      <c r="K9" s="20">
-        <v>2</v>
-      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="19"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
@@ -20847,32 +20846,26 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
-      <c r="B10" s="24">
-        <v>3</v>
-      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J10" s="20"/>
-      <c r="K10" s="20">
-        <v>3</v>
-      </c>
+      <c r="K10" s="20"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="20">
-        <v>6</v>
-      </c>
+      <c r="N10" s="20"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
-      <c r="Q10" s="19">
-        <v>9</v>
+      <c r="Q10" s="20">
+        <v>6</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -20886,23 +20879,21 @@
       </c>
       <c r="AD10">
         <f>SUM(AD6:AD8)</f>
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="24">
-        <v>4</v>
-      </c>
+      <c r="B11" s="24"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -20912,7 +20903,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -20925,16 +20916,14 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
-      <c r="B12" s="24">
-        <v>5</v>
-      </c>
+      <c r="B12" s="24"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -20943,7 +20932,9 @@
       <c r="N12" s="20"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="20">
+        <v>8</v>
+      </c>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -20961,7 +20952,9 @@
       <c r="E13" s="24"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="23">
+        <v>11</v>
+      </c>
       <c r="J13" s="20"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -20969,7 +20962,9 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="19">
+        <v>9</v>
+      </c>
       <c r="S13" s="22"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
@@ -20987,7 +20982,9 @@
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="23">
+        <v>12</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -20995,7 +20992,9 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="20">
+        <v>10</v>
+      </c>
       <c r="S14" s="22"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -21013,7 +21012,9 @@
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="23">
+        <v>13</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -21039,7 +21040,9 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="23">
+        <v>14</v>
+      </c>
       <c r="J16" s="20"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -21317,12 +21320,12 @@
         <v>-1</v>
       </c>
       <c r="E25" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J25" s="20">
         <v>-1</v>
@@ -21335,14 +21338,14 @@
         <v>-1</v>
       </c>
       <c r="N25" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="20">
         <v>-1</v>
       </c>
       <c r="Q25" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S25" s="22">
         <v>-1</v>
@@ -21361,7 +21364,7 @@
       <c r="Y25" s="22">
         <v>-1</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="21">
         <v>5</v>
       </c>
     </row>
@@ -21373,26 +21376,24 @@
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J26" s="20"/>
-      <c r="K26" s="20">
-        <v>2</v>
-      </c>
+      <c r="K26" s="20"/>
       <c r="L26" s="19"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -21409,32 +21410,28 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
-      <c r="B27" s="24">
-        <v>3</v>
-      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J27" s="20"/>
-      <c r="K27" s="20">
-        <v>3</v>
-      </c>
+      <c r="K27" s="20"/>
       <c r="L27" s="19"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -21445,36 +21442,34 @@
       </c>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
-      <c r="Z27" s="22">
+      <c r="Z27" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
-      <c r="B28" s="24">
-        <v>4</v>
-      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="19"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -21489,18 +21484,16 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="24">
-        <v>5</v>
-      </c>
+      <c r="B29" s="24"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -21510,7 +21503,7 @@
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
@@ -21526,12 +21519,12 @@
       <c r="B30" s="24"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="24">
-        <v>11</v>
-      </c>
+      <c r="E30" s="24"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="23">
+        <v>13</v>
+      </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="19"/>
@@ -21539,7 +21532,9 @@
       <c r="N30" s="20"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="19">
+        <v>11</v>
+      </c>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
@@ -21557,7 +21552,9 @@
       <c r="E31" s="24"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="23">
+        <v>14</v>
+      </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
@@ -21565,7 +21562,9 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
+      <c r="Q31" s="19">
+        <v>12</v>
+      </c>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -21583,7 +21582,9 @@
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="H32" s="23">
+        <v>15</v>
+      </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
@@ -21609,7 +21610,9 @@
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="H33" s="23">
+        <v>16</v>
+      </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -21961,12 +21964,12 @@
         <v>-1</v>
       </c>
       <c r="E45" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J45" s="20">
         <v>-1</v>
@@ -21979,14 +21982,14 @@
         <v>-1</v>
       </c>
       <c r="N45" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O45" s="19"/>
       <c r="P45" s="20">
         <v>-1</v>
       </c>
-      <c r="Q45" s="19">
-        <v>10</v>
+      <c r="Q45" s="20">
+        <v>8</v>
       </c>
       <c r="S45" s="22">
         <v>-1</v>
@@ -21999,14 +22002,14 @@
         <v>-1</v>
       </c>
       <c r="W45" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X45" s="21"/>
       <c r="Y45" s="22">
         <v>-1</v>
       </c>
       <c r="Z45" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -22017,12 +22020,12 @@
       <c r="C46" s="23"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="20">
@@ -22031,26 +22034,24 @@
       <c r="L46" s="19"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S46" s="22"/>
-      <c r="T46" s="22">
-        <v>2</v>
-      </c>
+      <c r="T46" s="22"/>
       <c r="U46" s="21"/>
       <c r="V46" s="22"/>
       <c r="W46" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X46" s="21"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -22061,108 +22062,100 @@
       <c r="C47" s="23"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J47" s="20"/>
-      <c r="K47" s="20">
-        <v>3</v>
-      </c>
+      <c r="K47" s="20"/>
       <c r="L47" s="19"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
       <c r="Q47" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
       <c r="U47" s="21"/>
       <c r="V47" s="22"/>
       <c r="W47" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X47" s="21"/>
       <c r="Y47" s="21"/>
       <c r="Z47" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
-      <c r="B48" s="24">
-        <v>4</v>
-      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="23"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J48" s="20"/>
-      <c r="K48" s="20">
-        <v>4</v>
-      </c>
+      <c r="K48" s="20"/>
       <c r="L48" s="19"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
       <c r="Q48" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
       <c r="U48" s="21"/>
       <c r="V48" s="22"/>
       <c r="W48" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X48" s="21"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
-      <c r="B49" s="24">
-        <v>5</v>
-      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="23"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J49" s="19"/>
       <c r="K49" s="20"/>
       <c r="L49" s="19"/>
       <c r="M49" s="20"/>
       <c r="N49" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
       <c r="Q49" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
@@ -22171,21 +22164,23 @@
       <c r="W49" s="22"/>
       <c r="X49" s="21"/>
       <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
+      <c r="Z49" s="21">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
-      <c r="B50" s="24">
-        <v>6</v>
-      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="23"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="H50" s="23">
+        <v>15</v>
+      </c>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="19"/>
@@ -22193,7 +22188,9 @@
       <c r="N50" s="20"/>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
+      <c r="Q50" s="19">
+        <v>13</v>
+      </c>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
@@ -22208,12 +22205,12 @@
       <c r="B51" s="24"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24"/>
-      <c r="E51" s="24">
-        <v>13</v>
-      </c>
+      <c r="E51" s="24"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="23">
+        <v>16</v>
+      </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="19"/>
@@ -22221,7 +22218,9 @@
       <c r="N51" s="20"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
+      <c r="Q51" s="19">
+        <v>14</v>
+      </c>
       <c r="S51" s="21"/>
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
@@ -22239,7 +22238,9 @@
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="H52" s="23">
+        <v>17</v>
+      </c>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -22265,7 +22266,9 @@
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="H53" s="23">
+        <v>18</v>
+      </c>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
@@ -22617,12 +22620,12 @@
         <v>-1</v>
       </c>
       <c r="E65" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J65" s="20">
         <v>-1</v>
@@ -22635,14 +22638,14 @@
         <v>-1</v>
       </c>
       <c r="N65" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O65" s="19"/>
       <c r="P65" s="20">
         <v>-1</v>
       </c>
       <c r="Q65" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S65" s="22">
         <v>-1</v>
@@ -22655,14 +22658,14 @@
         <v>-1</v>
       </c>
       <c r="W65" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X65" s="21"/>
       <c r="Y65" s="22">
         <v>-1</v>
       </c>
       <c r="Z65" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
@@ -22673,12 +22676,12 @@
       <c r="C66" s="23"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="20">
@@ -22687,26 +22690,24 @@
       <c r="L66" s="19"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O66" s="19"/>
       <c r="P66" s="19"/>
       <c r="Q66" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S66" s="22"/>
-      <c r="T66" s="22">
-        <v>2</v>
-      </c>
+      <c r="T66" s="22"/>
       <c r="U66" s="21"/>
       <c r="V66" s="22"/>
       <c r="W66" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X66" s="21"/>
       <c r="Y66" s="21"/>
       <c r="Z66" s="21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
@@ -22717,12 +22718,12 @@
       <c r="C67" s="23"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J67" s="20"/>
       <c r="K67" s="20">
@@ -22731,26 +22732,24 @@
       <c r="L67" s="19"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
       <c r="Q67" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S67" s="22"/>
-      <c r="T67" s="22">
-        <v>3</v>
-      </c>
+      <c r="T67" s="22"/>
       <c r="U67" s="21"/>
       <c r="V67" s="22"/>
       <c r="W67" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X67" s="21"/>
       <c r="Y67" s="21"/>
       <c r="Z67" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
@@ -22761,133 +22760,135 @@
       <c r="C68" s="23"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J68" s="20"/>
-      <c r="K68" s="20">
-        <v>4</v>
-      </c>
+      <c r="K68" s="20"/>
       <c r="L68" s="19"/>
       <c r="M68" s="20"/>
       <c r="N68" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
       <c r="Q68" s="19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
       <c r="U68" s="21"/>
       <c r="V68" s="22"/>
       <c r="W68" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X68" s="21"/>
       <c r="Y68" s="21"/>
       <c r="Z68" s="21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
-      <c r="B69" s="24">
-        <v>5</v>
-      </c>
+      <c r="B69" s="24"/>
       <c r="C69" s="23"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J69" s="19"/>
-      <c r="K69" s="20">
-        <v>5</v>
-      </c>
+      <c r="K69" s="20"/>
       <c r="L69" s="19"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
       <c r="Q69" s="19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S69" s="21"/>
       <c r="T69" s="22"/>
       <c r="U69" s="21"/>
       <c r="V69" s="22"/>
       <c r="W69" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X69" s="21"/>
       <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
+      <c r="Z69" s="21">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
-      <c r="B70" s="24">
-        <v>6</v>
-      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="23"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="H70" s="23">
+        <v>17</v>
+      </c>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="19"/>
       <c r="M70" s="20"/>
-      <c r="N70" s="20">
-        <v>11</v>
+      <c r="N70" s="19">
+        <v>9</v>
       </c>
       <c r="O70" s="19"/>
       <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
+      <c r="Q70" s="19">
+        <v>15</v>
+      </c>
       <c r="S70" s="21"/>
       <c r="T70" s="21"/>
       <c r="U70" s="21"/>
       <c r="V70" s="21"/>
       <c r="W70" s="22"/>
       <c r="X70" s="21"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="21">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
-      <c r="B71" s="24">
-        <v>7</v>
-      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="23"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="H71" s="23">
+        <v>18</v>
+      </c>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="19"/>
       <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
+      <c r="N71" s="19"/>
       <c r="O71" s="19"/>
       <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
+      <c r="Q71" s="19">
+        <v>16</v>
+      </c>
       <c r="S71" s="21"/>
       <c r="T71" s="21"/>
       <c r="U71" s="21"/>
@@ -22902,12 +22903,12 @@
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="24">
-        <v>15</v>
-      </c>
+      <c r="E72" s="24"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="H72" s="23">
+        <v>19</v>
+      </c>
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
@@ -22933,7 +22934,9 @@
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="H73" s="23">
+        <v>20</v>
+      </c>
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
@@ -22951,6 +22954,16 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+    </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>196</v>
@@ -23012,6 +23025,11 @@
         <v>205</v>
       </c>
       <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>373</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0DFDFB-5C77-BD4D-8C73-B3D68AB32AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B432693-2460-2147-A29D-1E9C4440F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" firstSheet="3" activeTab="6" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="7" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="553">
   <si>
     <t>Birde</t>
   </si>
@@ -1719,9 +1719,6 @@
   </si>
   <si>
     <t>橙卡*10</t>
-  </si>
-  <si>
-    <t>1 // 前几个奖励加快节奏凑数</t>
   </si>
   <si>
     <t>特殊球*1</t>
@@ -21884,7 +21881,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -24429,10 +24426,10 @@
   <dimension ref="A1:GY95"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="BI5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="DE41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BS19" sqref="BS19"/>
+      <selection pane="bottomRight" activeCell="DI22" sqref="DI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24775,7 +24772,7 @@
       <c r="CX2" s="53"/>
       <c r="CY2" s="53"/>
       <c r="CZ2" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="DA2" s="53"/>
       <c r="DB2" s="53"/>
@@ -24838,7 +24835,7 @@
         <v>476</v>
       </c>
       <c r="CP3" s="56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="CQ3" s="56"/>
       <c r="CR3" s="56"/>
@@ -24854,7 +24851,7 @@
       <c r="DB3" s="53"/>
       <c r="DC3" s="53"/>
       <c r="DL3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DO3" s="35" t="s">
         <v>299</v>
@@ -25133,49 +25130,49 @@
         <v>232</v>
       </c>
       <c r="CX4" t="s">
+        <v>534</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>529</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>531</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>532</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>533</v>
+      </c>
+      <c r="DD4" t="s">
         <v>535</v>
       </c>
-      <c r="CZ4" t="s">
-        <v>530</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>532</v>
-      </c>
-      <c r="DB4" t="s">
+      <c r="DE4" t="s">
         <v>533</v>
       </c>
-      <c r="DC4" t="s">
-        <v>534</v>
-      </c>
-      <c r="DD4" t="s">
+      <c r="DF4" t="s">
+        <v>547</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>537</v>
+      </c>
+      <c r="DH4" t="s">
         <v>536</v>
       </c>
-      <c r="DE4" t="s">
-        <v>534</v>
-      </c>
-      <c r="DF4" t="s">
+      <c r="DI4" t="s">
+        <v>538</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>546</v>
+      </c>
+      <c r="DK4" t="s">
         <v>548</v>
       </c>
-      <c r="DG4" t="s">
-        <v>538</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>537</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>539</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>547</v>
-      </c>
-      <c r="DK4" t="s">
+      <c r="DL4" t="s">
         <v>549</v>
       </c>
-      <c r="DL4" t="s">
-        <v>550</v>
-      </c>
       <c r="DM4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="DO4" t="s">
         <v>296</v>
@@ -41781,10 +41778,10 @@
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="K8" t="s">
+        <v>526</v>
+      </c>
+      <c r="P8" t="s">
         <v>527</v>
-      </c>
-      <c r="P8" t="s">
-        <v>528</v>
       </c>
       <c r="T8" s="25" t="s">
         <v>266</v>
@@ -58174,9 +58171,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D446" sqref="D446"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58224,7 +58221,7 @@
         <v>464</v>
       </c>
       <c r="M1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N1" t="s">
         <v>444</v>
@@ -58255,7 +58252,7 @@
       </c>
       <c r="O2">
         <f>SUM(F2:F417)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -58494,15 +58491,15 @@
         <f>IF(IFERROR(VLOOKUP(C13,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") = 0,"",IFERROR(VLOOKUP(C13,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") )</f>
         <v>4</v>
       </c>
-      <c r="F13" t="s">
-        <v>503</v>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13" t="str">
         <f>IF( IFERROR(VLOOKUP(C13,'Dungeon&amp;Framework'!CF:CM,8,FALSE),"") = 0, "",IFERROR(VLOOKUP(C13,'Dungeon&amp;Framework'!CF:CM,8,FALSE),""))</f>
         <v/>
       </c>
       <c r="H13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I13">
         <v>300</v>
@@ -58634,7 +58631,7 @@
         <v/>
       </c>
       <c r="H19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I19">
         <v>270</v>
@@ -58877,7 +58874,7 @@
         <v/>
       </c>
       <c r="H30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I30">
         <v>120</v>
@@ -59137,7 +59134,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>41</v>
       </c>
@@ -59145,23 +59142,13 @@
         <f>IF(IFERROR(VLOOKUP(C42,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") = 0,"",IFERROR(VLOOKUP(C42,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") )</f>
         <v/>
       </c>
-      <c r="G42" t="str">
-        <f>IF( IFERROR(VLOOKUP(C42,'Dungeon&amp;Framework'!CF:CM,8,FALSE),"") = 0, "",IFERROR(VLOOKUP(C42,'Dungeon&amp;Framework'!CF:CM,8,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="H42" t="s">
-        <v>506</v>
-      </c>
-      <c r="I42">
-        <v>120</v>
-      </c>
       <c r="L42">
         <f>SUM($I$2:I42)</f>
-        <v>3030</v>
+        <v>2910</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="43" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59178,11 +59165,11 @@
       </c>
       <c r="L43">
         <f>SUM($I$2:I43)</f>
-        <v>3030</v>
+        <v>2910</v>
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="44" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59199,11 +59186,11 @@
       </c>
       <c r="L44">
         <f>SUM($I$2:I44)</f>
-        <v>3030</v>
+        <v>2910</v>
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="45" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59220,11 +59207,11 @@
       </c>
       <c r="L45">
         <f>SUM($I$2:I45)</f>
-        <v>3030</v>
+        <v>2910</v>
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="46" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59241,11 +59228,11 @@
       </c>
       <c r="L46">
         <f>SUM($I$2:I46)</f>
-        <v>3030</v>
+        <v>2910</v>
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="47" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59262,11 +59249,11 @@
       </c>
       <c r="L47">
         <f>SUM($I$2:I47)</f>
-        <v>3030</v>
+        <v>2910</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.2">
@@ -59282,18 +59269,18 @@
         <v/>
       </c>
       <c r="H48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I48">
         <v>270</v>
       </c>
       <c r="L48">
         <f>SUM($I$2:I48)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="49" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59310,11 +59297,11 @@
       </c>
       <c r="L49">
         <f>SUM($I$2:I49)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="50" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59331,11 +59318,11 @@
       </c>
       <c r="L50">
         <f>SUM($I$2:I50)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="51" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59352,11 +59339,11 @@
       </c>
       <c r="L51">
         <f>SUM($I$2:I51)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="52" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59373,11 +59360,11 @@
       </c>
       <c r="L52">
         <f>SUM($I$2:I52)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="53" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59394,11 +59381,11 @@
       </c>
       <c r="L53">
         <f>SUM($I$2:I53)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="54" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59415,11 +59402,11 @@
       </c>
       <c r="L54">
         <f>SUM($I$2:I54)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="55" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59436,15 +59423,15 @@
       </c>
       <c r="J55">
         <f>SUM(I2:I48)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="L55">
         <f>SUM($I$2:I55)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="56" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59461,11 +59448,11 @@
       </c>
       <c r="L56">
         <f>SUM($I$2:I56)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="57" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59482,11 +59469,11 @@
       </c>
       <c r="L57">
         <f>SUM($I$2:I57)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="58" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59503,11 +59490,11 @@
       </c>
       <c r="L58">
         <f>SUM($I$2:I58)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="59" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59524,11 +59511,11 @@
       </c>
       <c r="L59">
         <f>SUM($I$2:I59)</f>
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.2">
@@ -59551,11 +59538,11 @@
       </c>
       <c r="L60">
         <f>SUM($I$2:I60)</f>
-        <v>3420</v>
+        <v>3300</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.2">
@@ -59581,11 +59568,11 @@
       </c>
       <c r="L61">
         <f>SUM($I$2:I61)</f>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>49.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59602,11 +59589,11 @@
       </c>
       <c r="L62">
         <f>SUM($I$2:I62)</f>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="M62">
         <f t="shared" si="0"/>
-        <v>49.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59623,11 +59610,11 @@
       </c>
       <c r="L63">
         <f>SUM($I$2:I63)</f>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="M63">
         <f t="shared" si="0"/>
-        <v>49.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59644,11 +59631,11 @@
       </c>
       <c r="L64">
         <f>SUM($I$2:I64)</f>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="M64">
         <f t="shared" si="0"/>
-        <v>49.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59665,11 +59652,11 @@
       </c>
       <c r="L65">
         <f>SUM($I$2:I65)</f>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="M65">
         <f t="shared" si="0"/>
-        <v>49.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.2">
@@ -59685,18 +59672,18 @@
         <v/>
       </c>
       <c r="H66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I66">
         <v>180</v>
       </c>
       <c r="L66">
         <f>SUM($I$2:I66)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="67" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59713,11 +59700,11 @@
       </c>
       <c r="L67">
         <f>SUM($I$2:I67)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M130" si="1">L67/100</f>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="68" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59734,11 +59721,11 @@
       </c>
       <c r="L68">
         <f>SUM($I$2:I68)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M68">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="69" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59755,11 +59742,11 @@
       </c>
       <c r="L69">
         <f>SUM($I$2:I69)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M69">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="70" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59776,11 +59763,11 @@
       </c>
       <c r="L70">
         <f>SUM($I$2:I70)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M70">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="71" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59797,11 +59784,11 @@
       </c>
       <c r="L71">
         <f>SUM($I$2:I71)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M71">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="72" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59818,11 +59805,11 @@
       </c>
       <c r="L72">
         <f>SUM($I$2:I72)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M72">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="73" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59839,11 +59826,11 @@
       </c>
       <c r="L73">
         <f>SUM($I$2:I73)</f>
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="M73">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.2">
@@ -59866,11 +59853,11 @@
       </c>
       <c r="L74">
         <f>SUM($I$2:I74)</f>
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="M74">
         <f t="shared" si="1"/>
-        <v>58.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59887,11 +59874,11 @@
       </c>
       <c r="L75">
         <f>SUM($I$2:I75)</f>
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="M75">
         <f t="shared" si="1"/>
-        <v>58.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59908,11 +59895,11 @@
       </c>
       <c r="L76">
         <f>SUM($I$2:I76)</f>
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="M76">
         <f t="shared" si="1"/>
-        <v>58.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59929,11 +59916,11 @@
       </c>
       <c r="L77">
         <f>SUM($I$2:I77)</f>
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="M77">
         <f t="shared" si="1"/>
-        <v>58.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59950,11 +59937,11 @@
       </c>
       <c r="L78">
         <f>SUM($I$2:I78)</f>
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="M78">
         <f t="shared" si="1"/>
-        <v>58.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -59971,11 +59958,11 @@
       </c>
       <c r="L79">
         <f>SUM($I$2:I79)</f>
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="M79">
         <f t="shared" si="1"/>
-        <v>58.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.2">
@@ -59991,18 +59978,18 @@
         <v/>
       </c>
       <c r="H80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I80">
         <v>750</v>
       </c>
       <c r="L80">
         <f>SUM($I$2:I80)</f>
-        <v>6570</v>
+        <v>6450</v>
       </c>
       <c r="M80">
         <f t="shared" si="1"/>
-        <v>65.7</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.2">
@@ -60013,20 +60000,26 @@
         <f>IF(IFERROR(VLOOKUP(C81,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") = 0,"",IFERROR(VLOOKUP(C81,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") )</f>
         <v/>
       </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
       <c r="G81" t="str">
         <f>IF( IFERROR(VLOOKUP(C81,'Dungeon&amp;Framework'!CF:CM,8,FALSE),"") = 0, "",IFERROR(VLOOKUP(C81,'Dungeon&amp;Framework'!CF:CM,8,FALSE),""))</f>
         <v/>
       </c>
       <c r="H81" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="I81">
+        <v>500</v>
       </c>
       <c r="L81">
         <f>SUM($I$2:I81)</f>
-        <v>6570</v>
+        <v>6950</v>
       </c>
       <c r="M81">
         <f t="shared" si="1"/>
-        <v>65.7</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="82" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60043,11 +60036,11 @@
       </c>
       <c r="L82">
         <f>SUM($I$2:I82)</f>
-        <v>6570</v>
+        <v>6950</v>
       </c>
       <c r="M82">
         <f t="shared" si="1"/>
-        <v>65.7</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="83" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60064,11 +60057,11 @@
       </c>
       <c r="L83">
         <f>SUM($I$2:I83)</f>
-        <v>6570</v>
+        <v>6950</v>
       </c>
       <c r="M83">
         <f t="shared" si="1"/>
-        <v>65.7</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="84" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60085,11 +60078,11 @@
       </c>
       <c r="L84">
         <f>SUM($I$2:I84)</f>
-        <v>6570</v>
+        <v>6950</v>
       </c>
       <c r="M84">
         <f t="shared" si="1"/>
-        <v>65.7</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="85" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60106,11 +60099,11 @@
       </c>
       <c r="L85">
         <f>SUM($I$2:I85)</f>
-        <v>6570</v>
+        <v>6950</v>
       </c>
       <c r="M85">
         <f t="shared" si="1"/>
-        <v>65.7</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.2">
@@ -60126,18 +60119,18 @@
         <v/>
       </c>
       <c r="H86" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I86">
         <v>300</v>
       </c>
       <c r="L86">
         <f>SUM($I$2:I86)</f>
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="M86">
         <f t="shared" si="1"/>
-        <v>68.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="87" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60154,11 +60147,11 @@
       </c>
       <c r="L87">
         <f>SUM($I$2:I87)</f>
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="M87">
         <f t="shared" si="1"/>
-        <v>68.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="88" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60175,11 +60168,11 @@
       </c>
       <c r="L88">
         <f>SUM($I$2:I88)</f>
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="M88">
         <f t="shared" si="1"/>
-        <v>68.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="89" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60196,11 +60189,11 @@
       </c>
       <c r="L89">
         <f>SUM($I$2:I89)</f>
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="M89">
         <f t="shared" si="1"/>
-        <v>68.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="90" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60217,11 +60210,11 @@
       </c>
       <c r="L90">
         <f>SUM($I$2:I90)</f>
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="M90">
         <f t="shared" si="1"/>
-        <v>68.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.2">
@@ -60232,9 +60225,6 @@
         <f>IF(IFERROR(VLOOKUP(C91,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") = 0,"",IFERROR(VLOOKUP(C91,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") )</f>
         <v>10</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
       <c r="G91" t="str">
         <f>IF( IFERROR(VLOOKUP(C91,'Dungeon&amp;Framework'!CF:CM,8,FALSE),"") = 0, "",IFERROR(VLOOKUP(C91,'Dungeon&amp;Framework'!CF:CM,8,FALSE),""))</f>
         <v/>
@@ -60247,11 +60237,11 @@
       </c>
       <c r="L91">
         <f>SUM($I$2:I91)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M91">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="92" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60268,11 +60258,11 @@
       </c>
       <c r="L92">
         <f>SUM($I$2:I92)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M92">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="93" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60289,11 +60279,11 @@
       </c>
       <c r="L93">
         <f>SUM($I$2:I93)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M93">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="94" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60310,11 +60300,11 @@
       </c>
       <c r="L94">
         <f>SUM($I$2:I94)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M94">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="95" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60331,11 +60321,11 @@
       </c>
       <c r="L95">
         <f>SUM($I$2:I95)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M95">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="96" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60352,11 +60342,11 @@
       </c>
       <c r="L96">
         <f>SUM($I$2:I96)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M96">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="97" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60373,11 +60363,11 @@
       </c>
       <c r="L97">
         <f>SUM($I$2:I97)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M97">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="98" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60394,11 +60384,11 @@
       </c>
       <c r="L98">
         <f>SUM($I$2:I98)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M98">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="99" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60415,11 +60405,11 @@
       </c>
       <c r="L99">
         <f>SUM($I$2:I99)</f>
-        <v>7590</v>
+        <v>7970</v>
       </c>
       <c r="M99">
         <f t="shared" si="1"/>
-        <v>75.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="100" spans="3:13" x14ac:dyDescent="0.2">
@@ -60435,18 +60425,18 @@
         <v/>
       </c>
       <c r="H100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I100">
         <v>300</v>
       </c>
       <c r="L100">
         <f>SUM($I$2:I100)</f>
-        <v>7890</v>
+        <v>8270</v>
       </c>
       <c r="M100">
         <f t="shared" si="1"/>
-        <v>78.900000000000006</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="101" spans="3:13" x14ac:dyDescent="0.2">
@@ -60457,23 +60447,26 @@
         <f>IF(IFERROR(VLOOKUP(C101,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") = 0,"",IFERROR(VLOOKUP(C101,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") )</f>
         <v/>
       </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
       <c r="G101" t="str">
         <f>IF( IFERROR(VLOOKUP(C101,'Dungeon&amp;Framework'!CF:CM,8,FALSE),"") = 0, "",IFERROR(VLOOKUP(C101,'Dungeon&amp;Framework'!CF:CM,8,FALSE),""))</f>
         <v/>
       </c>
       <c r="H101" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I101">
         <v>2000</v>
       </c>
       <c r="L101">
         <f>SUM($I$2:I101)</f>
-        <v>9890</v>
+        <v>10270</v>
       </c>
       <c r="M101">
         <f t="shared" si="1"/>
-        <v>98.9</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="102" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60490,11 +60483,11 @@
       </c>
       <c r="L102">
         <f>SUM($I$2:I102)</f>
-        <v>9890</v>
+        <v>10270</v>
       </c>
       <c r="M102">
         <f t="shared" si="1"/>
-        <v>98.9</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="103" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60511,11 +60504,11 @@
       </c>
       <c r="L103">
         <f>SUM($I$2:I103)</f>
-        <v>9890</v>
+        <v>10270</v>
       </c>
       <c r="M103">
         <f t="shared" si="1"/>
-        <v>98.9</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="104" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60532,11 +60525,11 @@
       </c>
       <c r="L104">
         <f>SUM($I$2:I104)</f>
-        <v>9890</v>
+        <v>10270</v>
       </c>
       <c r="M104">
         <f t="shared" si="1"/>
-        <v>98.9</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="105" spans="3:13" x14ac:dyDescent="0.2">
@@ -60552,18 +60545,18 @@
         <v/>
       </c>
       <c r="H105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I105">
         <v>360</v>
       </c>
       <c r="L105">
         <f>SUM($I$2:I105)</f>
-        <v>10250</v>
+        <v>10630</v>
       </c>
       <c r="M105">
         <f t="shared" si="1"/>
-        <v>102.5</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="106" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60580,11 +60573,11 @@
       </c>
       <c r="L106">
         <f>SUM($I$2:I106)</f>
-        <v>10250</v>
+        <v>10630</v>
       </c>
       <c r="M106">
         <f t="shared" si="1"/>
-        <v>102.5</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="107" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60601,11 +60594,11 @@
       </c>
       <c r="L107">
         <f>SUM($I$2:I107)</f>
-        <v>10250</v>
+        <v>10630</v>
       </c>
       <c r="M107">
         <f t="shared" si="1"/>
-        <v>102.5</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="108" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60622,11 +60615,11 @@
       </c>
       <c r="L108">
         <f>SUM($I$2:I108)</f>
-        <v>10250</v>
+        <v>10630</v>
       </c>
       <c r="M108">
         <f t="shared" si="1"/>
-        <v>102.5</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="109" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60643,11 +60636,11 @@
       </c>
       <c r="L109">
         <f>SUM($I$2:I109)</f>
-        <v>10250</v>
+        <v>10630</v>
       </c>
       <c r="M109">
         <f t="shared" si="1"/>
-        <v>102.5</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="110" spans="3:13" x14ac:dyDescent="0.2">
@@ -60663,18 +60656,18 @@
         <v/>
       </c>
       <c r="H110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I110">
         <v>200</v>
       </c>
       <c r="L110">
         <f>SUM($I$2:I110)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M110">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="111" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60691,11 +60684,11 @@
       </c>
       <c r="L111">
         <f>SUM($I$2:I111)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M111">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="112" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60712,11 +60705,11 @@
       </c>
       <c r="L112">
         <f>SUM($I$2:I112)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M112">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="113" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60733,11 +60726,11 @@
       </c>
       <c r="L113">
         <f>SUM($I$2:I113)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M113">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="114" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60754,11 +60747,11 @@
       </c>
       <c r="L114">
         <f>SUM($I$2:I114)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M114">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="115" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60775,11 +60768,11 @@
       </c>
       <c r="L115">
         <f>SUM($I$2:I115)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M115">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="116" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60796,11 +60789,11 @@
       </c>
       <c r="L116">
         <f>SUM($I$2:I116)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M116">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="117" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60817,11 +60810,11 @@
       </c>
       <c r="L117">
         <f>SUM($I$2:I117)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M117">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="118" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60838,11 +60831,11 @@
       </c>
       <c r="L118">
         <f>SUM($I$2:I118)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M118">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="119" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60859,11 +60852,11 @@
       </c>
       <c r="L119">
         <f>SUM($I$2:I119)</f>
-        <v>10450</v>
+        <v>10830</v>
       </c>
       <c r="M119">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="120" spans="3:13" x14ac:dyDescent="0.2">
@@ -60879,18 +60872,18 @@
         <v/>
       </c>
       <c r="H120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I120">
         <v>2500</v>
       </c>
       <c r="L120">
         <f>SUM($I$2:I120)</f>
-        <v>12950</v>
+        <v>13330</v>
       </c>
       <c r="M120">
         <f t="shared" si="1"/>
-        <v>129.5</v>
+        <v>133.30000000000001</v>
       </c>
     </row>
     <row r="121" spans="3:13" x14ac:dyDescent="0.2">
@@ -60916,15 +60909,15 @@
       </c>
       <c r="J121">
         <f>SUM(I59:I123)</f>
-        <v>10150</v>
+        <v>10650</v>
       </c>
       <c r="L121">
         <f>SUM($I$2:I121)</f>
-        <v>13450</v>
+        <v>13830</v>
       </c>
       <c r="M121">
         <f t="shared" si="1"/>
-        <v>134.5</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="122" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60941,11 +60934,11 @@
       </c>
       <c r="L122">
         <f>SUM($I$2:I122)</f>
-        <v>13450</v>
+        <v>13830</v>
       </c>
       <c r="M122">
         <f t="shared" si="1"/>
-        <v>134.5</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="123" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60962,11 +60955,11 @@
       </c>
       <c r="L123">
         <f>SUM($I$2:I123)</f>
-        <v>13450</v>
+        <v>13830</v>
       </c>
       <c r="M123">
         <f t="shared" si="1"/>
-        <v>134.5</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="124" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -60983,11 +60976,11 @@
       </c>
       <c r="L124">
         <f>SUM($I$2:I124)</f>
-        <v>13450</v>
+        <v>13830</v>
       </c>
       <c r="M124">
         <f t="shared" si="1"/>
-        <v>134.5</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="125" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61004,11 +60997,11 @@
       </c>
       <c r="L125">
         <f>SUM($I$2:I125)</f>
-        <v>13450</v>
+        <v>13830</v>
       </c>
       <c r="M125">
         <f t="shared" si="1"/>
-        <v>134.5</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="126" spans="3:13" x14ac:dyDescent="0.2">
@@ -61024,18 +61017,18 @@
         <v/>
       </c>
       <c r="H126" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I126">
         <v>750</v>
       </c>
       <c r="L126">
         <f>SUM($I$2:I126)</f>
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="M126">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="127" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61052,11 +61045,11 @@
       </c>
       <c r="L127">
         <f>SUM($I$2:I127)</f>
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="M127">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="128" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61073,11 +61066,11 @@
       </c>
       <c r="L128">
         <f>SUM($I$2:I128)</f>
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="M128">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="129" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61094,11 +61087,11 @@
       </c>
       <c r="L129">
         <f>SUM($I$2:I129)</f>
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="M129">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="130" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61115,11 +61108,11 @@
       </c>
       <c r="L130">
         <f>SUM($I$2:I130)</f>
-        <v>14200</v>
+        <v>14580</v>
       </c>
       <c r="M130">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="131" spans="3:13" x14ac:dyDescent="0.2">
@@ -61135,18 +61128,18 @@
         <v/>
       </c>
       <c r="H131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I131">
         <v>600</v>
       </c>
       <c r="L131">
         <f>SUM($I$2:I131)</f>
-        <v>14800</v>
+        <v>15180</v>
       </c>
       <c r="M131">
         <f t="shared" ref="M131:M194" si="2">L131/100</f>
-        <v>148</v>
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="132" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61163,11 +61156,11 @@
       </c>
       <c r="L132">
         <f>SUM($I$2:I132)</f>
-        <v>14800</v>
+        <v>15180</v>
       </c>
       <c r="M132">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="133" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61184,11 +61177,11 @@
       </c>
       <c r="L133">
         <f>SUM($I$2:I133)</f>
-        <v>14800</v>
+        <v>15180</v>
       </c>
       <c r="M133">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="134" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61205,11 +61198,11 @@
       </c>
       <c r="L134">
         <f>SUM($I$2:I134)</f>
-        <v>14800</v>
+        <v>15180</v>
       </c>
       <c r="M134">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="135" spans="3:13" x14ac:dyDescent="0.2">
@@ -61225,18 +61218,18 @@
         <v/>
       </c>
       <c r="H135" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I135">
         <v>360</v>
       </c>
       <c r="L135">
         <f>SUM($I$2:I135)</f>
-        <v>15160</v>
+        <v>15540</v>
       </c>
       <c r="M135">
         <f t="shared" si="2"/>
-        <v>151.6</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="136" spans="3:13" x14ac:dyDescent="0.2">
@@ -61255,18 +61248,18 @@
         <v/>
       </c>
       <c r="H136" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I136">
         <v>3000</v>
       </c>
       <c r="L136">
         <f>SUM($I$2:I136)</f>
-        <v>18160</v>
+        <v>18540</v>
       </c>
       <c r="M136">
         <f t="shared" si="2"/>
-        <v>181.6</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="137" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61283,11 +61276,11 @@
       </c>
       <c r="L137">
         <f>SUM($I$2:I137)</f>
-        <v>18160</v>
+        <v>18540</v>
       </c>
       <c r="M137">
         <f t="shared" si="2"/>
-        <v>181.6</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="138" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61304,11 +61297,11 @@
       </c>
       <c r="L138">
         <f>SUM($I$2:I138)</f>
-        <v>18160</v>
+        <v>18540</v>
       </c>
       <c r="M138">
         <f t="shared" si="2"/>
-        <v>181.6</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="139" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61325,11 +61318,11 @@
       </c>
       <c r="L139">
         <f>SUM($I$2:I139)</f>
-        <v>18160</v>
+        <v>18540</v>
       </c>
       <c r="M139">
         <f t="shared" si="2"/>
-        <v>181.6</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="140" spans="3:13" x14ac:dyDescent="0.2">
@@ -61345,18 +61338,18 @@
         <v/>
       </c>
       <c r="H140" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I140">
         <v>3000</v>
       </c>
       <c r="L140">
         <f>SUM($I$2:I140)</f>
-        <v>21160</v>
+        <v>21540</v>
       </c>
       <c r="M140">
         <f t="shared" si="2"/>
-        <v>211.6</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="141" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61373,11 +61366,11 @@
       </c>
       <c r="L141">
         <f>SUM($I$2:I141)</f>
-        <v>21160</v>
+        <v>21540</v>
       </c>
       <c r="M141">
         <f t="shared" si="2"/>
-        <v>211.6</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="142" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61394,11 +61387,11 @@
       </c>
       <c r="L142">
         <f>SUM($I$2:I142)</f>
-        <v>21160</v>
+        <v>21540</v>
       </c>
       <c r="M142">
         <f t="shared" si="2"/>
-        <v>211.6</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="143" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61415,11 +61408,11 @@
       </c>
       <c r="L143">
         <f>SUM($I$2:I143)</f>
-        <v>21160</v>
+        <v>21540</v>
       </c>
       <c r="M143">
         <f t="shared" si="2"/>
-        <v>211.6</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="144" spans="3:13" x14ac:dyDescent="0.2">
@@ -61435,18 +61428,18 @@
         <v/>
       </c>
       <c r="H144" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I144">
         <v>500</v>
       </c>
       <c r="L144">
         <f>SUM($I$2:I144)</f>
-        <v>21660</v>
+        <v>22040</v>
       </c>
       <c r="M144">
         <f t="shared" si="2"/>
-        <v>216.6</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="145" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61463,11 +61456,11 @@
       </c>
       <c r="L145">
         <f>SUM($I$2:I145)</f>
-        <v>21660</v>
+        <v>22040</v>
       </c>
       <c r="M145">
         <f t="shared" si="2"/>
-        <v>216.6</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="146" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61484,11 +61477,11 @@
       </c>
       <c r="L146">
         <f>SUM($I$2:I146)</f>
-        <v>21660</v>
+        <v>22040</v>
       </c>
       <c r="M146">
         <f t="shared" si="2"/>
-        <v>216.6</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="147" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61505,11 +61498,11 @@
       </c>
       <c r="L147">
         <f>SUM($I$2:I147)</f>
-        <v>21660</v>
+        <v>22040</v>
       </c>
       <c r="M147">
         <f t="shared" si="2"/>
-        <v>216.6</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="148" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61526,11 +61519,11 @@
       </c>
       <c r="L148">
         <f>SUM($I$2:I148)</f>
-        <v>21660</v>
+        <v>22040</v>
       </c>
       <c r="M148">
         <f t="shared" si="2"/>
-        <v>216.6</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="149" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61547,11 +61540,11 @@
       </c>
       <c r="L149">
         <f>SUM($I$2:I149)</f>
-        <v>21660</v>
+        <v>22040</v>
       </c>
       <c r="M149">
         <f t="shared" si="2"/>
-        <v>216.6</v>
+        <v>220.4</v>
       </c>
     </row>
     <row r="150" spans="3:13" x14ac:dyDescent="0.2">
@@ -61574,11 +61567,11 @@
       </c>
       <c r="L150">
         <f>SUM($I$2:I150)</f>
-        <v>22380</v>
+        <v>22760</v>
       </c>
       <c r="M150">
         <f t="shared" si="2"/>
-        <v>223.8</v>
+        <v>227.6</v>
       </c>
     </row>
     <row r="151" spans="3:13" x14ac:dyDescent="0.2">
@@ -61597,18 +61590,18 @@
         <v/>
       </c>
       <c r="H151" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I151">
         <v>2500</v>
       </c>
       <c r="L151">
         <f>SUM($I$2:I151)</f>
-        <v>24880</v>
+        <v>25260</v>
       </c>
       <c r="M151">
         <f t="shared" si="2"/>
-        <v>248.8</v>
+        <v>252.6</v>
       </c>
     </row>
     <row r="152" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61625,11 +61618,11 @@
       </c>
       <c r="L152">
         <f>SUM($I$2:I152)</f>
-        <v>24880</v>
+        <v>25260</v>
       </c>
       <c r="M152">
         <f t="shared" si="2"/>
-        <v>248.8</v>
+        <v>252.6</v>
       </c>
     </row>
     <row r="153" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61646,11 +61639,11 @@
       </c>
       <c r="L153">
         <f>SUM($I$2:I153)</f>
-        <v>24880</v>
+        <v>25260</v>
       </c>
       <c r="M153">
         <f t="shared" si="2"/>
-        <v>248.8</v>
+        <v>252.6</v>
       </c>
     </row>
     <row r="154" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61667,11 +61660,11 @@
       </c>
       <c r="L154">
         <f>SUM($I$2:I154)</f>
-        <v>24880</v>
+        <v>25260</v>
       </c>
       <c r="M154">
         <f t="shared" si="2"/>
-        <v>248.8</v>
+        <v>252.6</v>
       </c>
     </row>
     <row r="155" spans="3:13" x14ac:dyDescent="0.2">
@@ -61694,11 +61687,11 @@
       </c>
       <c r="L155">
         <f>SUM($I$2:I155)</f>
-        <v>26380</v>
+        <v>26760</v>
       </c>
       <c r="M155">
         <f t="shared" si="2"/>
-        <v>263.8</v>
+        <v>267.60000000000002</v>
       </c>
     </row>
     <row r="156" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61715,11 +61708,11 @@
       </c>
       <c r="L156">
         <f>SUM($I$2:I156)</f>
-        <v>26380</v>
+        <v>26760</v>
       </c>
       <c r="M156">
         <f t="shared" si="2"/>
-        <v>263.8</v>
+        <v>267.60000000000002</v>
       </c>
     </row>
     <row r="157" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61736,11 +61729,11 @@
       </c>
       <c r="L157">
         <f>SUM($I$2:I157)</f>
-        <v>26380</v>
+        <v>26760</v>
       </c>
       <c r="M157">
         <f t="shared" si="2"/>
-        <v>263.8</v>
+        <v>267.60000000000002</v>
       </c>
     </row>
     <row r="158" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61757,11 +61750,11 @@
       </c>
       <c r="L158">
         <f>SUM($I$2:I158)</f>
-        <v>26380</v>
+        <v>26760</v>
       </c>
       <c r="M158">
         <f t="shared" si="2"/>
-        <v>263.8</v>
+        <v>267.60000000000002</v>
       </c>
     </row>
     <row r="159" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61779,11 +61772,11 @@
       <c r="J159" s="7"/>
       <c r="L159">
         <f>SUM($I$2:I159)</f>
-        <v>26380</v>
+        <v>26760</v>
       </c>
       <c r="M159">
         <f t="shared" si="2"/>
-        <v>263.8</v>
+        <v>267.60000000000002</v>
       </c>
     </row>
     <row r="160" spans="3:13" x14ac:dyDescent="0.2">
@@ -61799,7 +61792,7 @@
         <v/>
       </c>
       <c r="H160" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I160">
         <v>2000</v>
@@ -61807,11 +61800,11 @@
       <c r="J160" s="7"/>
       <c r="L160">
         <f>SUM($I$2:I160)</f>
-        <v>28380</v>
+        <v>28760</v>
       </c>
       <c r="M160">
         <f t="shared" si="2"/>
-        <v>283.8</v>
+        <v>287.60000000000002</v>
       </c>
     </row>
     <row r="161" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61829,11 +61822,11 @@
       <c r="J161" s="7"/>
       <c r="L161">
         <f>SUM($I$2:I161)</f>
-        <v>28380</v>
+        <v>28760</v>
       </c>
       <c r="M161">
         <f t="shared" si="2"/>
-        <v>283.8</v>
+        <v>287.60000000000002</v>
       </c>
     </row>
     <row r="162" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61851,11 +61844,11 @@
       <c r="J162" s="7"/>
       <c r="L162">
         <f>SUM($I$2:I162)</f>
-        <v>28380</v>
+        <v>28760</v>
       </c>
       <c r="M162">
         <f t="shared" si="2"/>
-        <v>283.8</v>
+        <v>287.60000000000002</v>
       </c>
     </row>
     <row r="163" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61873,11 +61866,11 @@
       <c r="J163" s="7"/>
       <c r="L163">
         <f>SUM($I$2:I163)</f>
-        <v>28380</v>
+        <v>28760</v>
       </c>
       <c r="M163">
         <f t="shared" si="2"/>
-        <v>283.8</v>
+        <v>287.60000000000002</v>
       </c>
     </row>
     <row r="164" spans="3:13" x14ac:dyDescent="0.2">
@@ -61893,7 +61886,7 @@
         <v/>
       </c>
       <c r="H164" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I164">
         <v>1200</v>
@@ -61901,11 +61894,11 @@
       <c r="J164" s="7"/>
       <c r="L164">
         <f>SUM($I$2:I164)</f>
-        <v>29580</v>
+        <v>29960</v>
       </c>
       <c r="M164">
         <f t="shared" si="2"/>
-        <v>295.8</v>
+        <v>299.60000000000002</v>
       </c>
     </row>
     <row r="165" spans="3:13" x14ac:dyDescent="0.2">
@@ -61924,7 +61917,7 @@
         <v/>
       </c>
       <c r="H165" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I165">
         <v>2500</v>
@@ -61932,11 +61925,11 @@
       <c r="J165" s="7"/>
       <c r="L165">
         <f>SUM($I$2:I165)</f>
-        <v>32080</v>
+        <v>32460</v>
       </c>
       <c r="M165">
         <f t="shared" si="2"/>
-        <v>320.8</v>
+        <v>324.60000000000002</v>
       </c>
     </row>
     <row r="166" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61954,11 +61947,11 @@
       <c r="J166" s="7"/>
       <c r="L166">
         <f>SUM($I$2:I166)</f>
-        <v>32080</v>
+        <v>32460</v>
       </c>
       <c r="M166">
         <f t="shared" si="2"/>
-        <v>320.8</v>
+        <v>324.60000000000002</v>
       </c>
     </row>
     <row r="167" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61976,11 +61969,11 @@
       <c r="J167" s="7"/>
       <c r="L167">
         <f>SUM($I$2:I167)</f>
-        <v>32080</v>
+        <v>32460</v>
       </c>
       <c r="M167">
         <f t="shared" si="2"/>
-        <v>320.8</v>
+        <v>324.60000000000002</v>
       </c>
     </row>
     <row r="168" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -61998,11 +61991,11 @@
       <c r="J168" s="7"/>
       <c r="L168">
         <f>SUM($I$2:I168)</f>
-        <v>32080</v>
+        <v>32460</v>
       </c>
       <c r="M168">
         <f t="shared" si="2"/>
-        <v>320.8</v>
+        <v>324.60000000000002</v>
       </c>
     </row>
     <row r="169" spans="3:13" x14ac:dyDescent="0.2">
@@ -62026,11 +62019,11 @@
       <c r="J169" s="7"/>
       <c r="L169">
         <f>SUM($I$2:I169)</f>
-        <v>32800</v>
+        <v>33180</v>
       </c>
       <c r="M169">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>331.8</v>
       </c>
     </row>
     <row r="170" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62048,11 +62041,11 @@
       <c r="J170" s="7"/>
       <c r="L170">
         <f>SUM($I$2:I170)</f>
-        <v>32800</v>
+        <v>33180</v>
       </c>
       <c r="M170">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>331.8</v>
       </c>
     </row>
     <row r="171" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62070,11 +62063,11 @@
       <c r="J171" s="7"/>
       <c r="L171">
         <f>SUM($I$2:I171)</f>
-        <v>32800</v>
+        <v>33180</v>
       </c>
       <c r="M171">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>331.8</v>
       </c>
     </row>
     <row r="172" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62092,11 +62085,11 @@
       <c r="J172" s="7"/>
       <c r="L172">
         <f>SUM($I$2:I172)</f>
-        <v>32800</v>
+        <v>33180</v>
       </c>
       <c r="M172">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>331.8</v>
       </c>
     </row>
     <row r="173" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62114,11 +62107,11 @@
       <c r="J173" s="7"/>
       <c r="L173">
         <f>SUM($I$2:I173)</f>
-        <v>32800</v>
+        <v>33180</v>
       </c>
       <c r="M173">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>331.8</v>
       </c>
     </row>
     <row r="174" spans="3:13" x14ac:dyDescent="0.2">
@@ -62134,7 +62127,7 @@
         <v/>
       </c>
       <c r="H174" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I174">
         <v>750</v>
@@ -62142,11 +62135,11 @@
       <c r="J174" s="7"/>
       <c r="L174">
         <f>SUM($I$2:I174)</f>
-        <v>33550</v>
+        <v>33930</v>
       </c>
       <c r="M174">
         <f t="shared" si="2"/>
-        <v>335.5</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="175" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62164,11 +62157,11 @@
       <c r="J175" s="7"/>
       <c r="L175">
         <f>SUM($I$2:I175)</f>
-        <v>33550</v>
+        <v>33930</v>
       </c>
       <c r="M175">
         <f t="shared" si="2"/>
-        <v>335.5</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="176" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62186,11 +62179,11 @@
       <c r="J176" s="7"/>
       <c r="L176">
         <f>SUM($I$2:I176)</f>
-        <v>33550</v>
+        <v>33930</v>
       </c>
       <c r="M176">
         <f t="shared" si="2"/>
-        <v>335.5</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="177" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62208,11 +62201,11 @@
       <c r="J177" s="7"/>
       <c r="L177">
         <f>SUM($I$2:I177)</f>
-        <v>33550</v>
+        <v>33930</v>
       </c>
       <c r="M177">
         <f t="shared" si="2"/>
-        <v>335.5</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="178" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62230,11 +62223,11 @@
       <c r="J178" s="7"/>
       <c r="L178">
         <f>SUM($I$2:I178)</f>
-        <v>33550</v>
+        <v>33930</v>
       </c>
       <c r="M178">
         <f t="shared" si="2"/>
-        <v>335.5</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="179" spans="3:13" x14ac:dyDescent="0.2">
@@ -62250,7 +62243,7 @@
         <v/>
       </c>
       <c r="H179" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I179">
         <v>2500</v>
@@ -62258,11 +62251,11 @@
       <c r="J179" s="7"/>
       <c r="L179">
         <f>SUM($I$2:I179)</f>
-        <v>36050</v>
+        <v>36430</v>
       </c>
       <c r="M179">
         <f t="shared" si="2"/>
-        <v>360.5</v>
+        <v>364.3</v>
       </c>
     </row>
     <row r="180" spans="3:13" x14ac:dyDescent="0.2">
@@ -62281,7 +62274,7 @@
         <v/>
       </c>
       <c r="H180" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I180">
         <v>3000</v>
@@ -62289,11 +62282,11 @@
       <c r="J180" s="7"/>
       <c r="L180">
         <f>SUM($I$2:I180)</f>
-        <v>39050</v>
+        <v>39430</v>
       </c>
       <c r="M180">
         <f t="shared" si="2"/>
-        <v>390.5</v>
+        <v>394.3</v>
       </c>
     </row>
     <row r="181" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62311,11 +62304,11 @@
       <c r="J181" s="7"/>
       <c r="L181">
         <f>SUM($I$2:I181)</f>
-        <v>39050</v>
+        <v>39430</v>
       </c>
       <c r="M181">
         <f t="shared" si="2"/>
-        <v>390.5</v>
+        <v>394.3</v>
       </c>
     </row>
     <row r="182" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62333,11 +62326,11 @@
       <c r="J182" s="7"/>
       <c r="L182">
         <f>SUM($I$2:I182)</f>
-        <v>39050</v>
+        <v>39430</v>
       </c>
       <c r="M182">
         <f t="shared" si="2"/>
-        <v>390.5</v>
+        <v>394.3</v>
       </c>
     </row>
     <row r="183" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62355,11 +62348,11 @@
       <c r="J183" s="7"/>
       <c r="L183">
         <f>SUM($I$2:I183)</f>
-        <v>39050</v>
+        <v>39430</v>
       </c>
       <c r="M183">
         <f t="shared" si="2"/>
-        <v>390.5</v>
+        <v>394.3</v>
       </c>
     </row>
     <row r="184" spans="3:13" x14ac:dyDescent="0.2">
@@ -62375,7 +62368,7 @@
         <v/>
       </c>
       <c r="H184" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I184">
         <v>360</v>
@@ -62383,11 +62376,11 @@
       <c r="J184" s="7"/>
       <c r="L184">
         <f>SUM($I$2:I184)</f>
-        <v>39410</v>
+        <v>39790</v>
       </c>
       <c r="M184">
         <f t="shared" si="2"/>
-        <v>394.1</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="185" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62405,11 +62398,11 @@
       <c r="J185" s="7"/>
       <c r="L185">
         <f>SUM($I$2:I185)</f>
-        <v>39410</v>
+        <v>39790</v>
       </c>
       <c r="M185">
         <f t="shared" si="2"/>
-        <v>394.1</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="186" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62427,11 +62420,11 @@
       <c r="J186" s="7"/>
       <c r="L186">
         <f>SUM($I$2:I186)</f>
-        <v>39410</v>
+        <v>39790</v>
       </c>
       <c r="M186">
         <f t="shared" si="2"/>
-        <v>394.1</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="187" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62449,11 +62442,11 @@
       <c r="J187" s="7"/>
       <c r="L187">
         <f>SUM($I$2:I187)</f>
-        <v>39410</v>
+        <v>39790</v>
       </c>
       <c r="M187">
         <f t="shared" si="2"/>
-        <v>394.1</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="188" spans="3:13" x14ac:dyDescent="0.2">
@@ -62477,11 +62470,11 @@
       <c r="J188" s="7"/>
       <c r="L188">
         <f>SUM($I$2:I188)</f>
-        <v>40130</v>
+        <v>40510</v>
       </c>
       <c r="M188">
         <f t="shared" si="2"/>
-        <v>401.3</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="189" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62498,11 +62491,11 @@
       </c>
       <c r="L189">
         <f>SUM($I$2:I189)</f>
-        <v>40130</v>
+        <v>40510</v>
       </c>
       <c r="M189">
         <f t="shared" si="2"/>
-        <v>401.3</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="190" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62519,11 +62512,11 @@
       </c>
       <c r="L190">
         <f>SUM($I$2:I190)</f>
-        <v>40130</v>
+        <v>40510</v>
       </c>
       <c r="M190">
         <f t="shared" si="2"/>
-        <v>401.3</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="191" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62540,11 +62533,11 @@
       </c>
       <c r="L191">
         <f>SUM($I$2:I191)</f>
-        <v>40130</v>
+        <v>40510</v>
       </c>
       <c r="M191">
         <f t="shared" si="2"/>
-        <v>401.3</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="192" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62561,11 +62554,11 @@
       </c>
       <c r="L192">
         <f>SUM($I$2:I192)</f>
-        <v>40130</v>
+        <v>40510</v>
       </c>
       <c r="M192">
         <f t="shared" si="2"/>
-        <v>401.3</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="193" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62582,11 +62575,11 @@
       </c>
       <c r="L193">
         <f>SUM($I$2:I193)</f>
-        <v>40130</v>
+        <v>40510</v>
       </c>
       <c r="M193">
         <f t="shared" si="2"/>
-        <v>401.3</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="194" spans="3:13" x14ac:dyDescent="0.2">
@@ -62602,18 +62595,18 @@
         <v/>
       </c>
       <c r="H194" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I194">
         <v>1200</v>
       </c>
       <c r="L194">
         <f>SUM($I$2:I194)</f>
-        <v>41330</v>
+        <v>41710</v>
       </c>
       <c r="M194">
         <f t="shared" si="2"/>
-        <v>413.3</v>
+        <v>417.1</v>
       </c>
     </row>
     <row r="195" spans="3:13" x14ac:dyDescent="0.2">
@@ -62639,11 +62632,11 @@
       </c>
       <c r="L195">
         <f>SUM($I$2:I195)</f>
-        <v>41830</v>
+        <v>42210</v>
       </c>
       <c r="M195">
         <f t="shared" ref="M195:M258" si="3">L195/100</f>
-        <v>418.3</v>
+        <v>422.1</v>
       </c>
     </row>
     <row r="196" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62660,11 +62653,11 @@
       </c>
       <c r="L196">
         <f>SUM($I$2:I196)</f>
-        <v>41830</v>
+        <v>42210</v>
       </c>
       <c r="M196">
         <f t="shared" si="3"/>
-        <v>418.3</v>
+        <v>422.1</v>
       </c>
     </row>
     <row r="197" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62681,11 +62674,11 @@
       </c>
       <c r="L197">
         <f>SUM($I$2:I197)</f>
-        <v>41830</v>
+        <v>42210</v>
       </c>
       <c r="M197">
         <f t="shared" si="3"/>
-        <v>418.3</v>
+        <v>422.1</v>
       </c>
     </row>
     <row r="198" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62702,11 +62695,11 @@
       </c>
       <c r="L198">
         <f>SUM($I$2:I198)</f>
-        <v>41830</v>
+        <v>42210</v>
       </c>
       <c r="M198">
         <f t="shared" si="3"/>
-        <v>418.3</v>
+        <v>422.1</v>
       </c>
     </row>
     <row r="199" spans="3:13" x14ac:dyDescent="0.2">
@@ -62722,18 +62715,18 @@
         <v/>
       </c>
       <c r="H199" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I199">
         <v>270</v>
       </c>
       <c r="L199">
         <f>SUM($I$2:I199)</f>
-        <v>42100</v>
+        <v>42480</v>
       </c>
       <c r="M199">
         <f t="shared" si="3"/>
-        <v>421</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="200" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62750,11 +62743,11 @@
       </c>
       <c r="L200">
         <f>SUM($I$2:I200)</f>
-        <v>42100</v>
+        <v>42480</v>
       </c>
       <c r="M200">
         <f t="shared" si="3"/>
-        <v>421</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="201" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62771,11 +62764,11 @@
       </c>
       <c r="L201">
         <f>SUM($I$2:I201)</f>
-        <v>42100</v>
+        <v>42480</v>
       </c>
       <c r="M201">
         <f t="shared" si="3"/>
-        <v>421</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="202" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62792,11 +62785,11 @@
       </c>
       <c r="L202">
         <f>SUM($I$2:I202)</f>
-        <v>42100</v>
+        <v>42480</v>
       </c>
       <c r="M202">
         <f t="shared" si="3"/>
-        <v>421</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="203" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62813,11 +62806,11 @@
       </c>
       <c r="L203">
         <f>SUM($I$2:I203)</f>
-        <v>42100</v>
+        <v>42480</v>
       </c>
       <c r="M203">
         <f t="shared" si="3"/>
-        <v>421</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="204" spans="3:13" x14ac:dyDescent="0.2">
@@ -62833,18 +62826,18 @@
         <v/>
       </c>
       <c r="H204" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I204">
         <v>2500</v>
       </c>
       <c r="L204">
         <f>SUM($I$2:I204)</f>
-        <v>44600</v>
+        <v>44980</v>
       </c>
       <c r="M204">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="205" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62865,11 +62858,11 @@
       </c>
       <c r="L205">
         <f>SUM($I$2:I205)</f>
-        <v>44600</v>
+        <v>44980</v>
       </c>
       <c r="M205">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="206" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62886,11 +62879,11 @@
       </c>
       <c r="L206">
         <f>SUM($I$2:I206)</f>
-        <v>44600</v>
+        <v>44980</v>
       </c>
       <c r="M206">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="207" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62907,11 +62900,11 @@
       </c>
       <c r="L207">
         <f>SUM($I$2:I207)</f>
-        <v>44600</v>
+        <v>44980</v>
       </c>
       <c r="M207">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="208" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62928,11 +62921,11 @@
       </c>
       <c r="L208">
         <f>SUM($I$2:I208)</f>
-        <v>44600</v>
+        <v>44980</v>
       </c>
       <c r="M208">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="209" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -62949,11 +62942,11 @@
       </c>
       <c r="L209">
         <f>SUM($I$2:I209)</f>
-        <v>44600</v>
+        <v>44980</v>
       </c>
       <c r="M209">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="210" spans="3:13" x14ac:dyDescent="0.2">
@@ -62969,18 +62962,18 @@
         <v/>
       </c>
       <c r="H210" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I210">
         <v>600</v>
       </c>
       <c r="L210">
         <f>SUM($I$2:I210)</f>
-        <v>45200</v>
+        <v>45580</v>
       </c>
       <c r="M210">
         <f t="shared" si="3"/>
-        <v>452</v>
+        <v>455.8</v>
       </c>
     </row>
     <row r="211" spans="3:13" x14ac:dyDescent="0.2">
@@ -62999,18 +62992,18 @@
         <v/>
       </c>
       <c r="H211" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I211">
         <v>6000</v>
       </c>
       <c r="L211">
         <f>SUM($I$2:I211)</f>
-        <v>51200</v>
+        <v>51580</v>
       </c>
       <c r="M211">
         <f t="shared" si="3"/>
-        <v>512</v>
+        <v>515.79999999999995</v>
       </c>
     </row>
     <row r="212" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63027,11 +63020,11 @@
       </c>
       <c r="L212">
         <f>SUM($I$2:I212)</f>
-        <v>51200</v>
+        <v>51580</v>
       </c>
       <c r="M212">
         <f t="shared" si="3"/>
-        <v>512</v>
+        <v>515.79999999999995</v>
       </c>
     </row>
     <row r="213" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63048,11 +63041,11 @@
       </c>
       <c r="L213">
         <f>SUM($I$2:I213)</f>
-        <v>51200</v>
+        <v>51580</v>
       </c>
       <c r="M213">
         <f t="shared" si="3"/>
-        <v>512</v>
+        <v>515.79999999999995</v>
       </c>
     </row>
     <row r="214" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63069,11 +63062,11 @@
       </c>
       <c r="L214">
         <f>SUM($I$2:I214)</f>
-        <v>51200</v>
+        <v>51580</v>
       </c>
       <c r="M214">
         <f t="shared" si="3"/>
-        <v>512</v>
+        <v>515.79999999999995</v>
       </c>
     </row>
     <row r="215" spans="3:13" x14ac:dyDescent="0.2">
@@ -63089,18 +63082,18 @@
         <v/>
       </c>
       <c r="H215" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I215">
         <v>600</v>
       </c>
       <c r="L215">
         <f>SUM($I$2:I215)</f>
-        <v>51800</v>
+        <v>52180</v>
       </c>
       <c r="M215">
         <f t="shared" si="3"/>
-        <v>518</v>
+        <v>521.79999999999995</v>
       </c>
     </row>
     <row r="216" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63117,11 +63110,11 @@
       </c>
       <c r="L216">
         <f>SUM($I$2:I216)</f>
-        <v>51800</v>
+        <v>52180</v>
       </c>
       <c r="M216">
         <f t="shared" si="3"/>
-        <v>518</v>
+        <v>521.79999999999995</v>
       </c>
     </row>
     <row r="217" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63138,11 +63131,11 @@
       </c>
       <c r="L217">
         <f>SUM($I$2:I217)</f>
-        <v>51800</v>
+        <v>52180</v>
       </c>
       <c r="M217">
         <f t="shared" si="3"/>
-        <v>518</v>
+        <v>521.79999999999995</v>
       </c>
     </row>
     <row r="218" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63159,11 +63152,11 @@
       </c>
       <c r="L218">
         <f>SUM($I$2:I218)</f>
-        <v>51800</v>
+        <v>52180</v>
       </c>
       <c r="M218">
         <f t="shared" si="3"/>
-        <v>518</v>
+        <v>521.79999999999995</v>
       </c>
     </row>
     <row r="219" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63180,11 +63173,11 @@
       </c>
       <c r="L219">
         <f>SUM($I$2:I219)</f>
-        <v>51800</v>
+        <v>52180</v>
       </c>
       <c r="M219">
         <f t="shared" si="3"/>
-        <v>518</v>
+        <v>521.79999999999995</v>
       </c>
     </row>
     <row r="220" spans="3:13" x14ac:dyDescent="0.2">
@@ -63200,18 +63193,18 @@
         <v/>
       </c>
       <c r="H220" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I220">
         <v>750</v>
       </c>
       <c r="L220">
         <f>SUM($I$2:I220)</f>
-        <v>52550</v>
+        <v>52930</v>
       </c>
       <c r="M220">
         <f t="shared" si="3"/>
-        <v>525.5</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="221" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63228,11 +63221,11 @@
       </c>
       <c r="L221">
         <f>SUM($I$2:I221)</f>
-        <v>52550</v>
+        <v>52930</v>
       </c>
       <c r="M221">
         <f t="shared" si="3"/>
-        <v>525.5</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="222" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63249,11 +63242,11 @@
       </c>
       <c r="L222">
         <f>SUM($I$2:I222)</f>
-        <v>52550</v>
+        <v>52930</v>
       </c>
       <c r="M222">
         <f t="shared" si="3"/>
-        <v>525.5</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="223" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63270,11 +63263,11 @@
       </c>
       <c r="L223">
         <f>SUM($I$2:I223)</f>
-        <v>52550</v>
+        <v>52930</v>
       </c>
       <c r="M223">
         <f t="shared" si="3"/>
-        <v>525.5</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="224" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63291,11 +63284,11 @@
       </c>
       <c r="L224">
         <f>SUM($I$2:I224)</f>
-        <v>52550</v>
+        <v>52930</v>
       </c>
       <c r="M224">
         <f t="shared" si="3"/>
-        <v>525.5</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="225" spans="3:13" x14ac:dyDescent="0.2">
@@ -63311,18 +63304,18 @@
         <v/>
       </c>
       <c r="H225" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I225">
         <v>500</v>
       </c>
       <c r="L225">
         <f>SUM($I$2:I225)</f>
-        <v>53050</v>
+        <v>53430</v>
       </c>
       <c r="M225">
         <f t="shared" si="3"/>
-        <v>530.5</v>
+        <v>534.29999999999995</v>
       </c>
     </row>
     <row r="226" spans="3:13" x14ac:dyDescent="0.2">
@@ -63341,18 +63334,18 @@
         <v/>
       </c>
       <c r="H226" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I226">
         <v>2500</v>
       </c>
       <c r="L226">
         <f>SUM($I$2:I226)</f>
-        <v>55550</v>
+        <v>55930</v>
       </c>
       <c r="M226">
         <f t="shared" si="3"/>
-        <v>555.5</v>
+        <v>559.29999999999995</v>
       </c>
     </row>
     <row r="227" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63369,11 +63362,11 @@
       </c>
       <c r="L227">
         <f>SUM($I$2:I227)</f>
-        <v>55550</v>
+        <v>55930</v>
       </c>
       <c r="M227">
         <f t="shared" si="3"/>
-        <v>555.5</v>
+        <v>559.29999999999995</v>
       </c>
     </row>
     <row r="228" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63390,11 +63383,11 @@
       </c>
       <c r="L228">
         <f>SUM($I$2:I228)</f>
-        <v>55550</v>
+        <v>55930</v>
       </c>
       <c r="M228">
         <f t="shared" si="3"/>
-        <v>555.5</v>
+        <v>559.29999999999995</v>
       </c>
     </row>
     <row r="229" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63411,11 +63404,11 @@
       </c>
       <c r="L229">
         <f>SUM($I$2:I229)</f>
-        <v>55550</v>
+        <v>55930</v>
       </c>
       <c r="M229">
         <f t="shared" si="3"/>
-        <v>555.5</v>
+        <v>559.29999999999995</v>
       </c>
     </row>
     <row r="230" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63432,11 +63425,11 @@
       </c>
       <c r="L230">
         <f>SUM($I$2:I230)</f>
-        <v>55550</v>
+        <v>55930</v>
       </c>
       <c r="M230">
         <f t="shared" si="3"/>
-        <v>555.5</v>
+        <v>559.29999999999995</v>
       </c>
     </row>
     <row r="231" spans="3:13" x14ac:dyDescent="0.2">
@@ -63447,26 +63440,23 @@
         <f>IF(IFERROR(VLOOKUP(C231,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") = 0,"",IFERROR(VLOOKUP(C231,'Dungeon&amp;Framework'!CF:CK,3,FALSE),"") )</f>
         <v/>
       </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
       <c r="G231" t="str">
         <f>IF( IFERROR(VLOOKUP(C231,'Dungeon&amp;Framework'!CF:CM,8,FALSE),"") = 0, "",IFERROR(VLOOKUP(C231,'Dungeon&amp;Framework'!CF:CM,8,FALSE),""))</f>
         <v/>
       </c>
       <c r="H231" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I231">
         <v>750</v>
       </c>
       <c r="L231">
         <f>SUM($I$2:I231)</f>
-        <v>56300</v>
+        <v>56680</v>
       </c>
       <c r="M231">
         <f t="shared" si="3"/>
-        <v>563</v>
+        <v>566.79999999999995</v>
       </c>
     </row>
     <row r="232" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63483,11 +63473,11 @@
       </c>
       <c r="L232">
         <f>SUM($I$2:I232)</f>
-        <v>56300</v>
+        <v>56680</v>
       </c>
       <c r="M232">
         <f t="shared" si="3"/>
-        <v>563</v>
+        <v>566.79999999999995</v>
       </c>
     </row>
     <row r="233" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63504,11 +63494,11 @@
       </c>
       <c r="L233">
         <f>SUM($I$2:I233)</f>
-        <v>56300</v>
+        <v>56680</v>
       </c>
       <c r="M233">
         <f t="shared" si="3"/>
-        <v>563</v>
+        <v>566.79999999999995</v>
       </c>
     </row>
     <row r="234" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63525,11 +63515,11 @@
       </c>
       <c r="L234">
         <f>SUM($I$2:I234)</f>
-        <v>56300</v>
+        <v>56680</v>
       </c>
       <c r="M234">
         <f t="shared" si="3"/>
-        <v>563</v>
+        <v>566.79999999999995</v>
       </c>
     </row>
     <row r="235" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63546,11 +63536,11 @@
       </c>
       <c r="L235">
         <f>SUM($I$2:I235)</f>
-        <v>56300</v>
+        <v>56680</v>
       </c>
       <c r="M235">
         <f t="shared" si="3"/>
-        <v>563</v>
+        <v>566.79999999999995</v>
       </c>
     </row>
     <row r="236" spans="3:13" x14ac:dyDescent="0.2">
@@ -63566,18 +63556,18 @@
         <v/>
       </c>
       <c r="H236" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I236">
         <v>450</v>
       </c>
       <c r="L236">
         <f>SUM($I$2:I236)</f>
-        <v>56750</v>
+        <v>57130</v>
       </c>
       <c r="M236">
         <f t="shared" si="3"/>
-        <v>567.5</v>
+        <v>571.29999999999995</v>
       </c>
     </row>
     <row r="237" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63594,11 +63584,11 @@
       </c>
       <c r="L237">
         <f>SUM($I$2:I237)</f>
-        <v>56750</v>
+        <v>57130</v>
       </c>
       <c r="M237">
         <f t="shared" si="3"/>
-        <v>567.5</v>
+        <v>571.29999999999995</v>
       </c>
     </row>
     <row r="238" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63615,11 +63605,11 @@
       </c>
       <c r="L238">
         <f>SUM($I$2:I238)</f>
-        <v>56750</v>
+        <v>57130</v>
       </c>
       <c r="M238">
         <f t="shared" si="3"/>
-        <v>567.5</v>
+        <v>571.29999999999995</v>
       </c>
     </row>
     <row r="239" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63636,11 +63626,11 @@
       </c>
       <c r="L239">
         <f>SUM($I$2:I239)</f>
-        <v>56750</v>
+        <v>57130</v>
       </c>
       <c r="M239">
         <f t="shared" si="3"/>
-        <v>567.5</v>
+        <v>571.29999999999995</v>
       </c>
     </row>
     <row r="240" spans="3:13" x14ac:dyDescent="0.2">
@@ -63656,18 +63646,18 @@
         <v/>
       </c>
       <c r="H240" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I240">
         <v>1200</v>
       </c>
       <c r="L240">
         <f>SUM($I$2:I240)</f>
-        <v>57950</v>
+        <v>58330</v>
       </c>
       <c r="M240">
         <f t="shared" si="3"/>
-        <v>579.5</v>
+        <v>583.29999999999995</v>
       </c>
     </row>
     <row r="241" spans="3:13" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -63686,7 +63676,7 @@
         <v>26840</v>
       </c>
       <c r="H241" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I241" s="34">
         <v>6000</v>
@@ -63697,11 +63687,11 @@
       </c>
       <c r="L241">
         <f>SUM($I$2:I241)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M241">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="242" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63718,11 +63708,11 @@
       </c>
       <c r="L242">
         <f>SUM($I$2:I242)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M242">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="243" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63739,11 +63729,11 @@
       </c>
       <c r="L243">
         <f>SUM($I$2:I243)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M243">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="244" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63760,11 +63750,11 @@
       </c>
       <c r="L244">
         <f>SUM($I$2:I244)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M244">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="245" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63781,11 +63771,11 @@
       </c>
       <c r="L245">
         <f>SUM($I$2:I245)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M245">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="246" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63802,11 +63792,11 @@
       </c>
       <c r="L246">
         <f>SUM($I$2:I246)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M246">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="247" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63823,11 +63813,11 @@
       </c>
       <c r="L247">
         <f>SUM($I$2:I247)</f>
-        <v>63950</v>
+        <v>64330</v>
       </c>
       <c r="M247">
         <f t="shared" si="3"/>
-        <v>639.5</v>
+        <v>643.29999999999995</v>
       </c>
     </row>
     <row r="248" spans="3:13" x14ac:dyDescent="0.2">
@@ -63850,11 +63840,11 @@
       </c>
       <c r="L248">
         <f>SUM($I$2:I248)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M248">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="249" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63871,11 +63861,11 @@
       </c>
       <c r="L249">
         <f>SUM($I$2:I249)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M249">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="250" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63892,11 +63882,11 @@
       </c>
       <c r="L250">
         <f>SUM($I$2:I250)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M250">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="251" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63913,11 +63903,11 @@
       </c>
       <c r="L251">
         <f>SUM($I$2:I251)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M251">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="252" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63934,11 +63924,11 @@
       </c>
       <c r="L252">
         <f>SUM($I$2:I252)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M252">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="253" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63955,11 +63945,11 @@
       </c>
       <c r="L253">
         <f>SUM($I$2:I253)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M253">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="254" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -63976,11 +63966,11 @@
       </c>
       <c r="L254">
         <f>SUM($I$2:I254)</f>
-        <v>64670</v>
+        <v>65050</v>
       </c>
       <c r="M254">
         <f t="shared" si="3"/>
-        <v>646.70000000000005</v>
+        <v>650.5</v>
       </c>
     </row>
     <row r="255" spans="3:13" x14ac:dyDescent="0.2">
@@ -63996,18 +63986,18 @@
         <v/>
       </c>
       <c r="H255" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I255">
         <v>270</v>
       </c>
       <c r="L255">
         <f>SUM($I$2:I255)</f>
-        <v>64940</v>
+        <v>65320</v>
       </c>
       <c r="M255">
         <f t="shared" si="3"/>
-        <v>649.4</v>
+        <v>653.20000000000005</v>
       </c>
     </row>
     <row r="256" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64024,11 +64014,11 @@
       </c>
       <c r="L256">
         <f>SUM($I$2:I256)</f>
-        <v>64940</v>
+        <v>65320</v>
       </c>
       <c r="M256">
         <f t="shared" si="3"/>
-        <v>649.4</v>
+        <v>653.20000000000005</v>
       </c>
     </row>
     <row r="257" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64045,11 +64035,11 @@
       </c>
       <c r="L257">
         <f>SUM($I$2:I257)</f>
-        <v>64940</v>
+        <v>65320</v>
       </c>
       <c r="M257">
         <f t="shared" si="3"/>
-        <v>649.4</v>
+        <v>653.20000000000005</v>
       </c>
     </row>
     <row r="258" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64066,11 +64056,11 @@
       </c>
       <c r="L258">
         <f>SUM($I$2:I258)</f>
-        <v>64940</v>
+        <v>65320</v>
       </c>
       <c r="M258">
         <f t="shared" si="3"/>
-        <v>649.4</v>
+        <v>653.20000000000005</v>
       </c>
     </row>
     <row r="259" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64087,11 +64077,11 @@
       </c>
       <c r="L259">
         <f>SUM($I$2:I259)</f>
-        <v>64940</v>
+        <v>65320</v>
       </c>
       <c r="M259">
         <f t="shared" ref="M259:M322" si="4">L259/100</f>
-        <v>649.4</v>
+        <v>653.20000000000005</v>
       </c>
     </row>
     <row r="260" spans="3:13" x14ac:dyDescent="0.2">
@@ -64107,18 +64097,18 @@
         <v/>
       </c>
       <c r="H260" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I260">
         <v>250</v>
       </c>
       <c r="L260">
         <f>SUM($I$2:I260)</f>
-        <v>65190</v>
+        <v>65570</v>
       </c>
       <c r="M260">
         <f t="shared" si="4"/>
-        <v>651.9</v>
+        <v>655.7</v>
       </c>
     </row>
     <row r="261" spans="3:13" x14ac:dyDescent="0.2">
@@ -64144,11 +64134,11 @@
       </c>
       <c r="L261">
         <f>SUM($I$2:I261)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M261">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="262" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64165,11 +64155,11 @@
       </c>
       <c r="L262">
         <f>SUM($I$2:I262)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M262">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="263" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64186,11 +64176,11 @@
       </c>
       <c r="L263">
         <f>SUM($I$2:I263)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M263">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="264" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64207,11 +64197,11 @@
       </c>
       <c r="L264">
         <f>SUM($I$2:I264)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M264">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="265" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64228,11 +64218,11 @@
       </c>
       <c r="L265">
         <f>SUM($I$2:I265)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M265">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="266" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64249,11 +64239,11 @@
       </c>
       <c r="L266">
         <f>SUM($I$2:I266)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M266">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="267" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64270,11 +64260,11 @@
       </c>
       <c r="L267">
         <f>SUM($I$2:I267)</f>
-        <v>65690</v>
+        <v>66070</v>
       </c>
       <c r="M267">
         <f t="shared" si="4"/>
-        <v>656.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="268" spans="3:13" x14ac:dyDescent="0.2">
@@ -64290,18 +64280,18 @@
         <v/>
       </c>
       <c r="H268" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I268">
         <v>300</v>
       </c>
       <c r="L268">
         <f>SUM($I$2:I268)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M268">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="269" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64318,11 +64308,11 @@
       </c>
       <c r="L269">
         <f>SUM($I$2:I269)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M269">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="270" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64339,11 +64329,11 @@
       </c>
       <c r="L270">
         <f>SUM($I$2:I270)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M270">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="271" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64360,11 +64350,11 @@
       </c>
       <c r="L271">
         <f>SUM($I$2:I271)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M271">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="272" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64381,11 +64371,11 @@
       </c>
       <c r="L272">
         <f>SUM($I$2:I272)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M272">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="273" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64402,11 +64392,11 @@
       </c>
       <c r="L273">
         <f>SUM($I$2:I273)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M273">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="274" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64423,11 +64413,11 @@
       </c>
       <c r="L274">
         <f>SUM($I$2:I274)</f>
-        <v>65990</v>
+        <v>66370</v>
       </c>
       <c r="M274">
         <f t="shared" si="4"/>
-        <v>659.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="275" spans="3:13" x14ac:dyDescent="0.2">
@@ -64443,18 +64433,18 @@
         <v/>
       </c>
       <c r="H275" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I275">
         <v>750</v>
       </c>
       <c r="L275">
         <f>SUM($I$2:I275)</f>
-        <v>66740</v>
+        <v>67120</v>
       </c>
       <c r="M275">
         <f t="shared" si="4"/>
-        <v>667.4</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="276" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64471,11 +64461,11 @@
       </c>
       <c r="L276">
         <f>SUM($I$2:I276)</f>
-        <v>66740</v>
+        <v>67120</v>
       </c>
       <c r="M276">
         <f t="shared" si="4"/>
-        <v>667.4</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="277" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64492,11 +64482,11 @@
       </c>
       <c r="L277">
         <f>SUM($I$2:I277)</f>
-        <v>66740</v>
+        <v>67120</v>
       </c>
       <c r="M277">
         <f t="shared" si="4"/>
-        <v>667.4</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="278" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64513,11 +64503,11 @@
       </c>
       <c r="L278">
         <f>SUM($I$2:I278)</f>
-        <v>66740</v>
+        <v>67120</v>
       </c>
       <c r="M278">
         <f t="shared" si="4"/>
-        <v>667.4</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="279" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64534,11 +64524,11 @@
       </c>
       <c r="L279">
         <f>SUM($I$2:I279)</f>
-        <v>66740</v>
+        <v>67120</v>
       </c>
       <c r="M279">
         <f t="shared" si="4"/>
-        <v>667.4</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="280" spans="3:13" x14ac:dyDescent="0.2">
@@ -64554,18 +64544,18 @@
         <v/>
       </c>
       <c r="H280" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I280">
         <v>270</v>
       </c>
       <c r="L280">
         <f>SUM($I$2:I280)</f>
-        <v>67010</v>
+        <v>67390</v>
       </c>
       <c r="M280">
         <f t="shared" si="4"/>
-        <v>670.1</v>
+        <v>673.9</v>
       </c>
     </row>
     <row r="281" spans="3:13" x14ac:dyDescent="0.2">
@@ -64584,18 +64574,18 @@
         <v/>
       </c>
       <c r="H281" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I281">
         <v>3000</v>
       </c>
       <c r="L281">
         <f>SUM($I$2:I281)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M281">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="282" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64612,11 +64602,11 @@
       </c>
       <c r="L282">
         <f>SUM($I$2:I282)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M282">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="283" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64633,11 +64623,11 @@
       </c>
       <c r="L283">
         <f>SUM($I$2:I283)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M283">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="284" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64654,11 +64644,11 @@
       </c>
       <c r="L284">
         <f>SUM($I$2:I284)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M284">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="285" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64675,11 +64665,11 @@
       </c>
       <c r="L285">
         <f>SUM($I$2:I285)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M285">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="286" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64696,11 +64686,11 @@
       </c>
       <c r="L286">
         <f>SUM($I$2:I286)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M286">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="287" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64717,11 +64707,11 @@
       </c>
       <c r="L287">
         <f>SUM($I$2:I287)</f>
-        <v>70010</v>
+        <v>70390</v>
       </c>
       <c r="M287">
         <f t="shared" si="4"/>
-        <v>700.1</v>
+        <v>703.9</v>
       </c>
     </row>
     <row r="288" spans="3:13" x14ac:dyDescent="0.2">
@@ -64744,11 +64734,11 @@
       </c>
       <c r="L288">
         <f>SUM($I$2:I288)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M288">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="289" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64765,11 +64755,11 @@
       </c>
       <c r="L289">
         <f>SUM($I$2:I289)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M289">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="290" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64786,11 +64776,11 @@
       </c>
       <c r="L290">
         <f>SUM($I$2:I290)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M290">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="291" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64807,11 +64797,11 @@
       </c>
       <c r="L291">
         <f>SUM($I$2:I291)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M291">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="292" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64828,11 +64818,11 @@
       </c>
       <c r="L292">
         <f>SUM($I$2:I292)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M292">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="293" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64849,11 +64839,11 @@
       </c>
       <c r="L293">
         <f>SUM($I$2:I293)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M293">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="294" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64870,11 +64860,11 @@
       </c>
       <c r="L294">
         <f>SUM($I$2:I294)</f>
-        <v>70730</v>
+        <v>71110</v>
       </c>
       <c r="M294">
         <f t="shared" si="4"/>
-        <v>707.3</v>
+        <v>711.1</v>
       </c>
     </row>
     <row r="295" spans="3:13" x14ac:dyDescent="0.2">
@@ -64890,18 +64880,18 @@
         <v/>
       </c>
       <c r="H295" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I295">
         <v>270</v>
       </c>
       <c r="L295">
         <f>SUM($I$2:I295)</f>
-        <v>71000</v>
+        <v>71380</v>
       </c>
       <c r="M295">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>713.8</v>
       </c>
     </row>
     <row r="296" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64918,11 +64908,11 @@
       </c>
       <c r="L296">
         <f>SUM($I$2:I296)</f>
-        <v>71000</v>
+        <v>71380</v>
       </c>
       <c r="M296">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>713.8</v>
       </c>
     </row>
     <row r="297" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64939,11 +64929,11 @@
       </c>
       <c r="L297">
         <f>SUM($I$2:I297)</f>
-        <v>71000</v>
+        <v>71380</v>
       </c>
       <c r="M297">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>713.8</v>
       </c>
     </row>
     <row r="298" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64960,11 +64950,11 @@
       </c>
       <c r="L298">
         <f>SUM($I$2:I298)</f>
-        <v>71000</v>
+        <v>71380</v>
       </c>
       <c r="M298">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>713.8</v>
       </c>
     </row>
     <row r="299" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -64981,11 +64971,11 @@
       </c>
       <c r="L299">
         <f>SUM($I$2:I299)</f>
-        <v>71000</v>
+        <v>71380</v>
       </c>
       <c r="M299">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>713.8</v>
       </c>
     </row>
     <row r="300" spans="3:13" x14ac:dyDescent="0.2">
@@ -65001,18 +64991,18 @@
         <v/>
       </c>
       <c r="H300" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I300">
         <v>250</v>
       </c>
       <c r="L300">
         <f>SUM($I$2:I300)</f>
-        <v>71250</v>
+        <v>71630</v>
       </c>
       <c r="M300">
         <f t="shared" si="4"/>
-        <v>712.5</v>
+        <v>716.3</v>
       </c>
     </row>
     <row r="301" spans="3:13" x14ac:dyDescent="0.2">
@@ -65038,11 +65028,11 @@
       </c>
       <c r="L301">
         <f>SUM($I$2:I301)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M301">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="302" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65059,11 +65049,11 @@
       </c>
       <c r="L302">
         <f>SUM($I$2:I302)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M302">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="303" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65080,11 +65070,11 @@
       </c>
       <c r="L303">
         <f>SUM($I$2:I303)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M303">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="304" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65101,11 +65091,11 @@
       </c>
       <c r="L304">
         <f>SUM($I$2:I304)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M304">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="305" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65122,11 +65112,11 @@
       </c>
       <c r="L305">
         <f>SUM($I$2:I305)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M305">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="306" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65143,11 +65133,11 @@
       </c>
       <c r="L306">
         <f>SUM($I$2:I306)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M306">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="307" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65164,11 +65154,11 @@
       </c>
       <c r="L307">
         <f>SUM($I$2:I307)</f>
-        <v>71750</v>
+        <v>72130</v>
       </c>
       <c r="M307">
         <f t="shared" si="4"/>
-        <v>717.5</v>
+        <v>721.3</v>
       </c>
     </row>
     <row r="308" spans="3:13" x14ac:dyDescent="0.2">
@@ -65184,18 +65174,18 @@
         <v/>
       </c>
       <c r="H308" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I308">
         <v>300</v>
       </c>
       <c r="L308">
         <f>SUM($I$2:I308)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M308">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="309" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65212,11 +65202,11 @@
       </c>
       <c r="L309">
         <f>SUM($I$2:I309)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M309">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="310" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65233,11 +65223,11 @@
       </c>
       <c r="L310">
         <f>SUM($I$2:I310)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M310">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="311" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65254,11 +65244,11 @@
       </c>
       <c r="L311">
         <f>SUM($I$2:I311)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M311">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="312" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65275,11 +65265,11 @@
       </c>
       <c r="L312">
         <f>SUM($I$2:I312)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M312">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="313" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65296,11 +65286,11 @@
       </c>
       <c r="L313">
         <f>SUM($I$2:I313)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M313">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="314" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65317,11 +65307,11 @@
       </c>
       <c r="L314">
         <f>SUM($I$2:I314)</f>
-        <v>72050</v>
+        <v>72430</v>
       </c>
       <c r="M314">
         <f t="shared" si="4"/>
-        <v>720.5</v>
+        <v>724.3</v>
       </c>
     </row>
     <row r="315" spans="3:13" x14ac:dyDescent="0.2">
@@ -65337,18 +65327,18 @@
         <v/>
       </c>
       <c r="H315" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I315">
         <v>750</v>
       </c>
       <c r="L315">
         <f>SUM($I$2:I315)</f>
-        <v>72800</v>
+        <v>73180</v>
       </c>
       <c r="M315">
         <f t="shared" si="4"/>
-        <v>728</v>
+        <v>731.8</v>
       </c>
     </row>
     <row r="316" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65365,11 +65355,11 @@
       </c>
       <c r="L316">
         <f>SUM($I$2:I316)</f>
-        <v>72800</v>
+        <v>73180</v>
       </c>
       <c r="M316">
         <f t="shared" si="4"/>
-        <v>728</v>
+        <v>731.8</v>
       </c>
     </row>
     <row r="317" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65386,11 +65376,11 @@
       </c>
       <c r="L317">
         <f>SUM($I$2:I317)</f>
-        <v>72800</v>
+        <v>73180</v>
       </c>
       <c r="M317">
         <f t="shared" si="4"/>
-        <v>728</v>
+        <v>731.8</v>
       </c>
     </row>
     <row r="318" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65407,11 +65397,11 @@
       </c>
       <c r="L318">
         <f>SUM($I$2:I318)</f>
-        <v>72800</v>
+        <v>73180</v>
       </c>
       <c r="M318">
         <f t="shared" si="4"/>
-        <v>728</v>
+        <v>731.8</v>
       </c>
     </row>
     <row r="319" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65428,11 +65418,11 @@
       </c>
       <c r="L319">
         <f>SUM($I$2:I319)</f>
-        <v>72800</v>
+        <v>73180</v>
       </c>
       <c r="M319">
         <f t="shared" si="4"/>
-        <v>728</v>
+        <v>731.8</v>
       </c>
     </row>
     <row r="320" spans="3:13" x14ac:dyDescent="0.2">
@@ -65448,18 +65438,18 @@
         <v/>
       </c>
       <c r="H320" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I320">
         <v>270</v>
       </c>
       <c r="L320">
         <f>SUM($I$2:I320)</f>
-        <v>73070</v>
+        <v>73450</v>
       </c>
       <c r="M320">
         <f t="shared" si="4"/>
-        <v>730.7</v>
+        <v>734.5</v>
       </c>
     </row>
     <row r="321" spans="3:13" x14ac:dyDescent="0.2">
@@ -65478,18 +65468,18 @@
         <v/>
       </c>
       <c r="H321" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I321">
         <v>3000</v>
       </c>
       <c r="L321">
         <f>SUM($I$2:I321)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M321">
         <f t="shared" si="4"/>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="322" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65506,11 +65496,11 @@
       </c>
       <c r="L322">
         <f>SUM($I$2:I322)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M322">
         <f t="shared" si="4"/>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="323" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65527,11 +65517,11 @@
       </c>
       <c r="L323">
         <f>SUM($I$2:I323)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M323">
         <f t="shared" ref="M323:M386" si="5">L323/100</f>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="324" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65548,11 +65538,11 @@
       </c>
       <c r="L324">
         <f>SUM($I$2:I324)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M324">
         <f t="shared" si="5"/>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="325" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65569,11 +65559,11 @@
       </c>
       <c r="L325">
         <f>SUM($I$2:I325)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M325">
         <f t="shared" si="5"/>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="326" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65590,11 +65580,11 @@
       </c>
       <c r="L326">
         <f>SUM($I$2:I326)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M326">
         <f t="shared" si="5"/>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="327" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65611,11 +65601,11 @@
       </c>
       <c r="L327">
         <f>SUM($I$2:I327)</f>
-        <v>76070</v>
+        <v>76450</v>
       </c>
       <c r="M327">
         <f t="shared" si="5"/>
-        <v>760.7</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="328" spans="3:13" x14ac:dyDescent="0.2">
@@ -65638,11 +65628,11 @@
       </c>
       <c r="L328">
         <f>SUM($I$2:I328)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M328">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="329" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65659,11 +65649,11 @@
       </c>
       <c r="L329">
         <f>SUM($I$2:I329)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M329">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="330" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65680,11 +65670,11 @@
       </c>
       <c r="L330">
         <f>SUM($I$2:I330)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M330">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="331" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65701,11 +65691,11 @@
       </c>
       <c r="L331">
         <f>SUM($I$2:I331)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M331">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="332" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65722,11 +65712,11 @@
       </c>
       <c r="L332">
         <f>SUM($I$2:I332)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M332">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="333" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65743,11 +65733,11 @@
       </c>
       <c r="L333">
         <f>SUM($I$2:I333)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M333">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="334" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65764,11 +65754,11 @@
       </c>
       <c r="L334">
         <f>SUM($I$2:I334)</f>
-        <v>76790</v>
+        <v>77170</v>
       </c>
       <c r="M334">
         <f t="shared" si="5"/>
-        <v>767.9</v>
+        <v>771.7</v>
       </c>
     </row>
     <row r="335" spans="3:13" x14ac:dyDescent="0.2">
@@ -65784,18 +65774,18 @@
         <v/>
       </c>
       <c r="H335" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I335">
         <v>270</v>
       </c>
       <c r="L335">
         <f>SUM($I$2:I335)</f>
-        <v>77060</v>
+        <v>77440</v>
       </c>
       <c r="M335">
         <f t="shared" si="5"/>
-        <v>770.6</v>
+        <v>774.4</v>
       </c>
     </row>
     <row r="336" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65812,11 +65802,11 @@
       </c>
       <c r="L336">
         <f>SUM($I$2:I336)</f>
-        <v>77060</v>
+        <v>77440</v>
       </c>
       <c r="M336">
         <f t="shared" si="5"/>
-        <v>770.6</v>
+        <v>774.4</v>
       </c>
     </row>
     <row r="337" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65833,11 +65823,11 @@
       </c>
       <c r="L337">
         <f>SUM($I$2:I337)</f>
-        <v>77060</v>
+        <v>77440</v>
       </c>
       <c r="M337">
         <f t="shared" si="5"/>
-        <v>770.6</v>
+        <v>774.4</v>
       </c>
     </row>
     <row r="338" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65854,11 +65844,11 @@
       </c>
       <c r="L338">
         <f>SUM($I$2:I338)</f>
-        <v>77060</v>
+        <v>77440</v>
       </c>
       <c r="M338">
         <f t="shared" si="5"/>
-        <v>770.6</v>
+        <v>774.4</v>
       </c>
     </row>
     <row r="339" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65875,11 +65865,11 @@
       </c>
       <c r="L339">
         <f>SUM($I$2:I339)</f>
-        <v>77060</v>
+        <v>77440</v>
       </c>
       <c r="M339">
         <f t="shared" si="5"/>
-        <v>770.6</v>
+        <v>774.4</v>
       </c>
     </row>
     <row r="340" spans="3:13" x14ac:dyDescent="0.2">
@@ -65895,18 +65885,18 @@
         <v/>
       </c>
       <c r="H340" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I340">
         <v>250</v>
       </c>
       <c r="L340">
         <f>SUM($I$2:I340)</f>
-        <v>77310</v>
+        <v>77690</v>
       </c>
       <c r="M340">
         <f t="shared" si="5"/>
-        <v>773.1</v>
+        <v>776.9</v>
       </c>
     </row>
     <row r="341" spans="3:13" x14ac:dyDescent="0.2">
@@ -65932,11 +65922,11 @@
       </c>
       <c r="L341">
         <f>SUM($I$2:I341)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M341">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="342" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65953,11 +65943,11 @@
       </c>
       <c r="L342">
         <f>SUM($I$2:I342)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M342">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="343" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65974,11 +65964,11 @@
       </c>
       <c r="L343">
         <f>SUM($I$2:I343)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M343">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="344" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -65995,11 +65985,11 @@
       </c>
       <c r="L344">
         <f>SUM($I$2:I344)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M344">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="345" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66016,11 +66006,11 @@
       </c>
       <c r="L345">
         <f>SUM($I$2:I345)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M345">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="346" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66037,11 +66027,11 @@
       </c>
       <c r="L346">
         <f>SUM($I$2:I346)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M346">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="347" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66058,11 +66048,11 @@
       </c>
       <c r="L347">
         <f>SUM($I$2:I347)</f>
-        <v>77810</v>
+        <v>78190</v>
       </c>
       <c r="M347">
         <f t="shared" si="5"/>
-        <v>778.1</v>
+        <v>781.9</v>
       </c>
     </row>
     <row r="348" spans="3:13" x14ac:dyDescent="0.2">
@@ -66078,18 +66068,18 @@
         <v/>
       </c>
       <c r="H348" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I348">
         <v>300</v>
       </c>
       <c r="L348">
         <f>SUM($I$2:I348)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M348">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="349" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66106,11 +66096,11 @@
       </c>
       <c r="L349">
         <f>SUM($I$2:I349)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M349">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="350" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66127,11 +66117,11 @@
       </c>
       <c r="L350">
         <f>SUM($I$2:I350)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M350">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="351" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66148,11 +66138,11 @@
       </c>
       <c r="L351">
         <f>SUM($I$2:I351)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M351">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="352" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66169,11 +66159,11 @@
       </c>
       <c r="L352">
         <f>SUM($I$2:I352)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M352">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="353" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66190,11 +66180,11 @@
       </c>
       <c r="L353">
         <f>SUM($I$2:I353)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M353">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="354" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66211,11 +66201,11 @@
       </c>
       <c r="L354">
         <f>SUM($I$2:I354)</f>
-        <v>78110</v>
+        <v>78490</v>
       </c>
       <c r="M354">
         <f t="shared" si="5"/>
-        <v>781.1</v>
+        <v>784.9</v>
       </c>
     </row>
     <row r="355" spans="3:13" x14ac:dyDescent="0.2">
@@ -66231,18 +66221,18 @@
         <v/>
       </c>
       <c r="H355" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I355">
         <v>750</v>
       </c>
       <c r="L355">
         <f>SUM($I$2:I355)</f>
-        <v>78860</v>
+        <v>79240</v>
       </c>
       <c r="M355">
         <f t="shared" si="5"/>
-        <v>788.6</v>
+        <v>792.4</v>
       </c>
     </row>
     <row r="356" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66259,11 +66249,11 @@
       </c>
       <c r="L356">
         <f>SUM($I$2:I356)</f>
-        <v>78860</v>
+        <v>79240</v>
       </c>
       <c r="M356">
         <f t="shared" si="5"/>
-        <v>788.6</v>
+        <v>792.4</v>
       </c>
     </row>
     <row r="357" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66280,11 +66270,11 @@
       </c>
       <c r="L357">
         <f>SUM($I$2:I357)</f>
-        <v>78860</v>
+        <v>79240</v>
       </c>
       <c r="M357">
         <f t="shared" si="5"/>
-        <v>788.6</v>
+        <v>792.4</v>
       </c>
     </row>
     <row r="358" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66301,11 +66291,11 @@
       </c>
       <c r="L358">
         <f>SUM($I$2:I358)</f>
-        <v>78860</v>
+        <v>79240</v>
       </c>
       <c r="M358">
         <f t="shared" si="5"/>
-        <v>788.6</v>
+        <v>792.4</v>
       </c>
     </row>
     <row r="359" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66322,11 +66312,11 @@
       </c>
       <c r="L359">
         <f>SUM($I$2:I359)</f>
-        <v>78860</v>
+        <v>79240</v>
       </c>
       <c r="M359">
         <f t="shared" si="5"/>
-        <v>788.6</v>
+        <v>792.4</v>
       </c>
     </row>
     <row r="360" spans="3:13" x14ac:dyDescent="0.2">
@@ -66342,18 +66332,18 @@
         <v/>
       </c>
       <c r="H360" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I360">
         <v>270</v>
       </c>
       <c r="L360">
         <f>SUM($I$2:I360)</f>
-        <v>79130</v>
+        <v>79510</v>
       </c>
       <c r="M360">
         <f t="shared" si="5"/>
-        <v>791.3</v>
+        <v>795.1</v>
       </c>
     </row>
     <row r="361" spans="3:13" x14ac:dyDescent="0.2">
@@ -66372,18 +66362,18 @@
         <v/>
       </c>
       <c r="H361" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I361">
         <v>3000</v>
       </c>
       <c r="L361">
         <f>SUM($I$2:I361)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M361">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="362" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66400,11 +66390,11 @@
       </c>
       <c r="L362">
         <f>SUM($I$2:I362)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M362">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="363" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66421,11 +66411,11 @@
       </c>
       <c r="L363">
         <f>SUM($I$2:I363)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M363">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="364" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66442,11 +66432,11 @@
       </c>
       <c r="L364">
         <f>SUM($I$2:I364)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M364">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="365" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66463,11 +66453,11 @@
       </c>
       <c r="L365">
         <f>SUM($I$2:I365)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M365">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="366" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66484,11 +66474,11 @@
       </c>
       <c r="L366">
         <f>SUM($I$2:I366)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M366">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="367" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66505,11 +66495,11 @@
       </c>
       <c r="L367">
         <f>SUM($I$2:I367)</f>
-        <v>82130</v>
+        <v>82510</v>
       </c>
       <c r="M367">
         <f t="shared" si="5"/>
-        <v>821.3</v>
+        <v>825.1</v>
       </c>
     </row>
     <row r="368" spans="3:13" x14ac:dyDescent="0.2">
@@ -66532,11 +66522,11 @@
       </c>
       <c r="L368">
         <f>SUM($I$2:I368)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M368">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="369" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66553,11 +66543,11 @@
       </c>
       <c r="L369">
         <f>SUM($I$2:I369)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M369">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="370" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66574,11 +66564,11 @@
       </c>
       <c r="L370">
         <f>SUM($I$2:I370)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M370">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="371" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66595,11 +66585,11 @@
       </c>
       <c r="L371">
         <f>SUM($I$2:I371)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M371">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="372" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66616,11 +66606,11 @@
       </c>
       <c r="L372">
         <f>SUM($I$2:I372)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M372">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="373" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66637,11 +66627,11 @@
       </c>
       <c r="L373">
         <f>SUM($I$2:I373)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M373">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="374" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66658,11 +66648,11 @@
       </c>
       <c r="L374">
         <f>SUM($I$2:I374)</f>
-        <v>82850</v>
+        <v>83230</v>
       </c>
       <c r="M374">
         <f t="shared" si="5"/>
-        <v>828.5</v>
+        <v>832.3</v>
       </c>
     </row>
     <row r="375" spans="3:13" x14ac:dyDescent="0.2">
@@ -66678,18 +66668,18 @@
         <v/>
       </c>
       <c r="H375" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I375">
         <v>270</v>
       </c>
       <c r="L375">
         <f>SUM($I$2:I375)</f>
-        <v>83120</v>
+        <v>83500</v>
       </c>
       <c r="M375">
         <f t="shared" si="5"/>
-        <v>831.2</v>
+        <v>835</v>
       </c>
     </row>
     <row r="376" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66706,11 +66696,11 @@
       </c>
       <c r="L376">
         <f>SUM($I$2:I376)</f>
-        <v>83120</v>
+        <v>83500</v>
       </c>
       <c r="M376">
         <f t="shared" si="5"/>
-        <v>831.2</v>
+        <v>835</v>
       </c>
     </row>
     <row r="377" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66727,11 +66717,11 @@
       </c>
       <c r="L377">
         <f>SUM($I$2:I377)</f>
-        <v>83120</v>
+        <v>83500</v>
       </c>
       <c r="M377">
         <f t="shared" si="5"/>
-        <v>831.2</v>
+        <v>835</v>
       </c>
     </row>
     <row r="378" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66748,11 +66738,11 @@
       </c>
       <c r="L378">
         <f>SUM($I$2:I378)</f>
-        <v>83120</v>
+        <v>83500</v>
       </c>
       <c r="M378">
         <f t="shared" si="5"/>
-        <v>831.2</v>
+        <v>835</v>
       </c>
     </row>
     <row r="379" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66769,11 +66759,11 @@
       </c>
       <c r="L379">
         <f>SUM($I$2:I379)</f>
-        <v>83120</v>
+        <v>83500</v>
       </c>
       <c r="M379">
         <f t="shared" si="5"/>
-        <v>831.2</v>
+        <v>835</v>
       </c>
     </row>
     <row r="380" spans="3:13" x14ac:dyDescent="0.2">
@@ -66789,18 +66779,18 @@
         <v/>
       </c>
       <c r="H380" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I380">
         <v>250</v>
       </c>
       <c r="L380">
         <f>SUM($I$2:I380)</f>
-        <v>83370</v>
+        <v>83750</v>
       </c>
       <c r="M380">
         <f t="shared" si="5"/>
-        <v>833.7</v>
+        <v>837.5</v>
       </c>
     </row>
     <row r="381" spans="3:13" x14ac:dyDescent="0.2">
@@ -66826,11 +66816,11 @@
       </c>
       <c r="L381">
         <f>SUM($I$2:I381)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M381">
         <f t="shared" si="5"/>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="382" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66847,11 +66837,11 @@
       </c>
       <c r="L382">
         <f>SUM($I$2:I382)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M382">
         <f t="shared" si="5"/>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="383" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66868,11 +66858,11 @@
       </c>
       <c r="L383">
         <f>SUM($I$2:I383)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M383">
         <f t="shared" si="5"/>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="384" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66889,11 +66879,11 @@
       </c>
       <c r="L384">
         <f>SUM($I$2:I384)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M384">
         <f t="shared" si="5"/>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="385" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66910,11 +66900,11 @@
       </c>
       <c r="L385">
         <f>SUM($I$2:I385)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M385">
         <f t="shared" si="5"/>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="386" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66931,11 +66921,11 @@
       </c>
       <c r="L386">
         <f>SUM($I$2:I386)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M386">
         <f t="shared" si="5"/>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="387" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -66952,11 +66942,11 @@
       </c>
       <c r="L387">
         <f>SUM($I$2:I387)</f>
-        <v>83870</v>
+        <v>84250</v>
       </c>
       <c r="M387">
         <f t="shared" ref="M387:M419" si="6">L387/100</f>
-        <v>838.7</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="388" spans="3:13" x14ac:dyDescent="0.2">
@@ -66972,18 +66962,18 @@
         <v/>
       </c>
       <c r="H388" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I388">
         <v>300</v>
       </c>
       <c r="L388">
         <f>SUM($I$2:I388)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M388">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="389" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67000,11 +66990,11 @@
       </c>
       <c r="L389">
         <f>SUM($I$2:I389)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M389">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="390" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67021,11 +67011,11 @@
       </c>
       <c r="L390">
         <f>SUM($I$2:I390)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M390">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="391" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67042,11 +67032,11 @@
       </c>
       <c r="L391">
         <f>SUM($I$2:I391)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M391">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="392" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67063,11 +67053,11 @@
       </c>
       <c r="L392">
         <f>SUM($I$2:I392)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M392">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="393" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67084,11 +67074,11 @@
       </c>
       <c r="L393">
         <f>SUM($I$2:I393)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M393">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="394" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67105,11 +67095,11 @@
       </c>
       <c r="L394">
         <f>SUM($I$2:I394)</f>
-        <v>84170</v>
+        <v>84550</v>
       </c>
       <c r="M394">
         <f t="shared" si="6"/>
-        <v>841.7</v>
+        <v>845.5</v>
       </c>
     </row>
     <row r="395" spans="3:13" x14ac:dyDescent="0.2">
@@ -67125,18 +67115,18 @@
         <v/>
       </c>
       <c r="H395" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I395">
         <v>750</v>
       </c>
       <c r="L395">
         <f>SUM($I$2:I395)</f>
-        <v>84920</v>
+        <v>85300</v>
       </c>
       <c r="M395">
         <f t="shared" si="6"/>
-        <v>849.2</v>
+        <v>853</v>
       </c>
     </row>
     <row r="396" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67153,11 +67143,11 @@
       </c>
       <c r="L396">
         <f>SUM($I$2:I396)</f>
-        <v>84920</v>
+        <v>85300</v>
       </c>
       <c r="M396">
         <f t="shared" si="6"/>
-        <v>849.2</v>
+        <v>853</v>
       </c>
     </row>
     <row r="397" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67174,11 +67164,11 @@
       </c>
       <c r="L397">
         <f>SUM($I$2:I397)</f>
-        <v>84920</v>
+        <v>85300</v>
       </c>
       <c r="M397">
         <f t="shared" si="6"/>
-        <v>849.2</v>
+        <v>853</v>
       </c>
     </row>
     <row r="398" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67195,11 +67185,11 @@
       </c>
       <c r="L398">
         <f>SUM($I$2:I398)</f>
-        <v>84920</v>
+        <v>85300</v>
       </c>
       <c r="M398">
         <f t="shared" si="6"/>
-        <v>849.2</v>
+        <v>853</v>
       </c>
     </row>
     <row r="399" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67216,11 +67206,11 @@
       </c>
       <c r="L399">
         <f>SUM($I$2:I399)</f>
-        <v>84920</v>
+        <v>85300</v>
       </c>
       <c r="M399">
         <f t="shared" si="6"/>
-        <v>849.2</v>
+        <v>853</v>
       </c>
     </row>
     <row r="400" spans="3:13" x14ac:dyDescent="0.2">
@@ -67236,18 +67226,18 @@
         <v/>
       </c>
       <c r="H400" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I400">
         <v>270</v>
       </c>
       <c r="L400">
         <f>SUM($I$2:I400)</f>
-        <v>85190</v>
+        <v>85570</v>
       </c>
       <c r="M400">
         <f t="shared" si="6"/>
-        <v>851.9</v>
+        <v>855.7</v>
       </c>
     </row>
     <row r="401" spans="3:13" x14ac:dyDescent="0.2">
@@ -67266,18 +67256,18 @@
         <v/>
       </c>
       <c r="H401" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I401">
         <v>3000</v>
       </c>
       <c r="L401">
         <f>SUM($I$2:I401)</f>
-        <v>88190</v>
+        <v>88570</v>
       </c>
       <c r="M401">
         <f t="shared" si="6"/>
-        <v>881.9</v>
+        <v>885.7</v>
       </c>
     </row>
     <row r="402" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67294,11 +67284,11 @@
       </c>
       <c r="L402">
         <f>SUM($I$2:I402)</f>
-        <v>88190</v>
+        <v>88570</v>
       </c>
       <c r="M402">
         <f t="shared" si="6"/>
-        <v>881.9</v>
+        <v>885.7</v>
       </c>
     </row>
     <row r="403" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67315,11 +67305,11 @@
       </c>
       <c r="L403">
         <f>SUM($I$2:I403)</f>
-        <v>88190</v>
+        <v>88570</v>
       </c>
       <c r="M403">
         <f t="shared" si="6"/>
-        <v>881.9</v>
+        <v>885.7</v>
       </c>
     </row>
     <row r="404" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67336,11 +67326,11 @@
       </c>
       <c r="L404">
         <f>SUM($I$2:I404)</f>
-        <v>88190</v>
+        <v>88570</v>
       </c>
       <c r="M404">
         <f t="shared" si="6"/>
-        <v>881.9</v>
+        <v>885.7</v>
       </c>
     </row>
     <row r="405" spans="3:13" x14ac:dyDescent="0.2">
@@ -67363,11 +67353,11 @@
       </c>
       <c r="L405">
         <f>SUM($I$2:I405)</f>
-        <v>88910</v>
+        <v>89290</v>
       </c>
       <c r="M405">
         <f t="shared" si="6"/>
-        <v>889.1</v>
+        <v>892.9</v>
       </c>
     </row>
     <row r="406" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67384,11 +67374,11 @@
       </c>
       <c r="L406">
         <f>SUM($I$2:I406)</f>
-        <v>88910</v>
+        <v>89290</v>
       </c>
       <c r="M406">
         <f t="shared" si="6"/>
-        <v>889.1</v>
+        <v>892.9</v>
       </c>
     </row>
     <row r="407" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67405,11 +67395,11 @@
       </c>
       <c r="L407">
         <f>SUM($I$2:I407)</f>
-        <v>88910</v>
+        <v>89290</v>
       </c>
       <c r="M407">
         <f t="shared" si="6"/>
-        <v>889.1</v>
+        <v>892.9</v>
       </c>
     </row>
     <row r="408" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67426,11 +67416,11 @@
       </c>
       <c r="L408">
         <f>SUM($I$2:I408)</f>
-        <v>88910</v>
+        <v>89290</v>
       </c>
       <c r="M408">
         <f t="shared" si="6"/>
-        <v>889.1</v>
+        <v>892.9</v>
       </c>
     </row>
     <row r="409" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67447,11 +67437,11 @@
       </c>
       <c r="L409">
         <f>SUM($I$2:I409)</f>
-        <v>88910</v>
+        <v>89290</v>
       </c>
       <c r="M409">
         <f t="shared" si="6"/>
-        <v>889.1</v>
+        <v>892.9</v>
       </c>
     </row>
     <row r="410" spans="3:13" x14ac:dyDescent="0.2">
@@ -67467,18 +67457,18 @@
         <v/>
       </c>
       <c r="H410" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I410">
         <v>270</v>
       </c>
       <c r="L410">
         <f>SUM($I$2:I410)</f>
-        <v>89180</v>
+        <v>89560</v>
       </c>
       <c r="M410">
         <f t="shared" si="6"/>
-        <v>891.8</v>
+        <v>895.6</v>
       </c>
     </row>
     <row r="411" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67495,11 +67485,11 @@
       </c>
       <c r="L411">
         <f>SUM($I$2:I411)</f>
-        <v>89180</v>
+        <v>89560</v>
       </c>
       <c r="M411">
         <f t="shared" si="6"/>
-        <v>891.8</v>
+        <v>895.6</v>
       </c>
     </row>
     <row r="412" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67516,11 +67506,11 @@
       </c>
       <c r="L412">
         <f>SUM($I$2:I412)</f>
-        <v>89180</v>
+        <v>89560</v>
       </c>
       <c r="M412">
         <f t="shared" si="6"/>
-        <v>891.8</v>
+        <v>895.6</v>
       </c>
     </row>
     <row r="413" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67537,11 +67527,11 @@
       </c>
       <c r="L413">
         <f>SUM($I$2:I413)</f>
-        <v>89180</v>
+        <v>89560</v>
       </c>
       <c r="M413">
         <f t="shared" si="6"/>
-        <v>891.8</v>
+        <v>895.6</v>
       </c>
     </row>
     <row r="414" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67558,11 +67548,11 @@
       </c>
       <c r="L414">
         <f>SUM($I$2:I414)</f>
-        <v>89180</v>
+        <v>89560</v>
       </c>
       <c r="M414">
         <f t="shared" si="6"/>
-        <v>891.8</v>
+        <v>895.6</v>
       </c>
     </row>
     <row r="415" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67579,11 +67569,11 @@
       </c>
       <c r="L415">
         <f>SUM($I$2:I415)</f>
-        <v>89180</v>
+        <v>89560</v>
       </c>
       <c r="M415">
         <f t="shared" si="6"/>
-        <v>891.8</v>
+        <v>895.6</v>
       </c>
     </row>
     <row r="416" spans="3:13" x14ac:dyDescent="0.2">
@@ -67599,18 +67589,18 @@
         <v/>
       </c>
       <c r="H416" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I416">
         <v>250</v>
       </c>
       <c r="L416">
         <f>SUM($I$2:I416)</f>
-        <v>89430</v>
+        <v>89810</v>
       </c>
       <c r="M416">
         <f t="shared" si="6"/>
-        <v>894.3</v>
+        <v>898.1</v>
       </c>
     </row>
     <row r="417" spans="3:13" x14ac:dyDescent="0.2">
@@ -67636,11 +67626,11 @@
       </c>
       <c r="L417">
         <f>SUM($I$2:I417)</f>
-        <v>89930</v>
+        <v>90310</v>
       </c>
       <c r="M417">
         <f t="shared" si="6"/>
-        <v>899.3</v>
+        <v>903.1</v>
       </c>
     </row>
     <row r="418" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67655,12 +67645,12 @@
         <v/>
       </c>
       <c r="L419" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="420" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="L420" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="421" spans="3:13" hidden="1" x14ac:dyDescent="0.2"/>
@@ -67670,7 +67660,7 @@
         <v/>
       </c>
       <c r="L422" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="423" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67679,7 +67669,7 @@
         <v/>
       </c>
       <c r="L423" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="424" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67688,7 +67678,7 @@
         <v/>
       </c>
       <c r="L424" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="425" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
@@ -67699,7 +67689,7 @@
     </row>
     <row r="426" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="L426" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -67711,6 +67701,7 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -67718,8 +67709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23828EA-318D-D844-B2AA-2E9E5A31759B}">
   <dimension ref="A2:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68594,7 +68585,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -68806,17 +68797,17 @@
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
+++ b/CourseCardSystem/CourseCardFramework/CourseCardSystemThink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02199E05-BD65-3541-8D66-9ECBF8D004F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00294F03-A348-C640-9C3B-63939790A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" firstSheet="3" activeTab="4" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" firstSheet="3" activeTab="3" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre_Research" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Reference1" sheetId="9" r:id="rId11"/>
     <sheet name="CourseLevel&amp;Rewards" sheetId="17" r:id="rId12"/>
     <sheet name="Review" sheetId="3" r:id="rId13"/>
-    <sheet name="Sheet4" sheetId="18" r:id="rId14"/>
+    <sheet name="剧本精细设计" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ProgressReward!$H$1:$H$426</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="690">
   <si>
     <t>Birde</t>
   </si>
@@ -2122,12 +2122,176 @@
   <si>
     <t>橙卡（添加额外张数）</t>
   </si>
+  <si>
+    <t>橙1 - Lv1</t>
+  </si>
+  <si>
+    <t>橙2 - Lv1</t>
+  </si>
+  <si>
+    <t>橙1 - Lv2</t>
+  </si>
+  <si>
+    <t>橙2 - Lv2</t>
+  </si>
+  <si>
+    <t>紫1 - Lv1</t>
+  </si>
+  <si>
+    <t>紫1 - Lv2</t>
+  </si>
+  <si>
+    <t>紫2 - Lv1</t>
+  </si>
+  <si>
+    <t>紫2 - Lv2</t>
+  </si>
+  <si>
+    <t>橙1 - Lv3</t>
+  </si>
+  <si>
+    <t>紫3 - Lv1</t>
+  </si>
+  <si>
+    <t>紫3 - Lv2</t>
+  </si>
+  <si>
+    <t>紫3 - Lv3</t>
+  </si>
+  <si>
+    <t>紫4 - Lv1</t>
+  </si>
+  <si>
+    <t>紫4 - Lv2</t>
+  </si>
+  <si>
+    <t>紫4 - Lv3</t>
+  </si>
+  <si>
+    <t>橙2 - Lv3</t>
+  </si>
+  <si>
+    <t>紫1 - Lv3</t>
+  </si>
+  <si>
+    <t>紫2 - Lv3</t>
+  </si>
+  <si>
+    <t>弹窗介绍活动内容和背景，赠送一张初始球场卡，用户点击领取，翻出新卡（新卡给courselevel经验）；动画解锁关卡1，强引导用户进入关卡1的完成推关；</t>
+  </si>
+  <si>
+    <t>通过free_card 实现</t>
+  </si>
+  <si>
+    <t>动画解锁关卡2，预览关卡点next，进入道具页面，高亮球场卡不足，强引导点击球场卡，弹窗提示未拥有球场卡，点击进入商店；强引导开箱子，开出关卡2的球场卡；强引导进入pve，打关卡2；打完关卡2领取关卡2的奖励</t>
+  </si>
+  <si>
+    <t>第一次免费宝箱一定包含1张橙2</t>
+  </si>
+  <si>
+    <t>动画解锁关卡3，预览关卡点next，进入道具页面，高亮球场卡等级不足，强引导点击球场卡，跳转到球场卡预览和升级，完成升级后，返回到道具页面，打关卡3</t>
+  </si>
+  <si>
+    <t>新手引导</t>
+  </si>
+  <si>
+    <t>数值要求</t>
+  </si>
+  <si>
+    <t>让玩家至少能顺畅的打到这里</t>
+  </si>
+  <si>
+    <t>第一次免费宝箱的橙1量一定&gt; 升1级的量; 且一定大于橙2再升1级的量 （一个免费宝箱12张橙卡，刚好满足这个要求，同时给一张紫1）</t>
+  </si>
+  <si>
+    <t>通过第一次免费宝箱的投放就实现</t>
+  </si>
+  <si>
+    <t>其中的升级币资源最后再计算，如果不足则通过进度条奖励进行投放</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1enTwAruinyVWYAD8kGRwLu7cR8toyz6BoxOaE_awAhE/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>按照标准时间进行计算，计算此时玩家挂机可以获得的总宝箱币，这些宝箱币开出的宝箱一定应满足玩家到此片段的升级与解锁需求；可以按照各个阶段进行细分</t>
+  </si>
+  <si>
+    <t>玩家到达此节点通过挂机获得宝箱币总数</t>
+  </si>
+  <si>
+    <t>能开的宝箱1数量</t>
+  </si>
+  <si>
+    <t>能获得的紫卡数</t>
+  </si>
+  <si>
+    <t>能获得的橙卡数</t>
+  </si>
+  <si>
+    <t>剧本安排下的各个卡片等级？</t>
+  </si>
+  <si>
+    <t>开宝箱能获得的升级币数</t>
+  </si>
+  <si>
+    <t>到达此节点时挂机获得的升级币</t>
+  </si>
+  <si>
+    <t>通过计算基本符合✅</t>
+  </si>
+  <si>
+    <t>能开的宝箱2次数</t>
+  </si>
+  <si>
+    <t>玩家开1次宝箱2所有紫卡都给与其 紫1&amp;紫2 &amp; 紫3 ，并保证玩家的紫1与紫2都能升到2</t>
+  </si>
+  <si>
+    <t>对宝箱1的处理</t>
+  </si>
+  <si>
+    <t>对宝箱2的处理</t>
+  </si>
+  <si>
+    <r>
+      <t>玩家此刻拥有的宝箱币应该能再开一次箱子，满足紫1升2，且获得紫2, 同时支持橙卡升级3级，</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>同时获得紫3的第一级</t>
+    </r>
+  </si>
+  <si>
+    <t>保证紫2能升2;第二次开宝箱保证紫3/紫4 能升2</t>
+  </si>
+  <si>
+    <t>第5颗星时直接奖励大量宝箱币，保证玩家可以开2次银宝箱，那么玩家就可以一路打到第九关</t>
+  </si>
+  <si>
+    <t>额外添加5张紫卡</t>
+  </si>
+  <si>
+    <t>在第9颗星时再投放1宝箱2保证玩家可以打到第12关 （紫3差一张升到第3级)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">额外第三次宝箱保证紫3&amp;紫4 都能升2 </t>
+  </si>
+  <si>
+    <t>额外第四次开宝箱保证紫3/紫4 能升3</t>
+  </si>
+  <si>
+    <t>额外第五次开宝箱保证紫3&amp;紫4 都能升3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2253,8 +2417,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2366,6 +2550,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA54F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8470FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,11 +2725,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2684,8 +2899,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -15814,13 +16051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>188</xdr:col>
+      <xdr:col>187</xdr:col>
       <xdr:colOff>186422</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>188</xdr:col>
+      <xdr:col>187</xdr:col>
       <xdr:colOff>198074</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -15867,13 +16104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>188</xdr:col>
+      <xdr:col>187</xdr:col>
       <xdr:colOff>233028</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>81559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>193</xdr:col>
+      <xdr:col>192</xdr:col>
       <xdr:colOff>58257</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
@@ -15920,13 +16157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>190</xdr:col>
+      <xdr:col>189</xdr:col>
       <xdr:colOff>139817</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>34954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>191</xdr:col>
+      <xdr:col>190</xdr:col>
       <xdr:colOff>629175</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -15983,13 +16220,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>186</xdr:col>
+      <xdr:col>185</xdr:col>
       <xdr:colOff>792294</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>187</xdr:col>
+      <xdr:col>186</xdr:col>
       <xdr:colOff>664128</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>58256</xdr:rowOff>
@@ -16046,13 +16283,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>188</xdr:col>
+      <xdr:col>187</xdr:col>
       <xdr:colOff>241301</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>195</xdr:col>
+      <xdr:col>194</xdr:col>
       <xdr:colOff>149076</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>189436</xdr:rowOff>
@@ -16764,6 +17001,503 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279121</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953BD46F-C830-4F4E-9D9E-053969299B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819121" y="9727363"/>
+          <a:ext cx="2651648" cy="1116483"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>不同阶段需要的各个卡的等级</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1799214</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3013390</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1EA91C-B799-4A42-BB86-4175856D2B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6990862" y="9712290"/>
+          <a:ext cx="3084286" cy="1116483"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>不同阶段按照正常进度能开的宝箱次数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4296230</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2649417</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBCB302-C20E-FC4C-A76D-24567E24A261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11357988" y="9697217"/>
+          <a:ext cx="3084286" cy="1116483"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>第x次开宝箱的需要达到的条件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4085772</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2438959</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BA1D76-D8F3-3F4C-9C32-88618B471DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15878629" y="9696101"/>
+          <a:ext cx="3084286" cy="1116483"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>第x次开宝箱需要保证的卡片张数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279121</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1799214</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41869</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7325CE9C-5F66-D540-8A4A-485305CE0368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5470769" y="10270532"/>
+          <a:ext cx="1520093" cy="15073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3013390</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4296230</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0376F28C-94FF-954F-A096-E27F3146F620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10075148" y="10255459"/>
+          <a:ext cx="1282840" cy="15073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2649417</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4085772</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39B1A81-C1E9-374B-8B84-F2AE57E6D1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14442274" y="10254343"/>
+          <a:ext cx="1436355" cy="1116"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237254</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1981759</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Snip Diagonal Corner Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B75A92F-ECC9-7546-AA98-E16AB0C0785A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5428902" y="8596922"/>
+          <a:ext cx="8345714" cy="795495"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>让玩家可以一口气打到第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18928,7 +19662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF40A17-FC5A-F647-8990-45C8B7AE628F}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -21026,8 +21760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9C131-72CD-FE43-B3A1-DCACE606290C}">
   <dimension ref="A3:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21350,44 +22084,1024 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015EDA34-6C3A-D441-8B9F-A6BD48C9E4B8}">
-  <dimension ref="DQ2:DQ9"/>
+  <dimension ref="A1:DT23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A3" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="62.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="53.33203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="36.1640625" customWidth="1"/>
+    <col min="13" max="13" width="37.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="19" max="19" width="38.83203125" customWidth="1"/>
+    <col min="20" max="20" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ2" s="16"/>
-    </row>
-    <row r="3" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ3" s="16"/>
-    </row>
-    <row r="4" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ4" s="16"/>
-    </row>
-    <row r="5" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ5" s="16"/>
-    </row>
-    <row r="6" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ6" s="16"/>
-    </row>
-    <row r="7" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ7" s="16"/>
-    </row>
-    <row r="8" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ8" s="16"/>
-    </row>
-    <row r="9" spans="121:121" x14ac:dyDescent="0.2">
-      <c r="DQ9" s="16"/>
+    <row r="1" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A2" s="112"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113" t="s">
+        <v>680</v>
+      </c>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="S2" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:124" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="L4" t="s">
+        <v>676</v>
+      </c>
+      <c r="M4" t="s">
+        <v>670</v>
+      </c>
+      <c r="N4" t="s">
+        <v>671</v>
+      </c>
+      <c r="O4" t="s">
+        <v>672</v>
+      </c>
+      <c r="P4" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>675</v>
+      </c>
+      <c r="S4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:124" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="105">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>657</v>
+      </c>
+      <c r="H5" s="110"/>
+      <c r="I5" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="L5">
+        <f>'Dungeon&amp;Framework'!DT5</f>
+        <v>4800</v>
+      </c>
+      <c r="M5">
+        <f>'Dungeon&amp;Framework'!BX5</f>
+        <v>9600</v>
+      </c>
+      <c r="N5">
+        <f>M5/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="O5">
+        <f>N5*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P5">
+        <f>N5*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="Q5">
+        <f>N5*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>9600</v>
+      </c>
+      <c r="S5">
+        <f>L5/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="DT5" s="16"/>
+    </row>
+    <row r="6" spans="1:124" ht="61" x14ac:dyDescent="0.2">
+      <c r="A6" s="105">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39">
+        <v>2</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>659</v>
+      </c>
+      <c r="H6" s="110"/>
+      <c r="I6" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="L6">
+        <f>'Dungeon&amp;Framework'!DT6</f>
+        <v>14400</v>
+      </c>
+      <c r="M6">
+        <f>'Dungeon&amp;Framework'!BX6</f>
+        <v>24000</v>
+      </c>
+      <c r="N6">
+        <f>M6/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O6">
+        <f>N6*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="P6">
+        <f>N6*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>5.7142857142857135</v>
+      </c>
+      <c r="Q6">
+        <f>N6*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>24000</v>
+      </c>
+      <c r="S6">
+        <f>L6/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.04</v>
+      </c>
+      <c r="DT6" s="16"/>
+    </row>
+    <row r="7" spans="1:124" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="105">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39">
+        <v>3</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>661</v>
+      </c>
+      <c r="H7" s="111"/>
+      <c r="I7" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="L7">
+        <f>'Dungeon&amp;Framework'!DT7</f>
+        <v>24000</v>
+      </c>
+      <c r="M7">
+        <f>'Dungeon&amp;Framework'!BX7</f>
+        <v>38400</v>
+      </c>
+      <c r="N7">
+        <f>M7/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="O7">
+        <f>N7*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="P7">
+        <f>N7*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="Q7">
+        <f>N7*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>38400</v>
+      </c>
+      <c r="S7">
+        <f>L7/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="DT7" s="16"/>
+    </row>
+    <row r="8" spans="1:124" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="105">
+        <v>4</v>
+      </c>
+      <c r="B8" s="39">
+        <v>4</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8">
+        <f>'Dungeon&amp;Framework'!DT8</f>
+        <v>38400</v>
+      </c>
+      <c r="M8">
+        <f>'Dungeon&amp;Framework'!BX8</f>
+        <v>57600</v>
+      </c>
+      <c r="N8">
+        <f>M8/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="O8">
+        <f>N8*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>3.4285714285714288</v>
+      </c>
+      <c r="P8">
+        <f>N8*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>13.714285714285715</v>
+      </c>
+      <c r="Q8">
+        <f>N8*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>57600</v>
+      </c>
+      <c r="S8">
+        <f>L8/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="DT8" s="16"/>
+    </row>
+    <row r="9" spans="1:124" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="105">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39">
+        <v>5</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="F9" s="104"/>
+      <c r="G9" s="114" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="L9">
+        <f>'Dungeon&amp;Framework'!DT9</f>
+        <v>52800</v>
+      </c>
+      <c r="M9">
+        <f>'Dungeon&amp;Framework'!BX9</f>
+        <v>76800</v>
+      </c>
+      <c r="N9">
+        <f>M9/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="O9">
+        <f>N9*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="P9">
+        <f>N9*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="Q9">
+        <f>N9*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>76800</v>
+      </c>
+      <c r="S9">
+        <f>L9/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="DT9" s="16"/>
+    </row>
+    <row r="10" spans="1:124" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="105">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39">
+        <v>6</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="39">
+        <v>2</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="H10" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="L10">
+        <f>'Dungeon&amp;Framework'!DT10</f>
+        <v>72000</v>
+      </c>
+      <c r="M10">
+        <f>'Dungeon&amp;Framework'!BX10</f>
+        <v>100800</v>
+      </c>
+      <c r="N10">
+        <f>M10/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>1.2</v>
+      </c>
+      <c r="O10">
+        <f>N10*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <f>N10*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>24</v>
+      </c>
+      <c r="Q10">
+        <f>N10*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>100800</v>
+      </c>
+      <c r="S10">
+        <f>L10/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.2</v>
+      </c>
+      <c r="DT10" s="16"/>
+    </row>
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A11" s="105">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39">
+        <v>7</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="F11" s="104"/>
+      <c r="L11">
+        <f>'Dungeon&amp;Framework'!DT11</f>
+        <v>91200</v>
+      </c>
+      <c r="M11">
+        <f>'Dungeon&amp;Framework'!BX11</f>
+        <v>124800</v>
+      </c>
+      <c r="N11">
+        <f>M11/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="O11">
+        <f>N11*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="P11">
+        <f>N11*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>29.714285714285715</v>
+      </c>
+      <c r="Q11">
+        <f>N11*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>124800</v>
+      </c>
+      <c r="S11">
+        <f>L11/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="DT11" s="16"/>
+    </row>
+    <row r="12" spans="1:124" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="105">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39">
+        <v>8</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="F12" s="104"/>
+      <c r="H12" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="L12">
+        <f>'Dungeon&amp;Framework'!DT12</f>
+        <v>115200</v>
+      </c>
+      <c r="M12">
+        <f>'Dungeon&amp;Framework'!BX12</f>
+        <v>153600</v>
+      </c>
+      <c r="N12">
+        <f>M12/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>1.8285714285714285</v>
+      </c>
+      <c r="O12">
+        <f>N12*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="P12">
+        <f>N12*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="Q12">
+        <f>N12*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>153600</v>
+      </c>
+      <c r="S12">
+        <f>L12/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.32</v>
+      </c>
+      <c r="DT12" s="16"/>
+    </row>
+    <row r="13" spans="1:124" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="105">
+        <v>9</v>
+      </c>
+      <c r="B13" s="39">
+        <v>9</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="39">
+        <v>3</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>647</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="114" t="s">
+        <v>686</v>
+      </c>
+      <c r="L13">
+        <f>'Dungeon&amp;Framework'!DT13</f>
+        <v>139200</v>
+      </c>
+      <c r="M13">
+        <f>'Dungeon&amp;Framework'!BX13</f>
+        <v>182400</v>
+      </c>
+      <c r="N13">
+        <f>M13/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>2.1714285714285713</v>
+      </c>
+      <c r="O13">
+        <f>N13*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>10.857142857142856</v>
+      </c>
+      <c r="P13">
+        <f>N13*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>43.428571428571423</v>
+      </c>
+      <c r="Q13">
+        <f>N13*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>182400</v>
+      </c>
+      <c r="S13">
+        <f>L13/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.38666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:124" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="105">
+        <v>10</v>
+      </c>
+      <c r="B14" s="39">
+        <v>10</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="L14">
+        <f>'Dungeon&amp;Framework'!DT14</f>
+        <v>168000</v>
+      </c>
+      <c r="M14">
+        <f>'Dungeon&amp;Framework'!BX14</f>
+        <v>216000</v>
+      </c>
+      <c r="N14">
+        <f>M14/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="O14">
+        <f>N14*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="P14">
+        <f>N14*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="Q14">
+        <f>N14*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>216000.00000000003</v>
+      </c>
+      <c r="S14">
+        <f>L14/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A15" s="105">
+        <v>11</v>
+      </c>
+      <c r="B15" s="39">
+        <v>11</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="39">
+        <v>2</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="L15">
+        <f>'Dungeon&amp;Framework'!DT15</f>
+        <v>196800</v>
+      </c>
+      <c r="M15">
+        <f>'Dungeon&amp;Framework'!BX15</f>
+        <v>249600</v>
+      </c>
+      <c r="N15">
+        <f>M15/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>2.9714285714285715</v>
+      </c>
+      <c r="O15">
+        <f>N15*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>14.857142857142858</v>
+      </c>
+      <c r="P15">
+        <f>N15*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>59.428571428571431</v>
+      </c>
+      <c r="Q15">
+        <f>N15*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>249600</v>
+      </c>
+      <c r="S15">
+        <f>L15/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.54666666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A16" s="105">
+        <v>12</v>
+      </c>
+      <c r="B16" s="39">
+        <v>12</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="39">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="F16" s="109"/>
+      <c r="L16">
+        <f>'Dungeon&amp;Framework'!DT16</f>
+        <v>230400</v>
+      </c>
+      <c r="M16">
+        <f>'Dungeon&amp;Framework'!BX16</f>
+        <v>288000</v>
+      </c>
+      <c r="N16">
+        <f>M16/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="O16">
+        <f>N16*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="P16">
+        <f>N16*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="Q16">
+        <f>N16*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>288000</v>
+      </c>
+      <c r="S16">
+        <f>L16/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="105">
+        <v>13</v>
+      </c>
+      <c r="B17" s="39">
+        <v>13</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="H17" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="L17">
+        <f>'Dungeon&amp;Framework'!DT17</f>
+        <v>264000</v>
+      </c>
+      <c r="M17">
+        <f>'Dungeon&amp;Framework'!BX17</f>
+        <v>326400</v>
+      </c>
+      <c r="N17">
+        <f>M17/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>3.8857142857142857</v>
+      </c>
+      <c r="O17">
+        <f>N17*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="P17">
+        <f>N17*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="Q17">
+        <f>N17*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>326400</v>
+      </c>
+      <c r="S17">
+        <f>L17/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="105">
+        <v>14</v>
+      </c>
+      <c r="B18" s="39">
+        <v>14</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="L18">
+        <f>'Dungeon&amp;Framework'!DT18</f>
+        <v>302400</v>
+      </c>
+      <c r="M18">
+        <f>'Dungeon&amp;Framework'!BX18</f>
+        <v>369600</v>
+      </c>
+      <c r="N18">
+        <f>M18/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O18">
+        <f>N18*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>22</v>
+      </c>
+      <c r="P18">
+        <f>N18*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>88</v>
+      </c>
+      <c r="Q18">
+        <f>N18*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>369600.00000000006</v>
+      </c>
+      <c r="S18">
+        <f>L18/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="105">
+        <v>15</v>
+      </c>
+      <c r="B19" s="39">
+        <v>15</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="39">
+        <v>3</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="H19" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="L19">
+        <f>'Dungeon&amp;Framework'!DT19</f>
+        <v>340800</v>
+      </c>
+      <c r="M19">
+        <f>'Dungeon&amp;Framework'!BX19</f>
+        <v>412800</v>
+      </c>
+      <c r="N19">
+        <f>M19/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>4.9142857142857146</v>
+      </c>
+      <c r="O19">
+        <f>N19*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>24.571428571428573</v>
+      </c>
+      <c r="P19">
+        <f>N19*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>98.285714285714292</v>
+      </c>
+      <c r="Q19">
+        <f>N19*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>412800</v>
+      </c>
+      <c r="S19">
+        <f>L19/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="T19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="105">
+        <v>16</v>
+      </c>
+      <c r="B20" s="39">
+        <v>16</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="39">
+        <v>3</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>654</v>
+      </c>
+      <c r="F20" s="104"/>
+      <c r="H20" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="L20">
+        <f>'Dungeon&amp;Framework'!DT20</f>
+        <v>384000</v>
+      </c>
+      <c r="M20">
+        <f>'Dungeon&amp;Framework'!BX20</f>
+        <v>460800</v>
+      </c>
+      <c r="N20">
+        <f>M20/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>5.4857142857142858</v>
+      </c>
+      <c r="O20">
+        <f>N20*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>27.428571428571431</v>
+      </c>
+      <c r="P20">
+        <f>N20*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>109.71428571428572</v>
+      </c>
+      <c r="Q20">
+        <f>N20*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>460800</v>
+      </c>
+      <c r="S20">
+        <f>L20/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="105">
+        <v>17</v>
+      </c>
+      <c r="B21" s="39">
+        <v>17</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="39">
+        <v>3</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="F21" s="104"/>
+      <c r="L21">
+        <f>'Dungeon&amp;Framework'!DT21</f>
+        <v>427200</v>
+      </c>
+      <c r="M21">
+        <f>'Dungeon&amp;Framework'!BX21</f>
+        <v>508800</v>
+      </c>
+      <c r="N21">
+        <f>M21/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>6.0571428571428569</v>
+      </c>
+      <c r="O21">
+        <f>N21*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>30.285714285714285</v>
+      </c>
+      <c r="P21">
+        <f>N21*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>121.14285714285714</v>
+      </c>
+      <c r="Q21">
+        <f>N21*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>508800</v>
+      </c>
+      <c r="S21">
+        <f>L21/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>1.1866666666666668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="105">
+        <v>18</v>
+      </c>
+      <c r="B22" s="39">
+        <v>18</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="39">
+        <v>3</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="F22" s="104"/>
+      <c r="L22">
+        <f>'Dungeon&amp;Framework'!DT22</f>
+        <v>475200</v>
+      </c>
+      <c r="M22">
+        <f>'Dungeon&amp;Framework'!BX22</f>
+        <v>561600</v>
+      </c>
+      <c r="N22">
+        <f>M22/'Chest&amp;Cards&amp;Offer'!$D$10</f>
+        <v>6.6857142857142859</v>
+      </c>
+      <c r="O22">
+        <f>N22*'Chest&amp;Cards&amp;Offer'!$D$7</f>
+        <v>33.428571428571431</v>
+      </c>
+      <c r="P22">
+        <f>N22*'Chest&amp;Cards&amp;Offer'!$D$6</f>
+        <v>133.71428571428572</v>
+      </c>
+      <c r="Q22">
+        <f>N22*'Chest&amp;Cards&amp;Offer'!$D$5</f>
+        <v>561600</v>
+      </c>
+      <c r="S22">
+        <f>L22/'Chest&amp;Cards&amp;Offer'!$E$5</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="108"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="104"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F14:F19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{B55B77FB-BE6F-D446-ABC3-7D9006066C1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21657,13 +23371,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1:IH95"/>
+  <dimension ref="A1:IG95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="DW55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="DW8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DZ72" sqref="DZ72"/>
+      <selection pane="bottomRight" activeCell="DY20" sqref="DY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21740,33 +23454,33 @@
     <col min="147" max="147" width="36.83203125" style="7" customWidth="1"/>
     <col min="148" max="148" width="9.83203125" customWidth="1"/>
     <col min="149" max="149" width="35.33203125" style="7" customWidth="1"/>
-    <col min="150" max="151" width="9.83203125" customWidth="1"/>
-    <col min="152" max="152" width="11.1640625" style="5" customWidth="1"/>
-    <col min="154" max="154" width="38" customWidth="1"/>
-    <col min="155" max="155" width="24.5" customWidth="1"/>
-    <col min="156" max="156" width="27.5" customWidth="1"/>
-    <col min="157" max="158" width="23" customWidth="1"/>
-    <col min="159" max="159" width="20.83203125" customWidth="1"/>
-    <col min="161" max="161" width="14.33203125" customWidth="1"/>
-    <col min="162" max="162" width="14.6640625" customWidth="1"/>
-    <col min="163" max="163" width="13.83203125" customWidth="1"/>
-    <col min="164" max="164" width="14.1640625" customWidth="1"/>
-    <col min="188" max="188" width="0" hidden="1" customWidth="1"/>
-    <col min="208" max="208" width="29.33203125" customWidth="1"/>
-    <col min="209" max="209" width="18.83203125" style="31" customWidth="1"/>
-    <col min="210" max="210" width="16.1640625" style="31" customWidth="1"/>
-    <col min="211" max="211" width="25.5" style="31" customWidth="1"/>
-    <col min="213" max="216" width="10.83203125" style="31"/>
-    <col min="218" max="220" width="10.83203125" style="32"/>
-    <col min="222" max="224" width="10.83203125" style="32"/>
-    <col min="226" max="228" width="10.83203125" style="32"/>
-    <col min="230" max="232" width="10.83203125" style="32"/>
-    <col min="233" max="233" width="10.83203125" style="34"/>
-    <col min="235" max="237" width="10.83203125" style="35"/>
-    <col min="240" max="242" width="10.83203125" style="35"/>
+    <col min="150" max="150" width="9.83203125" customWidth="1"/>
+    <col min="151" max="151" width="11.1640625" style="5" customWidth="1"/>
+    <col min="153" max="153" width="38" customWidth="1"/>
+    <col min="154" max="154" width="24.5" customWidth="1"/>
+    <col min="155" max="155" width="27.5" customWidth="1"/>
+    <col min="156" max="157" width="23" customWidth="1"/>
+    <col min="158" max="158" width="20.83203125" customWidth="1"/>
+    <col min="160" max="160" width="14.33203125" customWidth="1"/>
+    <col min="161" max="161" width="14.6640625" customWidth="1"/>
+    <col min="162" max="162" width="13.83203125" customWidth="1"/>
+    <col min="163" max="163" width="14.1640625" customWidth="1"/>
+    <col min="187" max="187" width="0" hidden="1" customWidth="1"/>
+    <col min="207" max="207" width="29.33203125" customWidth="1"/>
+    <col min="208" max="208" width="18.83203125" style="31" customWidth="1"/>
+    <col min="209" max="209" width="16.1640625" style="31" customWidth="1"/>
+    <col min="210" max="210" width="25.5" style="31" customWidth="1"/>
+    <col min="212" max="215" width="10.83203125" style="31"/>
+    <col min="217" max="219" width="10.83203125" style="32"/>
+    <col min="221" max="223" width="10.83203125" style="32"/>
+    <col min="225" max="227" width="10.83203125" style="32"/>
+    <col min="229" max="231" width="10.83203125" style="32"/>
+    <col min="232" max="232" width="10.83203125" style="34"/>
+    <col min="234" max="236" width="10.83203125" style="35"/>
+    <col min="239" max="241" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -21911,101 +23625,101 @@
       <c r="EO1">
         <v>30</v>
       </c>
+      <c r="FG1">
+        <v>40</v>
+      </c>
       <c r="FH1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="FI1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="FJ1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="FK1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="FL1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="FM1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="FN1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="FO1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="FP1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="FQ1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="FR1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="FS1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FT1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="FU1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="FV1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FW1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="FX1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="FY1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="FZ1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="GA1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="GB1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="GC1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="GD1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="GE1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="GF1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="GG1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GH1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="GI1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="GJ1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="GK1">
-        <v>69</v>
-      </c>
-      <c r="GL1">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:242" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:241" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -22144,28 +23858,29 @@
       <c r="EM2" s="16"/>
       <c r="EN2" s="16"/>
       <c r="EO2" s="16"/>
-      <c r="EX2" s="28" t="s">
+      <c r="EW2" s="28" t="s">
         <v>294</v>
       </c>
+      <c r="EX2" s="28"/>
       <c r="EY2" s="28"/>
       <c r="EZ2" s="28"/>
       <c r="FA2" s="28"/>
       <c r="FB2" s="28"/>
-      <c r="FC2" s="28"/>
-      <c r="FJ2" t="s">
+      <c r="FI2" t="s">
         <v>233</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="FW2" t="s">
         <v>238</v>
       </c>
+      <c r="GD2" s="6"/>
       <c r="GE2" s="6"/>
       <c r="GF2" s="6"/>
       <c r="GG2" s="6"/>
-      <c r="GH2" s="6"/>
-      <c r="GI2" s="30"/>
-      <c r="GJ2" s="6" t="s">
+      <c r="GH2" s="30"/>
+      <c r="GI2" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="GJ2" s="6"/>
       <c r="GK2" s="6"/>
       <c r="GL2" s="6"/>
       <c r="GM2" s="6"/>
@@ -22174,13 +23889,12 @@
       <c r="GP2" s="6"/>
       <c r="GQ2" s="6"/>
       <c r="GR2" s="6"/>
-      <c r="GS2" s="6"/>
-      <c r="GY2" s="27" t="s">
+      <c r="GX2" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="GZ2" s="27"/>
-    </row>
-    <row r="3" spans="1:242" ht="24" x14ac:dyDescent="0.3">
+      <c r="GY2" s="27"/>
+    </row>
+    <row r="3" spans="1:241" ht="24" x14ac:dyDescent="0.3">
       <c r="AZ3" s="84" t="s">
         <v>377</v>
       </c>
@@ -22223,19 +23937,20 @@
         <v>622</v>
       </c>
       <c r="EH3" s="7"/>
-      <c r="EX3" s="29" t="s">
+      <c r="EW3" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="FE3" t="s">
+      <c r="FD3" t="s">
         <v>287</v>
       </c>
+      <c r="GD3" s="6"/>
       <c r="GE3" s="6"/>
       <c r="GF3" s="6"/>
       <c r="GG3" s="6"/>
-      <c r="GH3" s="6"/>
-      <c r="GI3" s="30" t="s">
+      <c r="GH3" s="30" t="s">
         <v>285</v>
       </c>
+      <c r="GI3" s="6"/>
       <c r="GJ3" s="6"/>
       <c r="GK3" s="6"/>
       <c r="GL3" s="6"/>
@@ -22245,53 +23960,52 @@
       <c r="GP3" s="6"/>
       <c r="GQ3" s="6"/>
       <c r="GR3" s="6"/>
-      <c r="GS3" s="6"/>
-      <c r="GY3" s="27" t="s">
+      <c r="GX3" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="GZ3" s="27"/>
-      <c r="HA3" s="86" t="s">
+      <c r="GY3" s="27"/>
+      <c r="GZ3" s="86" t="s">
         <v>49</v>
       </c>
+      <c r="HA3" s="86"/>
       <c r="HB3" s="86"/>
-      <c r="HC3" s="86"/>
-      <c r="HE3" s="86" t="s">
+      <c r="HD3" s="86" t="s">
         <v>50</v>
       </c>
+      <c r="HE3" s="86"/>
       <c r="HF3" s="86"/>
-      <c r="HG3" s="86"/>
-      <c r="HJ3" s="88" t="s">
+      <c r="HI3" s="88" t="s">
         <v>51</v>
       </c>
+      <c r="HJ3" s="88"/>
       <c r="HK3" s="88"/>
-      <c r="HL3" s="88"/>
-      <c r="HN3" s="88" t="s">
+      <c r="HM3" s="88" t="s">
         <v>104</v>
       </c>
+      <c r="HN3" s="88"/>
       <c r="HO3" s="88"/>
-      <c r="HP3" s="88"/>
-      <c r="HR3" s="88" t="s">
+      <c r="HQ3" s="88" t="s">
         <v>112</v>
       </c>
+      <c r="HR3" s="88"/>
       <c r="HS3" s="88"/>
-      <c r="HT3" s="88"/>
-      <c r="HV3" s="88" t="s">
+      <c r="HU3" s="88" t="s">
         <v>113</v>
       </c>
+      <c r="HV3" s="88"/>
       <c r="HW3" s="88"/>
-      <c r="HX3" s="88"/>
-      <c r="IA3" s="85" t="s">
+      <c r="HZ3" s="85" t="s">
         <v>129</v>
       </c>
+      <c r="IA3" s="85"/>
       <c r="IB3" s="85"/>
-      <c r="IC3" s="85"/>
-      <c r="IF3" s="85" t="s">
+      <c r="IE3" s="85" t="s">
         <v>105</v>
       </c>
+      <c r="IF3" s="85"/>
       <c r="IG3" s="85"/>
-      <c r="IH3" s="85"/>
-    </row>
-    <row r="4" spans="1:242" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:241" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -22628,82 +24342,83 @@
       <c r="ES4" s="7" t="s">
         <v>587</v>
       </c>
+      <c r="EW4" t="s">
+        <v>292</v>
+      </c>
       <c r="EX4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="EY4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="EZ4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FA4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FB4" t="s">
-        <v>299</v>
-      </c>
-      <c r="FC4" t="s">
         <v>293</v>
       </c>
+      <c r="FD4" t="s">
+        <v>288</v>
+      </c>
       <c r="FE4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FF4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FG4" t="s">
-        <v>290</v>
-      </c>
-      <c r="FH4" t="s">
         <v>291</v>
       </c>
+      <c r="FI4" t="s">
+        <v>224</v>
+      </c>
       <c r="FJ4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="FK4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="FL4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="FM4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="FN4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="FO4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="FP4" t="s">
-        <v>230</v>
-      </c>
-      <c r="FQ4" t="s">
         <v>231</v>
       </c>
-      <c r="FS4" t="s">
+      <c r="FR4" t="s">
         <v>234</v>
       </c>
-      <c r="FU4" t="s">
+      <c r="FT4" t="s">
         <v>235</v>
       </c>
+      <c r="FW4" t="s">
+        <v>239</v>
+      </c>
       <c r="FX4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="FY4" t="s">
-        <v>240</v>
-      </c>
-      <c r="FZ4" t="s">
         <v>241</v>
       </c>
+      <c r="GD4" s="6"/>
       <c r="GE4" s="6"/>
       <c r="GF4" s="6"/>
       <c r="GG4" s="6"/>
-      <c r="GH4" s="6"/>
-      <c r="GI4" s="6" t="s">
+      <c r="GH4" s="6" t="s">
         <v>302</v>
       </c>
+      <c r="GI4" s="6"/>
       <c r="GJ4" s="6"/>
       <c r="GK4" s="6"/>
       <c r="GL4" s="6"/>
@@ -22713,87 +24428,86 @@
       <c r="GP4" s="6"/>
       <c r="GQ4" s="6"/>
       <c r="GR4" s="6"/>
-      <c r="GS4" s="6"/>
-      <c r="GU4" t="s">
+      <c r="GT4" t="s">
         <v>314</v>
       </c>
-      <c r="GY4" t="s">
+      <c r="GX4" t="s">
         <v>313</v>
       </c>
+      <c r="GZ4" s="31" t="s">
+        <v>310</v>
+      </c>
       <c r="HA4" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="HB4" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="HD4" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="HB4" s="31" t="s">
+      <c r="HE4" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="HC4" s="31" t="s">
+      <c r="HF4" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="HE4" s="31" t="s">
+      <c r="HI4" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="HF4" s="31" t="s">
+      <c r="HJ4" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="HG4" s="31" t="s">
+      <c r="HK4" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="HJ4" s="33" t="s">
+      <c r="HM4" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="HK4" s="33" t="s">
+      <c r="HN4" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="HL4" s="33" t="s">
+      <c r="HO4" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="HN4" s="33" t="s">
+      <c r="HQ4" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="HO4" s="33" t="s">
+      <c r="HR4" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="HP4" s="33" t="s">
+      <c r="HS4" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="HR4" s="33" t="s">
+      <c r="HU4" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="HS4" s="33" t="s">
+      <c r="HV4" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="HT4" s="33" t="s">
+      <c r="HW4" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="HV4" s="33" t="s">
+      <c r="HZ4" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="HW4" s="33" t="s">
+      <c r="IA4" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="HX4" s="33" t="s">
+      <c r="IB4" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="IA4" s="36" t="s">
+      <c r="IE4" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="IB4" s="36" t="s">
+      <c r="IF4" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="IC4" s="36" t="s">
+      <c r="IG4" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="IF4" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="IG4" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="IH4" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:242" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:241" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -23169,21 +24883,21 @@
         <f t="shared" ref="ES5:ES36" si="0">SUM(EH5:EO5)</f>
         <v>1</v>
       </c>
-      <c r="EU5" s="52"/>
-      <c r="EX5" t="s">
+      <c r="ET5" s="52"/>
+      <c r="EW5" t="s">
         <v>300</v>
       </c>
-      <c r="GE5" t="s">
+      <c r="GD5" t="s">
         <v>242</v>
       </c>
-      <c r="GP5" t="s">
+      <c r="GO5" t="s">
         <v>279</v>
       </c>
-      <c r="GU5" t="s">
+      <c r="GT5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:242" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:241" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -23543,9 +25257,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="EU6" s="52"/>
-    </row>
-    <row r="7" spans="1:242" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="ET6" s="52"/>
+    </row>
+    <row r="7" spans="1:241" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -23905,22 +25619,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="EU7" s="52"/>
-      <c r="GE7" t="s">
+      <c r="ET7" s="52"/>
+      <c r="GD7" t="s">
         <v>243</v>
       </c>
-      <c r="GG7" t="s">
+      <c r="GF7" t="s">
         <v>247</v>
       </c>
-      <c r="GP7" t="s">
+      <c r="GO7" t="s">
         <v>280</v>
       </c>
-      <c r="GU7" s="2" t="s">
+      <c r="GT7" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="GV7" s="2"/>
-    </row>
-    <row r="8" spans="1:242" ht="17" x14ac:dyDescent="0.2">
+      <c r="GU7" s="2"/>
+    </row>
+    <row r="8" spans="1:241" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -24280,15 +25994,15 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="EU8" s="52"/>
-      <c r="GG8" t="s">
+      <c r="ET8" s="52"/>
+      <c r="GF8" t="s">
         <v>251</v>
       </c>
-      <c r="GP8" t="s">
+      <c r="GO8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -24645,18 +26359,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="EU9" s="52"/>
-      <c r="GE9" t="s">
+      <c r="ET9" s="52"/>
+      <c r="GD9" t="s">
         <v>244</v>
       </c>
-      <c r="GG9" t="s">
+      <c r="GF9" t="s">
         <v>249</v>
       </c>
-      <c r="GP9" t="s">
+      <c r="GO9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -25016,18 +26730,18 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="EU10" s="52"/>
-      <c r="GE10" t="s">
+      <c r="ET10" s="52"/>
+      <c r="GD10" t="s">
         <v>245</v>
       </c>
-      <c r="GG10" t="s">
+      <c r="GF10" t="s">
         <v>248</v>
       </c>
-      <c r="GP10" t="s">
+      <c r="GO10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -25384,12 +27098,12 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="EU11" s="52"/>
-      <c r="GE11" t="s">
+      <c r="ET11" s="52"/>
+      <c r="GD11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -25749,15 +27463,15 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="EU12" s="52"/>
-      <c r="GG12" t="s">
+      <c r="ET12" s="52"/>
+      <c r="GF12" t="s">
         <v>250</v>
       </c>
-      <c r="GU12" t="s">
+      <c r="GT12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -26117,9 +27831,9 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="EU13" s="52"/>
-    </row>
-    <row r="14" spans="1:242" ht="17" x14ac:dyDescent="0.2">
+      <c r="ET13" s="52"/>
+    </row>
+    <row r="14" spans="1:241" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -26490,7 +28204,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -26848,11 +28562,11 @@
         <f t="shared" si="0"/>
         <v>386</v>
       </c>
-      <c r="EX15" t="s">
+      <c r="EW15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:242" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:241" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -27211,7 +28925,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -27570,7 +29284,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -27932,7 +29646,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -28294,7 +30008,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -28658,7 +30372,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -29016,7 +30730,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="22" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -29415,7 +31129,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="23" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -29785,11 +31499,11 @@
         <f t="shared" si="0"/>
         <v>948</v>
       </c>
-      <c r="EX23" s="11" t="s">
+      <c r="EW23" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:153" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -30148,11 +31862,11 @@
         <f t="shared" si="0"/>
         <v>968</v>
       </c>
-      <c r="EX24" t="s">
+      <c r="EW24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -30509,7 +32223,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -30865,11 +32579,11 @@
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="EX26" t="s">
+      <c r="EW26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -31228,11 +32942,11 @@
         <f t="shared" si="0"/>
         <v>1148</v>
       </c>
-      <c r="EX27" t="s">
+      <c r="EW27" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -31588,11 +33302,11 @@
         <f t="shared" si="0"/>
         <v>1328</v>
       </c>
-      <c r="EX28" t="s">
+      <c r="EW28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -31951,11 +33665,11 @@
         <f t="shared" si="0"/>
         <v>1448</v>
       </c>
-      <c r="EX29" t="s">
+      <c r="EW29" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -32341,11 +34055,11 @@
         <f t="shared" si="0"/>
         <v>1948</v>
       </c>
-      <c r="EX30" t="s">
+      <c r="EW30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>27</v>
       </c>
@@ -32734,7 +34448,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="32" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>28</v>
       </c>
@@ -33122,7 +34836,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="33" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>29</v>
       </c>
@@ -33504,7 +35218,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="34" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>30</v>
       </c>
@@ -33888,7 +35602,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="35" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -34270,7 +35984,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="36" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -34658,7 +36372,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="37" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -35045,7 +36759,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="38" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -35430,7 +37144,7 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="39" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -35812,7 +37526,7 @@
         <v>6428</v>
       </c>
     </row>
-    <row r="40" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>36</v>
       </c>
@@ -36237,11 +37951,11 @@
         <f t="shared" si="37"/>
         <v>6728</v>
       </c>
-      <c r="GE40" t="s">
+      <c r="GD40" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -36611,11 +38325,11 @@
         <f t="shared" si="37"/>
         <v>6808</v>
       </c>
-      <c r="GE41" t="s">
+      <c r="GD41" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -36971,14 +38685,14 @@
         <f t="shared" si="37"/>
         <v>6888</v>
       </c>
-      <c r="GE42" s="25" t="s">
+      <c r="GD42" s="25" t="s">
         <v>255</v>
       </c>
+      <c r="GE42" s="25"/>
       <c r="GF42" s="25"/>
       <c r="GG42" s="25"/>
-      <c r="GH42" s="25"/>
-    </row>
-    <row r="43" spans="1:191" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -37337,14 +39051,14 @@
         <f t="shared" si="37"/>
         <v>7008</v>
       </c>
-      <c r="GE43" t="s">
+      <c r="GD43" t="s">
         <v>256</v>
       </c>
-      <c r="GI43" t="s">
+      <c r="GH43" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -37700,11 +39414,11 @@
         <f t="shared" si="37"/>
         <v>7128</v>
       </c>
-      <c r="GE44" t="s">
+      <c r="GD44" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -38064,7 +39778,7 @@
         <v>7608</v>
       </c>
     </row>
-    <row r="46" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -38424,7 +40138,7 @@
         <v>8328</v>
       </c>
     </row>
-    <row r="47" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -38781,7 +40495,7 @@
         <v>8808</v>
       </c>
     </row>
-    <row r="48" spans="1:191" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -39141,7 +40855,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="49" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -39503,7 +41217,7 @@
         <v>13208</v>
       </c>
     </row>
-    <row r="50" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -39863,7 +41577,7 @@
         <v>16648</v>
       </c>
     </row>
-    <row r="51" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -40225,14 +41939,14 @@
         <f t="shared" si="37"/>
         <v>17128</v>
       </c>
-      <c r="GE51" s="26" t="s">
+      <c r="GD51" s="26" t="s">
         <v>268</v>
       </c>
+      <c r="GE51" s="26"/>
       <c r="GF51" s="26"/>
       <c r="GG51" s="26"/>
-      <c r="GH51" s="26"/>
-    </row>
-    <row r="52" spans="1:190" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -40591,11 +42305,11 @@
         <f t="shared" si="37"/>
         <v>17848</v>
       </c>
-      <c r="GE52" t="s">
+      <c r="GD52" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>49</v>
       </c>
@@ -40954,11 +42668,11 @@
         <f t="shared" si="37"/>
         <v>18018</v>
       </c>
-      <c r="GE53" t="s">
+      <c r="GD53" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>50</v>
       </c>
@@ -41318,7 +43032,7 @@
         <v>19468</v>
       </c>
     </row>
-    <row r="55" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>51</v>
       </c>
@@ -41681,7 +43395,7 @@
         <v>22408</v>
       </c>
     </row>
-    <row r="56" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>52</v>
       </c>
@@ -42041,7 +43755,7 @@
         <v>26148</v>
       </c>
     </row>
-    <row r="57" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>53</v>
       </c>
@@ -42400,11 +44114,11 @@
         <f t="shared" si="37"/>
         <v>27168</v>
       </c>
-      <c r="GE57" t="s">
+      <c r="GD57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>54</v>
       </c>
@@ -42803,7 +44517,7 @@
         <v>28188</v>
       </c>
     </row>
-    <row r="59" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A59" s="40">
         <v>55</v>
       </c>
@@ -43174,7 +44888,7 @@
         <v>28418</v>
       </c>
     </row>
-    <row r="60" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A60" s="40">
         <v>56</v>
       </c>
@@ -43534,7 +45248,7 @@
         <v>28648</v>
       </c>
     </row>
-    <row r="61" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>57</v>
       </c>
@@ -43894,7 +45608,7 @@
         <v>30028</v>
       </c>
     </row>
-    <row r="62" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>58</v>
       </c>
@@ -44258,11 +45972,11 @@
         <f t="shared" si="37"/>
         <v>35088</v>
       </c>
-      <c r="GE62" t="s">
+      <c r="GD62" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>59</v>
       </c>
@@ -44621,11 +46335,11 @@
         <f t="shared" si="37"/>
         <v>40148</v>
       </c>
-      <c r="GE63" t="s">
+      <c r="GD63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:190" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:189" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="40">
         <v>60</v>
       </c>
@@ -45023,7 +46737,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="65" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="V65" s="7"/>
@@ -45048,11 +46762,11 @@
       <c r="EL65" s="7"/>
       <c r="EM65" s="7"/>
       <c r="EN65" s="7"/>
-      <c r="GE65" t="s">
+      <c r="GD65" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="V66" s="7"/>
@@ -45074,7 +46788,7 @@
       <c r="EM66" s="7"/>
       <c r="EN66" s="7"/>
     </row>
-    <row r="67" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="V67" s="7"/>
@@ -45096,7 +46810,7 @@
       <c r="EM67" s="7"/>
       <c r="EN67" s="7"/>
     </row>
-    <row r="68" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="V68" s="7"/>
@@ -45124,11 +46838,11 @@
       <c r="EL68" s="7"/>
       <c r="EM68" s="7"/>
       <c r="EN68" s="7"/>
-      <c r="GE68" t="s">
+      <c r="GD68" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="BE69" t="s">
@@ -45137,11 +46851,11 @@
       <c r="BF69">
         <v>3</v>
       </c>
-      <c r="GE69" t="s">
+      <c r="GD69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="BE70" t="s">
@@ -45151,7 +46865,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="71" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="BE71" t="s">
@@ -45163,7 +46877,7 @@
       </c>
       <c r="EA71" s="1"/>
     </row>
-    <row r="72" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="DY72" s="1"/>
@@ -45172,7 +46886,7 @@
       </c>
       <c r="EA72" s="1"/>
     </row>
-    <row r="73" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="DY73" s="1"/>
@@ -45181,7 +46895,7 @@
       </c>
       <c r="EA73" s="1"/>
     </row>
-    <row r="74" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="BE74" t="s">
@@ -45193,7 +46907,7 @@
       </c>
       <c r="EA74" s="1"/>
     </row>
-    <row r="75" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="BF75">
@@ -45204,7 +46918,7 @@
       <c r="DZ75" s="1"/>
       <c r="EA75" s="1"/>
     </row>
-    <row r="76" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="X76" t="s">
@@ -45229,7 +46943,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="BE77" t="s">
@@ -45255,15 +46969,15 @@
         <v>246.02437177280552</v>
       </c>
     </row>
-    <row r="78" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:187" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:186" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
     </row>
@@ -45343,17 +47057,17 @@
     <mergeCell ref="CH23:CH40"/>
     <mergeCell ref="CH41:CH58"/>
     <mergeCell ref="CH59:CH64"/>
-    <mergeCell ref="HE3:HG3"/>
-    <mergeCell ref="HJ3:HL3"/>
-    <mergeCell ref="HN3:HP3"/>
-    <mergeCell ref="HR3:HT3"/>
+    <mergeCell ref="HD3:HF3"/>
+    <mergeCell ref="HI3:HK3"/>
+    <mergeCell ref="HM3:HO3"/>
+    <mergeCell ref="HQ3:HS3"/>
     <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="CQ3:CX3"/>
-    <mergeCell ref="IA3:IC3"/>
-    <mergeCell ref="IF3:IH3"/>
-    <mergeCell ref="HA3:HC3"/>
+    <mergeCell ref="HZ3:IB3"/>
+    <mergeCell ref="IE3:IG3"/>
+    <mergeCell ref="GZ3:HB3"/>
     <mergeCell ref="I41:I58"/>
-    <mergeCell ref="HV3:HX3"/>
+    <mergeCell ref="HU3:HW3"/>
     <mergeCell ref="DN5:DN22"/>
     <mergeCell ref="DN23:DN40"/>
     <mergeCell ref="DN41:DN58"/>
@@ -45377,8 +47091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F968AD9-6F4F-8C40-9B05-E564DA362BDB}">
   <dimension ref="A1:S800"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58231,8 +59945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A8B60-FF78-F14F-B548-B7C2DFDD14B0}">
   <dimension ref="A4:AF63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:M28"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60476,8 +62190,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O426"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
@@ -70017,7 +71731,7 @@
   <dimension ref="A2:R79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70113,11 +71827,11 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:E5" si="2">D11*$R$8</f>
-        <v>72000</v>
+        <v>84000</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="F5" s="1">
         <f>F11*$R$8</f>
@@ -70165,10 +71879,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
@@ -70209,11 +71923,11 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ref="D10:F10" si="3">D6*$N$3+D7*$N$4+D8*$N$5</f>
-        <v>72000</v>
+        <v>84000</v>
       </c>
       <c r="E10" s="1">
         <f>E6*$N$3+E7*$N$4+E8*$N$5</f>
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
@@ -70230,11 +71944,11 @@
       </c>
       <c r="D11" s="81">
         <f t="shared" ref="D11:F11" si="4">D10/$R$3</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E11" s="81">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="81">
         <f t="shared" si="4"/>
@@ -70296,13 +72010,16 @@
         <v>2</v>
       </c>
 